--- a/data/Designs/Designs_masterfile.xlsx
+++ b/data/Designs/Designs_masterfile.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HOL428\Documents\GitHub\SynbioML\data\Designs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA80D61F-19DB-4EEB-B7AF-1E413AB365B3}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC4BAA86-CF1F-475F-8B95-C2C7D2B0EF0D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sequences" sheetId="1" r:id="rId1"/>
@@ -1794,8 +1794,8 @@
   </sheetPr>
   <dimension ref="A1:E193"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A168" workbookViewId="0">
-      <selection activeCell="F177" sqref="F177"/>
+    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
+      <selection activeCell="B118" sqref="B118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -3000,7 +3000,7 @@
         <v>233</v>
       </c>
       <c r="C67" s="1" t="str">
-        <f t="shared" ref="C67:C130" si="1">MID(B67,8,6)</f>
+        <f t="shared" ref="C67:C97" si="1">MID(B67,8,6)</f>
         <v>TCACTT</v>
       </c>
       <c r="D67" t="s">
@@ -4860,7 +4860,7 @@
         <v>314</v>
       </c>
       <c r="C172" s="1" t="str">
-        <f>MID(B172,8,6)</f>
+        <f t="shared" ref="C172:C185" si="4">MID(B172,8,6)</f>
         <v>CAAGCC</v>
       </c>
       <c r="D172" t="s">
@@ -4878,7 +4878,7 @@
         <v>316</v>
       </c>
       <c r="C173" s="1" t="str">
-        <f>MID(B173,8,6)</f>
+        <f t="shared" si="4"/>
         <v>CAATTG</v>
       </c>
       <c r="D173" t="s">
@@ -4896,7 +4896,7 @@
         <v>318</v>
       </c>
       <c r="C174" s="1" t="str">
-        <f>MID(B174,8,6)</f>
+        <f t="shared" si="4"/>
         <v>TATTTT</v>
       </c>
       <c r="D174" t="s">
@@ -4914,7 +4914,7 @@
         <v>320</v>
       </c>
       <c r="C175" s="1" t="str">
-        <f>MID(B175,8,6)</f>
+        <f t="shared" si="4"/>
         <v>TCCGGC</v>
       </c>
       <c r="D175" t="s">
@@ -4932,7 +4932,7 @@
         <v>322</v>
       </c>
       <c r="C176" s="1" t="str">
-        <f>MID(B176,8,6)</f>
+        <f t="shared" si="4"/>
         <v>TGGGAG</v>
       </c>
       <c r="D176" t="s">
@@ -4950,7 +4950,7 @@
         <v>324</v>
       </c>
       <c r="C177" s="1" t="str">
-        <f>MID(B177,8,6)</f>
+        <f t="shared" si="4"/>
         <v>AAAGTG</v>
       </c>
       <c r="D177" t="s">
@@ -4968,7 +4968,7 @@
         <v>326</v>
       </c>
       <c r="C178" s="1" t="str">
-        <f>MID(B178,8,6)</f>
+        <f t="shared" si="4"/>
         <v>CGGGAG</v>
       </c>
       <c r="D178" t="s">
@@ -4986,7 +4986,7 @@
         <v>328</v>
       </c>
       <c r="C179" s="1" t="str">
-        <f>MID(B179,8,6)</f>
+        <f t="shared" si="4"/>
         <v>TAAGAG</v>
       </c>
       <c r="D179" t="s">
@@ -5004,7 +5004,7 @@
         <v>330</v>
       </c>
       <c r="C180" s="1" t="str">
-        <f>MID(B180,8,6)</f>
+        <f t="shared" si="4"/>
         <v>TAAGGG</v>
       </c>
       <c r="D180" t="s">
@@ -5022,7 +5022,7 @@
         <v>332</v>
       </c>
       <c r="C181" s="1" t="str">
-        <f>MID(B181,8,6)</f>
+        <f t="shared" si="4"/>
         <v>TAGTCT</v>
       </c>
       <c r="D181" t="s">
@@ -5040,7 +5040,7 @@
         <v>334</v>
       </c>
       <c r="C182" s="1" t="str">
-        <f>MID(B182,8,6)</f>
+        <f t="shared" si="4"/>
         <v>AAGTAG</v>
       </c>
       <c r="D182" t="s">
@@ -5058,7 +5058,7 @@
         <v>336</v>
       </c>
       <c r="C183" s="1" t="str">
-        <f>MID(B183,8,6)</f>
+        <f t="shared" si="4"/>
         <v>CCACGC</v>
       </c>
       <c r="D183" t="s">
@@ -5076,7 +5076,7 @@
         <v>338</v>
       </c>
       <c r="C184" s="1" t="str">
-        <f>MID(B184,8,6)</f>
+        <f t="shared" si="4"/>
         <v>GTAATG</v>
       </c>
       <c r="D184" t="s">
@@ -5094,7 +5094,7 @@
         <v>340</v>
       </c>
       <c r="C185" s="1" t="str">
-        <f>MID(B185,8,6)</f>
+        <f t="shared" si="4"/>
         <v>CATTGA</v>
       </c>
       <c r="D185" t="s">

--- a/data/Designs/Designs_masterfile.xlsx
+++ b/data/Designs/Designs_masterfile.xlsx
@@ -1,26 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HOL428\Documents\GitHub\SynbioML\data\Designs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HOL428\Documents\GitHub\SynBioMLMH\SynbioML\data\Designs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC4BAA86-CF1F-475F-8B95-C2C7D2B0EF0D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D579FF9-B760-4895-A075-7981D3B5D6FA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19090" yWindow="-3570" windowWidth="25820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sequences" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -28,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="739" uniqueCount="461">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1182" uniqueCount="733">
   <si>
     <t>tttaagaaggagatatacat</t>
   </si>
@@ -1411,6 +1413,822 @@
   </si>
   <si>
     <t>TTTAAGATTTTTTTATACAT</t>
+  </si>
+  <si>
+    <t>RBS_BA_3385</t>
+  </si>
+  <si>
+    <t>TTTAAGATGCTATTATACAT</t>
+  </si>
+  <si>
+    <t>TGCTAT</t>
+  </si>
+  <si>
+    <t>Third_Plate</t>
+  </si>
+  <si>
+    <t>RBS_BA_3387</t>
+  </si>
+  <si>
+    <t>TTTAAGATGCTGGTATACAT</t>
+  </si>
+  <si>
+    <t>TGCTGG</t>
+  </si>
+  <si>
+    <t>RBS_BA_1534</t>
+  </si>
+  <si>
+    <t>TTTAAGAGCGAATTATACAT</t>
+  </si>
+  <si>
+    <t>GCGAAT</t>
+  </si>
+  <si>
+    <t>RBS_BA_1896</t>
+  </si>
+  <si>
+    <t>TTTAAGAGTCTATTATACAT</t>
+  </si>
+  <si>
+    <t>GTCTAT</t>
+  </si>
+  <si>
+    <t>RBS_BA_2393</t>
+  </si>
+  <si>
+    <t>TTTAAGACGCTATTATACAT</t>
+  </si>
+  <si>
+    <t>CGCTAT</t>
+  </si>
+  <si>
+    <t>RBS_BA_3384</t>
+  </si>
+  <si>
+    <t>TTTAAGATGCTACTATACAT</t>
+  </si>
+  <si>
+    <t>TGCTAC</t>
+  </si>
+  <si>
+    <t>RBS_BA_1582</t>
+  </si>
+  <si>
+    <t>TTTAAGAGCGTATTATACAT</t>
+  </si>
+  <si>
+    <t>GCGTAT</t>
+  </si>
+  <si>
+    <t>RBS_BA_1584</t>
+  </si>
+  <si>
+    <t>TTTAAGAGCGTGGTATACAT</t>
+  </si>
+  <si>
+    <t>GCGTGG</t>
+  </si>
+  <si>
+    <t>RBS_BA_1707</t>
+  </si>
+  <si>
+    <t>TTTAAGAGCTTATTATACAT</t>
+  </si>
+  <si>
+    <t>GCTTAT</t>
+  </si>
+  <si>
+    <t>RBS_BA_3389</t>
+  </si>
+  <si>
+    <t>TTTAAGATGCTGTTATACAT</t>
+  </si>
+  <si>
+    <t>TGCTGT</t>
+  </si>
+  <si>
+    <t>RBS_BA_3357</t>
+  </si>
+  <si>
+    <t>TTTAAGATGCGGTTATACAT</t>
+  </si>
+  <si>
+    <t>TGCGGT</t>
+  </si>
+  <si>
+    <t>RBS_BA_3321</t>
+  </si>
+  <si>
+    <t>TTTAAGATGGTATTATACAT</t>
+  </si>
+  <si>
+    <t>TGGTAT</t>
+  </si>
+  <si>
+    <t>RBS_BA_1393</t>
+  </si>
+  <si>
+    <t>TTTAAGAGGCTATTATACAT</t>
+  </si>
+  <si>
+    <t>GGCTAT</t>
+  </si>
+  <si>
+    <t>RBS_BA_1898</t>
+  </si>
+  <si>
+    <t>TTTAAGAGTCTGGTATACAT</t>
+  </si>
+  <si>
+    <t>GTCTGG</t>
+  </si>
+  <si>
+    <t>RBS_BA_3337</t>
+  </si>
+  <si>
+    <t>TTTAAGATGCAATTATACAT</t>
+  </si>
+  <si>
+    <t>TGCAAT</t>
+  </si>
+  <si>
+    <t>RBS_BA_1566</t>
+  </si>
+  <si>
+    <t>TTTAAGAGCGCATTATACAT</t>
+  </si>
+  <si>
+    <t>GCGCAT</t>
+  </si>
+  <si>
+    <t>RBS_BA_1540</t>
+  </si>
+  <si>
+    <t>TTTAAGAGCGACGTATACAT</t>
+  </si>
+  <si>
+    <t>GCGACG</t>
+  </si>
+  <si>
+    <t>RBS_BA_1709</t>
+  </si>
+  <si>
+    <t>TTTAAGAGCTTGGTATACAT</t>
+  </si>
+  <si>
+    <t>GCTTGG</t>
+  </si>
+  <si>
+    <t>RBS_BA_2395</t>
+  </si>
+  <si>
+    <t>TTTAAGACGCTGGTATACAT</t>
+  </si>
+  <si>
+    <t>CGCTGG</t>
+  </si>
+  <si>
+    <t>RBS_BA_1691</t>
+  </si>
+  <si>
+    <t>TTTAAGAGCTCATTATACAT</t>
+  </si>
+  <si>
+    <t>GCTCAT</t>
+  </si>
+  <si>
+    <t>RBS_BA_1532</t>
+  </si>
+  <si>
+    <t>TTTAAGAGCGAAGTATACAT</t>
+  </si>
+  <si>
+    <t>GCGAAG</t>
+  </si>
+  <si>
+    <t>RBS_BA_1895</t>
+  </si>
+  <si>
+    <t>TTTAAGAGTCTACTATACAT</t>
+  </si>
+  <si>
+    <t>GTCTAC</t>
+  </si>
+  <si>
+    <t>RBS_BA_1660</t>
+  </si>
+  <si>
+    <t>TTTAAGAGCTAATTATACAT</t>
+  </si>
+  <si>
+    <t>GCTAAT</t>
+  </si>
+  <si>
+    <t>RBS_BA_1518</t>
+  </si>
+  <si>
+    <t>TTTAAGAGCATATTATACAT</t>
+  </si>
+  <si>
+    <t>GCATAT</t>
+  </si>
+  <si>
+    <t>RBS_BA_1644</t>
+  </si>
+  <si>
+    <t>TTTAAGAGCCTATTATACAT</t>
+  </si>
+  <si>
+    <t>GCCTAT</t>
+  </si>
+  <si>
+    <t>RBS_BA_2397</t>
+  </si>
+  <si>
+    <t>TTTAAGACGCTGTTATACAT</t>
+  </si>
+  <si>
+    <t>CGCTGT</t>
+  </si>
+  <si>
+    <t>RBS_BA_3323</t>
+  </si>
+  <si>
+    <t>TTTAAGATGGTGGTATACAT</t>
+  </si>
+  <si>
+    <t>TGGTGG</t>
+  </si>
+  <si>
+    <t>RBS_BA_1679</t>
+  </si>
+  <si>
+    <t>TTTAAGAGCTGGTTATACAT</t>
+  </si>
+  <si>
+    <t>GCTGGT</t>
+  </si>
+  <si>
+    <t>RBS_BA_175</t>
+  </si>
+  <si>
+    <t>TTTAAGAAACTATTATACAT</t>
+  </si>
+  <si>
+    <t>AACTAT</t>
+  </si>
+  <si>
+    <t>RBS_BA_2392</t>
+  </si>
+  <si>
+    <t>TTTAAGACGCTACTATACAT</t>
+  </si>
+  <si>
+    <t>CGCTAC</t>
+  </si>
+  <si>
+    <t>RBS_BA_557</t>
+  </si>
+  <si>
+    <t>TTTAAGAACGAATTATACAT</t>
+  </si>
+  <si>
+    <t>ACGAAT</t>
+  </si>
+  <si>
+    <t>RBS_BA_1520</t>
+  </si>
+  <si>
+    <t>TTTAAGAGCATGGTATACAT</t>
+  </si>
+  <si>
+    <t>GCATGG</t>
+  </si>
+  <si>
+    <t>RBS_BA_3888</t>
+  </si>
+  <si>
+    <t>TTTAAGATTCTATTATACAT</t>
+  </si>
+  <si>
+    <t>TTCTAT</t>
+  </si>
+  <si>
+    <t>RBS_BA_1581</t>
+  </si>
+  <si>
+    <t>TTTAAGAGCGTACTATACAT</t>
+  </si>
+  <si>
+    <t>GCGTAC</t>
+  </si>
+  <si>
+    <t>RBS_BA_3394</t>
+  </si>
+  <si>
+    <t>TTTAAGATGCTTATATACAT</t>
+  </si>
+  <si>
+    <t>TGCTTA</t>
+  </si>
+  <si>
+    <t>RBS_BA_1711</t>
+  </si>
+  <si>
+    <t>TTTAAGAGCTTGTTATACAT</t>
+  </si>
+  <si>
+    <t>GCTTGT</t>
+  </si>
+  <si>
+    <t>RBS_BA_1395</t>
+  </si>
+  <si>
+    <t>TTTAAGAGGCTGGTATACAT</t>
+  </si>
+  <si>
+    <t>GGCTGG</t>
+  </si>
+  <si>
+    <t>RBS_BA_2365</t>
+  </si>
+  <si>
+    <t>TTTAAGACGCGGTTATACAT</t>
+  </si>
+  <si>
+    <t>CGCGGT</t>
+  </si>
+  <si>
+    <t>RBS_BA_3353</t>
+  </si>
+  <si>
+    <t>TTTAAGATGCGATTATACAT</t>
+  </si>
+  <si>
+    <t>TGCGAT</t>
+  </si>
+  <si>
+    <t>RBS_BA_3275</t>
+  </si>
+  <si>
+    <t>TTTAAGATGGAATTATACAT</t>
+  </si>
+  <si>
+    <t>TGGAAT</t>
+  </si>
+  <si>
+    <t>RBS_BA_1900</t>
+  </si>
+  <si>
+    <t>TTTAAGAGTCTGTTATACAT</t>
+  </si>
+  <si>
+    <t>GTCTGT</t>
+  </si>
+  <si>
+    <t>RBS_BA_2888</t>
+  </si>
+  <si>
+    <t>TTTAAGACTCTATTATACAT</t>
+  </si>
+  <si>
+    <t>CTCTAT</t>
+  </si>
+  <si>
+    <t>RBS_BA_3383</t>
+  </si>
+  <si>
+    <t>TTTAAGATGCTAGTATACAT</t>
+  </si>
+  <si>
+    <t>TGCTAG</t>
+  </si>
+  <si>
+    <t>RBS_BA_1848</t>
+  </si>
+  <si>
+    <t>TTTAAGAGTCAATTATACAT</t>
+  </si>
+  <si>
+    <t>GTCAAT</t>
+  </si>
+  <si>
+    <t>RBS_BA_2329</t>
+  </si>
+  <si>
+    <t>TTTAAGACGGTATTATACAT</t>
+  </si>
+  <si>
+    <t>CGGTAT</t>
+  </si>
+  <si>
+    <t>RBS_BA_1572</t>
+  </si>
+  <si>
+    <t>TTTAAGAGCGCCGTATACAT</t>
+  </si>
+  <si>
+    <t>GCGCCG</t>
+  </si>
+  <si>
+    <t>RBS_BA_3320</t>
+  </si>
+  <si>
+    <t>TTTAAGATGGTACTATACAT</t>
+  </si>
+  <si>
+    <t>TGGTAC</t>
+  </si>
+  <si>
+    <t>RBS_BA_3391</t>
+  </si>
+  <si>
+    <t>TTTAAGATGCTCGTATACAT</t>
+  </si>
+  <si>
+    <t>TGCTCG</t>
+  </si>
+  <si>
+    <t>RBS_BA_3305</t>
+  </si>
+  <si>
+    <t>TTTAAGATGGCATTATACAT</t>
+  </si>
+  <si>
+    <t>TGGCAT</t>
+  </si>
+  <si>
+    <t>RBS_BA_1689</t>
+  </si>
+  <si>
+    <t>TTTAAGAGCTCAGTATACAT</t>
+  </si>
+  <si>
+    <t>GCTCAG</t>
+  </si>
+  <si>
+    <t>RBS_BA_1868</t>
+  </si>
+  <si>
+    <t>TTTAAGAGTCGGTTATACAT</t>
+  </si>
+  <si>
+    <t>GTCGGT</t>
+  </si>
+  <si>
+    <t>RBS_BA_1586</t>
+  </si>
+  <si>
+    <t>TTTAAGAGCGTGTTATACAT</t>
+  </si>
+  <si>
+    <t>GCGTGT</t>
+  </si>
+  <si>
+    <t>RBS_BA_3259</t>
+  </si>
+  <si>
+    <t>TTTAAGATGATATTATACAT</t>
+  </si>
+  <si>
+    <t>TGATAT</t>
+  </si>
+  <si>
+    <t>RBS_BA_1392</t>
+  </si>
+  <si>
+    <t>TTTAAGAGGCTACTATACAT</t>
+  </si>
+  <si>
+    <t>GGCTAC</t>
+  </si>
+  <si>
+    <t>RBS_BA_1665</t>
+  </si>
+  <si>
+    <t>TTTAAGAGCTACGTATACAT</t>
+  </si>
+  <si>
+    <t>GCTACG</t>
+  </si>
+  <si>
+    <t>RBS_BA_1533</t>
+  </si>
+  <si>
+    <t>TTTAAGAGCGAACTATACAT</t>
+  </si>
+  <si>
+    <t>GCGAAC</t>
+  </si>
+  <si>
+    <t>RBS_BA_3388</t>
+  </si>
+  <si>
+    <t>TTTAAGATGCTGCTATACAT</t>
+  </si>
+  <si>
+    <t>TGCTGC</t>
+  </si>
+  <si>
+    <t>RBS_BA_1550</t>
+  </si>
+  <si>
+    <t>TTTAAGAGCGGATTATACAT</t>
+  </si>
+  <si>
+    <t>GCGGAT</t>
+  </si>
+  <si>
+    <t>RBS_BA_604</t>
+  </si>
+  <si>
+    <t>TTTAAGAACGTATTATACAT</t>
+  </si>
+  <si>
+    <t>ACGTAT</t>
+  </si>
+  <si>
+    <t>RBS_BA_3351</t>
+  </si>
+  <si>
+    <t>TTTAAGATGCGAGTATACAT</t>
+  </si>
+  <si>
+    <t>TGCGAG</t>
+  </si>
+  <si>
+    <t>RBS_BA_1706</t>
+  </si>
+  <si>
+    <t>TTTAAGAGCTTACTATACAT</t>
+  </si>
+  <si>
+    <t>GCTTAC</t>
+  </si>
+  <si>
+    <t>RBS_BA_3261</t>
+  </si>
+  <si>
+    <t>TTTAAGATGATGGTATACAT</t>
+  </si>
+  <si>
+    <t>TGATGG</t>
+  </si>
+  <si>
+    <t>RBS_BA_3335</t>
+  </si>
+  <si>
+    <t>TTTAAGATGCAAGTATACAT</t>
+  </si>
+  <si>
+    <t>TGCAAG</t>
+  </si>
+  <si>
+    <t>RBS_BA_1697</t>
+  </si>
+  <si>
+    <t>TTTAAGAGCTCCGTATACAT</t>
+  </si>
+  <si>
+    <t>GCTCCG</t>
+  </si>
+  <si>
+    <t>RBS_BA_1591</t>
+  </si>
+  <si>
+    <t>TTTAAGAGCGTTATATACAT</t>
+  </si>
+  <si>
+    <t>GCGTTA</t>
+  </si>
+  <si>
+    <t>RBS_BA_3448</t>
+  </si>
+  <si>
+    <t>TTTAAGATGTTATTATACAT</t>
+  </si>
+  <si>
+    <t>TGTTAT</t>
+  </si>
+  <si>
+    <t>RBS_BA_3293</t>
+  </si>
+  <si>
+    <t>TTTAAGATGGGGTTATACAT</t>
+  </si>
+  <si>
+    <t>TGGGGT</t>
+  </si>
+  <si>
+    <t>RBS_BA_1397</t>
+  </si>
+  <si>
+    <t>TTTAAGAGGCTGTTATACAT</t>
+  </si>
+  <si>
+    <t>GGCTGT</t>
+  </si>
+  <si>
+    <t>RBS_BA_1564</t>
+  </si>
+  <si>
+    <t>TTTAAGAGCGCAGTATACAT</t>
+  </si>
+  <si>
+    <t>GCGCAG</t>
+  </si>
+  <si>
+    <t>RBS_BA_1470</t>
+  </si>
+  <si>
+    <t>TTTAAGAGCAAATTATACAT</t>
+  </si>
+  <si>
+    <t>GCAAAT</t>
+  </si>
+  <si>
+    <t>RBS_BA_2145</t>
+  </si>
+  <si>
+    <t>TTTAAGACACTATTATACAT</t>
+  </si>
+  <si>
+    <t>CACTAT</t>
+  </si>
+  <si>
+    <t>RBS_BA_1646</t>
+  </si>
+  <si>
+    <t>TTTAAGAGCCTGGTATACAT</t>
+  </si>
+  <si>
+    <t>GCCTGG</t>
+  </si>
+  <si>
+    <t>RBS_BA_3355</t>
+  </si>
+  <si>
+    <t>TTTAAGATGCGGGTATACAT</t>
+  </si>
+  <si>
+    <t>TGCGGG</t>
+  </si>
+  <si>
+    <t>RBS_BA_2345</t>
+  </si>
+  <si>
+    <t>TTTAAGACGCAATTATACAT</t>
+  </si>
+  <si>
+    <t>CGCAAT</t>
+  </si>
+  <si>
+    <t>RBS_BA_3325</t>
+  </si>
+  <si>
+    <t>TTTAAGATGGTGTTATACAT</t>
+  </si>
+  <si>
+    <t>TGGTGT</t>
+  </si>
+  <si>
+    <t>RBS_BA_3280</t>
+  </si>
+  <si>
+    <t>TTTAAGATGGACGTATACAT</t>
+  </si>
+  <si>
+    <t>TGGACG</t>
+  </si>
+  <si>
+    <t>RBS_BA_1522</t>
+  </si>
+  <si>
+    <t>TTTAAGAGCATGTTATACAT</t>
+  </si>
+  <si>
+    <t>GCATGT</t>
+  </si>
+  <si>
+    <t>RBS_BA_1536</t>
+  </si>
+  <si>
+    <t>TTTAAGAGCGAGGTATACAT</t>
+  </si>
+  <si>
+    <t>GCGAGG</t>
+  </si>
+  <si>
+    <t>RBS_BA_2890</t>
+  </si>
+  <si>
+    <t>TTTAAGACTCTGGTATACAT</t>
+  </si>
+  <si>
+    <t>CTCTGG</t>
+  </si>
+  <si>
+    <t>RBS_BA_1693</t>
+  </si>
+  <si>
+    <t>TTTAAGAGCTCGGTATACAT</t>
+  </si>
+  <si>
+    <t>GCTCGG</t>
+  </si>
+  <si>
+    <t>RBS_BA_1365</t>
+  </si>
+  <si>
+    <t>TTTAAGAGGCGGTTATACAT</t>
+  </si>
+  <si>
+    <t>GGCGGT</t>
+  </si>
+  <si>
+    <t>RBS_BA_588</t>
+  </si>
+  <si>
+    <t>TTTAAGAACGCATTATACAT</t>
+  </si>
+  <si>
+    <t>ACGCAT</t>
+  </si>
+  <si>
+    <t>RBS_BA_1162</t>
+  </si>
+  <si>
+    <t>TTTAAGAGACTATTATACAT</t>
+  </si>
+  <si>
+    <t>GACTAT</t>
+  </si>
+  <si>
+    <t>RBS_BA_1517</t>
+  </si>
+  <si>
+    <t>TTTAAGAGCATACTATACAT</t>
+  </si>
+  <si>
+    <t>GCATAC</t>
+  </si>
+  <si>
+    <t>RBS_BA_2084</t>
+  </si>
+  <si>
+    <t>TTTAAGACAGTGGTATACAT</t>
+  </si>
+  <si>
+    <t>CAGTGG</t>
+  </si>
+  <si>
+    <t>RBS_BA_1894</t>
+  </si>
+  <si>
+    <t>TTTAAGAGTCTAGTATACAT</t>
+  </si>
+  <si>
+    <t>GTCTAG</t>
+  </si>
+  <si>
+    <t>RBS_BA_1658</t>
+  </si>
+  <si>
+    <t>TTTAAGAGCTAAGTATACAT</t>
+  </si>
+  <si>
+    <t>GCTAAG</t>
+  </si>
+  <si>
+    <t>RBS_BA_1548</t>
+  </si>
+  <si>
+    <t>TTTAAGAGCGGAGTATACAT</t>
+  </si>
+  <si>
+    <t>GCGGAG</t>
+  </si>
+  <si>
+    <t>RBS_BA_2887</t>
+  </si>
+  <si>
+    <t>TTTAAGACTCTACTATACAT</t>
+  </si>
+  <si>
+    <t>CTCTAC</t>
+  </si>
+  <si>
+    <t>RBS_BA_3330</t>
+  </si>
+  <si>
+    <t>TTTAAGATGGTTATATACAT</t>
+  </si>
+  <si>
+    <t>TGGTTA</t>
+  </si>
+  <si>
+    <t>Round</t>
   </si>
 </sst>
 </file>
@@ -1465,7 +2283,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
@@ -1473,7 +2291,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -1792,10 +2609,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:E193"/>
+  <dimension ref="A1:F275"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
-      <selection activeCell="B118" sqref="B118"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -1805,7 +2622,7 @@
     <col min="4" max="4" width="23.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>122</v>
       </c>
@@ -1821,8 +2638,11 @@
       <c r="E1" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>61</v>
       </c>
@@ -1839,8 +2659,11 @@
       <c r="E2" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>62</v>
       </c>
@@ -1857,8 +2680,11 @@
       <c r="E3" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>63</v>
       </c>
@@ -1875,8 +2701,11 @@
       <c r="E4" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>64</v>
       </c>
@@ -1893,8 +2722,11 @@
       <c r="E5" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>65</v>
       </c>
@@ -1911,8 +2743,11 @@
       <c r="E6" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>66</v>
       </c>
@@ -1929,8 +2764,11 @@
       <c r="E7" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>67</v>
       </c>
@@ -1947,8 +2785,11 @@
       <c r="E8" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>68</v>
       </c>
@@ -1965,8 +2806,11 @@
       <c r="E9" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>69</v>
       </c>
@@ -1983,8 +2827,11 @@
       <c r="E10" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>70</v>
       </c>
@@ -2001,8 +2848,11 @@
       <c r="E11" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>71</v>
       </c>
@@ -2019,8 +2869,11 @@
       <c r="E12" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>72</v>
       </c>
@@ -2037,8 +2890,11 @@
       <c r="E13" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>73</v>
       </c>
@@ -2055,8 +2911,11 @@
       <c r="E14" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>74</v>
       </c>
@@ -2073,8 +2932,11 @@
       <c r="E15" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>75</v>
       </c>
@@ -2091,8 +2953,11 @@
       <c r="E16" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>76</v>
       </c>
@@ -2109,8 +2974,11 @@
       <c r="E17" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>77</v>
       </c>
@@ -2127,8 +2995,11 @@
       <c r="E18" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>78</v>
       </c>
@@ -2145,8 +3016,11 @@
       <c r="E19" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>79</v>
       </c>
@@ -2163,8 +3037,11 @@
       <c r="E20" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>80</v>
       </c>
@@ -2181,8 +3058,11 @@
       <c r="E21" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>81</v>
       </c>
@@ -2199,8 +3079,11 @@
       <c r="E22" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>82</v>
       </c>
@@ -2217,8 +3100,11 @@
       <c r="E23" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>83</v>
       </c>
@@ -2235,8 +3121,11 @@
       <c r="E24" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>84</v>
       </c>
@@ -2253,8 +3142,11 @@
       <c r="E25" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>85</v>
       </c>
@@ -2271,8 +3163,11 @@
       <c r="E26" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>86</v>
       </c>
@@ -2289,8 +3184,11 @@
       <c r="E27" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>87</v>
       </c>
@@ -2307,8 +3205,11 @@
       <c r="E28" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>88</v>
       </c>
@@ -2325,8 +3226,11 @@
       <c r="E29" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>89</v>
       </c>
@@ -2343,8 +3247,11 @@
       <c r="E30" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>90</v>
       </c>
@@ -2361,8 +3268,11 @@
       <c r="E31" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>91</v>
       </c>
@@ -2379,8 +3289,11 @@
       <c r="E32" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>92</v>
       </c>
@@ -2397,8 +3310,11 @@
       <c r="E33" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>93</v>
       </c>
@@ -2415,8 +3331,11 @@
       <c r="E34" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>94</v>
       </c>
@@ -2433,8 +3352,11 @@
       <c r="E35" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>95</v>
       </c>
@@ -2451,8 +3373,11 @@
       <c r="E36" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>96</v>
       </c>
@@ -2469,8 +3394,11 @@
       <c r="E37" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>97</v>
       </c>
@@ -2487,8 +3415,11 @@
       <c r="E38" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>98</v>
       </c>
@@ -2505,8 +3436,11 @@
       <c r="E39" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>99</v>
       </c>
@@ -2523,8 +3457,11 @@
       <c r="E40" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>100</v>
       </c>
@@ -2541,8 +3478,11 @@
       <c r="E41" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>101</v>
       </c>
@@ -2559,8 +3499,11 @@
       <c r="E42" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>102</v>
       </c>
@@ -2577,8 +3520,11 @@
       <c r="E43" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>103</v>
       </c>
@@ -2595,8 +3541,11 @@
       <c r="E44" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>104</v>
       </c>
@@ -2613,8 +3562,11 @@
       <c r="E45" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>105</v>
       </c>
@@ -2631,8 +3583,11 @@
       <c r="E46" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>106</v>
       </c>
@@ -2649,8 +3604,11 @@
       <c r="E47" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>107</v>
       </c>
@@ -2667,8 +3625,11 @@
       <c r="E48" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>108</v>
       </c>
@@ -2685,8 +3646,11 @@
       <c r="E49" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>109</v>
       </c>
@@ -2703,8 +3667,11 @@
       <c r="E50" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>110</v>
       </c>
@@ -2721,8 +3688,11 @@
       <c r="E51" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>111</v>
       </c>
@@ -2739,8 +3709,11 @@
       <c r="E52" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>112</v>
       </c>
@@ -2757,8 +3730,11 @@
       <c r="E53" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>113</v>
       </c>
@@ -2775,8 +3751,11 @@
       <c r="E54" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>114</v>
       </c>
@@ -2793,8 +3772,11 @@
       <c r="E55" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>115</v>
       </c>
@@ -2811,8 +3793,11 @@
       <c r="E56" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>116</v>
       </c>
@@ -2829,8 +3814,11 @@
       <c r="E57" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>117</v>
       </c>
@@ -2847,8 +3835,11 @@
       <c r="E58" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>118</v>
       </c>
@@ -2865,8 +3856,11 @@
       <c r="E59" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>119</v>
       </c>
@@ -2883,8 +3877,11 @@
       <c r="E60" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>120</v>
       </c>
@@ -2901,8 +3898,11 @@
       <c r="E61" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>121</v>
       </c>
@@ -2919,8 +3919,11 @@
       <c r="E62" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>224</v>
       </c>
@@ -2937,8 +3940,11 @@
       <c r="E63" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>226</v>
       </c>
@@ -2955,8 +3961,11 @@
       <c r="E64" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>228</v>
       </c>
@@ -2973,8 +3982,11 @@
       <c r="E65" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>230</v>
       </c>
@@ -2991,8 +4003,11 @@
       <c r="E66" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>232</v>
       </c>
@@ -3009,8 +4024,11 @@
       <c r="E67" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>234</v>
       </c>
@@ -3027,8 +4045,11 @@
       <c r="E68" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>236</v>
       </c>
@@ -3045,8 +4066,11 @@
       <c r="E69" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>238</v>
       </c>
@@ -3063,8 +4087,11 @@
       <c r="E70" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>240</v>
       </c>
@@ -3081,8 +4108,11 @@
       <c r="E71" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>242</v>
       </c>
@@ -3099,8 +4129,11 @@
       <c r="E72" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>244</v>
       </c>
@@ -3117,8 +4150,11 @@
       <c r="E73" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>246</v>
       </c>
@@ -3135,8 +4171,11 @@
       <c r="E74" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>248</v>
       </c>
@@ -3153,8 +4192,11 @@
       <c r="E75" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>250</v>
       </c>
@@ -3171,8 +4213,11 @@
       <c r="E76" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>252</v>
       </c>
@@ -3189,8 +4234,11 @@
       <c r="E77" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>254</v>
       </c>
@@ -3207,8 +4255,11 @@
       <c r="E78" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>256</v>
       </c>
@@ -3225,8 +4276,11 @@
       <c r="E79" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>258</v>
       </c>
@@ -3243,8 +4297,11 @@
       <c r="E80" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>260</v>
       </c>
@@ -3261,8 +4318,11 @@
       <c r="E81" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>262</v>
       </c>
@@ -3279,8 +4339,11 @@
       <c r="E82" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>264</v>
       </c>
@@ -3297,8 +4360,11 @@
       <c r="E83" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>266</v>
       </c>
@@ -3315,8 +4381,11 @@
       <c r="E84" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>268</v>
       </c>
@@ -3333,8 +4402,11 @@
       <c r="E85" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>270</v>
       </c>
@@ -3351,8 +4423,11 @@
       <c r="E86" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>272</v>
       </c>
@@ -3369,8 +4444,11 @@
       <c r="E87" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>274</v>
       </c>
@@ -3387,8 +4465,11 @@
       <c r="E88" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>276</v>
       </c>
@@ -3405,8 +4486,11 @@
       <c r="E89" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>278</v>
       </c>
@@ -3423,8 +4507,11 @@
       <c r="E90" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>280</v>
       </c>
@@ -3441,8 +4528,11 @@
       <c r="E91" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="4" t="s">
         <v>282</v>
       </c>
@@ -3459,8 +4549,11 @@
       <c r="E92" s="4" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C93" s="1" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -3471,8 +4564,11 @@
       <c r="E93" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C94" s="1" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -3483,8 +4579,11 @@
       <c r="E94" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C95" s="1" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -3495,8 +4594,11 @@
       <c r="E95" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C96" s="1" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -3507,8 +4609,11 @@
       <c r="E96" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C97" s="1" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -3519,8 +4624,11 @@
       <c r="E97" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>341</v>
       </c>
@@ -3537,8 +4645,11 @@
       <c r="E98" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>343</v>
       </c>
@@ -3555,8 +4666,11 @@
       <c r="E99" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>345</v>
       </c>
@@ -3573,8 +4687,11 @@
       <c r="E100" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>347</v>
       </c>
@@ -3591,8 +4708,11 @@
       <c r="E101" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>349</v>
       </c>
@@ -3609,8 +4729,11 @@
       <c r="E102" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>351</v>
       </c>
@@ -3627,8 +4750,11 @@
       <c r="E103" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>353</v>
       </c>
@@ -3645,8 +4771,11 @@
       <c r="E104" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>355</v>
       </c>
@@ -3663,8 +4792,11 @@
       <c r="E105" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>357</v>
       </c>
@@ -3681,8 +4813,11 @@
       <c r="E106" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>359</v>
       </c>
@@ -3699,8 +4834,11 @@
       <c r="E107" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>361</v>
       </c>
@@ -3717,8 +4855,11 @@
       <c r="E108" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>363</v>
       </c>
@@ -3735,8 +4876,11 @@
       <c r="E109" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>365</v>
       </c>
@@ -3753,8 +4897,11 @@
       <c r="E110" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>367</v>
       </c>
@@ -3771,8 +4918,11 @@
       <c r="E111" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>369</v>
       </c>
@@ -3789,8 +4939,11 @@
       <c r="E112" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>371</v>
       </c>
@@ -3807,8 +4960,11 @@
       <c r="E113" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>373</v>
       </c>
@@ -3825,8 +4981,11 @@
       <c r="E114" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>375</v>
       </c>
@@ -3843,8 +5002,11 @@
       <c r="E115" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>377</v>
       </c>
@@ -3861,8 +5023,11 @@
       <c r="E116" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>379</v>
       </c>
@@ -3879,8 +5044,11 @@
       <c r="E117" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>381</v>
       </c>
@@ -3897,8 +5065,11 @@
       <c r="E118" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>383</v>
       </c>
@@ -3915,8 +5086,11 @@
       <c r="E119" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>385</v>
       </c>
@@ -3933,8 +5107,11 @@
       <c r="E120" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>387</v>
       </c>
@@ -3951,8 +5128,11 @@
       <c r="E121" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>389</v>
       </c>
@@ -3969,8 +5149,11 @@
       <c r="E122" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>391</v>
       </c>
@@ -3987,8 +5170,11 @@
       <c r="E123" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>393</v>
       </c>
@@ -4005,8 +5191,11 @@
       <c r="E124" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>395</v>
       </c>
@@ -4023,8 +5212,11 @@
       <c r="E125" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>397</v>
       </c>
@@ -4041,8 +5233,11 @@
       <c r="E126" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>399</v>
       </c>
@@ -4059,8 +5254,11 @@
       <c r="E127" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>401</v>
       </c>
@@ -4077,8 +5275,11 @@
       <c r="E128" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>403</v>
       </c>
@@ -4095,8 +5296,11 @@
       <c r="E129" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>405</v>
       </c>
@@ -4113,8 +5317,11 @@
       <c r="E130" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>407</v>
       </c>
@@ -4131,8 +5338,11 @@
       <c r="E131" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>409</v>
       </c>
@@ -4149,8 +5359,11 @@
       <c r="E132" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>411</v>
       </c>
@@ -4167,8 +5380,11 @@
       <c r="E133" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>413</v>
       </c>
@@ -4185,8 +5401,11 @@
       <c r="E134" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>415</v>
       </c>
@@ -4203,8 +5422,11 @@
       <c r="E135" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>417</v>
       </c>
@@ -4221,8 +5443,11 @@
       <c r="E136" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>419</v>
       </c>
@@ -4239,8 +5464,11 @@
       <c r="E137" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>421</v>
       </c>
@@ -4257,8 +5485,11 @@
       <c r="E138" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>423</v>
       </c>
@@ -4275,8 +5506,11 @@
       <c r="E139" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>425</v>
       </c>
@@ -4293,8 +5527,11 @@
       <c r="E140" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>427</v>
       </c>
@@ -4311,8 +5548,11 @@
       <c r="E141" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>429</v>
       </c>
@@ -4329,8 +5569,11 @@
       <c r="E142" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>431</v>
       </c>
@@ -4347,8 +5590,11 @@
       <c r="E143" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>433</v>
       </c>
@@ -4365,8 +5611,11 @@
       <c r="E144" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>435</v>
       </c>
@@ -4383,8 +5632,11 @@
       <c r="E145" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>437</v>
       </c>
@@ -4401,8 +5653,11 @@
       <c r="E146" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>439</v>
       </c>
@@ -4419,8 +5674,11 @@
       <c r="E147" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>441</v>
       </c>
@@ -4437,8 +5695,11 @@
       <c r="E148" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>443</v>
       </c>
@@ -4455,8 +5716,11 @@
       <c r="E149" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>445</v>
       </c>
@@ -4473,8 +5737,11 @@
       <c r="E150" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>447</v>
       </c>
@@ -4491,8 +5758,11 @@
       <c r="E151" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>449</v>
       </c>
@@ -4509,8 +5779,11 @@
       <c r="E152" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F152">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>451</v>
       </c>
@@ -4527,8 +5800,11 @@
       <c r="E153" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>453</v>
       </c>
@@ -4545,8 +5821,11 @@
       <c r="E154" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F154">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>455</v>
       </c>
@@ -4563,8 +5842,11 @@
       <c r="E155" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F155">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>457</v>
       </c>
@@ -4581,8 +5863,11 @@
       <c r="E156" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>459</v>
       </c>
@@ -4599,8 +5884,11 @@
       <c r="E157" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>285</v>
       </c>
@@ -4617,8 +5905,11 @@
       <c r="E158" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>287</v>
       </c>
@@ -4635,8 +5926,11 @@
       <c r="E159" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F159">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>289</v>
       </c>
@@ -4653,8 +5947,11 @@
       <c r="E160" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F160">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>291</v>
       </c>
@@ -4671,8 +5968,11 @@
       <c r="E161" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F161">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>293</v>
       </c>
@@ -4689,8 +5989,11 @@
       <c r="E162" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F162">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>295</v>
       </c>
@@ -4707,8 +6010,11 @@
       <c r="E163" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F163">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>297</v>
       </c>
@@ -4725,8 +6031,11 @@
       <c r="E164" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F164">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>299</v>
       </c>
@@ -4743,8 +6052,11 @@
       <c r="E165" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F165">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>301</v>
       </c>
@@ -4761,8 +6073,11 @@
       <c r="E166" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F166">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>303</v>
       </c>
@@ -4779,8 +6094,11 @@
       <c r="E167" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F167">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>305</v>
       </c>
@@ -4797,8 +6115,11 @@
       <c r="E168" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F168">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>307</v>
       </c>
@@ -4815,8 +6136,11 @@
       <c r="E169" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F169">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>309</v>
       </c>
@@ -4833,8 +6157,11 @@
       <c r="E170" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F170">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>311</v>
       </c>
@@ -4851,8 +6178,11 @@
       <c r="E171" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F171">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>313</v>
       </c>
@@ -4866,11 +6196,14 @@
       <c r="D172" t="s">
         <v>284</v>
       </c>
-      <c r="E172" s="8" t="s">
+      <c r="E172" s="7" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F172">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>315</v>
       </c>
@@ -4887,8 +6220,11 @@
       <c r="E173" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F173">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>317</v>
       </c>
@@ -4905,8 +6241,11 @@
       <c r="E174" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F174">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>319</v>
       </c>
@@ -4923,8 +6262,11 @@
       <c r="E175" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F175">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>321</v>
       </c>
@@ -4941,8 +6283,11 @@
       <c r="E176" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F176">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>323</v>
       </c>
@@ -4959,8 +6304,11 @@
       <c r="E177" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F177">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>325</v>
       </c>
@@ -4977,8 +6325,11 @@
       <c r="E178" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F178">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>327</v>
       </c>
@@ -4995,8 +6346,11 @@
       <c r="E179" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F179">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>329</v>
       </c>
@@ -5013,8 +6367,11 @@
       <c r="E180" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F180">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>331</v>
       </c>
@@ -5031,8 +6388,11 @@
       <c r="E181" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F181">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>333</v>
       </c>
@@ -5049,8 +6409,11 @@
       <c r="E182" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F182">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>335</v>
       </c>
@@ -5067,8 +6430,11 @@
       <c r="E183" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F183">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>337</v>
       </c>
@@ -5082,11 +6448,14 @@
       <c r="D184" t="s">
         <v>284</v>
       </c>
-      <c r="E184" s="8" t="s">
+      <c r="E184" s="7" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F184">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>339</v>
       </c>
@@ -5103,69 +6472,1793 @@
       <c r="E185" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F185">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>461</v>
+      </c>
+      <c r="B186" t="s">
+        <v>462</v>
+      </c>
+      <c r="C186" t="s">
+        <v>463</v>
+      </c>
+      <c r="D186" t="s">
+        <v>464</v>
+      </c>
       <c r="E186" t="s">
+        <v>128</v>
+      </c>
+      <c r="F186">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>465</v>
+      </c>
+      <c r="B187" t="s">
+        <v>466</v>
+      </c>
+      <c r="C187" t="s">
+        <v>467</v>
+      </c>
+      <c r="D187" t="s">
+        <v>464</v>
+      </c>
+      <c r="E187" t="s">
+        <v>131</v>
+      </c>
+      <c r="F187">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>468</v>
+      </c>
+      <c r="B188" t="s">
+        <v>469</v>
+      </c>
+      <c r="C188" t="s">
+        <v>470</v>
+      </c>
+      <c r="D188" t="s">
+        <v>464</v>
+      </c>
+      <c r="E188" t="s">
+        <v>132</v>
+      </c>
+      <c r="F188">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>471</v>
+      </c>
+      <c r="B189" t="s">
+        <v>472</v>
+      </c>
+      <c r="C189" t="s">
+        <v>473</v>
+      </c>
+      <c r="D189" t="s">
+        <v>464</v>
+      </c>
+      <c r="E189" t="s">
+        <v>133</v>
+      </c>
+      <c r="F189">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>474</v>
+      </c>
+      <c r="B190" t="s">
+        <v>475</v>
+      </c>
+      <c r="C190" t="s">
+        <v>476</v>
+      </c>
+      <c r="D190" t="s">
+        <v>464</v>
+      </c>
+      <c r="E190" t="s">
+        <v>134</v>
+      </c>
+      <c r="F190">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>477</v>
+      </c>
+      <c r="B191" t="s">
+        <v>478</v>
+      </c>
+      <c r="C191" t="s">
+        <v>479</v>
+      </c>
+      <c r="D191" t="s">
+        <v>464</v>
+      </c>
+      <c r="E191" t="s">
+        <v>135</v>
+      </c>
+      <c r="F191">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>480</v>
+      </c>
+      <c r="B192" t="s">
+        <v>481</v>
+      </c>
+      <c r="C192" t="s">
+        <v>482</v>
+      </c>
+      <c r="D192" t="s">
+        <v>464</v>
+      </c>
+      <c r="E192" t="s">
+        <v>136</v>
+      </c>
+      <c r="F192">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>483</v>
+      </c>
+      <c r="B193" t="s">
+        <v>484</v>
+      </c>
+      <c r="C193" t="s">
+        <v>485</v>
+      </c>
+      <c r="D193" t="s">
+        <v>464</v>
+      </c>
+      <c r="E193" t="s">
+        <v>137</v>
+      </c>
+      <c r="F193">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>486</v>
+      </c>
+      <c r="B194" t="s">
+        <v>487</v>
+      </c>
+      <c r="C194" t="s">
+        <v>488</v>
+      </c>
+      <c r="D194" t="s">
+        <v>464</v>
+      </c>
+      <c r="E194" t="s">
+        <v>138</v>
+      </c>
+      <c r="F194">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>489</v>
+      </c>
+      <c r="B195" t="s">
+        <v>490</v>
+      </c>
+      <c r="C195" t="s">
+        <v>491</v>
+      </c>
+      <c r="D195" t="s">
+        <v>464</v>
+      </c>
+      <c r="E195" t="s">
+        <v>139</v>
+      </c>
+      <c r="F195">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>492</v>
+      </c>
+      <c r="B196" t="s">
+        <v>493</v>
+      </c>
+      <c r="C196" t="s">
+        <v>494</v>
+      </c>
+      <c r="D196" t="s">
+        <v>464</v>
+      </c>
+      <c r="E196" t="s">
+        <v>140</v>
+      </c>
+      <c r="F196">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>495</v>
+      </c>
+      <c r="B197" t="s">
+        <v>496</v>
+      </c>
+      <c r="C197" t="s">
+        <v>497</v>
+      </c>
+      <c r="D197" t="s">
+        <v>464</v>
+      </c>
+      <c r="E197" t="s">
+        <v>141</v>
+      </c>
+      <c r="F197">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>498</v>
+      </c>
+      <c r="B198" t="s">
+        <v>499</v>
+      </c>
+      <c r="C198" t="s">
+        <v>500</v>
+      </c>
+      <c r="D198" t="s">
+        <v>464</v>
+      </c>
+      <c r="E198" t="s">
+        <v>142</v>
+      </c>
+      <c r="F198">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>501</v>
+      </c>
+      <c r="B199" t="s">
+        <v>502</v>
+      </c>
+      <c r="C199" t="s">
+        <v>503</v>
+      </c>
+      <c r="D199" t="s">
+        <v>464</v>
+      </c>
+      <c r="E199" t="s">
+        <v>143</v>
+      </c>
+      <c r="F199">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>504</v>
+      </c>
+      <c r="B200" t="s">
+        <v>505</v>
+      </c>
+      <c r="C200" t="s">
+        <v>506</v>
+      </c>
+      <c r="D200" t="s">
+        <v>464</v>
+      </c>
+      <c r="E200" t="s">
+        <v>144</v>
+      </c>
+      <c r="F200">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>507</v>
+      </c>
+      <c r="B201" t="s">
+        <v>508</v>
+      </c>
+      <c r="C201" t="s">
+        <v>509</v>
+      </c>
+      <c r="D201" t="s">
+        <v>464</v>
+      </c>
+      <c r="E201" t="s">
+        <v>145</v>
+      </c>
+      <c r="F201">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>510</v>
+      </c>
+      <c r="B202" t="s">
+        <v>511</v>
+      </c>
+      <c r="C202" t="s">
+        <v>512</v>
+      </c>
+      <c r="D202" t="s">
+        <v>464</v>
+      </c>
+      <c r="E202" t="s">
+        <v>146</v>
+      </c>
+      <c r="F202">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>513</v>
+      </c>
+      <c r="B203" t="s">
+        <v>514</v>
+      </c>
+      <c r="C203" t="s">
+        <v>515</v>
+      </c>
+      <c r="D203" t="s">
+        <v>464</v>
+      </c>
+      <c r="E203" t="s">
+        <v>147</v>
+      </c>
+      <c r="F203">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
+        <v>516</v>
+      </c>
+      <c r="B204" t="s">
+        <v>517</v>
+      </c>
+      <c r="C204" t="s">
+        <v>518</v>
+      </c>
+      <c r="D204" t="s">
+        <v>464</v>
+      </c>
+      <c r="E204" t="s">
+        <v>148</v>
+      </c>
+      <c r="F204">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
+        <v>519</v>
+      </c>
+      <c r="B205" t="s">
+        <v>520</v>
+      </c>
+      <c r="C205" t="s">
+        <v>521</v>
+      </c>
+      <c r="D205" t="s">
+        <v>464</v>
+      </c>
+      <c r="E205" t="s">
+        <v>149</v>
+      </c>
+      <c r="F205">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
+        <v>522</v>
+      </c>
+      <c r="B206" t="s">
+        <v>523</v>
+      </c>
+      <c r="C206" t="s">
+        <v>524</v>
+      </c>
+      <c r="D206" t="s">
+        <v>464</v>
+      </c>
+      <c r="E206" t="s">
+        <v>150</v>
+      </c>
+      <c r="F206">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
+        <v>525</v>
+      </c>
+      <c r="B207" t="s">
+        <v>526</v>
+      </c>
+      <c r="C207" t="s">
+        <v>527</v>
+      </c>
+      <c r="D207" t="s">
+        <v>464</v>
+      </c>
+      <c r="E207" t="s">
+        <v>151</v>
+      </c>
+      <c r="F207">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
+        <v>528</v>
+      </c>
+      <c r="B208" t="s">
+        <v>529</v>
+      </c>
+      <c r="C208" t="s">
+        <v>530</v>
+      </c>
+      <c r="D208" t="s">
+        <v>464</v>
+      </c>
+      <c r="E208" t="s">
+        <v>152</v>
+      </c>
+      <c r="F208">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
+        <v>531</v>
+      </c>
+      <c r="B209" t="s">
+        <v>532</v>
+      </c>
+      <c r="C209" t="s">
+        <v>533</v>
+      </c>
+      <c r="D209" t="s">
+        <v>464</v>
+      </c>
+      <c r="E209" t="s">
+        <v>153</v>
+      </c>
+      <c r="F209">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
+        <v>534</v>
+      </c>
+      <c r="B210" t="s">
+        <v>535</v>
+      </c>
+      <c r="C210" t="s">
+        <v>536</v>
+      </c>
+      <c r="D210" t="s">
+        <v>464</v>
+      </c>
+      <c r="E210" t="s">
+        <v>129</v>
+      </c>
+      <c r="F210">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
+        <v>537</v>
+      </c>
+      <c r="B211" t="s">
+        <v>538</v>
+      </c>
+      <c r="C211" t="s">
+        <v>539</v>
+      </c>
+      <c r="D211" t="s">
+        <v>464</v>
+      </c>
+      <c r="E211" t="s">
+        <v>154</v>
+      </c>
+      <c r="F211">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
+        <v>540</v>
+      </c>
+      <c r="B212" t="s">
+        <v>541</v>
+      </c>
+      <c r="C212" t="s">
+        <v>542</v>
+      </c>
+      <c r="D212" t="s">
+        <v>464</v>
+      </c>
+      <c r="E212" t="s">
+        <v>155</v>
+      </c>
+      <c r="F212">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
+        <v>543</v>
+      </c>
+      <c r="B213" t="s">
+        <v>544</v>
+      </c>
+      <c r="C213" t="s">
+        <v>545</v>
+      </c>
+      <c r="D213" t="s">
+        <v>464</v>
+      </c>
+      <c r="E213" t="s">
+        <v>156</v>
+      </c>
+      <c r="F213">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
+        <v>546</v>
+      </c>
+      <c r="B214" t="s">
+        <v>547</v>
+      </c>
+      <c r="C214" t="s">
+        <v>548</v>
+      </c>
+      <c r="D214" t="s">
+        <v>464</v>
+      </c>
+      <c r="E214" t="s">
+        <v>157</v>
+      </c>
+      <c r="F214">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
+        <v>549</v>
+      </c>
+      <c r="B215" t="s">
+        <v>550</v>
+      </c>
+      <c r="C215" t="s">
+        <v>551</v>
+      </c>
+      <c r="D215" t="s">
+        <v>464</v>
+      </c>
+      <c r="E215" t="s">
+        <v>158</v>
+      </c>
+      <c r="F215">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
+        <v>552</v>
+      </c>
+      <c r="B216" t="s">
+        <v>553</v>
+      </c>
+      <c r="C216" t="s">
+        <v>554</v>
+      </c>
+      <c r="D216" t="s">
+        <v>464</v>
+      </c>
+      <c r="E216" t="s">
+        <v>159</v>
+      </c>
+      <c r="F216">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
+        <v>555</v>
+      </c>
+      <c r="B217" t="s">
+        <v>556</v>
+      </c>
+      <c r="C217" t="s">
+        <v>557</v>
+      </c>
+      <c r="D217" t="s">
+        <v>464</v>
+      </c>
+      <c r="E217" t="s">
+        <v>160</v>
+      </c>
+      <c r="F217">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
+        <v>558</v>
+      </c>
+      <c r="B218" t="s">
+        <v>559</v>
+      </c>
+      <c r="C218" t="s">
+        <v>560</v>
+      </c>
+      <c r="D218" t="s">
+        <v>464</v>
+      </c>
+      <c r="E218" t="s">
+        <v>161</v>
+      </c>
+      <c r="F218">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
+        <v>561</v>
+      </c>
+      <c r="B219" t="s">
+        <v>562</v>
+      </c>
+      <c r="C219" t="s">
+        <v>563</v>
+      </c>
+      <c r="D219" t="s">
+        <v>464</v>
+      </c>
+      <c r="E219" t="s">
+        <v>162</v>
+      </c>
+      <c r="F219">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
+        <v>564</v>
+      </c>
+      <c r="B220" t="s">
+        <v>565</v>
+      </c>
+      <c r="C220" t="s">
+        <v>566</v>
+      </c>
+      <c r="D220" t="s">
+        <v>464</v>
+      </c>
+      <c r="E220" t="s">
+        <v>163</v>
+      </c>
+      <c r="F220">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
+        <v>567</v>
+      </c>
+      <c r="B221" t="s">
+        <v>568</v>
+      </c>
+      <c r="C221" t="s">
+        <v>569</v>
+      </c>
+      <c r="D221" t="s">
+        <v>464</v>
+      </c>
+      <c r="E221" t="s">
+        <v>164</v>
+      </c>
+      <c r="F221">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A222" t="s">
+        <v>570</v>
+      </c>
+      <c r="B222" t="s">
+        <v>571</v>
+      </c>
+      <c r="C222" t="s">
+        <v>572</v>
+      </c>
+      <c r="D222" t="s">
+        <v>464</v>
+      </c>
+      <c r="E222" t="s">
+        <v>165</v>
+      </c>
+      <c r="F222">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A223" t="s">
+        <v>573</v>
+      </c>
+      <c r="B223" t="s">
+        <v>574</v>
+      </c>
+      <c r="C223" t="s">
+        <v>575</v>
+      </c>
+      <c r="D223" t="s">
+        <v>464</v>
+      </c>
+      <c r="E223" t="s">
+        <v>166</v>
+      </c>
+      <c r="F223">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A224" t="s">
+        <v>576</v>
+      </c>
+      <c r="B224" t="s">
+        <v>577</v>
+      </c>
+      <c r="C224" t="s">
+        <v>578</v>
+      </c>
+      <c r="D224" t="s">
+        <v>464</v>
+      </c>
+      <c r="E224" t="s">
+        <v>167</v>
+      </c>
+      <c r="F224">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A225" t="s">
+        <v>579</v>
+      </c>
+      <c r="B225" t="s">
+        <v>580</v>
+      </c>
+      <c r="C225" t="s">
+        <v>581</v>
+      </c>
+      <c r="D225" t="s">
+        <v>464</v>
+      </c>
+      <c r="E225" t="s">
+        <v>168</v>
+      </c>
+      <c r="F225">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A226" t="s">
+        <v>582</v>
+      </c>
+      <c r="B226" t="s">
+        <v>583</v>
+      </c>
+      <c r="C226" t="s">
+        <v>584</v>
+      </c>
+      <c r="D226" t="s">
+        <v>464</v>
+      </c>
+      <c r="E226" t="s">
+        <v>169</v>
+      </c>
+      <c r="F226">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A227" t="s">
+        <v>585</v>
+      </c>
+      <c r="B227" t="s">
+        <v>586</v>
+      </c>
+      <c r="C227" t="s">
+        <v>587</v>
+      </c>
+      <c r="D227" t="s">
+        <v>464</v>
+      </c>
+      <c r="E227" t="s">
+        <v>170</v>
+      </c>
+      <c r="F227">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A228" t="s">
+        <v>588</v>
+      </c>
+      <c r="B228" t="s">
+        <v>589</v>
+      </c>
+      <c r="C228" t="s">
+        <v>590</v>
+      </c>
+      <c r="D228" t="s">
+        <v>464</v>
+      </c>
+      <c r="E228" t="s">
+        <v>171</v>
+      </c>
+      <c r="F228">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A229" t="s">
+        <v>591</v>
+      </c>
+      <c r="B229" t="s">
+        <v>592</v>
+      </c>
+      <c r="C229" t="s">
+        <v>593</v>
+      </c>
+      <c r="D229" t="s">
+        <v>464</v>
+      </c>
+      <c r="E229" t="s">
+        <v>172</v>
+      </c>
+      <c r="F229">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
+        <v>594</v>
+      </c>
+      <c r="B230" t="s">
+        <v>595</v>
+      </c>
+      <c r="C230" t="s">
+        <v>596</v>
+      </c>
+      <c r="D230" t="s">
+        <v>464</v>
+      </c>
+      <c r="E230" t="s">
+        <v>173</v>
+      </c>
+      <c r="F230">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A231" t="s">
+        <v>597</v>
+      </c>
+      <c r="B231" t="s">
+        <v>598</v>
+      </c>
+      <c r="C231" t="s">
+        <v>599</v>
+      </c>
+      <c r="D231" t="s">
+        <v>464</v>
+      </c>
+      <c r="E231" t="s">
+        <v>174</v>
+      </c>
+      <c r="F231">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A232" t="s">
+        <v>600</v>
+      </c>
+      <c r="B232" t="s">
+        <v>601</v>
+      </c>
+      <c r="C232" t="s">
+        <v>602</v>
+      </c>
+      <c r="D232" t="s">
+        <v>464</v>
+      </c>
+      <c r="E232" t="s">
+        <v>175</v>
+      </c>
+      <c r="F232">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A233" t="s">
+        <v>603</v>
+      </c>
+      <c r="B233" t="s">
+        <v>604</v>
+      </c>
+      <c r="C233" t="s">
+        <v>605</v>
+      </c>
+      <c r="D233" t="s">
+        <v>464</v>
+      </c>
+      <c r="E233" t="s">
+        <v>176</v>
+      </c>
+      <c r="F233">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A234" t="s">
+        <v>606</v>
+      </c>
+      <c r="B234" t="s">
+        <v>607</v>
+      </c>
+      <c r="C234" t="s">
+        <v>608</v>
+      </c>
+      <c r="D234" t="s">
+        <v>464</v>
+      </c>
+      <c r="E234" t="s">
+        <v>177</v>
+      </c>
+      <c r="F234">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A235" t="s">
+        <v>609</v>
+      </c>
+      <c r="B235" t="s">
+        <v>610</v>
+      </c>
+      <c r="C235" t="s">
+        <v>611</v>
+      </c>
+      <c r="D235" t="s">
+        <v>464</v>
+      </c>
+      <c r="E235" t="s">
+        <v>178</v>
+      </c>
+      <c r="F235">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A236" t="s">
+        <v>612</v>
+      </c>
+      <c r="B236" t="s">
+        <v>613</v>
+      </c>
+      <c r="C236" t="s">
+        <v>614</v>
+      </c>
+      <c r="D236" t="s">
+        <v>464</v>
+      </c>
+      <c r="E236" t="s">
+        <v>179</v>
+      </c>
+      <c r="F236">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A237" t="s">
+        <v>615</v>
+      </c>
+      <c r="B237" t="s">
+        <v>616</v>
+      </c>
+      <c r="C237" t="s">
+        <v>617</v>
+      </c>
+      <c r="D237" t="s">
+        <v>464</v>
+      </c>
+      <c r="E237" t="s">
+        <v>180</v>
+      </c>
+      <c r="F237">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A238" t="s">
+        <v>618</v>
+      </c>
+      <c r="B238" t="s">
+        <v>619</v>
+      </c>
+      <c r="C238" t="s">
+        <v>620</v>
+      </c>
+      <c r="D238" t="s">
+        <v>464</v>
+      </c>
+      <c r="E238" t="s">
+        <v>181</v>
+      </c>
+      <c r="F238">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A239" t="s">
+        <v>621</v>
+      </c>
+      <c r="B239" t="s">
+        <v>622</v>
+      </c>
+      <c r="C239" t="s">
+        <v>623</v>
+      </c>
+      <c r="D239" t="s">
+        <v>464</v>
+      </c>
+      <c r="E239" t="s">
+        <v>182</v>
+      </c>
+      <c r="F239">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A240" t="s">
+        <v>624</v>
+      </c>
+      <c r="B240" t="s">
+        <v>625</v>
+      </c>
+      <c r="C240" t="s">
+        <v>626</v>
+      </c>
+      <c r="D240" t="s">
+        <v>464</v>
+      </c>
+      <c r="E240" t="s">
+        <v>183</v>
+      </c>
+      <c r="F240">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A241" t="s">
+        <v>627</v>
+      </c>
+      <c r="B241" t="s">
+        <v>628</v>
+      </c>
+      <c r="C241" t="s">
+        <v>629</v>
+      </c>
+      <c r="D241" t="s">
+        <v>464</v>
+      </c>
+      <c r="E241" t="s">
+        <v>184</v>
+      </c>
+      <c r="F241">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A242" t="s">
+        <v>630</v>
+      </c>
+      <c r="B242" t="s">
+        <v>631</v>
+      </c>
+      <c r="C242" t="s">
+        <v>632</v>
+      </c>
+      <c r="D242" t="s">
+        <v>464</v>
+      </c>
+      <c r="E242" t="s">
+        <v>185</v>
+      </c>
+      <c r="F242">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A243" t="s">
+        <v>633</v>
+      </c>
+      <c r="B243" t="s">
+        <v>634</v>
+      </c>
+      <c r="C243" t="s">
+        <v>635</v>
+      </c>
+      <c r="D243" t="s">
+        <v>464</v>
+      </c>
+      <c r="E243" t="s">
+        <v>186</v>
+      </c>
+      <c r="F243">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A244" t="s">
+        <v>636</v>
+      </c>
+      <c r="B244" t="s">
+        <v>637</v>
+      </c>
+      <c r="C244" t="s">
+        <v>638</v>
+      </c>
+      <c r="D244" t="s">
+        <v>464</v>
+      </c>
+      <c r="E244" t="s">
+        <v>187</v>
+      </c>
+      <c r="F244">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A245" t="s">
+        <v>639</v>
+      </c>
+      <c r="B245" t="s">
+        <v>640</v>
+      </c>
+      <c r="C245" t="s">
+        <v>641</v>
+      </c>
+      <c r="D245" t="s">
+        <v>464</v>
+      </c>
+      <c r="E245" t="s">
+        <v>188</v>
+      </c>
+      <c r="F245">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A246" t="s">
+        <v>642</v>
+      </c>
+      <c r="B246" t="s">
+        <v>643</v>
+      </c>
+      <c r="C246" t="s">
+        <v>644</v>
+      </c>
+      <c r="D246" t="s">
+        <v>464</v>
+      </c>
+      <c r="E246" t="s">
+        <v>189</v>
+      </c>
+      <c r="F246">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A247" t="s">
+        <v>645</v>
+      </c>
+      <c r="B247" t="s">
+        <v>646</v>
+      </c>
+      <c r="C247" t="s">
+        <v>647</v>
+      </c>
+      <c r="D247" t="s">
+        <v>464</v>
+      </c>
+      <c r="E247" t="s">
+        <v>190</v>
+      </c>
+      <c r="F247">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A248" t="s">
+        <v>648</v>
+      </c>
+      <c r="B248" t="s">
+        <v>649</v>
+      </c>
+      <c r="C248" t="s">
+        <v>650</v>
+      </c>
+      <c r="D248" t="s">
+        <v>464</v>
+      </c>
+      <c r="E248" t="s">
+        <v>191</v>
+      </c>
+      <c r="F248">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A249" t="s">
+        <v>651</v>
+      </c>
+      <c r="B249" t="s">
+        <v>652</v>
+      </c>
+      <c r="C249" t="s">
+        <v>653</v>
+      </c>
+      <c r="D249" t="s">
+        <v>464</v>
+      </c>
+      <c r="E249" t="s">
+        <v>192</v>
+      </c>
+      <c r="F249">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A250" t="s">
+        <v>654</v>
+      </c>
+      <c r="B250" t="s">
+        <v>655</v>
+      </c>
+      <c r="C250" t="s">
+        <v>656</v>
+      </c>
+      <c r="D250" t="s">
+        <v>464</v>
+      </c>
+      <c r="E250" t="s">
+        <v>193</v>
+      </c>
+      <c r="F250">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A251" t="s">
+        <v>657</v>
+      </c>
+      <c r="B251" t="s">
+        <v>658</v>
+      </c>
+      <c r="C251" t="s">
+        <v>659</v>
+      </c>
+      <c r="D251" t="s">
+        <v>464</v>
+      </c>
+      <c r="E251" t="s">
+        <v>194</v>
+      </c>
+      <c r="F251">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A252" t="s">
+        <v>660</v>
+      </c>
+      <c r="B252" t="s">
+        <v>661</v>
+      </c>
+      <c r="C252" t="s">
+        <v>662</v>
+      </c>
+      <c r="D252" t="s">
+        <v>464</v>
+      </c>
+      <c r="E252" t="s">
+        <v>195</v>
+      </c>
+      <c r="F252">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A253" t="s">
+        <v>663</v>
+      </c>
+      <c r="B253" t="s">
+        <v>664</v>
+      </c>
+      <c r="C253" t="s">
+        <v>665</v>
+      </c>
+      <c r="D253" t="s">
+        <v>464</v>
+      </c>
+      <c r="E253" t="s">
+        <v>196</v>
+      </c>
+      <c r="F253">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="254" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A254" t="s">
+        <v>666</v>
+      </c>
+      <c r="B254" t="s">
+        <v>667</v>
+      </c>
+      <c r="C254" t="s">
+        <v>668</v>
+      </c>
+      <c r="D254" t="s">
+        <v>464</v>
+      </c>
+      <c r="E254" t="s">
+        <v>197</v>
+      </c>
+      <c r="F254">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A255" t="s">
+        <v>669</v>
+      </c>
+      <c r="B255" t="s">
+        <v>670</v>
+      </c>
+      <c r="C255" t="s">
+        <v>671</v>
+      </c>
+      <c r="D255" t="s">
+        <v>464</v>
+      </c>
+      <c r="E255" t="s">
+        <v>198</v>
+      </c>
+      <c r="F255">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="256" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A256" t="s">
+        <v>672</v>
+      </c>
+      <c r="B256" t="s">
+        <v>673</v>
+      </c>
+      <c r="C256" t="s">
+        <v>674</v>
+      </c>
+      <c r="D256" t="s">
+        <v>464</v>
+      </c>
+      <c r="E256" t="s">
+        <v>199</v>
+      </c>
+      <c r="F256">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A257" t="s">
+        <v>675</v>
+      </c>
+      <c r="B257" t="s">
+        <v>676</v>
+      </c>
+      <c r="C257" t="s">
+        <v>677</v>
+      </c>
+      <c r="D257" t="s">
+        <v>464</v>
+      </c>
+      <c r="E257" t="s">
+        <v>200</v>
+      </c>
+      <c r="F257">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A258" t="s">
+        <v>678</v>
+      </c>
+      <c r="B258" t="s">
+        <v>679</v>
+      </c>
+      <c r="C258" t="s">
+        <v>680</v>
+      </c>
+      <c r="D258" t="s">
+        <v>464</v>
+      </c>
+      <c r="E258" t="s">
+        <v>130</v>
+      </c>
+      <c r="F258">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A259" t="s">
+        <v>681</v>
+      </c>
+      <c r="B259" t="s">
+        <v>682</v>
+      </c>
+      <c r="C259" t="s">
+        <v>683</v>
+      </c>
+      <c r="D259" t="s">
+        <v>464</v>
+      </c>
+      <c r="E259" t="s">
+        <v>201</v>
+      </c>
+      <c r="F259">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A260" t="s">
+        <v>684</v>
+      </c>
+      <c r="B260" t="s">
+        <v>685</v>
+      </c>
+      <c r="C260" t="s">
+        <v>686</v>
+      </c>
+      <c r="D260" t="s">
+        <v>464</v>
+      </c>
+      <c r="E260" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="F260">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A261" t="s">
+        <v>687</v>
+      </c>
+      <c r="B261" t="s">
+        <v>688</v>
+      </c>
+      <c r="C261" t="s">
+        <v>689</v>
+      </c>
+      <c r="D261" t="s">
+        <v>464</v>
+      </c>
+      <c r="E261" t="s">
+        <v>203</v>
+      </c>
+      <c r="F261">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A262" t="s">
+        <v>690</v>
+      </c>
+      <c r="B262" t="s">
+        <v>691</v>
+      </c>
+      <c r="C262" t="s">
+        <v>692</v>
+      </c>
+      <c r="D262" t="s">
+        <v>464</v>
+      </c>
+      <c r="E262" t="s">
+        <v>204</v>
+      </c>
+      <c r="F262">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="263" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A263" t="s">
+        <v>693</v>
+      </c>
+      <c r="B263" t="s">
+        <v>694</v>
+      </c>
+      <c r="C263" t="s">
+        <v>695</v>
+      </c>
+      <c r="D263" t="s">
+        <v>464</v>
+      </c>
+      <c r="E263" t="s">
+        <v>205</v>
+      </c>
+      <c r="F263">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="264" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A264" t="s">
+        <v>696</v>
+      </c>
+      <c r="B264" t="s">
+        <v>697</v>
+      </c>
+      <c r="C264" t="s">
+        <v>698</v>
+      </c>
+      <c r="D264" t="s">
+        <v>464</v>
+      </c>
+      <c r="E264" t="s">
+        <v>206</v>
+      </c>
+      <c r="F264">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="265" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A265" t="s">
+        <v>699</v>
+      </c>
+      <c r="B265" t="s">
+        <v>700</v>
+      </c>
+      <c r="C265" t="s">
+        <v>701</v>
+      </c>
+      <c r="D265" t="s">
+        <v>464</v>
+      </c>
+      <c r="E265" t="s">
+        <v>207</v>
+      </c>
+      <c r="F265">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="266" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A266" t="s">
+        <v>702</v>
+      </c>
+      <c r="B266" t="s">
+        <v>703</v>
+      </c>
+      <c r="C266" t="s">
+        <v>704</v>
+      </c>
+      <c r="D266" t="s">
+        <v>464</v>
+      </c>
+      <c r="E266" t="s">
+        <v>208</v>
+      </c>
+      <c r="F266">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="267" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A267" t="s">
+        <v>705</v>
+      </c>
+      <c r="B267" t="s">
+        <v>706</v>
+      </c>
+      <c r="C267" t="s">
+        <v>707</v>
+      </c>
+      <c r="D267" t="s">
+        <v>464</v>
+      </c>
+      <c r="E267" t="s">
+        <v>209</v>
+      </c>
+      <c r="F267">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="268" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A268" t="s">
+        <v>708</v>
+      </c>
+      <c r="B268" t="s">
+        <v>709</v>
+      </c>
+      <c r="C268" t="s">
+        <v>710</v>
+      </c>
+      <c r="D268" t="s">
+        <v>464</v>
+      </c>
+      <c r="E268" t="s">
+        <v>210</v>
+      </c>
+      <c r="F268">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="269" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A269" t="s">
+        <v>711</v>
+      </c>
+      <c r="B269" t="s">
+        <v>712</v>
+      </c>
+      <c r="C269" t="s">
+        <v>713</v>
+      </c>
+      <c r="D269" t="s">
+        <v>464</v>
+      </c>
+      <c r="E269" t="s">
+        <v>211</v>
+      </c>
+      <c r="F269">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="270" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A270" t="s">
+        <v>714</v>
+      </c>
+      <c r="B270" t="s">
+        <v>715</v>
+      </c>
+      <c r="C270" t="s">
+        <v>716</v>
+      </c>
+      <c r="D270" t="s">
+        <v>464</v>
+      </c>
+      <c r="E270" t="s">
+        <v>212</v>
+      </c>
+      <c r="F270">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="271" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A271" t="s">
+        <v>717</v>
+      </c>
+      <c r="B271" t="s">
+        <v>718</v>
+      </c>
+      <c r="C271" t="s">
+        <v>719</v>
+      </c>
+      <c r="D271" t="s">
+        <v>464</v>
+      </c>
+      <c r="E271" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="272" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A272" t="s">
+        <v>720</v>
+      </c>
+      <c r="B272" t="s">
+        <v>721</v>
+      </c>
+      <c r="C272" t="s">
+        <v>722</v>
+      </c>
+      <c r="D272" t="s">
+        <v>464</v>
+      </c>
+      <c r="E272" s="7" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A273" t="s">
+        <v>723</v>
+      </c>
+      <c r="B273" t="s">
+        <v>724</v>
+      </c>
+      <c r="C273" t="s">
+        <v>725</v>
+      </c>
+      <c r="D273" t="s">
+        <v>464</v>
+      </c>
+      <c r="E273" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A274" t="s">
+        <v>726</v>
+      </c>
+      <c r="B274" t="s">
+        <v>727</v>
+      </c>
+      <c r="C274" t="s">
+        <v>728</v>
+      </c>
+      <c r="D274" t="s">
+        <v>464</v>
+      </c>
+      <c r="E274" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E187" t="s">
+    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A275" t="s">
+        <v>729</v>
+      </c>
+      <c r="B275" t="s">
+        <v>730</v>
+      </c>
+      <c r="C275" t="s">
+        <v>731</v>
+      </c>
+      <c r="D275" t="s">
+        <v>464</v>
+      </c>
+      <c r="E275" t="s">
         <v>217</v>
-      </c>
-    </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C188" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="E188" s="7" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C189" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="E189" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C190" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="E190" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C191" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="E191" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C192" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="E192" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="193" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C193" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="E193" t="s">
-        <v>223</v>
       </c>
     </row>
   </sheetData>

--- a/data/Designs/Designs_masterfile.xlsx
+++ b/data/Designs/Designs_masterfile.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HOL428\Documents\GitHub\SynBioMLMH\SynbioML\data\Designs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D579FF9-B760-4895-A075-7981D3B5D6FA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E67AE20B-C96D-4C2D-9615-6DD57D4BB9EC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19090" yWindow="-3570" windowWidth="25820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sequences" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1182" uniqueCount="733">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1168" uniqueCount="725">
   <si>
     <t>tttaagaaggagatatacat</t>
   </si>
@@ -686,24 +686,6 @@
     <t>H6</t>
   </si>
   <si>
-    <t>H7</t>
-  </si>
-  <si>
-    <t>H8</t>
-  </si>
-  <si>
-    <t>H9</t>
-  </si>
-  <si>
-    <t>H10</t>
-  </si>
-  <si>
-    <t>H11</t>
-  </si>
-  <si>
-    <t>H12</t>
-  </si>
-  <si>
     <t>RBS_RU_0</t>
   </si>
   <si>
@@ -876,12 +858,6 @@
   </si>
   <si>
     <t>tttaagaCGAGACtatacat</t>
-  </si>
-  <si>
-    <t>RBS_RU_29</t>
-  </si>
-  <si>
-    <t>tttaagaTAAAAGtatacat</t>
   </si>
   <si>
     <t>Second_Plate</t>
@@ -2257,18 +2233,12 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -2283,14 +2253,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -2609,10 +2576,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:F275"/>
+  <dimension ref="A1:F269"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" topLeftCell="A249" workbookViewId="0">
+      <selection activeCell="H266" sqref="H266"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -2639,7 +2606,7 @@
         <v>125</v>
       </c>
       <c r="F1" t="s">
-        <v>732</v>
+        <v>724</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -3925,10 +3892,10 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="C63" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3946,10 +3913,10 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="C64" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3967,10 +3934,10 @@
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="C65" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3988,10 +3955,10 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="C66" s="1" t="str">
         <f t="shared" si="0"/>
@@ -4009,13 +3976,13 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="C67" s="1" t="str">
-        <f t="shared" ref="C67:C97" si="1">MID(B67,8,6)</f>
+        <f t="shared" ref="C67:C91" si="1">MID(B67,8,6)</f>
         <v>TCACTT</v>
       </c>
       <c r="D67" t="s">
@@ -4030,10 +3997,10 @@
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="C68" s="1" t="str">
         <f t="shared" si="1"/>
@@ -4051,10 +4018,10 @@
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="C69" s="1" t="str">
         <f t="shared" si="1"/>
@@ -4072,10 +4039,10 @@
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="C70" s="1" t="str">
         <f t="shared" si="1"/>
@@ -4093,10 +4060,10 @@
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="C71" s="1" t="str">
         <f t="shared" si="1"/>
@@ -4114,10 +4081,10 @@
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="C72" s="1" t="str">
         <f t="shared" si="1"/>
@@ -4135,10 +4102,10 @@
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="C73" s="1" t="str">
         <f t="shared" si="1"/>
@@ -4156,10 +4123,10 @@
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="C74" s="1" t="str">
         <f t="shared" si="1"/>
@@ -4177,10 +4144,10 @@
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="C75" s="1" t="str">
         <f t="shared" si="1"/>
@@ -4198,10 +4165,10 @@
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="C76" s="1" t="str">
         <f t="shared" si="1"/>
@@ -4219,10 +4186,10 @@
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="C77" s="1" t="str">
         <f t="shared" si="1"/>
@@ -4240,10 +4207,10 @@
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="C78" s="1" t="str">
         <f t="shared" si="1"/>
@@ -4261,10 +4228,10 @@
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="C79" s="1" t="str">
         <f t="shared" si="1"/>
@@ -4282,10 +4249,10 @@
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="C80" s="1" t="str">
         <f t="shared" si="1"/>
@@ -4303,10 +4270,10 @@
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="C81" s="1" t="str">
         <f t="shared" si="1"/>
@@ -4324,10 +4291,10 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="C82" s="1" t="str">
         <f t="shared" si="1"/>
@@ -4345,10 +4312,10 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="C83" s="1" t="str">
         <f t="shared" si="1"/>
@@ -4366,10 +4333,10 @@
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="C84" s="1" t="str">
         <f t="shared" si="1"/>
@@ -4387,10 +4354,10 @@
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="C85" s="1" t="str">
         <f t="shared" si="1"/>
@@ -4408,10 +4375,10 @@
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="C86" s="1" t="str">
         <f t="shared" si="1"/>
@@ -4429,10 +4396,10 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="C87" s="1" t="str">
         <f t="shared" si="1"/>
@@ -4450,10 +4417,10 @@
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="C88" s="1" t="str">
         <f t="shared" si="1"/>
@@ -4471,10 +4438,10 @@
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="C89" s="1" t="str">
         <f t="shared" si="1"/>
@@ -4492,10 +4459,10 @@
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="C90" s="1" t="str">
         <f t="shared" si="1"/>
@@ -4513,10 +4480,10 @@
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="C91" s="1" t="str">
         <f t="shared" si="1"/>
@@ -4533,96 +4500,126 @@
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A92" s="4" t="s">
-        <v>282</v>
-      </c>
-      <c r="B92" s="5" t="s">
-        <v>283</v>
-      </c>
-      <c r="C92" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>TAAAAG</v>
-      </c>
-      <c r="D92" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="E92" s="4" t="s">
-        <v>218</v>
+      <c r="A92" t="s">
+        <v>333</v>
+      </c>
+      <c r="B92" t="s">
+        <v>334</v>
+      </c>
+      <c r="C92" s="1" t="str">
+        <f>MID(B92,8,6)</f>
+        <v>CGGATT</v>
+      </c>
+      <c r="D92" t="s">
+        <v>276</v>
+      </c>
+      <c r="E92" t="s">
+        <v>128</v>
       </c>
       <c r="F92">
         <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>335</v>
+      </c>
+      <c r="B93" t="s">
+        <v>336</v>
+      </c>
       <c r="C93" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+        <f t="shared" ref="C93:C156" si="2">MID(B93,8,6)</f>
+        <v>TTCGGA</v>
       </c>
       <c r="D93" t="s">
-        <v>127</v>
+        <v>276</v>
       </c>
       <c r="E93" t="s">
-        <v>219</v>
+        <v>131</v>
       </c>
       <c r="F93">
         <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>337</v>
+      </c>
+      <c r="B94" t="s">
+        <v>338</v>
+      </c>
       <c r="C94" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+        <f t="shared" si="2"/>
+        <v>CTCGGA</v>
       </c>
       <c r="D94" t="s">
-        <v>127</v>
+        <v>276</v>
       </c>
       <c r="E94" t="s">
-        <v>220</v>
+        <v>132</v>
       </c>
       <c r="F94">
         <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>339</v>
+      </c>
+      <c r="B95" t="s">
+        <v>340</v>
+      </c>
       <c r="C95" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+        <f t="shared" si="2"/>
+        <v>ACCGGA</v>
       </c>
       <c r="D95" t="s">
-        <v>127</v>
+        <v>276</v>
       </c>
       <c r="E95" t="s">
-        <v>221</v>
+        <v>133</v>
       </c>
       <c r="F95">
         <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>341</v>
+      </c>
+      <c r="B96" t="s">
+        <v>342</v>
+      </c>
       <c r="C96" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+        <f t="shared" si="2"/>
+        <v>GCCGGA</v>
       </c>
       <c r="D96" t="s">
-        <v>127</v>
+        <v>276</v>
       </c>
       <c r="E96" t="s">
-        <v>222</v>
+        <v>134</v>
       </c>
       <c r="F96">
         <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>343</v>
+      </c>
+      <c r="B97" t="s">
+        <v>344</v>
+      </c>
       <c r="C97" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+        <f t="shared" si="2"/>
+        <v>ATCGGA</v>
       </c>
       <c r="D97" t="s">
-        <v>127</v>
+        <v>276</v>
       </c>
       <c r="E97" t="s">
-        <v>223</v>
+        <v>135</v>
       </c>
       <c r="F97">
         <v>0</v>
@@ -4630,20 +4627,20 @@
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="B98" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="C98" s="1" t="str">
-        <f>MID(B98,8,6)</f>
-        <v>CGGATT</v>
+        <f t="shared" si="2"/>
+        <v>CCGGAT</v>
       </c>
       <c r="D98" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="E98" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="F98">
         <v>0</v>
@@ -4651,20 +4648,20 @@
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="B99" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="C99" s="1" t="str">
-        <f t="shared" ref="C99:C162" si="2">MID(B99,8,6)</f>
-        <v>TTCGGA</v>
+        <f t="shared" si="2"/>
+        <v>TAAAGA</v>
       </c>
       <c r="D99" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="E99" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="F99">
         <v>0</v>
@@ -4672,20 +4669,20 @@
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="B100" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="C100" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>CTCGGA</v>
+        <v>CGATAA</v>
       </c>
       <c r="D100" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="E100" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="F100">
         <v>0</v>
@@ -4693,20 +4690,20 @@
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="B101" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="C101" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>ACCGGA</v>
+        <v>ACACAC</v>
       </c>
       <c r="D101" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="E101" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="F101">
         <v>0</v>
@@ -4714,20 +4711,20 @@
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="B102" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="C102" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>GCCGGA</v>
+        <v>TATATA</v>
       </c>
       <c r="D102" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="E102" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="F102">
         <v>0</v>
@@ -4735,20 +4732,20 @@
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="B103" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="C103" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>ATCGGA</v>
+        <v>CTCTCT</v>
       </c>
       <c r="D103" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="E103" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="F103">
         <v>0</v>
@@ -4756,20 +4753,20 @@
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="B104" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="C104" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>CCGGAT</v>
+        <v>GTGTGT</v>
       </c>
       <c r="D104" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="E104" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="F104">
         <v>0</v>
@@ -4777,20 +4774,20 @@
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="B105" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="C105" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>TAAAGA</v>
+        <v>ATATAT</v>
       </c>
       <c r="D105" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="E105" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="F105">
         <v>0</v>
@@ -4798,20 +4795,20 @@
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="B106" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="C106" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>CGATAA</v>
+        <v>TGTGTG</v>
       </c>
       <c r="D106" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="E106" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="F106">
         <v>0</v>
@@ -4819,20 +4816,20 @@
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="B107" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="C107" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>ACACAC</v>
+        <v>TCTCTC</v>
       </c>
       <c r="D107" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="E107" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="F107">
         <v>0</v>
@@ -4840,20 +4837,20 @@
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="B108" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="C108" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>TATATA</v>
+        <v>CACACA</v>
       </c>
       <c r="D108" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="E108" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="F108">
         <v>0</v>
@@ -4861,20 +4858,20 @@
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="B109" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="C109" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>CTCTCT</v>
+        <v>CTAAGA</v>
       </c>
       <c r="D109" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="E109" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="F109">
         <v>0</v>
@@ -4882,20 +4879,20 @@
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="B110" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="C110" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>GTGTGT</v>
+        <v>ATAAGA</v>
       </c>
       <c r="D110" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="E110" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="F110">
         <v>0</v>
@@ -4903,20 +4900,20 @@
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="B111" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="C111" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>ATATAT</v>
+        <v>TAAGAT</v>
       </c>
       <c r="D111" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="E111" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="F111">
         <v>0</v>
@@ -4924,20 +4921,20 @@
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="B112" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="C112" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>TGTGTG</v>
+        <v>TTAAGA</v>
       </c>
       <c r="D112" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="E112" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="F112">
         <v>0</v>
@@ -4945,20 +4942,20 @@
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="B113" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="C113" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>TCTCTC</v>
+        <v>GGTCGA</v>
       </c>
       <c r="D113" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="E113" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="F113">
         <v>0</v>
@@ -4966,20 +4963,20 @@
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="B114" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="C114" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>CACACA</v>
+        <v>GGTAGA</v>
       </c>
       <c r="D114" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="E114" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="F114">
         <v>0</v>
@@ -4987,20 +4984,20 @@
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="B115" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="C115" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>CTAAGA</v>
+        <v>GGAAGA</v>
       </c>
       <c r="D115" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="E115" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="F115">
         <v>0</v>
@@ -5008,20 +5005,20 @@
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="B116" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="C116" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>ATAAGA</v>
+        <v>GGGGGA</v>
       </c>
       <c r="D116" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="E116" t="s">
-        <v>148</v>
+        <v>129</v>
       </c>
       <c r="F116">
         <v>0</v>
@@ -5029,20 +5026,20 @@
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="B117" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="C117" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>TAAGAT</v>
+        <v>GGGGAT</v>
       </c>
       <c r="D117" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="E117" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="F117">
         <v>0</v>
@@ -5050,20 +5047,20 @@
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="B118" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="C118" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>TTAAGA</v>
+        <v>GGGATC</v>
       </c>
       <c r="D118" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="E118" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="F118">
         <v>0</v>
@@ -5071,20 +5068,20 @@
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="B119" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="C119" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>GGTCGA</v>
+        <v>GGGATT</v>
       </c>
       <c r="D119" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="E119" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="F119">
         <v>0</v>
@@ -5092,20 +5089,20 @@
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="B120" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="C120" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>GGTAGA</v>
+        <v>GGGATG</v>
       </c>
       <c r="D120" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="E120" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="F120">
         <v>0</v>
@@ -5113,20 +5110,20 @@
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="B121" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="C121" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>GGAAGA</v>
+        <v>GGGATA</v>
       </c>
       <c r="D121" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="E121" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="F121">
         <v>0</v>
@@ -5134,20 +5131,20 @@
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="B122" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="C122" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>GGGGGA</v>
+        <v>GGATCT</v>
       </c>
       <c r="D122" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="E122" t="s">
-        <v>129</v>
+        <v>159</v>
       </c>
       <c r="F122">
         <v>0</v>
@@ -5155,20 +5152,20 @@
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="B123" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="C123" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>GGGGAT</v>
+        <v>GGATTT</v>
       </c>
       <c r="D123" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="E123" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="F123">
         <v>0</v>
@@ -5176,20 +5173,20 @@
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="B124" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="C124" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>GGGATC</v>
+        <v>GGATAG</v>
       </c>
       <c r="D124" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="E124" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="F124">
         <v>0</v>
@@ -5197,20 +5194,20 @@
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="B125" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="C125" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>GGGATT</v>
+        <v>GGATTA</v>
       </c>
       <c r="D125" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="E125" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="F125">
         <v>0</v>
@@ -5218,20 +5215,20 @@
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="B126" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="C126" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>GGGATG</v>
+        <v>GGATAT</v>
       </c>
       <c r="D126" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="E126" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="F126">
         <v>0</v>
@@ -5239,20 +5236,20 @@
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="B127" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="C127" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>GGGATA</v>
+        <v>GGATAC</v>
       </c>
       <c r="D127" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="E127" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="F127">
         <v>0</v>
@@ -5260,20 +5257,20 @@
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="B128" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="C128" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>GGATCT</v>
+        <v>GGATGC</v>
       </c>
       <c r="D128" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="E128" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="F128">
         <v>0</v>
@@ -5281,20 +5278,20 @@
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="B129" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="C129" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>GGATTT</v>
+        <v>GGATGT</v>
       </c>
       <c r="D129" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="E129" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="F129">
         <v>0</v>
@@ -5302,20 +5299,20 @@
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="B130" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="C130" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>GGATAG</v>
+        <v>GGATTC</v>
       </c>
       <c r="D130" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="E130" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="F130">
         <v>0</v>
@@ -5323,20 +5320,20 @@
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="B131" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="C131" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>GGATTA</v>
+        <v>GGATCG</v>
       </c>
       <c r="D131" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="E131" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="F131">
         <v>0</v>
@@ -5344,20 +5341,20 @@
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="B132" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="C132" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>GGATAT</v>
+        <v>GGATTG</v>
       </c>
       <c r="D132" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="E132" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="F132">
         <v>0</v>
@@ -5365,20 +5362,20 @@
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="B133" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="C133" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>GGATAC</v>
+        <v>GGATCC</v>
       </c>
       <c r="D133" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="E133" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="F133">
         <v>0</v>
@@ -5386,20 +5383,20 @@
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="B134" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="C134" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>GGATGC</v>
+        <v>GGATGA</v>
       </c>
       <c r="D134" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="E134" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="F134">
         <v>0</v>
@@ -5407,20 +5404,20 @@
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="B135" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="C135" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>GGATGT</v>
+        <v>GGATCA</v>
       </c>
       <c r="D135" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="E135" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="F135">
         <v>0</v>
@@ -5428,20 +5425,20 @@
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="B136" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="C136" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>GGATTC</v>
+        <v>CCCCGA</v>
       </c>
       <c r="D136" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="E136" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="F136">
         <v>0</v>
@@ -5449,20 +5446,20 @@
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="B137" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="C137" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>GGATCG</v>
+        <v>TTTTTG</v>
       </c>
       <c r="D137" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="E137" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="F137">
         <v>0</v>
@@ -5470,20 +5467,20 @@
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="B138" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="C138" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>GGATTG</v>
+        <v>TTTTTA</v>
       </c>
       <c r="D138" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="E138" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="F138">
         <v>0</v>
@@ -5491,20 +5488,20 @@
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="B139" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="C139" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>GGATCC</v>
+        <v>GTTTTT</v>
       </c>
       <c r="D139" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="E139" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="F139">
         <v>0</v>
@@ -5512,20 +5509,20 @@
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="B140" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="C140" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>GGATGA</v>
+        <v>CTTTTT</v>
       </c>
       <c r="D140" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="E140" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="F140">
         <v>0</v>
@@ -5533,20 +5530,20 @@
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="B141" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="C141" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>GGATCA</v>
+        <v>CCCCCT</v>
       </c>
       <c r="D141" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="E141" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="F141">
         <v>0</v>
@@ -5554,20 +5551,20 @@
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="B142" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="C142" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>CCCCGA</v>
+        <v>CCCCCG</v>
       </c>
       <c r="D142" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="E142" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="F142">
         <v>0</v>
@@ -5575,20 +5572,20 @@
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="B143" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="C143" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>TTTTTG</v>
+        <v>CCCCCA</v>
       </c>
       <c r="D143" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="E143" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="F143">
         <v>0</v>
@@ -5596,20 +5593,20 @@
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="B144" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="C144" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>TTTTTA</v>
+        <v>TTTTTC</v>
       </c>
       <c r="D144" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="E144" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="F144">
         <v>0</v>
@@ -5617,20 +5614,20 @@
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="B145" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="C145" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>GTTTTT</v>
+        <v>GCCCCC</v>
       </c>
       <c r="D145" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="E145" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="F145">
         <v>0</v>
@@ -5638,20 +5635,20 @@
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="B146" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="C146" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>CTTTTT</v>
+        <v>ATTTTT</v>
       </c>
       <c r="D146" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="E146" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="F146">
         <v>0</v>
@@ -5659,20 +5656,20 @@
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="B147" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="C147" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>CCCCCT</v>
+        <v>ACCCCC</v>
       </c>
       <c r="D147" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="E147" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="F147">
         <v>0</v>
@@ -5680,20 +5677,20 @@
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="B148" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="C148" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>CCCCCG</v>
+        <v>TCCCCC</v>
       </c>
       <c r="D148" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="E148" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="F148">
         <v>0</v>
@@ -5701,20 +5698,20 @@
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="B149" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="C149" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>CCCCCA</v>
+        <v>GGATAA</v>
       </c>
       <c r="D149" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="E149" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="F149">
         <v>0</v>
@@ -5722,20 +5719,20 @@
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="B150" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="C150" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>TTTTTC</v>
+        <v>CCCCCC</v>
       </c>
       <c r="D150" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="E150" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="F150">
         <v>0</v>
@@ -5743,20 +5740,20 @@
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="B151" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="C151" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>GCCCCC</v>
+        <v>TTTTTT</v>
       </c>
       <c r="D151" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="E151" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="F151">
         <v>0</v>
@@ -5764,20 +5761,20 @@
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>449</v>
+        <v>277</v>
       </c>
       <c r="B152" t="s">
-        <v>450</v>
+        <v>278</v>
       </c>
       <c r="C152" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>ATTTTT</v>
+        <v>GAAAGA</v>
       </c>
       <c r="D152" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="E152" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="F152">
         <v>0</v>
@@ -5785,20 +5782,20 @@
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>451</v>
+        <v>279</v>
       </c>
       <c r="B153" t="s">
-        <v>452</v>
+        <v>280</v>
       </c>
       <c r="C153" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>ACCCCC</v>
+        <v>CGGGGG</v>
       </c>
       <c r="D153" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="E153" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="F153">
         <v>0</v>
@@ -5806,20 +5803,20 @@
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>453</v>
+        <v>281</v>
       </c>
       <c r="B154" t="s">
-        <v>454</v>
+        <v>282</v>
       </c>
       <c r="C154" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>TCCCCC</v>
+        <v>TGAGGG</v>
       </c>
       <c r="D154" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="E154" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="F154">
         <v>0</v>
@@ -5827,20 +5824,20 @@
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>455</v>
+        <v>283</v>
       </c>
       <c r="B155" t="s">
-        <v>456</v>
+        <v>284</v>
       </c>
       <c r="C155" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>GGATAA</v>
+        <v>CCGGGA</v>
       </c>
       <c r="D155" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="E155" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="F155">
         <v>0</v>
@@ -5848,20 +5845,20 @@
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>457</v>
+        <v>285</v>
       </c>
       <c r="B156" t="s">
-        <v>458</v>
+        <v>286</v>
       </c>
       <c r="C156" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>CCCCCC</v>
+        <v>AAGGGT</v>
       </c>
       <c r="D156" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="E156" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="F156">
         <v>0</v>
@@ -5869,20 +5866,20 @@
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>459</v>
+        <v>287</v>
       </c>
       <c r="B157" t="s">
-        <v>460</v>
+        <v>288</v>
       </c>
       <c r="C157" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>TTTTTT</v>
+        <f t="shared" ref="C157:C165" si="3">MID(B157,8,6)</f>
+        <v>CTGTAG</v>
       </c>
       <c r="D157" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="E157" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="F157">
         <v>0</v>
@@ -5890,20 +5887,20 @@
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="B158" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="C158" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>GAAAGA</v>
+        <f t="shared" si="3"/>
+        <v>CTGACA</v>
       </c>
       <c r="D158" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="E158" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="F158">
         <v>0</v>
@@ -5911,20 +5908,20 @@
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="B159" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="C159" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>CGGGGG</v>
+        <f t="shared" si="3"/>
+        <v>CGTGTG</v>
       </c>
       <c r="D159" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="E159" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="F159">
         <v>0</v>
@@ -5932,20 +5929,20 @@
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="B160" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="C160" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>TGAGGG</v>
+        <f t="shared" si="3"/>
+        <v>GAGGGG</v>
       </c>
       <c r="D160" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="E160" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="F160">
         <v>0</v>
@@ -5953,20 +5950,20 @@
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="B161" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="C161" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>CCGGGA</v>
+        <f t="shared" si="3"/>
+        <v>CTAGGA</v>
       </c>
       <c r="D161" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="E161" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="F161">
         <v>0</v>
@@ -5974,20 +5971,20 @@
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="B162" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="C162" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>AAGGGT</v>
+        <f t="shared" si="3"/>
+        <v>ATTGGG</v>
       </c>
       <c r="D162" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="E162" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="F162">
         <v>0</v>
@@ -5995,20 +5992,20 @@
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="B163" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="C163" s="1" t="str">
-        <f t="shared" ref="C163:C193" si="3">MID(B163,8,6)</f>
-        <v>CTGTAG</v>
+        <f t="shared" si="3"/>
+        <v>TACTGA</v>
       </c>
       <c r="D163" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="E163" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="F163">
         <v>0</v>
@@ -6016,20 +6013,20 @@
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="B164" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="C164" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>CTGACA</v>
+        <v>AGAGCG</v>
       </c>
       <c r="D164" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="E164" t="s">
-        <v>195</v>
+        <v>130</v>
       </c>
       <c r="F164">
         <v>0</v>
@@ -6037,20 +6034,20 @@
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="B165" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="C165" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>CGTGTG</v>
+        <v>AGGGGT</v>
       </c>
       <c r="D165" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="E165" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="F165">
         <v>0</v>
@@ -6058,20 +6055,20 @@
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="B166" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="C166" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>GAGGGG</v>
+        <f t="shared" ref="C166:C179" si="4">MID(B166,8,6)</f>
+        <v>CAAGCC</v>
       </c>
       <c r="D166" t="s">
-        <v>284</v>
-      </c>
-      <c r="E166" t="s">
-        <v>197</v>
+        <v>276</v>
+      </c>
+      <c r="E166" s="4" t="s">
+        <v>202</v>
       </c>
       <c r="F166">
         <v>0</v>
@@ -6079,20 +6076,20 @@
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="B167" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="C167" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>CTAGGA</v>
+        <f t="shared" si="4"/>
+        <v>CAATTG</v>
       </c>
       <c r="D167" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="E167" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="F167">
         <v>0</v>
@@ -6100,20 +6097,20 @@
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="B168" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="C168" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>ATTGGG</v>
+        <f t="shared" si="4"/>
+        <v>TATTTT</v>
       </c>
       <c r="D168" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="E168" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="F168">
         <v>0</v>
@@ -6121,20 +6118,20 @@
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="B169" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="C169" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>TACTGA</v>
+        <f t="shared" si="4"/>
+        <v>TCCGGC</v>
       </c>
       <c r="D169" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="E169" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="F169">
         <v>0</v>
@@ -6142,20 +6139,20 @@
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="B170" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="C170" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>AGAGCG</v>
+        <f t="shared" si="4"/>
+        <v>TGGGAG</v>
       </c>
       <c r="D170" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="E170" t="s">
-        <v>130</v>
+        <v>206</v>
       </c>
       <c r="F170">
         <v>0</v>
@@ -6163,20 +6160,20 @@
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="B171" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="C171" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>AGGGGT</v>
+        <f t="shared" si="4"/>
+        <v>AAAGTG</v>
       </c>
       <c r="D171" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="E171" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="F171">
         <v>0</v>
@@ -6184,20 +6181,20 @@
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="B172" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="C172" s="1" t="str">
-        <f t="shared" ref="C172:C185" si="4">MID(B172,8,6)</f>
-        <v>CAAGCC</v>
+        <f t="shared" si="4"/>
+        <v>CGGGAG</v>
       </c>
       <c r="D172" t="s">
-        <v>284</v>
-      </c>
-      <c r="E172" s="7" t="s">
-        <v>202</v>
+        <v>276</v>
+      </c>
+      <c r="E172" t="s">
+        <v>208</v>
       </c>
       <c r="F172">
         <v>0</v>
@@ -6205,20 +6202,20 @@
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="B173" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="C173" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>CAATTG</v>
+        <v>TAAGAG</v>
       </c>
       <c r="D173" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="E173" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="F173">
         <v>0</v>
@@ -6226,20 +6223,20 @@
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="B174" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="C174" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>TATTTT</v>
+        <v>TAAGGG</v>
       </c>
       <c r="D174" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="E174" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="F174">
         <v>0</v>
@@ -6247,20 +6244,20 @@
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="B175" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="C175" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>TCCGGC</v>
+        <v>TAGTCT</v>
       </c>
       <c r="D175" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="E175" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="F175">
         <v>0</v>
@@ -6268,20 +6265,20 @@
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="B176" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="C176" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>TGGGAG</v>
+        <v>AAGTAG</v>
       </c>
       <c r="D176" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="E176" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="F176">
         <v>0</v>
@@ -6289,20 +6286,20 @@
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="B177" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="C177" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>AAAGTG</v>
+        <v>CCACGC</v>
       </c>
       <c r="D177" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="E177" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="F177">
         <v>0</v>
@@ -6310,20 +6307,20 @@
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="B178" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="C178" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>CGGGAG</v>
+        <v>GTAATG</v>
       </c>
       <c r="D178" t="s">
-        <v>284</v>
-      </c>
-      <c r="E178" t="s">
-        <v>208</v>
+        <v>276</v>
+      </c>
+      <c r="E178" s="4" t="s">
+        <v>214</v>
       </c>
       <c r="F178">
         <v>0</v>
@@ -6331,20 +6328,20 @@
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="B179" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="C179" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>TAAGAG</v>
+        <v>CATTGA</v>
       </c>
       <c r="D179" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="E179" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="F179">
         <v>0</v>
@@ -6352,41 +6349,39 @@
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>329</v>
+        <v>453</v>
       </c>
       <c r="B180" t="s">
-        <v>330</v>
-      </c>
-      <c r="C180" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>TAAGGG</v>
+        <v>454</v>
+      </c>
+      <c r="C180" t="s">
+        <v>455</v>
       </c>
       <c r="D180" t="s">
-        <v>284</v>
+        <v>456</v>
       </c>
       <c r="E180" t="s">
-        <v>210</v>
+        <v>128</v>
       </c>
       <c r="F180">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>331</v>
+        <v>457</v>
       </c>
       <c r="B181" t="s">
-        <v>332</v>
-      </c>
-      <c r="C181" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>TAGTCT</v>
+        <v>458</v>
+      </c>
+      <c r="C181" t="s">
+        <v>459</v>
       </c>
       <c r="D181" t="s">
-        <v>284</v>
+        <v>456</v>
       </c>
       <c r="E181" t="s">
-        <v>211</v>
+        <v>131</v>
       </c>
       <c r="F181">
         <v>1</v>
@@ -6394,20 +6389,19 @@
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>333</v>
+        <v>460</v>
       </c>
       <c r="B182" t="s">
-        <v>334</v>
-      </c>
-      <c r="C182" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>AAGTAG</v>
+        <v>461</v>
+      </c>
+      <c r="C182" t="s">
+        <v>462</v>
       </c>
       <c r="D182" t="s">
-        <v>284</v>
+        <v>456</v>
       </c>
       <c r="E182" t="s">
-        <v>212</v>
+        <v>132</v>
       </c>
       <c r="F182">
         <v>1</v>
@@ -6415,20 +6409,19 @@
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>335</v>
+        <v>463</v>
       </c>
       <c r="B183" t="s">
-        <v>336</v>
-      </c>
-      <c r="C183" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>CCACGC</v>
+        <v>464</v>
+      </c>
+      <c r="C183" t="s">
+        <v>465</v>
       </c>
       <c r="D183" t="s">
-        <v>284</v>
+        <v>456</v>
       </c>
       <c r="E183" t="s">
-        <v>213</v>
+        <v>133</v>
       </c>
       <c r="F183">
         <v>1</v>
@@ -6436,20 +6429,19 @@
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>337</v>
+        <v>466</v>
       </c>
       <c r="B184" t="s">
-        <v>338</v>
-      </c>
-      <c r="C184" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>GTAATG</v>
+        <v>467</v>
+      </c>
+      <c r="C184" t="s">
+        <v>468</v>
       </c>
       <c r="D184" t="s">
-        <v>284</v>
-      </c>
-      <c r="E184" s="7" t="s">
-        <v>214</v>
+        <v>456</v>
+      </c>
+      <c r="E184" t="s">
+        <v>134</v>
       </c>
       <c r="F184">
         <v>1</v>
@@ -6457,20 +6449,19 @@
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>339</v>
+        <v>469</v>
       </c>
       <c r="B185" t="s">
-        <v>340</v>
-      </c>
-      <c r="C185" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>CATTGA</v>
+        <v>470</v>
+      </c>
+      <c r="C185" t="s">
+        <v>471</v>
       </c>
       <c r="D185" t="s">
-        <v>284</v>
+        <v>456</v>
       </c>
       <c r="E185" t="s">
-        <v>215</v>
+        <v>135</v>
       </c>
       <c r="F185">
         <v>1</v>
@@ -6478,19 +6469,19 @@
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
       <c r="B186" t="s">
-        <v>462</v>
+        <v>473</v>
       </c>
       <c r="C186" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
       <c r="D186" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="E186" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="F186">
         <v>1</v>
@@ -6498,19 +6489,19 @@
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
       <c r="B187" t="s">
-        <v>466</v>
+        <v>476</v>
       </c>
       <c r="C187" t="s">
-        <v>467</v>
+        <v>477</v>
       </c>
       <c r="D187" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="E187" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="F187">
         <v>1</v>
@@ -6518,19 +6509,19 @@
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>468</v>
+        <v>478</v>
       </c>
       <c r="B188" t="s">
-        <v>469</v>
+        <v>479</v>
       </c>
       <c r="C188" t="s">
-        <v>470</v>
+        <v>480</v>
       </c>
       <c r="D188" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="E188" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="F188">
         <v>1</v>
@@ -6538,19 +6529,19 @@
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
       <c r="B189" t="s">
-        <v>472</v>
+        <v>482</v>
       </c>
       <c r="C189" t="s">
-        <v>473</v>
+        <v>483</v>
       </c>
       <c r="D189" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="E189" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="F189">
         <v>1</v>
@@ -6558,19 +6549,19 @@
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>474</v>
+        <v>484</v>
       </c>
       <c r="B190" t="s">
-        <v>475</v>
+        <v>485</v>
       </c>
       <c r="C190" t="s">
-        <v>476</v>
+        <v>486</v>
       </c>
       <c r="D190" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="E190" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="F190">
         <v>1</v>
@@ -6578,19 +6569,19 @@
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>477</v>
+        <v>487</v>
       </c>
       <c r="B191" t="s">
-        <v>478</v>
+        <v>488</v>
       </c>
       <c r="C191" t="s">
-        <v>479</v>
+        <v>489</v>
       </c>
       <c r="D191" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="E191" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="F191">
         <v>1</v>
@@ -6598,19 +6589,19 @@
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
       <c r="B192" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
       <c r="C192" t="s">
-        <v>482</v>
+        <v>492</v>
       </c>
       <c r="D192" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="E192" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="F192">
         <v>1</v>
@@ -6618,19 +6609,19 @@
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>483</v>
+        <v>493</v>
       </c>
       <c r="B193" t="s">
-        <v>484</v>
+        <v>494</v>
       </c>
       <c r="C193" t="s">
-        <v>485</v>
+        <v>495</v>
       </c>
       <c r="D193" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="E193" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="F193">
         <v>1</v>
@@ -6638,19 +6629,19 @@
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
       <c r="B194" t="s">
-        <v>487</v>
+        <v>497</v>
       </c>
       <c r="C194" t="s">
-        <v>488</v>
+        <v>498</v>
       </c>
       <c r="D194" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="E194" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="F194">
         <v>1</v>
@@ -6658,19 +6649,19 @@
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>489</v>
+        <v>499</v>
       </c>
       <c r="B195" t="s">
-        <v>490</v>
+        <v>500</v>
       </c>
       <c r="C195" t="s">
-        <v>491</v>
+        <v>501</v>
       </c>
       <c r="D195" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="E195" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="F195">
         <v>1</v>
@@ -6678,19 +6669,19 @@
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
       <c r="B196" t="s">
-        <v>493</v>
+        <v>503</v>
       </c>
       <c r="C196" t="s">
-        <v>494</v>
+        <v>504</v>
       </c>
       <c r="D196" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="E196" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="F196">
         <v>1</v>
@@ -6698,19 +6689,19 @@
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>495</v>
+        <v>505</v>
       </c>
       <c r="B197" t="s">
-        <v>496</v>
+        <v>506</v>
       </c>
       <c r="C197" t="s">
-        <v>497</v>
+        <v>507</v>
       </c>
       <c r="D197" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="E197" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="F197">
         <v>1</v>
@@ -6718,19 +6709,19 @@
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>498</v>
+        <v>508</v>
       </c>
       <c r="B198" t="s">
-        <v>499</v>
+        <v>509</v>
       </c>
       <c r="C198" t="s">
-        <v>500</v>
+        <v>510</v>
       </c>
       <c r="D198" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="E198" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="F198">
         <v>1</v>
@@ -6738,19 +6729,19 @@
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>501</v>
+        <v>511</v>
       </c>
       <c r="B199" t="s">
-        <v>502</v>
+        <v>512</v>
       </c>
       <c r="C199" t="s">
-        <v>503</v>
+        <v>513</v>
       </c>
       <c r="D199" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="E199" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="F199">
         <v>1</v>
@@ -6758,19 +6749,19 @@
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>504</v>
+        <v>514</v>
       </c>
       <c r="B200" t="s">
-        <v>505</v>
+        <v>515</v>
       </c>
       <c r="C200" t="s">
-        <v>506</v>
+        <v>516</v>
       </c>
       <c r="D200" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="E200" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="F200">
         <v>1</v>
@@ -6778,19 +6769,19 @@
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>507</v>
+        <v>517</v>
       </c>
       <c r="B201" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="C201" t="s">
-        <v>509</v>
+        <v>519</v>
       </c>
       <c r="D201" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="E201" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="F201">
         <v>1</v>
@@ -6798,19 +6789,19 @@
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>510</v>
+        <v>520</v>
       </c>
       <c r="B202" t="s">
-        <v>511</v>
+        <v>521</v>
       </c>
       <c r="C202" t="s">
-        <v>512</v>
+        <v>522</v>
       </c>
       <c r="D202" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="E202" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="F202">
         <v>1</v>
@@ -6818,19 +6809,19 @@
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>513</v>
+        <v>523</v>
       </c>
       <c r="B203" t="s">
-        <v>514</v>
+        <v>524</v>
       </c>
       <c r="C203" t="s">
-        <v>515</v>
+        <v>525</v>
       </c>
       <c r="D203" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="E203" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="F203">
         <v>1</v>
@@ -6838,19 +6829,19 @@
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>516</v>
+        <v>526</v>
       </c>
       <c r="B204" t="s">
-        <v>517</v>
+        <v>527</v>
       </c>
       <c r="C204" t="s">
-        <v>518</v>
+        <v>528</v>
       </c>
       <c r="D204" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="E204" t="s">
-        <v>148</v>
+        <v>129</v>
       </c>
       <c r="F204">
         <v>1</v>
@@ -6858,19 +6849,19 @@
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>519</v>
+        <v>529</v>
       </c>
       <c r="B205" t="s">
-        <v>520</v>
+        <v>530</v>
       </c>
       <c r="C205" t="s">
-        <v>521</v>
+        <v>531</v>
       </c>
       <c r="D205" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="E205" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="F205">
         <v>1</v>
@@ -6878,19 +6869,19 @@
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>522</v>
+        <v>532</v>
       </c>
       <c r="B206" t="s">
-        <v>523</v>
+        <v>533</v>
       </c>
       <c r="C206" t="s">
-        <v>524</v>
+        <v>534</v>
       </c>
       <c r="D206" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="E206" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="F206">
         <v>1</v>
@@ -6898,19 +6889,19 @@
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>525</v>
+        <v>535</v>
       </c>
       <c r="B207" t="s">
-        <v>526</v>
+        <v>536</v>
       </c>
       <c r="C207" t="s">
-        <v>527</v>
+        <v>537</v>
       </c>
       <c r="D207" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="E207" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="F207">
         <v>1</v>
@@ -6918,19 +6909,19 @@
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>528</v>
+        <v>538</v>
       </c>
       <c r="B208" t="s">
-        <v>529</v>
+        <v>539</v>
       </c>
       <c r="C208" t="s">
-        <v>530</v>
+        <v>540</v>
       </c>
       <c r="D208" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="E208" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="F208">
         <v>1</v>
@@ -6938,19 +6929,19 @@
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>531</v>
+        <v>541</v>
       </c>
       <c r="B209" t="s">
-        <v>532</v>
+        <v>542</v>
       </c>
       <c r="C209" t="s">
-        <v>533</v>
+        <v>543</v>
       </c>
       <c r="D209" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="E209" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="F209">
         <v>1</v>
@@ -6958,19 +6949,19 @@
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>534</v>
+        <v>544</v>
       </c>
       <c r="B210" t="s">
-        <v>535</v>
+        <v>545</v>
       </c>
       <c r="C210" t="s">
-        <v>536</v>
+        <v>546</v>
       </c>
       <c r="D210" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="E210" t="s">
-        <v>129</v>
+        <v>159</v>
       </c>
       <c r="F210">
         <v>1</v>
@@ -6978,19 +6969,19 @@
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>537</v>
+        <v>547</v>
       </c>
       <c r="B211" t="s">
-        <v>538</v>
+        <v>548</v>
       </c>
       <c r="C211" t="s">
-        <v>539</v>
+        <v>549</v>
       </c>
       <c r="D211" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="E211" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="F211">
         <v>1</v>
@@ -6998,19 +6989,19 @@
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>540</v>
+        <v>550</v>
       </c>
       <c r="B212" t="s">
-        <v>541</v>
+        <v>551</v>
       </c>
       <c r="C212" t="s">
-        <v>542</v>
+        <v>552</v>
       </c>
       <c r="D212" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="E212" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="F212">
         <v>1</v>
@@ -7018,19 +7009,19 @@
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>543</v>
+        <v>553</v>
       </c>
       <c r="B213" t="s">
-        <v>544</v>
+        <v>554</v>
       </c>
       <c r="C213" t="s">
-        <v>545</v>
+        <v>555</v>
       </c>
       <c r="D213" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="E213" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="F213">
         <v>1</v>
@@ -7038,19 +7029,19 @@
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>546</v>
+        <v>556</v>
       </c>
       <c r="B214" t="s">
-        <v>547</v>
+        <v>557</v>
       </c>
       <c r="C214" t="s">
-        <v>548</v>
+        <v>558</v>
       </c>
       <c r="D214" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="E214" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="F214">
         <v>1</v>
@@ -7058,19 +7049,19 @@
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>549</v>
+        <v>559</v>
       </c>
       <c r="B215" t="s">
-        <v>550</v>
+        <v>560</v>
       </c>
       <c r="C215" t="s">
-        <v>551</v>
+        <v>561</v>
       </c>
       <c r="D215" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="E215" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="F215">
         <v>1</v>
@@ -7078,19 +7069,19 @@
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>552</v>
+        <v>562</v>
       </c>
       <c r="B216" t="s">
-        <v>553</v>
+        <v>563</v>
       </c>
       <c r="C216" t="s">
-        <v>554</v>
+        <v>564</v>
       </c>
       <c r="D216" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="E216" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="F216">
         <v>1</v>
@@ -7098,19 +7089,19 @@
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>555</v>
+        <v>565</v>
       </c>
       <c r="B217" t="s">
-        <v>556</v>
+        <v>566</v>
       </c>
       <c r="C217" t="s">
-        <v>557</v>
+        <v>567</v>
       </c>
       <c r="D217" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="E217" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="F217">
         <v>1</v>
@@ -7118,19 +7109,19 @@
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>558</v>
+        <v>568</v>
       </c>
       <c r="B218" t="s">
-        <v>559</v>
+        <v>569</v>
       </c>
       <c r="C218" t="s">
-        <v>560</v>
+        <v>570</v>
       </c>
       <c r="D218" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="E218" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="F218">
         <v>1</v>
@@ -7138,19 +7129,19 @@
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>561</v>
+        <v>571</v>
       </c>
       <c r="B219" t="s">
-        <v>562</v>
+        <v>572</v>
       </c>
       <c r="C219" t="s">
-        <v>563</v>
+        <v>573</v>
       </c>
       <c r="D219" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="E219" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="F219">
         <v>1</v>
@@ -7158,19 +7149,19 @@
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>564</v>
+        <v>574</v>
       </c>
       <c r="B220" t="s">
-        <v>565</v>
+        <v>575</v>
       </c>
       <c r="C220" t="s">
-        <v>566</v>
+        <v>576</v>
       </c>
       <c r="D220" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="E220" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="F220">
         <v>1</v>
@@ -7178,19 +7169,19 @@
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>567</v>
+        <v>577</v>
       </c>
       <c r="B221" t="s">
-        <v>568</v>
+        <v>578</v>
       </c>
       <c r="C221" t="s">
-        <v>569</v>
+        <v>579</v>
       </c>
       <c r="D221" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="E221" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="F221">
         <v>1</v>
@@ -7198,19 +7189,19 @@
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>570</v>
+        <v>580</v>
       </c>
       <c r="B222" t="s">
-        <v>571</v>
+        <v>581</v>
       </c>
       <c r="C222" t="s">
-        <v>572</v>
+        <v>582</v>
       </c>
       <c r="D222" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="E222" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="F222">
         <v>1</v>
@@ -7218,19 +7209,19 @@
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>573</v>
+        <v>583</v>
       </c>
       <c r="B223" t="s">
-        <v>574</v>
+        <v>584</v>
       </c>
       <c r="C223" t="s">
-        <v>575</v>
+        <v>585</v>
       </c>
       <c r="D223" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="E223" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="F223">
         <v>1</v>
@@ -7238,19 +7229,19 @@
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>576</v>
+        <v>586</v>
       </c>
       <c r="B224" t="s">
-        <v>577</v>
+        <v>587</v>
       </c>
       <c r="C224" t="s">
-        <v>578</v>
+        <v>588</v>
       </c>
       <c r="D224" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="E224" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="F224">
         <v>1</v>
@@ -7258,19 +7249,19 @@
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>579</v>
+        <v>589</v>
       </c>
       <c r="B225" t="s">
-        <v>580</v>
+        <v>590</v>
       </c>
       <c r="C225" t="s">
-        <v>581</v>
+        <v>591</v>
       </c>
       <c r="D225" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="E225" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="F225">
         <v>1</v>
@@ -7278,19 +7269,19 @@
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>582</v>
+        <v>592</v>
       </c>
       <c r="B226" t="s">
-        <v>583</v>
+        <v>593</v>
       </c>
       <c r="C226" t="s">
-        <v>584</v>
+        <v>594</v>
       </c>
       <c r="D226" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="E226" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="F226">
         <v>1</v>
@@ -7298,19 +7289,19 @@
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>585</v>
+        <v>595</v>
       </c>
       <c r="B227" t="s">
-        <v>586</v>
+        <v>596</v>
       </c>
       <c r="C227" t="s">
-        <v>587</v>
+        <v>597</v>
       </c>
       <c r="D227" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="E227" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="F227">
         <v>1</v>
@@ -7318,19 +7309,19 @@
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>588</v>
+        <v>598</v>
       </c>
       <c r="B228" t="s">
-        <v>589</v>
+        <v>599</v>
       </c>
       <c r="C228" t="s">
-        <v>590</v>
+        <v>600</v>
       </c>
       <c r="D228" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="E228" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="F228">
         <v>1</v>
@@ -7338,19 +7329,19 @@
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>591</v>
+        <v>601</v>
       </c>
       <c r="B229" t="s">
-        <v>592</v>
+        <v>602</v>
       </c>
       <c r="C229" t="s">
-        <v>593</v>
+        <v>603</v>
       </c>
       <c r="D229" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="E229" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="F229">
         <v>1</v>
@@ -7358,19 +7349,19 @@
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>594</v>
+        <v>604</v>
       </c>
       <c r="B230" t="s">
-        <v>595</v>
+        <v>605</v>
       </c>
       <c r="C230" t="s">
-        <v>596</v>
+        <v>606</v>
       </c>
       <c r="D230" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="E230" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="F230">
         <v>1</v>
@@ -7378,19 +7369,19 @@
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>597</v>
+        <v>607</v>
       </c>
       <c r="B231" t="s">
-        <v>598</v>
+        <v>608</v>
       </c>
       <c r="C231" t="s">
-        <v>599</v>
+        <v>609</v>
       </c>
       <c r="D231" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="E231" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="F231">
         <v>1</v>
@@ -7398,19 +7389,19 @@
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>600</v>
+        <v>610</v>
       </c>
       <c r="B232" t="s">
-        <v>601</v>
+        <v>611</v>
       </c>
       <c r="C232" t="s">
-        <v>602</v>
+        <v>612</v>
       </c>
       <c r="D232" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="E232" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="F232">
         <v>1</v>
@@ -7418,19 +7409,19 @@
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>603</v>
+        <v>613</v>
       </c>
       <c r="B233" t="s">
-        <v>604</v>
+        <v>614</v>
       </c>
       <c r="C233" t="s">
-        <v>605</v>
+        <v>615</v>
       </c>
       <c r="D233" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="E233" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="F233">
         <v>1</v>
@@ -7438,19 +7429,19 @@
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>606</v>
+        <v>616</v>
       </c>
       <c r="B234" t="s">
-        <v>607</v>
+        <v>617</v>
       </c>
       <c r="C234" t="s">
-        <v>608</v>
+        <v>618</v>
       </c>
       <c r="D234" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="E234" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="F234">
         <v>1</v>
@@ -7458,19 +7449,19 @@
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>609</v>
+        <v>619</v>
       </c>
       <c r="B235" t="s">
-        <v>610</v>
+        <v>620</v>
       </c>
       <c r="C235" t="s">
-        <v>611</v>
+        <v>621</v>
       </c>
       <c r="D235" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="E235" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="F235">
         <v>1</v>
@@ -7478,19 +7469,19 @@
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>612</v>
+        <v>622</v>
       </c>
       <c r="B236" t="s">
-        <v>613</v>
+        <v>623</v>
       </c>
       <c r="C236" t="s">
-        <v>614</v>
+        <v>624</v>
       </c>
       <c r="D236" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="E236" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="F236">
         <v>1</v>
@@ -7498,19 +7489,19 @@
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>615</v>
+        <v>625</v>
       </c>
       <c r="B237" t="s">
-        <v>616</v>
+        <v>626</v>
       </c>
       <c r="C237" t="s">
-        <v>617</v>
+        <v>627</v>
       </c>
       <c r="D237" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="E237" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="F237">
         <v>1</v>
@@ -7518,19 +7509,19 @@
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>618</v>
+        <v>628</v>
       </c>
       <c r="B238" t="s">
-        <v>619</v>
+        <v>629</v>
       </c>
       <c r="C238" t="s">
-        <v>620</v>
+        <v>630</v>
       </c>
       <c r="D238" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="E238" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="F238">
         <v>1</v>
@@ -7538,19 +7529,19 @@
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>621</v>
+        <v>631</v>
       </c>
       <c r="B239" t="s">
-        <v>622</v>
+        <v>632</v>
       </c>
       <c r="C239" t="s">
-        <v>623</v>
+        <v>633</v>
       </c>
       <c r="D239" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="E239" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="F239">
         <v>1</v>
@@ -7558,19 +7549,19 @@
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>624</v>
+        <v>634</v>
       </c>
       <c r="B240" t="s">
-        <v>625</v>
+        <v>635</v>
       </c>
       <c r="C240" t="s">
-        <v>626</v>
+        <v>636</v>
       </c>
       <c r="D240" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="E240" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="F240">
         <v>1</v>
@@ -7578,19 +7569,19 @@
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>627</v>
+        <v>637</v>
       </c>
       <c r="B241" t="s">
-        <v>628</v>
+        <v>638</v>
       </c>
       <c r="C241" t="s">
-        <v>629</v>
+        <v>639</v>
       </c>
       <c r="D241" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="E241" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="F241">
         <v>1</v>
@@ -7598,19 +7589,19 @@
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>630</v>
+        <v>640</v>
       </c>
       <c r="B242" t="s">
-        <v>631</v>
+        <v>641</v>
       </c>
       <c r="C242" t="s">
-        <v>632</v>
+        <v>642</v>
       </c>
       <c r="D242" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="E242" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="F242">
         <v>1</v>
@@ -7618,19 +7609,19 @@
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>633</v>
+        <v>643</v>
       </c>
       <c r="B243" t="s">
-        <v>634</v>
+        <v>644</v>
       </c>
       <c r="C243" t="s">
-        <v>635</v>
+        <v>645</v>
       </c>
       <c r="D243" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="E243" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="F243">
         <v>1</v>
@@ -7638,19 +7629,19 @@
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>636</v>
+        <v>646</v>
       </c>
       <c r="B244" t="s">
-        <v>637</v>
+        <v>647</v>
       </c>
       <c r="C244" t="s">
-        <v>638</v>
+        <v>648</v>
       </c>
       <c r="D244" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="E244" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="F244">
         <v>1</v>
@@ -7658,19 +7649,19 @@
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>639</v>
+        <v>649</v>
       </c>
       <c r="B245" t="s">
-        <v>640</v>
+        <v>650</v>
       </c>
       <c r="C245" t="s">
-        <v>641</v>
+        <v>651</v>
       </c>
       <c r="D245" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="E245" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="F245">
         <v>1</v>
@@ -7678,19 +7669,19 @@
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>642</v>
+        <v>652</v>
       </c>
       <c r="B246" t="s">
-        <v>643</v>
+        <v>653</v>
       </c>
       <c r="C246" t="s">
-        <v>644</v>
+        <v>654</v>
       </c>
       <c r="D246" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="E246" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="F246">
         <v>1</v>
@@ -7698,19 +7689,19 @@
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>645</v>
+        <v>655</v>
       </c>
       <c r="B247" t="s">
-        <v>646</v>
+        <v>656</v>
       </c>
       <c r="C247" t="s">
-        <v>647</v>
+        <v>657</v>
       </c>
       <c r="D247" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="E247" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="F247">
         <v>1</v>
@@ -7718,19 +7709,19 @@
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>648</v>
+        <v>658</v>
       </c>
       <c r="B248" t="s">
-        <v>649</v>
+        <v>659</v>
       </c>
       <c r="C248" t="s">
-        <v>650</v>
+        <v>660</v>
       </c>
       <c r="D248" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="E248" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="F248">
         <v>1</v>
@@ -7738,19 +7729,19 @@
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>651</v>
+        <v>661</v>
       </c>
       <c r="B249" t="s">
-        <v>652</v>
+        <v>662</v>
       </c>
       <c r="C249" t="s">
-        <v>653</v>
+        <v>663</v>
       </c>
       <c r="D249" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="E249" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="F249">
         <v>1</v>
@@ -7758,19 +7749,19 @@
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>654</v>
+        <v>664</v>
       </c>
       <c r="B250" t="s">
-        <v>655</v>
+        <v>665</v>
       </c>
       <c r="C250" t="s">
-        <v>656</v>
+        <v>666</v>
       </c>
       <c r="D250" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="E250" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="F250">
         <v>1</v>
@@ -7778,19 +7769,19 @@
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>657</v>
+        <v>667</v>
       </c>
       <c r="B251" t="s">
-        <v>658</v>
+        <v>668</v>
       </c>
       <c r="C251" t="s">
-        <v>659</v>
+        <v>669</v>
       </c>
       <c r="D251" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="E251" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="F251">
         <v>1</v>
@@ -7798,19 +7789,19 @@
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>660</v>
+        <v>670</v>
       </c>
       <c r="B252" t="s">
-        <v>661</v>
+        <v>671</v>
       </c>
       <c r="C252" t="s">
-        <v>662</v>
+        <v>672</v>
       </c>
       <c r="D252" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="E252" t="s">
-        <v>195</v>
+        <v>130</v>
       </c>
       <c r="F252">
         <v>1</v>
@@ -7818,19 +7809,19 @@
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>663</v>
+        <v>673</v>
       </c>
       <c r="B253" t="s">
-        <v>664</v>
+        <v>674</v>
       </c>
       <c r="C253" t="s">
-        <v>665</v>
+        <v>675</v>
       </c>
       <c r="D253" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="E253" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="F253">
         <v>1</v>
@@ -7838,19 +7829,19 @@
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>666</v>
+        <v>676</v>
       </c>
       <c r="B254" t="s">
-        <v>667</v>
+        <v>677</v>
       </c>
       <c r="C254" t="s">
-        <v>668</v>
+        <v>678</v>
       </c>
       <c r="D254" t="s">
-        <v>464</v>
-      </c>
-      <c r="E254" t="s">
-        <v>197</v>
+        <v>456</v>
+      </c>
+      <c r="E254" s="4" t="s">
+        <v>202</v>
       </c>
       <c r="F254">
         <v>1</v>
@@ -7858,19 +7849,19 @@
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>669</v>
+        <v>679</v>
       </c>
       <c r="B255" t="s">
-        <v>670</v>
+        <v>680</v>
       </c>
       <c r="C255" t="s">
-        <v>671</v>
+        <v>681</v>
       </c>
       <c r="D255" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="E255" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="F255">
         <v>1</v>
@@ -7878,19 +7869,19 @@
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>672</v>
+        <v>682</v>
       </c>
       <c r="B256" t="s">
-        <v>673</v>
+        <v>683</v>
       </c>
       <c r="C256" t="s">
-        <v>674</v>
+        <v>684</v>
       </c>
       <c r="D256" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="E256" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="F256">
         <v>1</v>
@@ -7898,19 +7889,19 @@
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>675</v>
+        <v>685</v>
       </c>
       <c r="B257" t="s">
-        <v>676</v>
+        <v>686</v>
       </c>
       <c r="C257" t="s">
-        <v>677</v>
+        <v>687</v>
       </c>
       <c r="D257" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="E257" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="F257">
         <v>1</v>
@@ -7918,19 +7909,19 @@
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>678</v>
+        <v>688</v>
       </c>
       <c r="B258" t="s">
-        <v>679</v>
+        <v>689</v>
       </c>
       <c r="C258" t="s">
-        <v>680</v>
+        <v>690</v>
       </c>
       <c r="D258" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="E258" t="s">
-        <v>130</v>
+        <v>206</v>
       </c>
       <c r="F258">
         <v>1</v>
@@ -7938,19 +7929,19 @@
     </row>
     <row r="259" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>681</v>
+        <v>691</v>
       </c>
       <c r="B259" t="s">
-        <v>682</v>
+        <v>692</v>
       </c>
       <c r="C259" t="s">
-        <v>683</v>
+        <v>693</v>
       </c>
       <c r="D259" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="E259" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="F259">
         <v>1</v>
@@ -7958,19 +7949,19 @@
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>684</v>
+        <v>694</v>
       </c>
       <c r="B260" t="s">
-        <v>685</v>
+        <v>695</v>
       </c>
       <c r="C260" t="s">
-        <v>686</v>
+        <v>696</v>
       </c>
       <c r="D260" t="s">
-        <v>464</v>
-      </c>
-      <c r="E260" s="7" t="s">
-        <v>202</v>
+        <v>456</v>
+      </c>
+      <c r="E260" t="s">
+        <v>208</v>
       </c>
       <c r="F260">
         <v>1</v>
@@ -7978,19 +7969,19 @@
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>687</v>
+        <v>697</v>
       </c>
       <c r="B261" t="s">
-        <v>688</v>
+        <v>698</v>
       </c>
       <c r="C261" t="s">
-        <v>689</v>
+        <v>699</v>
       </c>
       <c r="D261" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="E261" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="F261">
         <v>1</v>
@@ -7998,19 +7989,19 @@
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>690</v>
+        <v>700</v>
       </c>
       <c r="B262" t="s">
-        <v>691</v>
+        <v>701</v>
       </c>
       <c r="C262" t="s">
-        <v>692</v>
+        <v>702</v>
       </c>
       <c r="D262" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="E262" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="F262">
         <v>1</v>
@@ -8018,19 +8009,19 @@
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>693</v>
+        <v>703</v>
       </c>
       <c r="B263" t="s">
-        <v>694</v>
+        <v>704</v>
       </c>
       <c r="C263" t="s">
-        <v>695</v>
+        <v>705</v>
       </c>
       <c r="D263" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="E263" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="F263">
         <v>1</v>
@@ -8038,19 +8029,19 @@
     </row>
     <row r="264" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>696</v>
+        <v>706</v>
       </c>
       <c r="B264" t="s">
-        <v>697</v>
+        <v>707</v>
       </c>
       <c r="C264" t="s">
-        <v>698</v>
+        <v>708</v>
       </c>
       <c r="D264" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="E264" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="F264">
         <v>1</v>
@@ -8058,19 +8049,19 @@
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>699</v>
+        <v>709</v>
       </c>
       <c r="B265" t="s">
-        <v>700</v>
+        <v>710</v>
       </c>
       <c r="C265" t="s">
-        <v>701</v>
+        <v>711</v>
       </c>
       <c r="D265" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="E265" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="F265">
         <v>1</v>
@@ -8078,19 +8069,19 @@
     </row>
     <row r="266" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>702</v>
+        <v>712</v>
       </c>
       <c r="B266" t="s">
-        <v>703</v>
+        <v>713</v>
       </c>
       <c r="C266" t="s">
-        <v>704</v>
+        <v>714</v>
       </c>
       <c r="D266" t="s">
-        <v>464</v>
-      </c>
-      <c r="E266" t="s">
-        <v>208</v>
+        <v>456</v>
+      </c>
+      <c r="E266" s="4" t="s">
+        <v>214</v>
       </c>
       <c r="F266">
         <v>1</v>
@@ -8098,19 +8089,19 @@
     </row>
     <row r="267" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>705</v>
+        <v>715</v>
       </c>
       <c r="B267" t="s">
-        <v>706</v>
+        <v>716</v>
       </c>
       <c r="C267" t="s">
-        <v>707</v>
+        <v>717</v>
       </c>
       <c r="D267" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="E267" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="F267">
         <v>1</v>
@@ -8118,19 +8109,19 @@
     </row>
     <row r="268" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>708</v>
+        <v>718</v>
       </c>
       <c r="B268" t="s">
-        <v>709</v>
+        <v>719</v>
       </c>
       <c r="C268" t="s">
-        <v>710</v>
+        <v>720</v>
       </c>
       <c r="D268" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="E268" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="F268">
         <v>1</v>
@@ -8138,127 +8129,22 @@
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>711</v>
+        <v>721</v>
       </c>
       <c r="B269" t="s">
-        <v>712</v>
+        <v>722</v>
       </c>
       <c r="C269" t="s">
-        <v>713</v>
+        <v>723</v>
       </c>
       <c r="D269" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="E269" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="F269">
         <v>1</v>
-      </c>
-    </row>
-    <row r="270" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A270" t="s">
-        <v>714</v>
-      </c>
-      <c r="B270" t="s">
-        <v>715</v>
-      </c>
-      <c r="C270" t="s">
-        <v>716</v>
-      </c>
-      <c r="D270" t="s">
-        <v>464</v>
-      </c>
-      <c r="E270" t="s">
-        <v>212</v>
-      </c>
-      <c r="F270">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="271" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A271" t="s">
-        <v>717</v>
-      </c>
-      <c r="B271" t="s">
-        <v>718</v>
-      </c>
-      <c r="C271" t="s">
-        <v>719</v>
-      </c>
-      <c r="D271" t="s">
-        <v>464</v>
-      </c>
-      <c r="E271" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="272" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A272" t="s">
-        <v>720</v>
-      </c>
-      <c r="B272" t="s">
-        <v>721</v>
-      </c>
-      <c r="C272" t="s">
-        <v>722</v>
-      </c>
-      <c r="D272" t="s">
-        <v>464</v>
-      </c>
-      <c r="E272" s="7" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A273" t="s">
-        <v>723</v>
-      </c>
-      <c r="B273" t="s">
-        <v>724</v>
-      </c>
-      <c r="C273" t="s">
-        <v>725</v>
-      </c>
-      <c r="D273" t="s">
-        <v>464</v>
-      </c>
-      <c r="E273" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A274" t="s">
-        <v>726</v>
-      </c>
-      <c r="B274" t="s">
-        <v>727</v>
-      </c>
-      <c r="C274" t="s">
-        <v>728</v>
-      </c>
-      <c r="D274" t="s">
-        <v>464</v>
-      </c>
-      <c r="E274" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A275" t="s">
-        <v>729</v>
-      </c>
-      <c r="B275" t="s">
-        <v>730</v>
-      </c>
-      <c r="C275" t="s">
-        <v>731</v>
-      </c>
-      <c r="D275" t="s">
-        <v>464</v>
-      </c>
-      <c r="E275" t="s">
-        <v>217</v>
       </c>
     </row>
   </sheetData>

--- a/data/Designs/Designs_masterfile.xlsx
+++ b/data/Designs/Designs_masterfile.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HOL428\Documents\GitHub\SynBioMLMH\SynbioML\data\Designs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E67AE20B-C96D-4C2D-9615-6DD57D4BB9EC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4888FD7C-BA65-4DA9-82D4-BEDCA957CDBF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-19310" yWindow="3350" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sequences" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1168" uniqueCount="725">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1618" uniqueCount="996">
   <si>
     <t>tttaagaaggagatatacat</t>
   </si>
@@ -2205,6 +2205,819 @@
   </si>
   <si>
     <t>Round</t>
+  </si>
+  <si>
+    <t>RBS_2008</t>
+  </si>
+  <si>
+    <t>RBS_1363</t>
+  </si>
+  <si>
+    <t>RBS_1765</t>
+  </si>
+  <si>
+    <t>RBS_1998</t>
+  </si>
+  <si>
+    <t>RBS_1300</t>
+  </si>
+  <si>
+    <t>RBS_1342</t>
+  </si>
+  <si>
+    <t>RBS_2134</t>
+  </si>
+  <si>
+    <t>RBS_2012</t>
+  </si>
+  <si>
+    <t>RBS_1352</t>
+  </si>
+  <si>
+    <t>RBS_2070</t>
+  </si>
+  <si>
+    <t>RBS_1986</t>
+  </si>
+  <si>
+    <t>RBS_1884</t>
+  </si>
+  <si>
+    <t>RBS_1367</t>
+  </si>
+  <si>
+    <t>RBS_2478</t>
+  </si>
+  <si>
+    <t>RBS_1348</t>
+  </si>
+  <si>
+    <t>RBS_1755</t>
+  </si>
+  <si>
+    <t>RBS_3714</t>
+  </si>
+  <si>
+    <t>RBS_2598</t>
+  </si>
+  <si>
+    <t>RBS_1304</t>
+  </si>
+  <si>
+    <t>RBS_1422</t>
+  </si>
+  <si>
+    <t>RBS_1369</t>
+  </si>
+  <si>
+    <t>RBS_2978</t>
+  </si>
+  <si>
+    <t>RBS_2112</t>
+  </si>
+  <si>
+    <t>RBS_2025</t>
+  </si>
+  <si>
+    <t>RBS_1373</t>
+  </si>
+  <si>
+    <t>RBS_2988</t>
+  </si>
+  <si>
+    <t>RBS_2620</t>
+  </si>
+  <si>
+    <t>RBS_1391</t>
+  </si>
+  <si>
+    <t>RBS_3051</t>
+  </si>
+  <si>
+    <t>RBS_1769</t>
+  </si>
+  <si>
+    <t>RBS_2060</t>
+  </si>
+  <si>
+    <t>RBS_2018</t>
+  </si>
+  <si>
+    <t>RBS_2118</t>
+  </si>
+  <si>
+    <t>RBS_1875</t>
+  </si>
+  <si>
+    <t>RBS_3704</t>
+  </si>
+  <si>
+    <t>RBS_1134</t>
+  </si>
+  <si>
+    <t>RBS_1354</t>
+  </si>
+  <si>
+    <t>RBS_2608</t>
+  </si>
+  <si>
+    <t>RBS_3442</t>
+  </si>
+  <si>
+    <t>RBS_2124</t>
+  </si>
+  <si>
+    <t>RBS_2966</t>
+  </si>
+  <si>
+    <t>RBS_1292</t>
+  </si>
+  <si>
+    <t>RBS_2074</t>
+  </si>
+  <si>
+    <t>RBS_1358</t>
+  </si>
+  <si>
+    <t>RBS_2028</t>
+  </si>
+  <si>
+    <t>RBS_1380</t>
+  </si>
+  <si>
+    <t>RBS_1775</t>
+  </si>
+  <si>
+    <t>RBS_1992</t>
+  </si>
+  <si>
+    <t>RBS_2064</t>
+  </si>
+  <si>
+    <t>RBS_1412</t>
+  </si>
+  <si>
+    <t>RBS_2866</t>
+  </si>
+  <si>
+    <t>RBS_2604</t>
+  </si>
+  <si>
+    <t>RBS_2005</t>
+  </si>
+  <si>
+    <t>RBS_1743</t>
+  </si>
+  <si>
+    <t>RBS_330</t>
+  </si>
+  <si>
+    <t>RBS_1888</t>
+  </si>
+  <si>
+    <t>RBS_3029</t>
+  </si>
+  <si>
+    <t>RBS_1383</t>
+  </si>
+  <si>
+    <t>RBS_1349</t>
+  </si>
+  <si>
+    <t>RBS_2992</t>
+  </si>
+  <si>
+    <t>RBS_391</t>
+  </si>
+  <si>
+    <t>RBS_1124</t>
+  </si>
+  <si>
+    <t>RBS_2540</t>
+  </si>
+  <si>
+    <t>RBS_2122</t>
+  </si>
+  <si>
+    <t>RBS_1297</t>
+  </si>
+  <si>
+    <t>RBS_3718</t>
+  </si>
+  <si>
+    <t>RBS_3231</t>
+  </si>
+  <si>
+    <t>RBS_1343</t>
+  </si>
+  <si>
+    <t>RBS_2437</t>
+  </si>
+  <si>
+    <t>RBS_1782</t>
+  </si>
+  <si>
+    <t>RBS_1371</t>
+  </si>
+  <si>
+    <t>RBS_3041</t>
+  </si>
+  <si>
+    <t>RBS_1999</t>
+  </si>
+  <si>
+    <t>RBS_1360</t>
+  </si>
+  <si>
+    <t>RBS_2014</t>
+  </si>
+  <si>
+    <t>RBS_2610</t>
+  </si>
+  <si>
+    <t>RBS_1351</t>
+  </si>
+  <si>
+    <t>RBS_3692</t>
+  </si>
+  <si>
+    <t>RBS_3045</t>
+  </si>
+  <si>
+    <t>RBS_3112</t>
+  </si>
+  <si>
+    <t>RBS_1416</t>
+  </si>
+  <si>
+    <t>RBS_2027</t>
+  </si>
+  <si>
+    <t>RBS_2431</t>
+  </si>
+  <si>
+    <t>RBS_2140</t>
+  </si>
+  <si>
+    <t>RBS_1112</t>
+  </si>
+  <si>
+    <t>RBS_2856</t>
+  </si>
+  <si>
+    <t>RBS_1294</t>
+  </si>
+  <si>
+    <t>RBS_2998</t>
+  </si>
+  <si>
+    <t>RBS_1400</t>
+  </si>
+  <si>
+    <t>RBS_2652</t>
+  </si>
+  <si>
+    <t>Fourth_Plate</t>
+  </si>
+  <si>
+    <t>TTTAAGACAGGCTTATACAT</t>
+  </si>
+  <si>
+    <t>TTTAAGAGGCGCTTATACAT</t>
+  </si>
+  <si>
+    <t>TTTAAGAGTGGCTTATACAT</t>
+  </si>
+  <si>
+    <t>TTTAAGACAGGAGTATACAT</t>
+  </si>
+  <si>
+    <t>TTTAAGAGGGGCTTATACAT</t>
+  </si>
+  <si>
+    <t>TTTAAGAGGCAGGTATACAT</t>
+  </si>
+  <si>
+    <t>TTTAAGACATGCTTATACAT</t>
+  </si>
+  <si>
+    <t>TTTAAGACAGGTTTATACAT</t>
+  </si>
+  <si>
+    <t>TTTAAGAGGCATTTATACAT</t>
+  </si>
+  <si>
+    <t>TTTAAGACACGCTTATACAT</t>
+  </si>
+  <si>
+    <t>TTTAAGACAGAGGTATACAT</t>
+  </si>
+  <si>
+    <t>TTTAAGAGTTGCTTATACAT</t>
+  </si>
+  <si>
+    <t>TTTAAGAGGCGTTTATACAT</t>
+  </si>
+  <si>
+    <t>TTTAAGACCGAGGTATACAT</t>
+  </si>
+  <si>
+    <t>TTTAAGAGGCACTTATACAT</t>
+  </si>
+  <si>
+    <t>TTTAAGAGTGGAGTATACAT</t>
+  </si>
+  <si>
+    <t>TTTAAGATTGGCTTATACAT</t>
+  </si>
+  <si>
+    <t>TTTAAGACCTAGGTATACAT</t>
+  </si>
+  <si>
+    <t>TTTAAGAGGGGTTTATACAT</t>
+  </si>
+  <si>
+    <t>TTTAAGAGGTGCTTATACAT</t>
+  </si>
+  <si>
+    <t>TTTAAGAGGCCAGTATACAT</t>
+  </si>
+  <si>
+    <t>TTTAAGATAGGAGTATACAT</t>
+  </si>
+  <si>
+    <t>TTTAAGACATAGGTATACAT</t>
+  </si>
+  <si>
+    <t>TTTAAGACAGCTATATACAT</t>
+  </si>
+  <si>
+    <t>TTTAAGAGGCCGGTATACAT</t>
+  </si>
+  <si>
+    <t>TTTAAGATAGGCTTATACAT</t>
+  </si>
+  <si>
+    <t>TTTAAGACCTGCTTATACAT</t>
+  </si>
+  <si>
+    <t>TTTAAGAGGCTCTTATACAT</t>
+  </si>
+  <si>
+    <t>TTTAAGATACGCTTATACAT</t>
+  </si>
+  <si>
+    <t>TTTAAGAGTGGTTTATACAT</t>
+  </si>
+  <si>
+    <t>TTTAAGACACGAGTATACAT</t>
+  </si>
+  <si>
+    <t>TTTAAGACAGCGGTATACAT</t>
+  </si>
+  <si>
+    <t>TTTAAGACATACTTATACAT</t>
+  </si>
+  <si>
+    <t>TTTAAGAGTTGAGTATACAT</t>
+  </si>
+  <si>
+    <t>TTTAAGATTGGAGTATACAT</t>
+  </si>
+  <si>
+    <t>TTTAAGAGACGCTTATACAT</t>
+  </si>
+  <si>
+    <t>TTTAAGAGGCGAGTATACAT</t>
+  </si>
+  <si>
+    <t>TTTAAGACCTATTTATACAT</t>
+  </si>
+  <si>
+    <t>TTTAAGATCGAGGTATACAT</t>
+  </si>
+  <si>
+    <t>TTTAAGACATGAGTATACAT</t>
+  </si>
+  <si>
+    <t>TTTAAGATAGAGGTATACAT</t>
+  </si>
+  <si>
+    <t>TTTAAGAGGGGAGTATACAT</t>
+  </si>
+  <si>
+    <t>TTTAAGACACGTTTATACAT</t>
+  </si>
+  <si>
+    <t>TTTAAGAGGCGGGTATACAT</t>
+  </si>
+  <si>
+    <t>TTTAAGACAGCTTTATACAT</t>
+  </si>
+  <si>
+    <t>TTTAAGAGGCCTATATACAT</t>
+  </si>
+  <si>
+    <t>TTTAAGAGTGCGGTATACAT</t>
+  </si>
+  <si>
+    <t>TTTAAGACAGACTTATACAT</t>
+  </si>
+  <si>
+    <t>TTTAAGACACGGGTATACAT</t>
+  </si>
+  <si>
+    <t>TTTAAGAGGTGAGTATACAT</t>
+  </si>
+  <si>
+    <t>TTTAAGACTTGCTTATACAT</t>
+  </si>
+  <si>
+    <t>TTTAAGACCTACTTATACAT</t>
+  </si>
+  <si>
+    <t>TTTAAGACAGGCATATACAT</t>
+  </si>
+  <si>
+    <t>TTTAAGAGTGAGGTATACAT</t>
+  </si>
+  <si>
+    <t>TTTAAGAAGGGCTTATACAT</t>
+  </si>
+  <si>
+    <t>TTTAAGAGTTGTTTATACAT</t>
+  </si>
+  <si>
+    <t>TTTAAGATACAGGTATACAT</t>
+  </si>
+  <si>
+    <t>TTTAAGAGGCCTTTATACAT</t>
+  </si>
+  <si>
+    <t>TTTAAGAGGCATATATACAT</t>
+  </si>
+  <si>
+    <t>TTTAAGATAGGTTTATACAT</t>
+  </si>
+  <si>
+    <t>TTTAAGAAGCGCTTATACAT</t>
+  </si>
+  <si>
+    <t>TTTAAGAGACGAGTATACAT</t>
+  </si>
+  <si>
+    <t>TTTAAGACCCAGGTATACAT</t>
+  </si>
+  <si>
+    <t>TTTAAGACATATTTATACAT</t>
+  </si>
+  <si>
+    <t>TTTAAGAGGGGCATATACAT</t>
+  </si>
+  <si>
+    <t>TTTAAGATTGGTTTATACAT</t>
+  </si>
+  <si>
+    <t>TTTAAGATGGGCTTATACAT</t>
+  </si>
+  <si>
+    <t>TTTAAGAGGCAGCTATACAT</t>
+  </si>
+  <si>
+    <t>TTTAAGACCAGCTTATACAT</t>
+  </si>
+  <si>
+    <t>TTTAAGAGTGCTATATACAT</t>
+  </si>
+  <si>
+    <t>TTTAAGAGGCCATTATACAT</t>
+  </si>
+  <si>
+    <t>TTTAAGATACGAGTATACAT</t>
+  </si>
+  <si>
+    <t>TTTAAGACAGGACTATACAT</t>
+  </si>
+  <si>
+    <t>TTTAAGAGGCGCATATACAT</t>
+  </si>
+  <si>
+    <t>TTTAAGACAGCAGTATACAT</t>
+  </si>
+  <si>
+    <t>TTTAAGACCTGAGTATACAT</t>
+  </si>
+  <si>
+    <t>TTTAAGAGGCATCTATACAT</t>
+  </si>
+  <si>
+    <t>TTTAAGATTGAGGTATACAT</t>
+  </si>
+  <si>
+    <t>TTTAAGATACGGGTATACAT</t>
+  </si>
+  <si>
+    <t>TTTAAGATATGCTTATACAT</t>
+  </si>
+  <si>
+    <t>TTTAAGAGGTGGGTATACAT</t>
+  </si>
+  <si>
+    <t>TTTAAGACAGCTCTATACAT</t>
+  </si>
+  <si>
+    <t>TTTAAGACCAGGGTATACAT</t>
+  </si>
+  <si>
+    <t>TTTAAGACATCAGTATACAT</t>
+  </si>
+  <si>
+    <t>TTTAAGAGACAGGTATACAT</t>
+  </si>
+  <si>
+    <t>TTTAAGACTTGAGTATACAT</t>
+  </si>
+  <si>
+    <t>TTTAAGAGGGGGGTATACAT</t>
+  </si>
+  <si>
+    <t>TTTAAGATAGCGGTATACAT</t>
+  </si>
+  <si>
+    <t>TTTAAGAGGTAGGTATACAT</t>
+  </si>
+  <si>
+    <t>TTTAAGACCTTCTTATACAT</t>
+  </si>
+  <si>
+    <t>CAGGCT</t>
+  </si>
+  <si>
+    <t>GGCGCT</t>
+  </si>
+  <si>
+    <t>GTGGCT</t>
+  </si>
+  <si>
+    <t>CAGGAG</t>
+  </si>
+  <si>
+    <t>GGGGCT</t>
+  </si>
+  <si>
+    <t>GGCAGG</t>
+  </si>
+  <si>
+    <t>CATGCT</t>
+  </si>
+  <si>
+    <t>CAGGTT</t>
+  </si>
+  <si>
+    <t>GGCATT</t>
+  </si>
+  <si>
+    <t>CACGCT</t>
+  </si>
+  <si>
+    <t>CAGAGG</t>
+  </si>
+  <si>
+    <t>GTTGCT</t>
+  </si>
+  <si>
+    <t>GGCGTT</t>
+  </si>
+  <si>
+    <t>CCGAGG</t>
+  </si>
+  <si>
+    <t>GGCACT</t>
+  </si>
+  <si>
+    <t>GTGGAG</t>
+  </si>
+  <si>
+    <t>TTGGCT</t>
+  </si>
+  <si>
+    <t>CCTAGG</t>
+  </si>
+  <si>
+    <t>GGGGTT</t>
+  </si>
+  <si>
+    <t>GGTGCT</t>
+  </si>
+  <si>
+    <t>GGCCAG</t>
+  </si>
+  <si>
+    <t>TAGGAG</t>
+  </si>
+  <si>
+    <t>CATAGG</t>
+  </si>
+  <si>
+    <t>CAGCTA</t>
+  </si>
+  <si>
+    <t>GGCCGG</t>
+  </si>
+  <si>
+    <t>TAGGCT</t>
+  </si>
+  <si>
+    <t>CCTGCT</t>
+  </si>
+  <si>
+    <t>GGCTCT</t>
+  </si>
+  <si>
+    <t>TACGCT</t>
+  </si>
+  <si>
+    <t>GTGGTT</t>
+  </si>
+  <si>
+    <t>CACGAG</t>
+  </si>
+  <si>
+    <t>CAGCGG</t>
+  </si>
+  <si>
+    <t>CATACT</t>
+  </si>
+  <si>
+    <t>GTTGAG</t>
+  </si>
+  <si>
+    <t>TTGGAG</t>
+  </si>
+  <si>
+    <t>GACGCT</t>
+  </si>
+  <si>
+    <t>GGCGAG</t>
+  </si>
+  <si>
+    <t>CCTATT</t>
+  </si>
+  <si>
+    <t>TCGAGG</t>
+  </si>
+  <si>
+    <t>CATGAG</t>
+  </si>
+  <si>
+    <t>TAGAGG</t>
+  </si>
+  <si>
+    <t>GGGGAG</t>
+  </si>
+  <si>
+    <t>CACGTT</t>
+  </si>
+  <si>
+    <t>GGCGGG</t>
+  </si>
+  <si>
+    <t>CAGCTT</t>
+  </si>
+  <si>
+    <t>GGCCTA</t>
+  </si>
+  <si>
+    <t>GTGCGG</t>
+  </si>
+  <si>
+    <t>CAGACT</t>
+  </si>
+  <si>
+    <t>CACGGG</t>
+  </si>
+  <si>
+    <t>GGTGAG</t>
+  </si>
+  <si>
+    <t>CTTGCT</t>
+  </si>
+  <si>
+    <t>CCTACT</t>
+  </si>
+  <si>
+    <t>CAGGCA</t>
+  </si>
+  <si>
+    <t>GTGAGG</t>
+  </si>
+  <si>
+    <t>AGGGCT</t>
+  </si>
+  <si>
+    <t>GTTGTT</t>
+  </si>
+  <si>
+    <t>TACAGG</t>
+  </si>
+  <si>
+    <t>GGCCTT</t>
+  </si>
+  <si>
+    <t>GGCATA</t>
+  </si>
+  <si>
+    <t>TAGGTT</t>
+  </si>
+  <si>
+    <t>AGCGCT</t>
+  </si>
+  <si>
+    <t>GACGAG</t>
+  </si>
+  <si>
+    <t>CCCAGG</t>
+  </si>
+  <si>
+    <t>CATATT</t>
+  </si>
+  <si>
+    <t>GGGGCA</t>
+  </si>
+  <si>
+    <t>TTGGTT</t>
+  </si>
+  <si>
+    <t>TGGGCT</t>
+  </si>
+  <si>
+    <t>GGCAGC</t>
+  </si>
+  <si>
+    <t>CCAGCT</t>
+  </si>
+  <si>
+    <t>GTGCTA</t>
+  </si>
+  <si>
+    <t>GGCCAT</t>
+  </si>
+  <si>
+    <t>TACGAG</t>
+  </si>
+  <si>
+    <t>CAGGAC</t>
+  </si>
+  <si>
+    <t>GGCGCA</t>
+  </si>
+  <si>
+    <t>CAGCAG</t>
+  </si>
+  <si>
+    <t>CCTGAG</t>
+  </si>
+  <si>
+    <t>GGCATC</t>
+  </si>
+  <si>
+    <t>TTGAGG</t>
+  </si>
+  <si>
+    <t>TACGGG</t>
+  </si>
+  <si>
+    <t>TATGCT</t>
+  </si>
+  <si>
+    <t>GGTGGG</t>
+  </si>
+  <si>
+    <t>CAGCTC</t>
+  </si>
+  <si>
+    <t>CCAGGG</t>
+  </si>
+  <si>
+    <t>CATCAG</t>
+  </si>
+  <si>
+    <t>GACAGG</t>
+  </si>
+  <si>
+    <t>CTTGAG</t>
+  </si>
+  <si>
+    <t>GGGGGG</t>
+  </si>
+  <si>
+    <t>TAGCGG</t>
+  </si>
+  <si>
+    <t>GGTAGG</t>
+  </si>
+  <si>
+    <t>CCTTCT</t>
   </si>
 </sst>
 </file>
@@ -2253,12 +3066,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2576,10 +3392,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:F269"/>
+  <dimension ref="A1:F359"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A249" workbookViewId="0">
-      <selection activeCell="H266" sqref="H266"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -8147,6 +8963,1806 @@
         <v>1</v>
       </c>
     </row>
+    <row r="270" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A270" s="5" t="s">
+        <v>725</v>
+      </c>
+      <c r="B270" s="6" t="s">
+        <v>816</v>
+      </c>
+      <c r="C270" s="7" t="s">
+        <v>906</v>
+      </c>
+      <c r="D270" t="s">
+        <v>815</v>
+      </c>
+      <c r="E270" t="s">
+        <v>128</v>
+      </c>
+      <c r="F270">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="271" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A271" s="5" t="s">
+        <v>726</v>
+      </c>
+      <c r="B271" s="6" t="s">
+        <v>817</v>
+      </c>
+      <c r="C271" s="7" t="s">
+        <v>907</v>
+      </c>
+      <c r="D271" t="s">
+        <v>815</v>
+      </c>
+      <c r="E271" t="s">
+        <v>131</v>
+      </c>
+      <c r="F271">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="272" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A272" s="5" t="s">
+        <v>727</v>
+      </c>
+      <c r="B272" s="6" t="s">
+        <v>818</v>
+      </c>
+      <c r="C272" s="7" t="s">
+        <v>908</v>
+      </c>
+      <c r="D272" t="s">
+        <v>815</v>
+      </c>
+      <c r="E272" t="s">
+        <v>132</v>
+      </c>
+      <c r="F272">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="273" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A273" s="5" t="s">
+        <v>728</v>
+      </c>
+      <c r="B273" s="6" t="s">
+        <v>819</v>
+      </c>
+      <c r="C273" s="7" t="s">
+        <v>909</v>
+      </c>
+      <c r="D273" t="s">
+        <v>815</v>
+      </c>
+      <c r="E273" t="s">
+        <v>133</v>
+      </c>
+      <c r="F273">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="274" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A274" s="5" t="s">
+        <v>729</v>
+      </c>
+      <c r="B274" s="6" t="s">
+        <v>820</v>
+      </c>
+      <c r="C274" s="7" t="s">
+        <v>910</v>
+      </c>
+      <c r="D274" t="s">
+        <v>815</v>
+      </c>
+      <c r="E274" t="s">
+        <v>134</v>
+      </c>
+      <c r="F274">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="275" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A275" s="5" t="s">
+        <v>730</v>
+      </c>
+      <c r="B275" s="6" t="s">
+        <v>821</v>
+      </c>
+      <c r="C275" s="7" t="s">
+        <v>911</v>
+      </c>
+      <c r="D275" t="s">
+        <v>815</v>
+      </c>
+      <c r="E275" t="s">
+        <v>135</v>
+      </c>
+      <c r="F275">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="276" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A276" s="5" t="s">
+        <v>731</v>
+      </c>
+      <c r="B276" s="6" t="s">
+        <v>822</v>
+      </c>
+      <c r="C276" s="7" t="s">
+        <v>912</v>
+      </c>
+      <c r="D276" t="s">
+        <v>815</v>
+      </c>
+      <c r="E276" t="s">
+        <v>136</v>
+      </c>
+      <c r="F276">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="277" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A277" s="5" t="s">
+        <v>732</v>
+      </c>
+      <c r="B277" s="6" t="s">
+        <v>823</v>
+      </c>
+      <c r="C277" s="7" t="s">
+        <v>913</v>
+      </c>
+      <c r="D277" t="s">
+        <v>815</v>
+      </c>
+      <c r="E277" t="s">
+        <v>137</v>
+      </c>
+      <c r="F277">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="278" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A278" s="5" t="s">
+        <v>733</v>
+      </c>
+      <c r="B278" s="6" t="s">
+        <v>824</v>
+      </c>
+      <c r="C278" s="7" t="s">
+        <v>914</v>
+      </c>
+      <c r="D278" t="s">
+        <v>815</v>
+      </c>
+      <c r="E278" t="s">
+        <v>138</v>
+      </c>
+      <c r="F278">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="279" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A279" s="5" t="s">
+        <v>734</v>
+      </c>
+      <c r="B279" s="6" t="s">
+        <v>825</v>
+      </c>
+      <c r="C279" s="7" t="s">
+        <v>915</v>
+      </c>
+      <c r="D279" t="s">
+        <v>815</v>
+      </c>
+      <c r="E279" t="s">
+        <v>139</v>
+      </c>
+      <c r="F279">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="280" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A280" s="5" t="s">
+        <v>735</v>
+      </c>
+      <c r="B280" s="6" t="s">
+        <v>826</v>
+      </c>
+      <c r="C280" s="7" t="s">
+        <v>916</v>
+      </c>
+      <c r="D280" t="s">
+        <v>815</v>
+      </c>
+      <c r="E280" t="s">
+        <v>140</v>
+      </c>
+      <c r="F280">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="281" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A281" s="5" t="s">
+        <v>736</v>
+      </c>
+      <c r="B281" s="6" t="s">
+        <v>827</v>
+      </c>
+      <c r="C281" s="7" t="s">
+        <v>917</v>
+      </c>
+      <c r="D281" t="s">
+        <v>815</v>
+      </c>
+      <c r="E281" t="s">
+        <v>141</v>
+      </c>
+      <c r="F281">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="282" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A282" s="5" t="s">
+        <v>737</v>
+      </c>
+      <c r="B282" s="6" t="s">
+        <v>828</v>
+      </c>
+      <c r="C282" s="7" t="s">
+        <v>918</v>
+      </c>
+      <c r="D282" t="s">
+        <v>815</v>
+      </c>
+      <c r="E282" t="s">
+        <v>142</v>
+      </c>
+      <c r="F282">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="283" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A283" s="5" t="s">
+        <v>738</v>
+      </c>
+      <c r="B283" s="6" t="s">
+        <v>829</v>
+      </c>
+      <c r="C283" s="7" t="s">
+        <v>919</v>
+      </c>
+      <c r="D283" t="s">
+        <v>815</v>
+      </c>
+      <c r="E283" t="s">
+        <v>143</v>
+      </c>
+      <c r="F283">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="284" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A284" s="5" t="s">
+        <v>739</v>
+      </c>
+      <c r="B284" s="6" t="s">
+        <v>830</v>
+      </c>
+      <c r="C284" s="7" t="s">
+        <v>920</v>
+      </c>
+      <c r="D284" t="s">
+        <v>815</v>
+      </c>
+      <c r="E284" t="s">
+        <v>144</v>
+      </c>
+      <c r="F284">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="285" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A285" s="5" t="s">
+        <v>740</v>
+      </c>
+      <c r="B285" s="6" t="s">
+        <v>831</v>
+      </c>
+      <c r="C285" s="7" t="s">
+        <v>921</v>
+      </c>
+      <c r="D285" t="s">
+        <v>815</v>
+      </c>
+      <c r="E285" t="s">
+        <v>145</v>
+      </c>
+      <c r="F285">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="286" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A286" s="5" t="s">
+        <v>741</v>
+      </c>
+      <c r="B286" s="6" t="s">
+        <v>832</v>
+      </c>
+      <c r="C286" s="7" t="s">
+        <v>922</v>
+      </c>
+      <c r="D286" t="s">
+        <v>815</v>
+      </c>
+      <c r="E286" t="s">
+        <v>146</v>
+      </c>
+      <c r="F286">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="287" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A287" s="5" t="s">
+        <v>742</v>
+      </c>
+      <c r="B287" s="6" t="s">
+        <v>833</v>
+      </c>
+      <c r="C287" s="7" t="s">
+        <v>923</v>
+      </c>
+      <c r="D287" t="s">
+        <v>815</v>
+      </c>
+      <c r="E287" t="s">
+        <v>147</v>
+      </c>
+      <c r="F287">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="288" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A288" s="5" t="s">
+        <v>743</v>
+      </c>
+      <c r="B288" s="6" t="s">
+        <v>834</v>
+      </c>
+      <c r="C288" s="7" t="s">
+        <v>924</v>
+      </c>
+      <c r="D288" t="s">
+        <v>815</v>
+      </c>
+      <c r="E288" t="s">
+        <v>148</v>
+      </c>
+      <c r="F288">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="289" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A289" s="5" t="s">
+        <v>744</v>
+      </c>
+      <c r="B289" s="6" t="s">
+        <v>835</v>
+      </c>
+      <c r="C289" s="7" t="s">
+        <v>925</v>
+      </c>
+      <c r="D289" t="s">
+        <v>815</v>
+      </c>
+      <c r="E289" t="s">
+        <v>149</v>
+      </c>
+      <c r="F289">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="290" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A290" s="5" t="s">
+        <v>745</v>
+      </c>
+      <c r="B290" s="6" t="s">
+        <v>836</v>
+      </c>
+      <c r="C290" s="7" t="s">
+        <v>926</v>
+      </c>
+      <c r="D290" t="s">
+        <v>815</v>
+      </c>
+      <c r="E290" t="s">
+        <v>150</v>
+      </c>
+      <c r="F290">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="291" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A291" s="5" t="s">
+        <v>746</v>
+      </c>
+      <c r="B291" s="6" t="s">
+        <v>837</v>
+      </c>
+      <c r="C291" s="7" t="s">
+        <v>927</v>
+      </c>
+      <c r="D291" t="s">
+        <v>815</v>
+      </c>
+      <c r="E291" t="s">
+        <v>151</v>
+      </c>
+      <c r="F291">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="292" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A292" s="5" t="s">
+        <v>747</v>
+      </c>
+      <c r="B292" s="6" t="s">
+        <v>838</v>
+      </c>
+      <c r="C292" s="7" t="s">
+        <v>928</v>
+      </c>
+      <c r="D292" t="s">
+        <v>815</v>
+      </c>
+      <c r="E292" t="s">
+        <v>152</v>
+      </c>
+      <c r="F292">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="293" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A293" s="5" t="s">
+        <v>748</v>
+      </c>
+      <c r="B293" s="6" t="s">
+        <v>839</v>
+      </c>
+      <c r="C293" s="7" t="s">
+        <v>929</v>
+      </c>
+      <c r="D293" t="s">
+        <v>815</v>
+      </c>
+      <c r="E293" t="s">
+        <v>153</v>
+      </c>
+      <c r="F293">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="294" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A294" s="5" t="s">
+        <v>749</v>
+      </c>
+      <c r="B294" s="6" t="s">
+        <v>840</v>
+      </c>
+      <c r="C294" s="7" t="s">
+        <v>930</v>
+      </c>
+      <c r="D294" t="s">
+        <v>815</v>
+      </c>
+      <c r="E294" t="s">
+        <v>129</v>
+      </c>
+      <c r="F294">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="295" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A295" s="5" t="s">
+        <v>750</v>
+      </c>
+      <c r="B295" s="6" t="s">
+        <v>841</v>
+      </c>
+      <c r="C295" s="7" t="s">
+        <v>931</v>
+      </c>
+      <c r="D295" t="s">
+        <v>815</v>
+      </c>
+      <c r="E295" t="s">
+        <v>154</v>
+      </c>
+      <c r="F295">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="296" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A296" s="5" t="s">
+        <v>751</v>
+      </c>
+      <c r="B296" s="6" t="s">
+        <v>842</v>
+      </c>
+      <c r="C296" s="7" t="s">
+        <v>932</v>
+      </c>
+      <c r="D296" t="s">
+        <v>815</v>
+      </c>
+      <c r="E296" t="s">
+        <v>155</v>
+      </c>
+      <c r="F296">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="297" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A297" s="5" t="s">
+        <v>752</v>
+      </c>
+      <c r="B297" s="6" t="s">
+        <v>843</v>
+      </c>
+      <c r="C297" s="7" t="s">
+        <v>933</v>
+      </c>
+      <c r="D297" t="s">
+        <v>815</v>
+      </c>
+      <c r="E297" t="s">
+        <v>156</v>
+      </c>
+      <c r="F297">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="298" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A298" s="5" t="s">
+        <v>753</v>
+      </c>
+      <c r="B298" s="6" t="s">
+        <v>844</v>
+      </c>
+      <c r="C298" s="7" t="s">
+        <v>934</v>
+      </c>
+      <c r="D298" t="s">
+        <v>815</v>
+      </c>
+      <c r="E298" t="s">
+        <v>157</v>
+      </c>
+      <c r="F298">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="299" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A299" s="5" t="s">
+        <v>754</v>
+      </c>
+      <c r="B299" s="6" t="s">
+        <v>845</v>
+      </c>
+      <c r="C299" s="7" t="s">
+        <v>935</v>
+      </c>
+      <c r="D299" t="s">
+        <v>815</v>
+      </c>
+      <c r="E299" t="s">
+        <v>158</v>
+      </c>
+      <c r="F299">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="300" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A300" s="5" t="s">
+        <v>755</v>
+      </c>
+      <c r="B300" s="6" t="s">
+        <v>846</v>
+      </c>
+      <c r="C300" s="7" t="s">
+        <v>936</v>
+      </c>
+      <c r="D300" t="s">
+        <v>815</v>
+      </c>
+      <c r="E300" t="s">
+        <v>159</v>
+      </c>
+      <c r="F300">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="301" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A301" s="5" t="s">
+        <v>756</v>
+      </c>
+      <c r="B301" s="6" t="s">
+        <v>847</v>
+      </c>
+      <c r="C301" s="7" t="s">
+        <v>937</v>
+      </c>
+      <c r="D301" t="s">
+        <v>815</v>
+      </c>
+      <c r="E301" t="s">
+        <v>160</v>
+      </c>
+      <c r="F301">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="302" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A302" s="5" t="s">
+        <v>757</v>
+      </c>
+      <c r="B302" s="6" t="s">
+        <v>848</v>
+      </c>
+      <c r="C302" s="7" t="s">
+        <v>938</v>
+      </c>
+      <c r="D302" t="s">
+        <v>815</v>
+      </c>
+      <c r="E302" t="s">
+        <v>161</v>
+      </c>
+      <c r="F302">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="303" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A303" s="5" t="s">
+        <v>758</v>
+      </c>
+      <c r="B303" s="6" t="s">
+        <v>849</v>
+      </c>
+      <c r="C303" s="7" t="s">
+        <v>939</v>
+      </c>
+      <c r="D303" t="s">
+        <v>815</v>
+      </c>
+      <c r="E303" t="s">
+        <v>162</v>
+      </c>
+      <c r="F303">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="304" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A304" s="5" t="s">
+        <v>759</v>
+      </c>
+      <c r="B304" s="6" t="s">
+        <v>850</v>
+      </c>
+      <c r="C304" s="7" t="s">
+        <v>940</v>
+      </c>
+      <c r="D304" t="s">
+        <v>815</v>
+      </c>
+      <c r="E304" t="s">
+        <v>163</v>
+      </c>
+      <c r="F304">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="305" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A305" s="5" t="s">
+        <v>760</v>
+      </c>
+      <c r="B305" s="6" t="s">
+        <v>851</v>
+      </c>
+      <c r="C305" s="7" t="s">
+        <v>941</v>
+      </c>
+      <c r="D305" t="s">
+        <v>815</v>
+      </c>
+      <c r="E305" t="s">
+        <v>164</v>
+      </c>
+      <c r="F305">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="306" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A306" s="5" t="s">
+        <v>761</v>
+      </c>
+      <c r="B306" s="6" t="s">
+        <v>852</v>
+      </c>
+      <c r="C306" s="7" t="s">
+        <v>942</v>
+      </c>
+      <c r="D306" t="s">
+        <v>815</v>
+      </c>
+      <c r="E306" t="s">
+        <v>165</v>
+      </c>
+      <c r="F306">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="307" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A307" s="5" t="s">
+        <v>762</v>
+      </c>
+      <c r="B307" s="6" t="s">
+        <v>853</v>
+      </c>
+      <c r="C307" s="7" t="s">
+        <v>943</v>
+      </c>
+      <c r="D307" t="s">
+        <v>815</v>
+      </c>
+      <c r="E307" t="s">
+        <v>166</v>
+      </c>
+      <c r="F307">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="308" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A308" s="5" t="s">
+        <v>763</v>
+      </c>
+      <c r="B308" s="6" t="s">
+        <v>854</v>
+      </c>
+      <c r="C308" s="7" t="s">
+        <v>944</v>
+      </c>
+      <c r="D308" t="s">
+        <v>815</v>
+      </c>
+      <c r="E308" t="s">
+        <v>167</v>
+      </c>
+      <c r="F308">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="309" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A309" s="5" t="s">
+        <v>764</v>
+      </c>
+      <c r="B309" s="6" t="s">
+        <v>855</v>
+      </c>
+      <c r="C309" s="7" t="s">
+        <v>945</v>
+      </c>
+      <c r="D309" t="s">
+        <v>815</v>
+      </c>
+      <c r="E309" t="s">
+        <v>168</v>
+      </c>
+      <c r="F309">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="310" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A310" s="5" t="s">
+        <v>765</v>
+      </c>
+      <c r="B310" s="6" t="s">
+        <v>856</v>
+      </c>
+      <c r="C310" s="7" t="s">
+        <v>946</v>
+      </c>
+      <c r="D310" t="s">
+        <v>815</v>
+      </c>
+      <c r="E310" t="s">
+        <v>169</v>
+      </c>
+      <c r="F310">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="311" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A311" s="5" t="s">
+        <v>766</v>
+      </c>
+      <c r="B311" s="6" t="s">
+        <v>857</v>
+      </c>
+      <c r="C311" s="7" t="s">
+        <v>947</v>
+      </c>
+      <c r="D311" t="s">
+        <v>815</v>
+      </c>
+      <c r="E311" t="s">
+        <v>170</v>
+      </c>
+      <c r="F311">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="312" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A312" s="5" t="s">
+        <v>767</v>
+      </c>
+      <c r="B312" s="6" t="s">
+        <v>858</v>
+      </c>
+      <c r="C312" s="7" t="s">
+        <v>948</v>
+      </c>
+      <c r="D312" t="s">
+        <v>815</v>
+      </c>
+      <c r="E312" t="s">
+        <v>171</v>
+      </c>
+      <c r="F312">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="313" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A313" s="5" t="s">
+        <v>768</v>
+      </c>
+      <c r="B313" s="6" t="s">
+        <v>859</v>
+      </c>
+      <c r="C313" s="7" t="s">
+        <v>949</v>
+      </c>
+      <c r="D313" t="s">
+        <v>815</v>
+      </c>
+      <c r="E313" t="s">
+        <v>172</v>
+      </c>
+      <c r="F313">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="314" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A314" s="5" t="s">
+        <v>769</v>
+      </c>
+      <c r="B314" s="6" t="s">
+        <v>860</v>
+      </c>
+      <c r="C314" s="7" t="s">
+        <v>950</v>
+      </c>
+      <c r="D314" t="s">
+        <v>815</v>
+      </c>
+      <c r="E314" t="s">
+        <v>173</v>
+      </c>
+      <c r="F314">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="315" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A315" s="5" t="s">
+        <v>770</v>
+      </c>
+      <c r="B315" s="6" t="s">
+        <v>861</v>
+      </c>
+      <c r="C315" s="7" t="s">
+        <v>951</v>
+      </c>
+      <c r="D315" t="s">
+        <v>815</v>
+      </c>
+      <c r="E315" t="s">
+        <v>174</v>
+      </c>
+      <c r="F315">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="316" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A316" s="5" t="s">
+        <v>771</v>
+      </c>
+      <c r="B316" s="6" t="s">
+        <v>862</v>
+      </c>
+      <c r="C316" s="7" t="s">
+        <v>952</v>
+      </c>
+      <c r="D316" t="s">
+        <v>815</v>
+      </c>
+      <c r="E316" t="s">
+        <v>175</v>
+      </c>
+      <c r="F316">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="317" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A317" s="5" t="s">
+        <v>772</v>
+      </c>
+      <c r="B317" s="6" t="s">
+        <v>863</v>
+      </c>
+      <c r="C317" s="7" t="s">
+        <v>953</v>
+      </c>
+      <c r="D317" t="s">
+        <v>815</v>
+      </c>
+      <c r="E317" t="s">
+        <v>176</v>
+      </c>
+      <c r="F317">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="318" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A318" s="5" t="s">
+        <v>773</v>
+      </c>
+      <c r="B318" s="6" t="s">
+        <v>864</v>
+      </c>
+      <c r="C318" s="7" t="s">
+        <v>954</v>
+      </c>
+      <c r="D318" t="s">
+        <v>815</v>
+      </c>
+      <c r="E318" t="s">
+        <v>177</v>
+      </c>
+      <c r="F318">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="319" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A319" s="5" t="s">
+        <v>774</v>
+      </c>
+      <c r="B319" s="6" t="s">
+        <v>865</v>
+      </c>
+      <c r="C319" s="7" t="s">
+        <v>955</v>
+      </c>
+      <c r="D319" t="s">
+        <v>815</v>
+      </c>
+      <c r="E319" t="s">
+        <v>178</v>
+      </c>
+      <c r="F319">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="320" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A320" s="5" t="s">
+        <v>775</v>
+      </c>
+      <c r="B320" s="6" t="s">
+        <v>866</v>
+      </c>
+      <c r="C320" s="7" t="s">
+        <v>956</v>
+      </c>
+      <c r="D320" t="s">
+        <v>815</v>
+      </c>
+      <c r="E320" t="s">
+        <v>179</v>
+      </c>
+      <c r="F320">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="321" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A321" s="5" t="s">
+        <v>776</v>
+      </c>
+      <c r="B321" s="6" t="s">
+        <v>867</v>
+      </c>
+      <c r="C321" s="7" t="s">
+        <v>957</v>
+      </c>
+      <c r="D321" t="s">
+        <v>815</v>
+      </c>
+      <c r="E321" t="s">
+        <v>180</v>
+      </c>
+      <c r="F321">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="322" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A322" s="5" t="s">
+        <v>777</v>
+      </c>
+      <c r="B322" s="6" t="s">
+        <v>868</v>
+      </c>
+      <c r="C322" s="7" t="s">
+        <v>958</v>
+      </c>
+      <c r="D322" t="s">
+        <v>815</v>
+      </c>
+      <c r="E322" t="s">
+        <v>181</v>
+      </c>
+      <c r="F322">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="323" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A323" s="5" t="s">
+        <v>778</v>
+      </c>
+      <c r="B323" s="6" t="s">
+        <v>869</v>
+      </c>
+      <c r="C323" s="7" t="s">
+        <v>959</v>
+      </c>
+      <c r="D323" t="s">
+        <v>815</v>
+      </c>
+      <c r="E323" t="s">
+        <v>182</v>
+      </c>
+      <c r="F323">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="324" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A324" s="5" t="s">
+        <v>779</v>
+      </c>
+      <c r="B324" s="6" t="s">
+        <v>870</v>
+      </c>
+      <c r="C324" s="7" t="s">
+        <v>960</v>
+      </c>
+      <c r="D324" t="s">
+        <v>815</v>
+      </c>
+      <c r="E324" t="s">
+        <v>183</v>
+      </c>
+      <c r="F324">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="325" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A325" s="5" t="s">
+        <v>780</v>
+      </c>
+      <c r="B325" s="6" t="s">
+        <v>871</v>
+      </c>
+      <c r="C325" s="7" t="s">
+        <v>961</v>
+      </c>
+      <c r="D325" t="s">
+        <v>815</v>
+      </c>
+      <c r="E325" t="s">
+        <v>184</v>
+      </c>
+      <c r="F325">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="326" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A326" s="5" t="s">
+        <v>781</v>
+      </c>
+      <c r="B326" s="6" t="s">
+        <v>872</v>
+      </c>
+      <c r="C326" s="7" t="s">
+        <v>962</v>
+      </c>
+      <c r="D326" t="s">
+        <v>815</v>
+      </c>
+      <c r="E326" t="s">
+        <v>185</v>
+      </c>
+      <c r="F326">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="327" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A327" s="5" t="s">
+        <v>782</v>
+      </c>
+      <c r="B327" s="6" t="s">
+        <v>873</v>
+      </c>
+      <c r="C327" s="7" t="s">
+        <v>963</v>
+      </c>
+      <c r="D327" t="s">
+        <v>815</v>
+      </c>
+      <c r="E327" t="s">
+        <v>186</v>
+      </c>
+      <c r="F327">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="328" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A328" s="5" t="s">
+        <v>783</v>
+      </c>
+      <c r="B328" s="6" t="s">
+        <v>874</v>
+      </c>
+      <c r="C328" s="7" t="s">
+        <v>964</v>
+      </c>
+      <c r="D328" t="s">
+        <v>815</v>
+      </c>
+      <c r="E328" t="s">
+        <v>187</v>
+      </c>
+      <c r="F328">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="329" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A329" s="5" t="s">
+        <v>784</v>
+      </c>
+      <c r="B329" s="6" t="s">
+        <v>875</v>
+      </c>
+      <c r="C329" s="7" t="s">
+        <v>965</v>
+      </c>
+      <c r="D329" t="s">
+        <v>815</v>
+      </c>
+      <c r="E329" t="s">
+        <v>188</v>
+      </c>
+      <c r="F329">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="330" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A330" s="5" t="s">
+        <v>785</v>
+      </c>
+      <c r="B330" s="6" t="s">
+        <v>876</v>
+      </c>
+      <c r="C330" s="7" t="s">
+        <v>966</v>
+      </c>
+      <c r="D330" t="s">
+        <v>815</v>
+      </c>
+      <c r="E330" t="s">
+        <v>189</v>
+      </c>
+      <c r="F330">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="331" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A331" s="5" t="s">
+        <v>786</v>
+      </c>
+      <c r="B331" s="6" t="s">
+        <v>877</v>
+      </c>
+      <c r="C331" s="7" t="s">
+        <v>967</v>
+      </c>
+      <c r="D331" t="s">
+        <v>815</v>
+      </c>
+      <c r="E331" t="s">
+        <v>190</v>
+      </c>
+      <c r="F331">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="332" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A332" s="5" t="s">
+        <v>787</v>
+      </c>
+      <c r="B332" s="6" t="s">
+        <v>878</v>
+      </c>
+      <c r="C332" s="7" t="s">
+        <v>968</v>
+      </c>
+      <c r="D332" t="s">
+        <v>815</v>
+      </c>
+      <c r="E332" t="s">
+        <v>191</v>
+      </c>
+      <c r="F332">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="333" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A333" s="5" t="s">
+        <v>788</v>
+      </c>
+      <c r="B333" s="6" t="s">
+        <v>879</v>
+      </c>
+      <c r="C333" s="7" t="s">
+        <v>969</v>
+      </c>
+      <c r="D333" t="s">
+        <v>815</v>
+      </c>
+      <c r="E333" t="s">
+        <v>192</v>
+      </c>
+      <c r="F333">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="334" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A334" s="5" t="s">
+        <v>789</v>
+      </c>
+      <c r="B334" s="6" t="s">
+        <v>880</v>
+      </c>
+      <c r="C334" s="7" t="s">
+        <v>970</v>
+      </c>
+      <c r="D334" t="s">
+        <v>815</v>
+      </c>
+      <c r="E334" t="s">
+        <v>193</v>
+      </c>
+      <c r="F334">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="335" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A335" s="5" t="s">
+        <v>790</v>
+      </c>
+      <c r="B335" s="6" t="s">
+        <v>881</v>
+      </c>
+      <c r="C335" s="7" t="s">
+        <v>971</v>
+      </c>
+      <c r="D335" t="s">
+        <v>815</v>
+      </c>
+      <c r="E335" t="s">
+        <v>194</v>
+      </c>
+      <c r="F335">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="336" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A336" s="5" t="s">
+        <v>791</v>
+      </c>
+      <c r="B336" s="6" t="s">
+        <v>882</v>
+      </c>
+      <c r="C336" s="7" t="s">
+        <v>972</v>
+      </c>
+      <c r="D336" t="s">
+        <v>815</v>
+      </c>
+      <c r="E336" t="s">
+        <v>195</v>
+      </c>
+      <c r="F336">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="337" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A337" s="5" t="s">
+        <v>792</v>
+      </c>
+      <c r="B337" s="6" t="s">
+        <v>883</v>
+      </c>
+      <c r="C337" s="7" t="s">
+        <v>973</v>
+      </c>
+      <c r="D337" t="s">
+        <v>815</v>
+      </c>
+      <c r="E337" t="s">
+        <v>196</v>
+      </c>
+      <c r="F337">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="338" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A338" s="5" t="s">
+        <v>793</v>
+      </c>
+      <c r="B338" s="6" t="s">
+        <v>884</v>
+      </c>
+      <c r="C338" s="7" t="s">
+        <v>974</v>
+      </c>
+      <c r="D338" t="s">
+        <v>815</v>
+      </c>
+      <c r="E338" t="s">
+        <v>197</v>
+      </c>
+      <c r="F338">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="339" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A339" s="5" t="s">
+        <v>794</v>
+      </c>
+      <c r="B339" s="6" t="s">
+        <v>885</v>
+      </c>
+      <c r="C339" s="7" t="s">
+        <v>975</v>
+      </c>
+      <c r="D339" t="s">
+        <v>815</v>
+      </c>
+      <c r="E339" t="s">
+        <v>198</v>
+      </c>
+      <c r="F339">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="340" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A340" s="5" t="s">
+        <v>795</v>
+      </c>
+      <c r="B340" s="6" t="s">
+        <v>886</v>
+      </c>
+      <c r="C340" s="7" t="s">
+        <v>976</v>
+      </c>
+      <c r="D340" t="s">
+        <v>815</v>
+      </c>
+      <c r="E340" t="s">
+        <v>199</v>
+      </c>
+      <c r="F340">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="341" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A341" s="5" t="s">
+        <v>796</v>
+      </c>
+      <c r="B341" s="6" t="s">
+        <v>887</v>
+      </c>
+      <c r="C341" s="7" t="s">
+        <v>977</v>
+      </c>
+      <c r="D341" t="s">
+        <v>815</v>
+      </c>
+      <c r="E341" t="s">
+        <v>200</v>
+      </c>
+      <c r="F341">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="342" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A342" s="5" t="s">
+        <v>797</v>
+      </c>
+      <c r="B342" s="6" t="s">
+        <v>888</v>
+      </c>
+      <c r="C342" s="7" t="s">
+        <v>978</v>
+      </c>
+      <c r="D342" t="s">
+        <v>815</v>
+      </c>
+      <c r="E342" t="s">
+        <v>130</v>
+      </c>
+      <c r="F342">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="343" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A343" s="5" t="s">
+        <v>798</v>
+      </c>
+      <c r="B343" s="6" t="s">
+        <v>889</v>
+      </c>
+      <c r="C343" s="7" t="s">
+        <v>979</v>
+      </c>
+      <c r="D343" t="s">
+        <v>815</v>
+      </c>
+      <c r="E343" t="s">
+        <v>201</v>
+      </c>
+      <c r="F343">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="344" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A344" s="5" t="s">
+        <v>799</v>
+      </c>
+      <c r="B344" s="6" t="s">
+        <v>890</v>
+      </c>
+      <c r="C344" s="7" t="s">
+        <v>980</v>
+      </c>
+      <c r="D344" t="s">
+        <v>815</v>
+      </c>
+      <c r="E344" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="F344">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="345" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A345" s="5" t="s">
+        <v>800</v>
+      </c>
+      <c r="B345" s="6" t="s">
+        <v>891</v>
+      </c>
+      <c r="C345" s="7" t="s">
+        <v>981</v>
+      </c>
+      <c r="D345" t="s">
+        <v>815</v>
+      </c>
+      <c r="E345" t="s">
+        <v>203</v>
+      </c>
+      <c r="F345">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="346" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A346" s="5" t="s">
+        <v>801</v>
+      </c>
+      <c r="B346" s="6" t="s">
+        <v>892</v>
+      </c>
+      <c r="C346" s="7" t="s">
+        <v>982</v>
+      </c>
+      <c r="D346" t="s">
+        <v>815</v>
+      </c>
+      <c r="E346" t="s">
+        <v>204</v>
+      </c>
+      <c r="F346">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="347" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A347" s="5" t="s">
+        <v>802</v>
+      </c>
+      <c r="B347" s="6" t="s">
+        <v>893</v>
+      </c>
+      <c r="C347" s="7" t="s">
+        <v>983</v>
+      </c>
+      <c r="D347" t="s">
+        <v>815</v>
+      </c>
+      <c r="E347" t="s">
+        <v>205</v>
+      </c>
+      <c r="F347">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="348" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A348" s="5" t="s">
+        <v>803</v>
+      </c>
+      <c r="B348" s="6" t="s">
+        <v>894</v>
+      </c>
+      <c r="C348" s="7" t="s">
+        <v>984</v>
+      </c>
+      <c r="D348" t="s">
+        <v>815</v>
+      </c>
+      <c r="E348" t="s">
+        <v>206</v>
+      </c>
+      <c r="F348">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="349" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A349" s="5" t="s">
+        <v>804</v>
+      </c>
+      <c r="B349" s="6" t="s">
+        <v>895</v>
+      </c>
+      <c r="C349" s="7" t="s">
+        <v>985</v>
+      </c>
+      <c r="D349" t="s">
+        <v>815</v>
+      </c>
+      <c r="E349" t="s">
+        <v>207</v>
+      </c>
+      <c r="F349">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="350" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A350" s="5" t="s">
+        <v>805</v>
+      </c>
+      <c r="B350" s="6" t="s">
+        <v>896</v>
+      </c>
+      <c r="C350" s="7" t="s">
+        <v>986</v>
+      </c>
+      <c r="D350" t="s">
+        <v>815</v>
+      </c>
+      <c r="E350" t="s">
+        <v>208</v>
+      </c>
+      <c r="F350">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="351" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A351" s="5" t="s">
+        <v>806</v>
+      </c>
+      <c r="B351" s="6" t="s">
+        <v>897</v>
+      </c>
+      <c r="C351" s="7" t="s">
+        <v>987</v>
+      </c>
+      <c r="D351" t="s">
+        <v>815</v>
+      </c>
+      <c r="E351" t="s">
+        <v>209</v>
+      </c>
+      <c r="F351">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="352" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A352" s="5" t="s">
+        <v>807</v>
+      </c>
+      <c r="B352" s="6" t="s">
+        <v>898</v>
+      </c>
+      <c r="C352" s="7" t="s">
+        <v>988</v>
+      </c>
+      <c r="D352" t="s">
+        <v>815</v>
+      </c>
+      <c r="E352" t="s">
+        <v>210</v>
+      </c>
+      <c r="F352">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="353" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A353" s="5" t="s">
+        <v>808</v>
+      </c>
+      <c r="B353" s="6" t="s">
+        <v>899</v>
+      </c>
+      <c r="C353" s="7" t="s">
+        <v>989</v>
+      </c>
+      <c r="D353" t="s">
+        <v>815</v>
+      </c>
+      <c r="E353" t="s">
+        <v>211</v>
+      </c>
+      <c r="F353">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="354" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A354" s="5" t="s">
+        <v>809</v>
+      </c>
+      <c r="B354" s="6" t="s">
+        <v>900</v>
+      </c>
+      <c r="C354" s="7" t="s">
+        <v>990</v>
+      </c>
+      <c r="D354" t="s">
+        <v>815</v>
+      </c>
+      <c r="E354" t="s">
+        <v>212</v>
+      </c>
+      <c r="F354">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="355" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A355" s="5" t="s">
+        <v>810</v>
+      </c>
+      <c r="B355" s="6" t="s">
+        <v>901</v>
+      </c>
+      <c r="C355" s="7" t="s">
+        <v>991</v>
+      </c>
+      <c r="D355" t="s">
+        <v>815</v>
+      </c>
+      <c r="E355" t="s">
+        <v>213</v>
+      </c>
+      <c r="F355">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="356" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A356" s="5" t="s">
+        <v>811</v>
+      </c>
+      <c r="B356" s="6" t="s">
+        <v>902</v>
+      </c>
+      <c r="C356" s="7" t="s">
+        <v>992</v>
+      </c>
+      <c r="D356" t="s">
+        <v>815</v>
+      </c>
+      <c r="E356" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="F356">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="357" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A357" s="5" t="s">
+        <v>812</v>
+      </c>
+      <c r="B357" s="6" t="s">
+        <v>903</v>
+      </c>
+      <c r="C357" s="7" t="s">
+        <v>993</v>
+      </c>
+      <c r="D357" t="s">
+        <v>815</v>
+      </c>
+      <c r="E357" t="s">
+        <v>215</v>
+      </c>
+      <c r="F357">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="358" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A358" s="5" t="s">
+        <v>813</v>
+      </c>
+      <c r="B358" s="6" t="s">
+        <v>904</v>
+      </c>
+      <c r="C358" s="7" t="s">
+        <v>994</v>
+      </c>
+      <c r="D358" t="s">
+        <v>815</v>
+      </c>
+      <c r="E358" t="s">
+        <v>216</v>
+      </c>
+      <c r="F358">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="359" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A359" s="5" t="s">
+        <v>814</v>
+      </c>
+      <c r="B359" s="6" t="s">
+        <v>905</v>
+      </c>
+      <c r="C359" s="7" t="s">
+        <v>995</v>
+      </c>
+      <c r="D359" t="s">
+        <v>815</v>
+      </c>
+      <c r="E359" t="s">
+        <v>217</v>
+      </c>
+      <c r="F359">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1"/>

--- a/data/Designs/Designs_masterfile.xlsx
+++ b/data/Designs/Designs_masterfile.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HOL428\Documents\GitHub\SynBioMLMH\SynbioML\data\Designs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4888FD7C-BA65-4DA9-82D4-BEDCA957CDBF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AE92575-26FB-445C-B493-41E3612553D6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-19310" yWindow="3350" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2207,276 +2207,6 @@
     <t>Round</t>
   </si>
   <si>
-    <t>RBS_2008</t>
-  </si>
-  <si>
-    <t>RBS_1363</t>
-  </si>
-  <si>
-    <t>RBS_1765</t>
-  </si>
-  <si>
-    <t>RBS_1998</t>
-  </si>
-  <si>
-    <t>RBS_1300</t>
-  </si>
-  <si>
-    <t>RBS_1342</t>
-  </si>
-  <si>
-    <t>RBS_2134</t>
-  </si>
-  <si>
-    <t>RBS_2012</t>
-  </si>
-  <si>
-    <t>RBS_1352</t>
-  </si>
-  <si>
-    <t>RBS_2070</t>
-  </si>
-  <si>
-    <t>RBS_1986</t>
-  </si>
-  <si>
-    <t>RBS_1884</t>
-  </si>
-  <si>
-    <t>RBS_1367</t>
-  </si>
-  <si>
-    <t>RBS_2478</t>
-  </si>
-  <si>
-    <t>RBS_1348</t>
-  </si>
-  <si>
-    <t>RBS_1755</t>
-  </si>
-  <si>
-    <t>RBS_3714</t>
-  </si>
-  <si>
-    <t>RBS_2598</t>
-  </si>
-  <si>
-    <t>RBS_1304</t>
-  </si>
-  <si>
-    <t>RBS_1422</t>
-  </si>
-  <si>
-    <t>RBS_1369</t>
-  </si>
-  <si>
-    <t>RBS_2978</t>
-  </si>
-  <si>
-    <t>RBS_2112</t>
-  </si>
-  <si>
-    <t>RBS_2025</t>
-  </si>
-  <si>
-    <t>RBS_1373</t>
-  </si>
-  <si>
-    <t>RBS_2988</t>
-  </si>
-  <si>
-    <t>RBS_2620</t>
-  </si>
-  <si>
-    <t>RBS_1391</t>
-  </si>
-  <si>
-    <t>RBS_3051</t>
-  </si>
-  <si>
-    <t>RBS_1769</t>
-  </si>
-  <si>
-    <t>RBS_2060</t>
-  </si>
-  <si>
-    <t>RBS_2018</t>
-  </si>
-  <si>
-    <t>RBS_2118</t>
-  </si>
-  <si>
-    <t>RBS_1875</t>
-  </si>
-  <si>
-    <t>RBS_3704</t>
-  </si>
-  <si>
-    <t>RBS_1134</t>
-  </si>
-  <si>
-    <t>RBS_1354</t>
-  </si>
-  <si>
-    <t>RBS_2608</t>
-  </si>
-  <si>
-    <t>RBS_3442</t>
-  </si>
-  <si>
-    <t>RBS_2124</t>
-  </si>
-  <si>
-    <t>RBS_2966</t>
-  </si>
-  <si>
-    <t>RBS_1292</t>
-  </si>
-  <si>
-    <t>RBS_2074</t>
-  </si>
-  <si>
-    <t>RBS_1358</t>
-  </si>
-  <si>
-    <t>RBS_2028</t>
-  </si>
-  <si>
-    <t>RBS_1380</t>
-  </si>
-  <si>
-    <t>RBS_1775</t>
-  </si>
-  <si>
-    <t>RBS_1992</t>
-  </si>
-  <si>
-    <t>RBS_2064</t>
-  </si>
-  <si>
-    <t>RBS_1412</t>
-  </si>
-  <si>
-    <t>RBS_2866</t>
-  </si>
-  <si>
-    <t>RBS_2604</t>
-  </si>
-  <si>
-    <t>RBS_2005</t>
-  </si>
-  <si>
-    <t>RBS_1743</t>
-  </si>
-  <si>
-    <t>RBS_330</t>
-  </si>
-  <si>
-    <t>RBS_1888</t>
-  </si>
-  <si>
-    <t>RBS_3029</t>
-  </si>
-  <si>
-    <t>RBS_1383</t>
-  </si>
-  <si>
-    <t>RBS_1349</t>
-  </si>
-  <si>
-    <t>RBS_2992</t>
-  </si>
-  <si>
-    <t>RBS_391</t>
-  </si>
-  <si>
-    <t>RBS_1124</t>
-  </si>
-  <si>
-    <t>RBS_2540</t>
-  </si>
-  <si>
-    <t>RBS_2122</t>
-  </si>
-  <si>
-    <t>RBS_1297</t>
-  </si>
-  <si>
-    <t>RBS_3718</t>
-  </si>
-  <si>
-    <t>RBS_3231</t>
-  </si>
-  <si>
-    <t>RBS_1343</t>
-  </si>
-  <si>
-    <t>RBS_2437</t>
-  </si>
-  <si>
-    <t>RBS_1782</t>
-  </si>
-  <si>
-    <t>RBS_1371</t>
-  </si>
-  <si>
-    <t>RBS_3041</t>
-  </si>
-  <si>
-    <t>RBS_1999</t>
-  </si>
-  <si>
-    <t>RBS_1360</t>
-  </si>
-  <si>
-    <t>RBS_2014</t>
-  </si>
-  <si>
-    <t>RBS_2610</t>
-  </si>
-  <si>
-    <t>RBS_1351</t>
-  </si>
-  <si>
-    <t>RBS_3692</t>
-  </si>
-  <si>
-    <t>RBS_3045</t>
-  </si>
-  <si>
-    <t>RBS_3112</t>
-  </si>
-  <si>
-    <t>RBS_1416</t>
-  </si>
-  <si>
-    <t>RBS_2027</t>
-  </si>
-  <si>
-    <t>RBS_2431</t>
-  </si>
-  <si>
-    <t>RBS_2140</t>
-  </si>
-  <si>
-    <t>RBS_1112</t>
-  </si>
-  <si>
-    <t>RBS_2856</t>
-  </si>
-  <si>
-    <t>RBS_1294</t>
-  </si>
-  <si>
-    <t>RBS_2998</t>
-  </si>
-  <si>
-    <t>RBS_1400</t>
-  </si>
-  <si>
-    <t>RBS_2652</t>
-  </si>
-  <si>
     <t>Fourth_Plate</t>
   </si>
   <si>
@@ -3018,6 +2748,276 @@
   </si>
   <si>
     <t>CCTTCT</t>
+  </si>
+  <si>
+    <t>RBS_BA3_2008</t>
+  </si>
+  <si>
+    <t>RBS_BA3_1363</t>
+  </si>
+  <si>
+    <t>RBS_BA3_1765</t>
+  </si>
+  <si>
+    <t>RBS_BA3_1998</t>
+  </si>
+  <si>
+    <t>RBS_BA3_1300</t>
+  </si>
+  <si>
+    <t>RBS_BA3_1342</t>
+  </si>
+  <si>
+    <t>RBS_BA3_2134</t>
+  </si>
+  <si>
+    <t>RBS_BA3_2012</t>
+  </si>
+  <si>
+    <t>RBS_BA3_1352</t>
+  </si>
+  <si>
+    <t>RBS_BA3_2070</t>
+  </si>
+  <si>
+    <t>RBS_BA3_1986</t>
+  </si>
+  <si>
+    <t>RBS_BA3_1884</t>
+  </si>
+  <si>
+    <t>RBS_BA3_1367</t>
+  </si>
+  <si>
+    <t>RBS_BA3_2478</t>
+  </si>
+  <si>
+    <t>RBS_BA3_1348</t>
+  </si>
+  <si>
+    <t>RBS_BA3_1755</t>
+  </si>
+  <si>
+    <t>RBS_BA3_3714</t>
+  </si>
+  <si>
+    <t>RBS_BA3_2598</t>
+  </si>
+  <si>
+    <t>RBS_BA3_1304</t>
+  </si>
+  <si>
+    <t>RBS_BA3_1422</t>
+  </si>
+  <si>
+    <t>RBS_BA3_1369</t>
+  </si>
+  <si>
+    <t>RBS_BA3_2978</t>
+  </si>
+  <si>
+    <t>RBS_BA3_2112</t>
+  </si>
+  <si>
+    <t>RBS_BA3_2025</t>
+  </si>
+  <si>
+    <t>RBS_BA3_1373</t>
+  </si>
+  <si>
+    <t>RBS_BA3_2988</t>
+  </si>
+  <si>
+    <t>RBS_BA3_2620</t>
+  </si>
+  <si>
+    <t>RBS_BA3_1391</t>
+  </si>
+  <si>
+    <t>RBS_BA3_3051</t>
+  </si>
+  <si>
+    <t>RBS_BA3_1769</t>
+  </si>
+  <si>
+    <t>RBS_BA3_2060</t>
+  </si>
+  <si>
+    <t>RBS_BA3_2018</t>
+  </si>
+  <si>
+    <t>RBS_BA3_2118</t>
+  </si>
+  <si>
+    <t>RBS_BA3_1875</t>
+  </si>
+  <si>
+    <t>RBS_BA3_3704</t>
+  </si>
+  <si>
+    <t>RBS_BA3_1134</t>
+  </si>
+  <si>
+    <t>RBS_BA3_1354</t>
+  </si>
+  <si>
+    <t>RBS_BA3_2608</t>
+  </si>
+  <si>
+    <t>RBS_BA3_3442</t>
+  </si>
+  <si>
+    <t>RBS_BA3_2124</t>
+  </si>
+  <si>
+    <t>RBS_BA3_2966</t>
+  </si>
+  <si>
+    <t>RBS_BA3_1292</t>
+  </si>
+  <si>
+    <t>RBS_BA3_2074</t>
+  </si>
+  <si>
+    <t>RBS_BA3_1358</t>
+  </si>
+  <si>
+    <t>RBS_BA3_2028</t>
+  </si>
+  <si>
+    <t>RBS_BA3_1380</t>
+  </si>
+  <si>
+    <t>RBS_BA3_1775</t>
+  </si>
+  <si>
+    <t>RBS_BA3_1992</t>
+  </si>
+  <si>
+    <t>RBS_BA3_2064</t>
+  </si>
+  <si>
+    <t>RBS_BA3_1412</t>
+  </si>
+  <si>
+    <t>RBS_BA3_2866</t>
+  </si>
+  <si>
+    <t>RBS_BA3_2604</t>
+  </si>
+  <si>
+    <t>RBS_BA3_2005</t>
+  </si>
+  <si>
+    <t>RBS_BA3_1743</t>
+  </si>
+  <si>
+    <t>RBS_BA3_330</t>
+  </si>
+  <si>
+    <t>RBS_BA3_1888</t>
+  </si>
+  <si>
+    <t>RBS_BA3_3029</t>
+  </si>
+  <si>
+    <t>RBS_BA3_1383</t>
+  </si>
+  <si>
+    <t>RBS_BA3_1349</t>
+  </si>
+  <si>
+    <t>RBS_BA3_2992</t>
+  </si>
+  <si>
+    <t>RBS_BA3_391</t>
+  </si>
+  <si>
+    <t>RBS_BA3_1124</t>
+  </si>
+  <si>
+    <t>RBS_BA3_2540</t>
+  </si>
+  <si>
+    <t>RBS_BA3_2122</t>
+  </si>
+  <si>
+    <t>RBS_BA3_1297</t>
+  </si>
+  <si>
+    <t>RBS_BA3_3718</t>
+  </si>
+  <si>
+    <t>RBS_BA3_3231</t>
+  </si>
+  <si>
+    <t>RBS_BA3_1343</t>
+  </si>
+  <si>
+    <t>RBS_BA3_2437</t>
+  </si>
+  <si>
+    <t>RBS_BA3_1782</t>
+  </si>
+  <si>
+    <t>RBS_BA3_1371</t>
+  </si>
+  <si>
+    <t>RBS_BA3_3041</t>
+  </si>
+  <si>
+    <t>RBS_BA3_1999</t>
+  </si>
+  <si>
+    <t>RBS_BA3_1360</t>
+  </si>
+  <si>
+    <t>RBS_BA3_2014</t>
+  </si>
+  <si>
+    <t>RBS_BA3_2610</t>
+  </si>
+  <si>
+    <t>RBS_BA3_1351</t>
+  </si>
+  <si>
+    <t>RBS_BA3_3692</t>
+  </si>
+  <si>
+    <t>RBS_BA3_3045</t>
+  </si>
+  <si>
+    <t>RBS_BA3_3112</t>
+  </si>
+  <si>
+    <t>RBS_BA3_1416</t>
+  </si>
+  <si>
+    <t>RBS_BA3_2027</t>
+  </si>
+  <si>
+    <t>RBS_BA3_2431</t>
+  </si>
+  <si>
+    <t>RBS_BA3_2140</t>
+  </si>
+  <si>
+    <t>RBS_BA3_1112</t>
+  </si>
+  <si>
+    <t>RBS_BA3_2856</t>
+  </si>
+  <si>
+    <t>RBS_BA3_1294</t>
+  </si>
+  <si>
+    <t>RBS_BA3_2998</t>
+  </si>
+  <si>
+    <t>RBS_BA3_1400</t>
+  </si>
+  <si>
+    <t>RBS_BA3_2652</t>
   </si>
 </sst>
 </file>
@@ -3394,8 +3394,8 @@
   </sheetPr>
   <dimension ref="A1:F359"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+    <sheetView tabSelected="1" topLeftCell="A263" workbookViewId="0">
+      <selection activeCell="A271" sqref="A271"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -8965,16 +8965,16 @@
     </row>
     <row r="270" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A270" s="5" t="s">
+        <v>906</v>
+      </c>
+      <c r="B270" s="6" t="s">
+        <v>726</v>
+      </c>
+      <c r="C270" s="7" t="s">
+        <v>816</v>
+      </c>
+      <c r="D270" t="s">
         <v>725</v>
-      </c>
-      <c r="B270" s="6" t="s">
-        <v>816</v>
-      </c>
-      <c r="C270" s="7" t="s">
-        <v>906</v>
-      </c>
-      <c r="D270" t="s">
-        <v>815</v>
       </c>
       <c r="E270" t="s">
         <v>128</v>
@@ -8985,16 +8985,16 @@
     </row>
     <row r="271" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A271" s="5" t="s">
-        <v>726</v>
+        <v>907</v>
       </c>
       <c r="B271" s="6" t="s">
+        <v>727</v>
+      </c>
+      <c r="C271" s="7" t="s">
         <v>817</v>
       </c>
-      <c r="C271" s="7" t="s">
-        <v>907</v>
-      </c>
       <c r="D271" t="s">
-        <v>815</v>
+        <v>725</v>
       </c>
       <c r="E271" t="s">
         <v>131</v>
@@ -9005,16 +9005,16 @@
     </row>
     <row r="272" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A272" s="5" t="s">
-        <v>727</v>
+        <v>908</v>
       </c>
       <c r="B272" s="6" t="s">
+        <v>728</v>
+      </c>
+      <c r="C272" s="7" t="s">
         <v>818</v>
       </c>
-      <c r="C272" s="7" t="s">
-        <v>908</v>
-      </c>
       <c r="D272" t="s">
-        <v>815</v>
+        <v>725</v>
       </c>
       <c r="E272" t="s">
         <v>132</v>
@@ -9025,16 +9025,16 @@
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A273" s="5" t="s">
-        <v>728</v>
+        <v>909</v>
       </c>
       <c r="B273" s="6" t="s">
+        <v>729</v>
+      </c>
+      <c r="C273" s="7" t="s">
         <v>819</v>
       </c>
-      <c r="C273" s="7" t="s">
-        <v>909</v>
-      </c>
       <c r="D273" t="s">
-        <v>815</v>
+        <v>725</v>
       </c>
       <c r="E273" t="s">
         <v>133</v>
@@ -9045,16 +9045,16 @@
     </row>
     <row r="274" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A274" s="5" t="s">
-        <v>729</v>
+        <v>910</v>
       </c>
       <c r="B274" s="6" t="s">
+        <v>730</v>
+      </c>
+      <c r="C274" s="7" t="s">
         <v>820</v>
       </c>
-      <c r="C274" s="7" t="s">
-        <v>910</v>
-      </c>
       <c r="D274" t="s">
-        <v>815</v>
+        <v>725</v>
       </c>
       <c r="E274" t="s">
         <v>134</v>
@@ -9065,16 +9065,16 @@
     </row>
     <row r="275" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A275" s="5" t="s">
-        <v>730</v>
+        <v>911</v>
       </c>
       <c r="B275" s="6" t="s">
+        <v>731</v>
+      </c>
+      <c r="C275" s="7" t="s">
         <v>821</v>
       </c>
-      <c r="C275" s="7" t="s">
-        <v>911</v>
-      </c>
       <c r="D275" t="s">
-        <v>815</v>
+        <v>725</v>
       </c>
       <c r="E275" t="s">
         <v>135</v>
@@ -9085,16 +9085,16 @@
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A276" s="5" t="s">
-        <v>731</v>
+        <v>912</v>
       </c>
       <c r="B276" s="6" t="s">
+        <v>732</v>
+      </c>
+      <c r="C276" s="7" t="s">
         <v>822</v>
       </c>
-      <c r="C276" s="7" t="s">
-        <v>912</v>
-      </c>
       <c r="D276" t="s">
-        <v>815</v>
+        <v>725</v>
       </c>
       <c r="E276" t="s">
         <v>136</v>
@@ -9105,16 +9105,16 @@
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A277" s="5" t="s">
-        <v>732</v>
+        <v>913</v>
       </c>
       <c r="B277" s="6" t="s">
+        <v>733</v>
+      </c>
+      <c r="C277" s="7" t="s">
         <v>823</v>
       </c>
-      <c r="C277" s="7" t="s">
-        <v>913</v>
-      </c>
       <c r="D277" t="s">
-        <v>815</v>
+        <v>725</v>
       </c>
       <c r="E277" t="s">
         <v>137</v>
@@ -9125,16 +9125,16 @@
     </row>
     <row r="278" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A278" s="5" t="s">
-        <v>733</v>
+        <v>914</v>
       </c>
       <c r="B278" s="6" t="s">
+        <v>734</v>
+      </c>
+      <c r="C278" s="7" t="s">
         <v>824</v>
       </c>
-      <c r="C278" s="7" t="s">
-        <v>914</v>
-      </c>
       <c r="D278" t="s">
-        <v>815</v>
+        <v>725</v>
       </c>
       <c r="E278" t="s">
         <v>138</v>
@@ -9145,16 +9145,16 @@
     </row>
     <row r="279" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A279" s="5" t="s">
-        <v>734</v>
+        <v>915</v>
       </c>
       <c r="B279" s="6" t="s">
+        <v>735</v>
+      </c>
+      <c r="C279" s="7" t="s">
         <v>825</v>
       </c>
-      <c r="C279" s="7" t="s">
-        <v>915</v>
-      </c>
       <c r="D279" t="s">
-        <v>815</v>
+        <v>725</v>
       </c>
       <c r="E279" t="s">
         <v>139</v>
@@ -9165,16 +9165,16 @@
     </row>
     <row r="280" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A280" s="5" t="s">
-        <v>735</v>
+        <v>916</v>
       </c>
       <c r="B280" s="6" t="s">
+        <v>736</v>
+      </c>
+      <c r="C280" s="7" t="s">
         <v>826</v>
       </c>
-      <c r="C280" s="7" t="s">
-        <v>916</v>
-      </c>
       <c r="D280" t="s">
-        <v>815</v>
+        <v>725</v>
       </c>
       <c r="E280" t="s">
         <v>140</v>
@@ -9185,16 +9185,16 @@
     </row>
     <row r="281" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A281" s="5" t="s">
-        <v>736</v>
+        <v>917</v>
       </c>
       <c r="B281" s="6" t="s">
+        <v>737</v>
+      </c>
+      <c r="C281" s="7" t="s">
         <v>827</v>
       </c>
-      <c r="C281" s="7" t="s">
-        <v>917</v>
-      </c>
       <c r="D281" t="s">
-        <v>815</v>
+        <v>725</v>
       </c>
       <c r="E281" t="s">
         <v>141</v>
@@ -9205,16 +9205,16 @@
     </row>
     <row r="282" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A282" s="5" t="s">
-        <v>737</v>
+        <v>918</v>
       </c>
       <c r="B282" s="6" t="s">
+        <v>738</v>
+      </c>
+      <c r="C282" s="7" t="s">
         <v>828</v>
       </c>
-      <c r="C282" s="7" t="s">
-        <v>918</v>
-      </c>
       <c r="D282" t="s">
-        <v>815</v>
+        <v>725</v>
       </c>
       <c r="E282" t="s">
         <v>142</v>
@@ -9225,16 +9225,16 @@
     </row>
     <row r="283" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A283" s="5" t="s">
-        <v>738</v>
+        <v>919</v>
       </c>
       <c r="B283" s="6" t="s">
+        <v>739</v>
+      </c>
+      <c r="C283" s="7" t="s">
         <v>829</v>
       </c>
-      <c r="C283" s="7" t="s">
-        <v>919</v>
-      </c>
       <c r="D283" t="s">
-        <v>815</v>
+        <v>725</v>
       </c>
       <c r="E283" t="s">
         <v>143</v>
@@ -9245,16 +9245,16 @@
     </row>
     <row r="284" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A284" s="5" t="s">
-        <v>739</v>
+        <v>920</v>
       </c>
       <c r="B284" s="6" t="s">
+        <v>740</v>
+      </c>
+      <c r="C284" s="7" t="s">
         <v>830</v>
       </c>
-      <c r="C284" s="7" t="s">
-        <v>920</v>
-      </c>
       <c r="D284" t="s">
-        <v>815</v>
+        <v>725</v>
       </c>
       <c r="E284" t="s">
         <v>144</v>
@@ -9265,16 +9265,16 @@
     </row>
     <row r="285" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A285" s="5" t="s">
-        <v>740</v>
+        <v>921</v>
       </c>
       <c r="B285" s="6" t="s">
+        <v>741</v>
+      </c>
+      <c r="C285" s="7" t="s">
         <v>831</v>
       </c>
-      <c r="C285" s="7" t="s">
-        <v>921</v>
-      </c>
       <c r="D285" t="s">
-        <v>815</v>
+        <v>725</v>
       </c>
       <c r="E285" t="s">
         <v>145</v>
@@ -9285,16 +9285,16 @@
     </row>
     <row r="286" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A286" s="5" t="s">
-        <v>741</v>
+        <v>922</v>
       </c>
       <c r="B286" s="6" t="s">
+        <v>742</v>
+      </c>
+      <c r="C286" s="7" t="s">
         <v>832</v>
       </c>
-      <c r="C286" s="7" t="s">
-        <v>922</v>
-      </c>
       <c r="D286" t="s">
-        <v>815</v>
+        <v>725</v>
       </c>
       <c r="E286" t="s">
         <v>146</v>
@@ -9305,16 +9305,16 @@
     </row>
     <row r="287" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A287" s="5" t="s">
-        <v>742</v>
+        <v>923</v>
       </c>
       <c r="B287" s="6" t="s">
+        <v>743</v>
+      </c>
+      <c r="C287" s="7" t="s">
         <v>833</v>
       </c>
-      <c r="C287" s="7" t="s">
-        <v>923</v>
-      </c>
       <c r="D287" t="s">
-        <v>815</v>
+        <v>725</v>
       </c>
       <c r="E287" t="s">
         <v>147</v>
@@ -9325,16 +9325,16 @@
     </row>
     <row r="288" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A288" s="5" t="s">
-        <v>743</v>
+        <v>924</v>
       </c>
       <c r="B288" s="6" t="s">
+        <v>744</v>
+      </c>
+      <c r="C288" s="7" t="s">
         <v>834</v>
       </c>
-      <c r="C288" s="7" t="s">
-        <v>924</v>
-      </c>
       <c r="D288" t="s">
-        <v>815</v>
+        <v>725</v>
       </c>
       <c r="E288" t="s">
         <v>148</v>
@@ -9345,16 +9345,16 @@
     </row>
     <row r="289" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A289" s="5" t="s">
-        <v>744</v>
+        <v>925</v>
       </c>
       <c r="B289" s="6" t="s">
+        <v>745</v>
+      </c>
+      <c r="C289" s="7" t="s">
         <v>835</v>
       </c>
-      <c r="C289" s="7" t="s">
-        <v>925</v>
-      </c>
       <c r="D289" t="s">
-        <v>815</v>
+        <v>725</v>
       </c>
       <c r="E289" t="s">
         <v>149</v>
@@ -9365,16 +9365,16 @@
     </row>
     <row r="290" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A290" s="5" t="s">
-        <v>745</v>
+        <v>926</v>
       </c>
       <c r="B290" s="6" t="s">
+        <v>746</v>
+      </c>
+      <c r="C290" s="7" t="s">
         <v>836</v>
       </c>
-      <c r="C290" s="7" t="s">
-        <v>926</v>
-      </c>
       <c r="D290" t="s">
-        <v>815</v>
+        <v>725</v>
       </c>
       <c r="E290" t="s">
         <v>150</v>
@@ -9385,16 +9385,16 @@
     </row>
     <row r="291" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A291" s="5" t="s">
-        <v>746</v>
+        <v>927</v>
       </c>
       <c r="B291" s="6" t="s">
+        <v>747</v>
+      </c>
+      <c r="C291" s="7" t="s">
         <v>837</v>
       </c>
-      <c r="C291" s="7" t="s">
-        <v>927</v>
-      </c>
       <c r="D291" t="s">
-        <v>815</v>
+        <v>725</v>
       </c>
       <c r="E291" t="s">
         <v>151</v>
@@ -9405,16 +9405,16 @@
     </row>
     <row r="292" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A292" s="5" t="s">
-        <v>747</v>
+        <v>928</v>
       </c>
       <c r="B292" s="6" t="s">
+        <v>748</v>
+      </c>
+      <c r="C292" s="7" t="s">
         <v>838</v>
       </c>
-      <c r="C292" s="7" t="s">
-        <v>928</v>
-      </c>
       <c r="D292" t="s">
-        <v>815</v>
+        <v>725</v>
       </c>
       <c r="E292" t="s">
         <v>152</v>
@@ -9425,16 +9425,16 @@
     </row>
     <row r="293" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A293" s="5" t="s">
-        <v>748</v>
+        <v>929</v>
       </c>
       <c r="B293" s="6" t="s">
+        <v>749</v>
+      </c>
+      <c r="C293" s="7" t="s">
         <v>839</v>
       </c>
-      <c r="C293" s="7" t="s">
-        <v>929</v>
-      </c>
       <c r="D293" t="s">
-        <v>815</v>
+        <v>725</v>
       </c>
       <c r="E293" t="s">
         <v>153</v>
@@ -9445,16 +9445,16 @@
     </row>
     <row r="294" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A294" s="5" t="s">
-        <v>749</v>
+        <v>930</v>
       </c>
       <c r="B294" s="6" t="s">
+        <v>750</v>
+      </c>
+      <c r="C294" s="7" t="s">
         <v>840</v>
       </c>
-      <c r="C294" s="7" t="s">
-        <v>930</v>
-      </c>
       <c r="D294" t="s">
-        <v>815</v>
+        <v>725</v>
       </c>
       <c r="E294" t="s">
         <v>129</v>
@@ -9465,16 +9465,16 @@
     </row>
     <row r="295" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A295" s="5" t="s">
-        <v>750</v>
+        <v>931</v>
       </c>
       <c r="B295" s="6" t="s">
+        <v>751</v>
+      </c>
+      <c r="C295" s="7" t="s">
         <v>841</v>
       </c>
-      <c r="C295" s="7" t="s">
-        <v>931</v>
-      </c>
       <c r="D295" t="s">
-        <v>815</v>
+        <v>725</v>
       </c>
       <c r="E295" t="s">
         <v>154</v>
@@ -9485,16 +9485,16 @@
     </row>
     <row r="296" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A296" s="5" t="s">
-        <v>751</v>
+        <v>932</v>
       </c>
       <c r="B296" s="6" t="s">
+        <v>752</v>
+      </c>
+      <c r="C296" s="7" t="s">
         <v>842</v>
       </c>
-      <c r="C296" s="7" t="s">
-        <v>932</v>
-      </c>
       <c r="D296" t="s">
-        <v>815</v>
+        <v>725</v>
       </c>
       <c r="E296" t="s">
         <v>155</v>
@@ -9505,16 +9505,16 @@
     </row>
     <row r="297" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A297" s="5" t="s">
-        <v>752</v>
+        <v>933</v>
       </c>
       <c r="B297" s="6" t="s">
+        <v>753</v>
+      </c>
+      <c r="C297" s="7" t="s">
         <v>843</v>
       </c>
-      <c r="C297" s="7" t="s">
-        <v>933</v>
-      </c>
       <c r="D297" t="s">
-        <v>815</v>
+        <v>725</v>
       </c>
       <c r="E297" t="s">
         <v>156</v>
@@ -9525,16 +9525,16 @@
     </row>
     <row r="298" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A298" s="5" t="s">
-        <v>753</v>
+        <v>934</v>
       </c>
       <c r="B298" s="6" t="s">
+        <v>754</v>
+      </c>
+      <c r="C298" s="7" t="s">
         <v>844</v>
       </c>
-      <c r="C298" s="7" t="s">
-        <v>934</v>
-      </c>
       <c r="D298" t="s">
-        <v>815</v>
+        <v>725</v>
       </c>
       <c r="E298" t="s">
         <v>157</v>
@@ -9545,16 +9545,16 @@
     </row>
     <row r="299" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A299" s="5" t="s">
-        <v>754</v>
+        <v>935</v>
       </c>
       <c r="B299" s="6" t="s">
+        <v>755</v>
+      </c>
+      <c r="C299" s="7" t="s">
         <v>845</v>
       </c>
-      <c r="C299" s="7" t="s">
-        <v>935</v>
-      </c>
       <c r="D299" t="s">
-        <v>815</v>
+        <v>725</v>
       </c>
       <c r="E299" t="s">
         <v>158</v>
@@ -9565,16 +9565,16 @@
     </row>
     <row r="300" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A300" s="5" t="s">
-        <v>755</v>
+        <v>936</v>
       </c>
       <c r="B300" s="6" t="s">
+        <v>756</v>
+      </c>
+      <c r="C300" s="7" t="s">
         <v>846</v>
       </c>
-      <c r="C300" s="7" t="s">
-        <v>936</v>
-      </c>
       <c r="D300" t="s">
-        <v>815</v>
+        <v>725</v>
       </c>
       <c r="E300" t="s">
         <v>159</v>
@@ -9585,16 +9585,16 @@
     </row>
     <row r="301" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A301" s="5" t="s">
-        <v>756</v>
+        <v>937</v>
       </c>
       <c r="B301" s="6" t="s">
+        <v>757</v>
+      </c>
+      <c r="C301" s="7" t="s">
         <v>847</v>
       </c>
-      <c r="C301" s="7" t="s">
-        <v>937</v>
-      </c>
       <c r="D301" t="s">
-        <v>815</v>
+        <v>725</v>
       </c>
       <c r="E301" t="s">
         <v>160</v>
@@ -9605,16 +9605,16 @@
     </row>
     <row r="302" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A302" s="5" t="s">
-        <v>757</v>
+        <v>938</v>
       </c>
       <c r="B302" s="6" t="s">
+        <v>758</v>
+      </c>
+      <c r="C302" s="7" t="s">
         <v>848</v>
       </c>
-      <c r="C302" s="7" t="s">
-        <v>938</v>
-      </c>
       <c r="D302" t="s">
-        <v>815</v>
+        <v>725</v>
       </c>
       <c r="E302" t="s">
         <v>161</v>
@@ -9625,16 +9625,16 @@
     </row>
     <row r="303" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A303" s="5" t="s">
-        <v>758</v>
+        <v>939</v>
       </c>
       <c r="B303" s="6" t="s">
+        <v>759</v>
+      </c>
+      <c r="C303" s="7" t="s">
         <v>849</v>
       </c>
-      <c r="C303" s="7" t="s">
-        <v>939</v>
-      </c>
       <c r="D303" t="s">
-        <v>815</v>
+        <v>725</v>
       </c>
       <c r="E303" t="s">
         <v>162</v>
@@ -9645,16 +9645,16 @@
     </row>
     <row r="304" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A304" s="5" t="s">
-        <v>759</v>
+        <v>940</v>
       </c>
       <c r="B304" s="6" t="s">
+        <v>760</v>
+      </c>
+      <c r="C304" s="7" t="s">
         <v>850</v>
       </c>
-      <c r="C304" s="7" t="s">
-        <v>940</v>
-      </c>
       <c r="D304" t="s">
-        <v>815</v>
+        <v>725</v>
       </c>
       <c r="E304" t="s">
         <v>163</v>
@@ -9665,16 +9665,16 @@
     </row>
     <row r="305" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A305" s="5" t="s">
-        <v>760</v>
+        <v>941</v>
       </c>
       <c r="B305" s="6" t="s">
+        <v>761</v>
+      </c>
+      <c r="C305" s="7" t="s">
         <v>851</v>
       </c>
-      <c r="C305" s="7" t="s">
-        <v>941</v>
-      </c>
       <c r="D305" t="s">
-        <v>815</v>
+        <v>725</v>
       </c>
       <c r="E305" t="s">
         <v>164</v>
@@ -9685,16 +9685,16 @@
     </row>
     <row r="306" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A306" s="5" t="s">
-        <v>761</v>
+        <v>942</v>
       </c>
       <c r="B306" s="6" t="s">
+        <v>762</v>
+      </c>
+      <c r="C306" s="7" t="s">
         <v>852</v>
       </c>
-      <c r="C306" s="7" t="s">
-        <v>942</v>
-      </c>
       <c r="D306" t="s">
-        <v>815</v>
+        <v>725</v>
       </c>
       <c r="E306" t="s">
         <v>165</v>
@@ -9705,16 +9705,16 @@
     </row>
     <row r="307" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A307" s="5" t="s">
-        <v>762</v>
+        <v>943</v>
       </c>
       <c r="B307" s="6" t="s">
+        <v>763</v>
+      </c>
+      <c r="C307" s="7" t="s">
         <v>853</v>
       </c>
-      <c r="C307" s="7" t="s">
-        <v>943</v>
-      </c>
       <c r="D307" t="s">
-        <v>815</v>
+        <v>725</v>
       </c>
       <c r="E307" t="s">
         <v>166</v>
@@ -9725,16 +9725,16 @@
     </row>
     <row r="308" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A308" s="5" t="s">
-        <v>763</v>
+        <v>944</v>
       </c>
       <c r="B308" s="6" t="s">
+        <v>764</v>
+      </c>
+      <c r="C308" s="7" t="s">
         <v>854</v>
       </c>
-      <c r="C308" s="7" t="s">
-        <v>944</v>
-      </c>
       <c r="D308" t="s">
-        <v>815</v>
+        <v>725</v>
       </c>
       <c r="E308" t="s">
         <v>167</v>
@@ -9745,16 +9745,16 @@
     </row>
     <row r="309" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A309" s="5" t="s">
-        <v>764</v>
+        <v>945</v>
       </c>
       <c r="B309" s="6" t="s">
+        <v>765</v>
+      </c>
+      <c r="C309" s="7" t="s">
         <v>855</v>
       </c>
-      <c r="C309" s="7" t="s">
-        <v>945</v>
-      </c>
       <c r="D309" t="s">
-        <v>815</v>
+        <v>725</v>
       </c>
       <c r="E309" t="s">
         <v>168</v>
@@ -9765,16 +9765,16 @@
     </row>
     <row r="310" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A310" s="5" t="s">
-        <v>765</v>
+        <v>946</v>
       </c>
       <c r="B310" s="6" t="s">
+        <v>766</v>
+      </c>
+      <c r="C310" s="7" t="s">
         <v>856</v>
       </c>
-      <c r="C310" s="7" t="s">
-        <v>946</v>
-      </c>
       <c r="D310" t="s">
-        <v>815</v>
+        <v>725</v>
       </c>
       <c r="E310" t="s">
         <v>169</v>
@@ -9785,16 +9785,16 @@
     </row>
     <row r="311" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A311" s="5" t="s">
-        <v>766</v>
+        <v>947</v>
       </c>
       <c r="B311" s="6" t="s">
+        <v>767</v>
+      </c>
+      <c r="C311" s="7" t="s">
         <v>857</v>
       </c>
-      <c r="C311" s="7" t="s">
-        <v>947</v>
-      </c>
       <c r="D311" t="s">
-        <v>815</v>
+        <v>725</v>
       </c>
       <c r="E311" t="s">
         <v>170</v>
@@ -9805,16 +9805,16 @@
     </row>
     <row r="312" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A312" s="5" t="s">
-        <v>767</v>
+        <v>948</v>
       </c>
       <c r="B312" s="6" t="s">
+        <v>768</v>
+      </c>
+      <c r="C312" s="7" t="s">
         <v>858</v>
       </c>
-      <c r="C312" s="7" t="s">
-        <v>948</v>
-      </c>
       <c r="D312" t="s">
-        <v>815</v>
+        <v>725</v>
       </c>
       <c r="E312" t="s">
         <v>171</v>
@@ -9825,16 +9825,16 @@
     </row>
     <row r="313" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A313" s="5" t="s">
-        <v>768</v>
+        <v>949</v>
       </c>
       <c r="B313" s="6" t="s">
+        <v>769</v>
+      </c>
+      <c r="C313" s="7" t="s">
         <v>859</v>
       </c>
-      <c r="C313" s="7" t="s">
-        <v>949</v>
-      </c>
       <c r="D313" t="s">
-        <v>815</v>
+        <v>725</v>
       </c>
       <c r="E313" t="s">
         <v>172</v>
@@ -9845,16 +9845,16 @@
     </row>
     <row r="314" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A314" s="5" t="s">
-        <v>769</v>
+        <v>950</v>
       </c>
       <c r="B314" s="6" t="s">
+        <v>770</v>
+      </c>
+      <c r="C314" s="7" t="s">
         <v>860</v>
       </c>
-      <c r="C314" s="7" t="s">
-        <v>950</v>
-      </c>
       <c r="D314" t="s">
-        <v>815</v>
+        <v>725</v>
       </c>
       <c r="E314" t="s">
         <v>173</v>
@@ -9865,16 +9865,16 @@
     </row>
     <row r="315" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A315" s="5" t="s">
-        <v>770</v>
+        <v>951</v>
       </c>
       <c r="B315" s="6" t="s">
+        <v>771</v>
+      </c>
+      <c r="C315" s="7" t="s">
         <v>861</v>
       </c>
-      <c r="C315" s="7" t="s">
-        <v>951</v>
-      </c>
       <c r="D315" t="s">
-        <v>815</v>
+        <v>725</v>
       </c>
       <c r="E315" t="s">
         <v>174</v>
@@ -9885,16 +9885,16 @@
     </row>
     <row r="316" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A316" s="5" t="s">
-        <v>771</v>
+        <v>952</v>
       </c>
       <c r="B316" s="6" t="s">
+        <v>772</v>
+      </c>
+      <c r="C316" s="7" t="s">
         <v>862</v>
       </c>
-      <c r="C316" s="7" t="s">
-        <v>952</v>
-      </c>
       <c r="D316" t="s">
-        <v>815</v>
+        <v>725</v>
       </c>
       <c r="E316" t="s">
         <v>175</v>
@@ -9905,16 +9905,16 @@
     </row>
     <row r="317" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A317" s="5" t="s">
-        <v>772</v>
+        <v>953</v>
       </c>
       <c r="B317" s="6" t="s">
+        <v>773</v>
+      </c>
+      <c r="C317" s="7" t="s">
         <v>863</v>
       </c>
-      <c r="C317" s="7" t="s">
-        <v>953</v>
-      </c>
       <c r="D317" t="s">
-        <v>815</v>
+        <v>725</v>
       </c>
       <c r="E317" t="s">
         <v>176</v>
@@ -9925,16 +9925,16 @@
     </row>
     <row r="318" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A318" s="5" t="s">
-        <v>773</v>
+        <v>954</v>
       </c>
       <c r="B318" s="6" t="s">
+        <v>774</v>
+      </c>
+      <c r="C318" s="7" t="s">
         <v>864</v>
       </c>
-      <c r="C318" s="7" t="s">
-        <v>954</v>
-      </c>
       <c r="D318" t="s">
-        <v>815</v>
+        <v>725</v>
       </c>
       <c r="E318" t="s">
         <v>177</v>
@@ -9945,16 +9945,16 @@
     </row>
     <row r="319" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A319" s="5" t="s">
-        <v>774</v>
+        <v>955</v>
       </c>
       <c r="B319" s="6" t="s">
+        <v>775</v>
+      </c>
+      <c r="C319" s="7" t="s">
         <v>865</v>
       </c>
-      <c r="C319" s="7" t="s">
-        <v>955</v>
-      </c>
       <c r="D319" t="s">
-        <v>815</v>
+        <v>725</v>
       </c>
       <c r="E319" t="s">
         <v>178</v>
@@ -9965,16 +9965,16 @@
     </row>
     <row r="320" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A320" s="5" t="s">
-        <v>775</v>
+        <v>956</v>
       </c>
       <c r="B320" s="6" t="s">
+        <v>776</v>
+      </c>
+      <c r="C320" s="7" t="s">
         <v>866</v>
       </c>
-      <c r="C320" s="7" t="s">
-        <v>956</v>
-      </c>
       <c r="D320" t="s">
-        <v>815</v>
+        <v>725</v>
       </c>
       <c r="E320" t="s">
         <v>179</v>
@@ -9985,16 +9985,16 @@
     </row>
     <row r="321" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A321" s="5" t="s">
-        <v>776</v>
+        <v>957</v>
       </c>
       <c r="B321" s="6" t="s">
+        <v>777</v>
+      </c>
+      <c r="C321" s="7" t="s">
         <v>867</v>
       </c>
-      <c r="C321" s="7" t="s">
-        <v>957</v>
-      </c>
       <c r="D321" t="s">
-        <v>815</v>
+        <v>725</v>
       </c>
       <c r="E321" t="s">
         <v>180</v>
@@ -10005,16 +10005,16 @@
     </row>
     <row r="322" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A322" s="5" t="s">
-        <v>777</v>
+        <v>958</v>
       </c>
       <c r="B322" s="6" t="s">
+        <v>778</v>
+      </c>
+      <c r="C322" s="7" t="s">
         <v>868</v>
       </c>
-      <c r="C322" s="7" t="s">
-        <v>958</v>
-      </c>
       <c r="D322" t="s">
-        <v>815</v>
+        <v>725</v>
       </c>
       <c r="E322" t="s">
         <v>181</v>
@@ -10025,16 +10025,16 @@
     </row>
     <row r="323" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A323" s="5" t="s">
-        <v>778</v>
+        <v>959</v>
       </c>
       <c r="B323" s="6" t="s">
+        <v>779</v>
+      </c>
+      <c r="C323" s="7" t="s">
         <v>869</v>
       </c>
-      <c r="C323" s="7" t="s">
-        <v>959</v>
-      </c>
       <c r="D323" t="s">
-        <v>815</v>
+        <v>725</v>
       </c>
       <c r="E323" t="s">
         <v>182</v>
@@ -10045,16 +10045,16 @@
     </row>
     <row r="324" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A324" s="5" t="s">
-        <v>779</v>
+        <v>960</v>
       </c>
       <c r="B324" s="6" t="s">
+        <v>780</v>
+      </c>
+      <c r="C324" s="7" t="s">
         <v>870</v>
       </c>
-      <c r="C324" s="7" t="s">
-        <v>960</v>
-      </c>
       <c r="D324" t="s">
-        <v>815</v>
+        <v>725</v>
       </c>
       <c r="E324" t="s">
         <v>183</v>
@@ -10065,16 +10065,16 @@
     </row>
     <row r="325" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A325" s="5" t="s">
-        <v>780</v>
+        <v>961</v>
       </c>
       <c r="B325" s="6" t="s">
+        <v>781</v>
+      </c>
+      <c r="C325" s="7" t="s">
         <v>871</v>
       </c>
-      <c r="C325" s="7" t="s">
-        <v>961</v>
-      </c>
       <c r="D325" t="s">
-        <v>815</v>
+        <v>725</v>
       </c>
       <c r="E325" t="s">
         <v>184</v>
@@ -10085,16 +10085,16 @@
     </row>
     <row r="326" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A326" s="5" t="s">
-        <v>781</v>
+        <v>962</v>
       </c>
       <c r="B326" s="6" t="s">
+        <v>782</v>
+      </c>
+      <c r="C326" s="7" t="s">
         <v>872</v>
       </c>
-      <c r="C326" s="7" t="s">
-        <v>962</v>
-      </c>
       <c r="D326" t="s">
-        <v>815</v>
+        <v>725</v>
       </c>
       <c r="E326" t="s">
         <v>185</v>
@@ -10105,16 +10105,16 @@
     </row>
     <row r="327" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A327" s="5" t="s">
-        <v>782</v>
+        <v>963</v>
       </c>
       <c r="B327" s="6" t="s">
+        <v>783</v>
+      </c>
+      <c r="C327" s="7" t="s">
         <v>873</v>
       </c>
-      <c r="C327" s="7" t="s">
-        <v>963</v>
-      </c>
       <c r="D327" t="s">
-        <v>815</v>
+        <v>725</v>
       </c>
       <c r="E327" t="s">
         <v>186</v>
@@ -10125,16 +10125,16 @@
     </row>
     <row r="328" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A328" s="5" t="s">
-        <v>783</v>
+        <v>964</v>
       </c>
       <c r="B328" s="6" t="s">
+        <v>784</v>
+      </c>
+      <c r="C328" s="7" t="s">
         <v>874</v>
       </c>
-      <c r="C328" s="7" t="s">
-        <v>964</v>
-      </c>
       <c r="D328" t="s">
-        <v>815</v>
+        <v>725</v>
       </c>
       <c r="E328" t="s">
         <v>187</v>
@@ -10145,16 +10145,16 @@
     </row>
     <row r="329" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A329" s="5" t="s">
-        <v>784</v>
+        <v>965</v>
       </c>
       <c r="B329" s="6" t="s">
+        <v>785</v>
+      </c>
+      <c r="C329" s="7" t="s">
         <v>875</v>
       </c>
-      <c r="C329" s="7" t="s">
-        <v>965</v>
-      </c>
       <c r="D329" t="s">
-        <v>815</v>
+        <v>725</v>
       </c>
       <c r="E329" t="s">
         <v>188</v>
@@ -10165,16 +10165,16 @@
     </row>
     <row r="330" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A330" s="5" t="s">
-        <v>785</v>
+        <v>966</v>
       </c>
       <c r="B330" s="6" t="s">
+        <v>786</v>
+      </c>
+      <c r="C330" s="7" t="s">
         <v>876</v>
       </c>
-      <c r="C330" s="7" t="s">
-        <v>966</v>
-      </c>
       <c r="D330" t="s">
-        <v>815</v>
+        <v>725</v>
       </c>
       <c r="E330" t="s">
         <v>189</v>
@@ -10185,16 +10185,16 @@
     </row>
     <row r="331" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A331" s="5" t="s">
-        <v>786</v>
+        <v>967</v>
       </c>
       <c r="B331" s="6" t="s">
+        <v>787</v>
+      </c>
+      <c r="C331" s="7" t="s">
         <v>877</v>
       </c>
-      <c r="C331" s="7" t="s">
-        <v>967</v>
-      </c>
       <c r="D331" t="s">
-        <v>815</v>
+        <v>725</v>
       </c>
       <c r="E331" t="s">
         <v>190</v>
@@ -10205,16 +10205,16 @@
     </row>
     <row r="332" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A332" s="5" t="s">
-        <v>787</v>
+        <v>968</v>
       </c>
       <c r="B332" s="6" t="s">
+        <v>788</v>
+      </c>
+      <c r="C332" s="7" t="s">
         <v>878</v>
       </c>
-      <c r="C332" s="7" t="s">
-        <v>968</v>
-      </c>
       <c r="D332" t="s">
-        <v>815</v>
+        <v>725</v>
       </c>
       <c r="E332" t="s">
         <v>191</v>
@@ -10225,16 +10225,16 @@
     </row>
     <row r="333" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A333" s="5" t="s">
-        <v>788</v>
+        <v>969</v>
       </c>
       <c r="B333" s="6" t="s">
+        <v>789</v>
+      </c>
+      <c r="C333" s="7" t="s">
         <v>879</v>
       </c>
-      <c r="C333" s="7" t="s">
-        <v>969</v>
-      </c>
       <c r="D333" t="s">
-        <v>815</v>
+        <v>725</v>
       </c>
       <c r="E333" t="s">
         <v>192</v>
@@ -10245,16 +10245,16 @@
     </row>
     <row r="334" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A334" s="5" t="s">
-        <v>789</v>
+        <v>970</v>
       </c>
       <c r="B334" s="6" t="s">
+        <v>790</v>
+      </c>
+      <c r="C334" s="7" t="s">
         <v>880</v>
       </c>
-      <c r="C334" s="7" t="s">
-        <v>970</v>
-      </c>
       <c r="D334" t="s">
-        <v>815</v>
+        <v>725</v>
       </c>
       <c r="E334" t="s">
         <v>193</v>
@@ -10265,16 +10265,16 @@
     </row>
     <row r="335" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A335" s="5" t="s">
-        <v>790</v>
+        <v>971</v>
       </c>
       <c r="B335" s="6" t="s">
+        <v>791</v>
+      </c>
+      <c r="C335" s="7" t="s">
         <v>881</v>
       </c>
-      <c r="C335" s="7" t="s">
-        <v>971</v>
-      </c>
       <c r="D335" t="s">
-        <v>815</v>
+        <v>725</v>
       </c>
       <c r="E335" t="s">
         <v>194</v>
@@ -10285,16 +10285,16 @@
     </row>
     <row r="336" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A336" s="5" t="s">
-        <v>791</v>
+        <v>972</v>
       </c>
       <c r="B336" s="6" t="s">
+        <v>792</v>
+      </c>
+      <c r="C336" s="7" t="s">
         <v>882</v>
       </c>
-      <c r="C336" s="7" t="s">
-        <v>972</v>
-      </c>
       <c r="D336" t="s">
-        <v>815</v>
+        <v>725</v>
       </c>
       <c r="E336" t="s">
         <v>195</v>
@@ -10305,16 +10305,16 @@
     </row>
     <row r="337" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A337" s="5" t="s">
-        <v>792</v>
+        <v>973</v>
       </c>
       <c r="B337" s="6" t="s">
+        <v>793</v>
+      </c>
+      <c r="C337" s="7" t="s">
         <v>883</v>
       </c>
-      <c r="C337" s="7" t="s">
-        <v>973</v>
-      </c>
       <c r="D337" t="s">
-        <v>815</v>
+        <v>725</v>
       </c>
       <c r="E337" t="s">
         <v>196</v>
@@ -10325,16 +10325,16 @@
     </row>
     <row r="338" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A338" s="5" t="s">
-        <v>793</v>
+        <v>974</v>
       </c>
       <c r="B338" s="6" t="s">
+        <v>794</v>
+      </c>
+      <c r="C338" s="7" t="s">
         <v>884</v>
       </c>
-      <c r="C338" s="7" t="s">
-        <v>974</v>
-      </c>
       <c r="D338" t="s">
-        <v>815</v>
+        <v>725</v>
       </c>
       <c r="E338" t="s">
         <v>197</v>
@@ -10345,16 +10345,16 @@
     </row>
     <row r="339" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A339" s="5" t="s">
-        <v>794</v>
+        <v>975</v>
       </c>
       <c r="B339" s="6" t="s">
+        <v>795</v>
+      </c>
+      <c r="C339" s="7" t="s">
         <v>885</v>
       </c>
-      <c r="C339" s="7" t="s">
-        <v>975</v>
-      </c>
       <c r="D339" t="s">
-        <v>815</v>
+        <v>725</v>
       </c>
       <c r="E339" t="s">
         <v>198</v>
@@ -10365,16 +10365,16 @@
     </row>
     <row r="340" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A340" s="5" t="s">
-        <v>795</v>
+        <v>976</v>
       </c>
       <c r="B340" s="6" t="s">
+        <v>796</v>
+      </c>
+      <c r="C340" s="7" t="s">
         <v>886</v>
       </c>
-      <c r="C340" s="7" t="s">
-        <v>976</v>
-      </c>
       <c r="D340" t="s">
-        <v>815</v>
+        <v>725</v>
       </c>
       <c r="E340" t="s">
         <v>199</v>
@@ -10385,16 +10385,16 @@
     </row>
     <row r="341" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A341" s="5" t="s">
-        <v>796</v>
+        <v>977</v>
       </c>
       <c r="B341" s="6" t="s">
+        <v>797</v>
+      </c>
+      <c r="C341" s="7" t="s">
         <v>887</v>
       </c>
-      <c r="C341" s="7" t="s">
-        <v>977</v>
-      </c>
       <c r="D341" t="s">
-        <v>815</v>
+        <v>725</v>
       </c>
       <c r="E341" t="s">
         <v>200</v>
@@ -10405,16 +10405,16 @@
     </row>
     <row r="342" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A342" s="5" t="s">
-        <v>797</v>
+        <v>978</v>
       </c>
       <c r="B342" s="6" t="s">
+        <v>798</v>
+      </c>
+      <c r="C342" s="7" t="s">
         <v>888</v>
       </c>
-      <c r="C342" s="7" t="s">
-        <v>978</v>
-      </c>
       <c r="D342" t="s">
-        <v>815</v>
+        <v>725</v>
       </c>
       <c r="E342" t="s">
         <v>130</v>
@@ -10425,16 +10425,16 @@
     </row>
     <row r="343" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A343" s="5" t="s">
-        <v>798</v>
+        <v>979</v>
       </c>
       <c r="B343" s="6" t="s">
+        <v>799</v>
+      </c>
+      <c r="C343" s="7" t="s">
         <v>889</v>
       </c>
-      <c r="C343" s="7" t="s">
-        <v>979</v>
-      </c>
       <c r="D343" t="s">
-        <v>815</v>
+        <v>725</v>
       </c>
       <c r="E343" t="s">
         <v>201</v>
@@ -10445,16 +10445,16 @@
     </row>
     <row r="344" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A344" s="5" t="s">
-        <v>799</v>
+        <v>980</v>
       </c>
       <c r="B344" s="6" t="s">
+        <v>800</v>
+      </c>
+      <c r="C344" s="7" t="s">
         <v>890</v>
       </c>
-      <c r="C344" s="7" t="s">
-        <v>980</v>
-      </c>
       <c r="D344" t="s">
-        <v>815</v>
+        <v>725</v>
       </c>
       <c r="E344" s="4" t="s">
         <v>202</v>
@@ -10465,16 +10465,16 @@
     </row>
     <row r="345" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A345" s="5" t="s">
-        <v>800</v>
+        <v>981</v>
       </c>
       <c r="B345" s="6" t="s">
+        <v>801</v>
+      </c>
+      <c r="C345" s="7" t="s">
         <v>891</v>
       </c>
-      <c r="C345" s="7" t="s">
-        <v>981</v>
-      </c>
       <c r="D345" t="s">
-        <v>815</v>
+        <v>725</v>
       </c>
       <c r="E345" t="s">
         <v>203</v>
@@ -10485,16 +10485,16 @@
     </row>
     <row r="346" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A346" s="5" t="s">
-        <v>801</v>
+        <v>982</v>
       </c>
       <c r="B346" s="6" t="s">
+        <v>802</v>
+      </c>
+      <c r="C346" s="7" t="s">
         <v>892</v>
       </c>
-      <c r="C346" s="7" t="s">
-        <v>982</v>
-      </c>
       <c r="D346" t="s">
-        <v>815</v>
+        <v>725</v>
       </c>
       <c r="E346" t="s">
         <v>204</v>
@@ -10505,16 +10505,16 @@
     </row>
     <row r="347" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A347" s="5" t="s">
-        <v>802</v>
+        <v>983</v>
       </c>
       <c r="B347" s="6" t="s">
+        <v>803</v>
+      </c>
+      <c r="C347" s="7" t="s">
         <v>893</v>
       </c>
-      <c r="C347" s="7" t="s">
-        <v>983</v>
-      </c>
       <c r="D347" t="s">
-        <v>815</v>
+        <v>725</v>
       </c>
       <c r="E347" t="s">
         <v>205</v>
@@ -10525,16 +10525,16 @@
     </row>
     <row r="348" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A348" s="5" t="s">
-        <v>803</v>
+        <v>984</v>
       </c>
       <c r="B348" s="6" t="s">
+        <v>804</v>
+      </c>
+      <c r="C348" s="7" t="s">
         <v>894</v>
       </c>
-      <c r="C348" s="7" t="s">
-        <v>984</v>
-      </c>
       <c r="D348" t="s">
-        <v>815</v>
+        <v>725</v>
       </c>
       <c r="E348" t="s">
         <v>206</v>
@@ -10545,16 +10545,16 @@
     </row>
     <row r="349" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A349" s="5" t="s">
-        <v>804</v>
+        <v>985</v>
       </c>
       <c r="B349" s="6" t="s">
+        <v>805</v>
+      </c>
+      <c r="C349" s="7" t="s">
         <v>895</v>
       </c>
-      <c r="C349" s="7" t="s">
-        <v>985</v>
-      </c>
       <c r="D349" t="s">
-        <v>815</v>
+        <v>725</v>
       </c>
       <c r="E349" t="s">
         <v>207</v>
@@ -10565,16 +10565,16 @@
     </row>
     <row r="350" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A350" s="5" t="s">
-        <v>805</v>
+        <v>986</v>
       </c>
       <c r="B350" s="6" t="s">
+        <v>806</v>
+      </c>
+      <c r="C350" s="7" t="s">
         <v>896</v>
       </c>
-      <c r="C350" s="7" t="s">
-        <v>986</v>
-      </c>
       <c r="D350" t="s">
-        <v>815</v>
+        <v>725</v>
       </c>
       <c r="E350" t="s">
         <v>208</v>
@@ -10585,16 +10585,16 @@
     </row>
     <row r="351" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A351" s="5" t="s">
-        <v>806</v>
+        <v>987</v>
       </c>
       <c r="B351" s="6" t="s">
+        <v>807</v>
+      </c>
+      <c r="C351" s="7" t="s">
         <v>897</v>
       </c>
-      <c r="C351" s="7" t="s">
-        <v>987</v>
-      </c>
       <c r="D351" t="s">
-        <v>815</v>
+        <v>725</v>
       </c>
       <c r="E351" t="s">
         <v>209</v>
@@ -10605,16 +10605,16 @@
     </row>
     <row r="352" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A352" s="5" t="s">
-        <v>807</v>
+        <v>988</v>
       </c>
       <c r="B352" s="6" t="s">
+        <v>808</v>
+      </c>
+      <c r="C352" s="7" t="s">
         <v>898</v>
       </c>
-      <c r="C352" s="7" t="s">
-        <v>988</v>
-      </c>
       <c r="D352" t="s">
-        <v>815</v>
+        <v>725</v>
       </c>
       <c r="E352" t="s">
         <v>210</v>
@@ -10625,16 +10625,16 @@
     </row>
     <row r="353" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A353" s="5" t="s">
-        <v>808</v>
+        <v>989</v>
       </c>
       <c r="B353" s="6" t="s">
+        <v>809</v>
+      </c>
+      <c r="C353" s="7" t="s">
         <v>899</v>
       </c>
-      <c r="C353" s="7" t="s">
-        <v>989</v>
-      </c>
       <c r="D353" t="s">
-        <v>815</v>
+        <v>725</v>
       </c>
       <c r="E353" t="s">
         <v>211</v>
@@ -10645,16 +10645,16 @@
     </row>
     <row r="354" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A354" s="5" t="s">
-        <v>809</v>
+        <v>990</v>
       </c>
       <c r="B354" s="6" t="s">
+        <v>810</v>
+      </c>
+      <c r="C354" s="7" t="s">
         <v>900</v>
       </c>
-      <c r="C354" s="7" t="s">
-        <v>990</v>
-      </c>
       <c r="D354" t="s">
-        <v>815</v>
+        <v>725</v>
       </c>
       <c r="E354" t="s">
         <v>212</v>
@@ -10665,16 +10665,16 @@
     </row>
     <row r="355" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A355" s="5" t="s">
-        <v>810</v>
+        <v>991</v>
       </c>
       <c r="B355" s="6" t="s">
+        <v>811</v>
+      </c>
+      <c r="C355" s="7" t="s">
         <v>901</v>
       </c>
-      <c r="C355" s="7" t="s">
-        <v>991</v>
-      </c>
       <c r="D355" t="s">
-        <v>815</v>
+        <v>725</v>
       </c>
       <c r="E355" t="s">
         <v>213</v>
@@ -10685,16 +10685,16 @@
     </row>
     <row r="356" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A356" s="5" t="s">
-        <v>811</v>
+        <v>992</v>
       </c>
       <c r="B356" s="6" t="s">
+        <v>812</v>
+      </c>
+      <c r="C356" s="7" t="s">
         <v>902</v>
       </c>
-      <c r="C356" s="7" t="s">
-        <v>992</v>
-      </c>
       <c r="D356" t="s">
-        <v>815</v>
+        <v>725</v>
       </c>
       <c r="E356" s="4" t="s">
         <v>214</v>
@@ -10705,16 +10705,16 @@
     </row>
     <row r="357" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A357" s="5" t="s">
-        <v>812</v>
+        <v>993</v>
       </c>
       <c r="B357" s="6" t="s">
+        <v>813</v>
+      </c>
+      <c r="C357" s="7" t="s">
         <v>903</v>
       </c>
-      <c r="C357" s="7" t="s">
-        <v>993</v>
-      </c>
       <c r="D357" t="s">
-        <v>815</v>
+        <v>725</v>
       </c>
       <c r="E357" t="s">
         <v>215</v>
@@ -10725,16 +10725,16 @@
     </row>
     <row r="358" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A358" s="5" t="s">
-        <v>813</v>
+        <v>994</v>
       </c>
       <c r="B358" s="6" t="s">
+        <v>814</v>
+      </c>
+      <c r="C358" s="7" t="s">
         <v>904</v>
       </c>
-      <c r="C358" s="7" t="s">
-        <v>994</v>
-      </c>
       <c r="D358" t="s">
-        <v>815</v>
+        <v>725</v>
       </c>
       <c r="E358" t="s">
         <v>216</v>
@@ -10745,16 +10745,16 @@
     </row>
     <row r="359" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A359" s="5" t="s">
-        <v>814</v>
+        <v>995</v>
       </c>
       <c r="B359" s="6" t="s">
+        <v>815</v>
+      </c>
+      <c r="C359" s="7" t="s">
         <v>905</v>
       </c>
-      <c r="C359" s="7" t="s">
-        <v>995</v>
-      </c>
       <c r="D359" t="s">
-        <v>815</v>
+        <v>725</v>
       </c>
       <c r="E359" t="s">
         <v>217</v>

--- a/data/Designs/Designs_masterfile.xlsx
+++ b/data/Designs/Designs_masterfile.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HOL428\Documents\GitHub\SynBioMLMH\SynbioML\data\Designs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HOL428\Documents\Repos\SynbioML\data\Designs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AE92575-26FB-445C-B493-41E3612553D6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{599BF7DC-778D-4540-A0CD-57536132E8B7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-19310" yWindow="3350" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3394,8 +3394,8 @@
   </sheetPr>
   <dimension ref="A1:F359"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A263" workbookViewId="0">
-      <selection activeCell="A271" sqref="A271"/>
+    <sheetView tabSelected="1" topLeftCell="A337" workbookViewId="0">
+      <selection activeCell="D347" sqref="D347"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>

--- a/data/Designs/Designs_masterfile.xlsx
+++ b/data/Designs/Designs_masterfile.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HOL428\Documents\Repos\SynbioML\data\Designs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{599BF7DC-778D-4540-A0CD-57536132E8B7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97D5E365-4AFD-4669-8287-89A9E7C8136E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19310" yWindow="3350" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sequences" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1618" uniqueCount="996">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1978" uniqueCount="1177">
   <si>
     <t>tttaagaaggagatatacat</t>
   </si>
@@ -3018,6 +3018,549 @@
   </si>
   <si>
     <t>RBS_BA3_2652</t>
+  </si>
+  <si>
+    <t>TTTAAGAGGGGGCTATACAT</t>
+  </si>
+  <si>
+    <t>TTTAAGAGGGGACTATACAT</t>
+  </si>
+  <si>
+    <t>TTTAAGAAAGGAGTATACAT</t>
+  </si>
+  <si>
+    <t>TTTAAGATAGTGGTATACAT</t>
+  </si>
+  <si>
+    <t>TTTAAGAGGGGGTTATACAT</t>
+  </si>
+  <si>
+    <t>TTTAAGAGGCGACTATACAT</t>
+  </si>
+  <si>
+    <t>TTTAAGAAAGTGGTATACAT</t>
+  </si>
+  <si>
+    <t>TTTAAGATAGGACTATACAT</t>
+  </si>
+  <si>
+    <t>TTTAAGAGGGGTCTATACAT</t>
+  </si>
+  <si>
+    <t>TTTAAGAGGGGAATATACAT</t>
+  </si>
+  <si>
+    <t>TTTAAGAAGCTATTATACAT</t>
+  </si>
+  <si>
+    <t>TTTAAGAGGCGCGTATACAT</t>
+  </si>
+  <si>
+    <t>TTTAAGAGGCGCCTATACAT</t>
+  </si>
+  <si>
+    <t>TTTAAGAGAGTGGTATACAT</t>
+  </si>
+  <si>
+    <t>TTTAAGAGGGTGGTATACAT</t>
+  </si>
+  <si>
+    <t>TTTAAGAGGCGTCTATACAT</t>
+  </si>
+  <si>
+    <t>TTTAAGAGGGGTATATACAT</t>
+  </si>
+  <si>
+    <t>TTTAAGAAAGGACTATACAT</t>
+  </si>
+  <si>
+    <t>TTTAAGAGGCTAATATACAT</t>
+  </si>
+  <si>
+    <t>TTTAAGAGAGGAGTATACAT</t>
+  </si>
+  <si>
+    <t>TTTAAGAGGCGTATATACAT</t>
+  </si>
+  <si>
+    <t>TTTAAGAAAATACTATACAT</t>
+  </si>
+  <si>
+    <t>TTTAAGAGCGAGATATACAT</t>
+  </si>
+  <si>
+    <t>TTTAAGAGGGGCCTATACAT</t>
+  </si>
+  <si>
+    <t>TTTAAGACCGAGATATACAT</t>
+  </si>
+  <si>
+    <t>TTTAAGAGGCGAATATACAT</t>
+  </si>
+  <si>
+    <t>TTTAAGAGGGGTGTATACAT</t>
+  </si>
+  <si>
+    <t>TTTAAGAACTTACTATACAT</t>
+  </si>
+  <si>
+    <t>TTTAAGAGAGAGGTATACAT</t>
+  </si>
+  <si>
+    <t>TTTAAGAAGCTGGTATACAT</t>
+  </si>
+  <si>
+    <t>TTTAAGAGGGGCGTATACAT</t>
+  </si>
+  <si>
+    <t>TTTAAGAAAACGCTATACAT</t>
+  </si>
+  <si>
+    <t>TTTAAGAAGGGAGTATACAT</t>
+  </si>
+  <si>
+    <t>TTTAAGAACGAGGTATACAT</t>
+  </si>
+  <si>
+    <t>TTTAAGAAGCGAGTATACAT</t>
+  </si>
+  <si>
+    <t>TTTAAGATAGTCCTATACAT</t>
+  </si>
+  <si>
+    <t>TTTAAGAAAGAGGTATACAT</t>
+  </si>
+  <si>
+    <t>TTTAAGAAGCGACTATACAT</t>
+  </si>
+  <si>
+    <t>TTTAAGACCGGAGTATACAT</t>
+  </si>
+  <si>
+    <t>TTTAAGAACGGAGTATACAT</t>
+  </si>
+  <si>
+    <t>TTTAAGAAGGTGGTATACAT</t>
+  </si>
+  <si>
+    <t>TTTAAGAGGTTCCTATACAT</t>
+  </si>
+  <si>
+    <t>TTTAAGATAGGAATATACAT</t>
+  </si>
+  <si>
+    <t>TTTAAGAGACTGGTATACAT</t>
+  </si>
+  <si>
+    <t>TTTAAGACGGAGGTATACAT</t>
+  </si>
+  <si>
+    <t>TTTAAGAGGTTACTATACAT</t>
+  </si>
+  <si>
+    <t>TTTAAGAGGTTGGTATACAT</t>
+  </si>
+  <si>
+    <t>TTTAAGATAGTGCTATACAT</t>
+  </si>
+  <si>
+    <t>TTTAAGAGGCTGATATACAT</t>
+  </si>
+  <si>
+    <t>TTTAAGAAGGGGGTATACAT</t>
+  </si>
+  <si>
+    <t>TTTAAGATAGAGATATACAT</t>
+  </si>
+  <si>
+    <t>TTTAAGAAAATATTATACAT</t>
+  </si>
+  <si>
+    <t>TTTAAGAACTTAATATACAT</t>
+  </si>
+  <si>
+    <t>TTTAAGAGGTTCGTATACAT</t>
+  </si>
+  <si>
+    <t>TTTAAGATAGTCGTATACAT</t>
+  </si>
+  <si>
+    <t>TTTAAGAGGCGGCTATACAT</t>
+  </si>
+  <si>
+    <t>TTTAAGAAGGGACTATACAT</t>
+  </si>
+  <si>
+    <t>TTTAAGAGGTTAATATACAT</t>
+  </si>
+  <si>
+    <t>TTTAAGACGGGGCTATACAT</t>
+  </si>
+  <si>
+    <t>TTTAAGAAAAATGTATACAT</t>
+  </si>
+  <si>
+    <t>TTTAAGAAAACGTTATACAT</t>
+  </si>
+  <si>
+    <t>TTTAAGAATGGAGTATACAT</t>
+  </si>
+  <si>
+    <t>TTTAAGAAAATGGTATACAT</t>
+  </si>
+  <si>
+    <t>TTTAAGACGGGACTATACAT</t>
+  </si>
+  <si>
+    <t>TTTAAGAAAGGAATATACAT</t>
+  </si>
+  <si>
+    <t>TTTAAGAAAATAATATACAT</t>
+  </si>
+  <si>
+    <t>TTTAAGAACTTCCTATACAT</t>
+  </si>
+  <si>
+    <t>TTTAAGAAGGGGCTATACAT</t>
+  </si>
+  <si>
+    <t>TTTAAGAAAGTCCTATACAT</t>
+  </si>
+  <si>
+    <t>TTTAAGATAGGATTATACAT</t>
+  </si>
+  <si>
+    <t>TTTAAGAGGTTGCTATACAT</t>
+  </si>
+  <si>
+    <t>TTTAAGATGCGCTTATACAT</t>
+  </si>
+  <si>
+    <t>TTTAAGAACTTATTATACAT</t>
+  </si>
+  <si>
+    <t>TTTAAGAAAAATATATACAT</t>
+  </si>
+  <si>
+    <t>TTTAAGAGGCGTGTATACAT</t>
+  </si>
+  <si>
+    <t>TTTAAGAGAGGACTATACAT</t>
+  </si>
+  <si>
+    <t>TTTAAGAAGCGCGTATACAT</t>
+  </si>
+  <si>
+    <t>TTTAAGAGGGTCCTATACAT</t>
+  </si>
+  <si>
+    <t>TTTAAGAGTGGACTATACAT</t>
+  </si>
+  <si>
+    <t>TTTAAGAAGCGCCTATACAT</t>
+  </si>
+  <si>
+    <t>TTTAAGACAGGAATATACAT</t>
+  </si>
+  <si>
+    <t>TTTAAGATGCGACTATACAT</t>
+  </si>
+  <si>
+    <t>TTTAAGAAATTACTATACAT</t>
+  </si>
+  <si>
+    <t>TTTAAGAAAACATTATACAT</t>
+  </si>
+  <si>
+    <t>TTTAAGAAAAAGGTATACAT</t>
+  </si>
+  <si>
+    <t>TTTAAGAAAAATTTATACAT</t>
+  </si>
+  <si>
+    <t>TTTAAGAAAACGGTATACAT</t>
+  </si>
+  <si>
+    <t>TTTAAGAAAGTGCTATACAT</t>
+  </si>
+  <si>
+    <t>TTTAAGAAAACAATATACAT</t>
+  </si>
+  <si>
+    <t>TTTAAGAACTTCGTATACAT</t>
+  </si>
+  <si>
+    <t>RBS_BA4_2729</t>
+  </si>
+  <si>
+    <t>RBS_BA4_2721</t>
+  </si>
+  <si>
+    <t>RBS_BA4_162</t>
+  </si>
+  <si>
+    <t>RBS_BA4_3258</t>
+  </si>
+  <si>
+    <t>RBS_BA4_2731</t>
+  </si>
+  <si>
+    <t>RBS_BA4_2657</t>
+  </si>
+  <si>
+    <t>RBS_BA4_186</t>
+  </si>
+  <si>
+    <t>RBS_BA4_3233</t>
+  </si>
+  <si>
+    <t>RBS_BA4_2733</t>
+  </si>
+  <si>
+    <t>RBS_BA4_2720</t>
+  </si>
+  <si>
+    <t>RBS_BA4_627</t>
+  </si>
+  <si>
+    <t>RBS_BA4_2662</t>
+  </si>
+  <si>
+    <t>RBS_BA4_2661</t>
+  </si>
+  <si>
+    <t>RBS_BA4_2234</t>
+  </si>
+  <si>
+    <t>RBS_BA4_2746</t>
+  </si>
+  <si>
+    <t>RBS_BA4_2669</t>
+  </si>
+  <si>
+    <t>RBS_BA4_2732</t>
+  </si>
+  <si>
+    <t>RBS_BA4_161</t>
+  </si>
+  <si>
+    <t>RBS_BA4_2672</t>
+  </si>
+  <si>
+    <t>RBS_BA4_2210</t>
+  </si>
+  <si>
+    <t>RBS_BA4_2668</t>
+  </si>
+  <si>
+    <t>RBS_BA4_49</t>
+  </si>
+  <si>
+    <t>RBS_BA4_2440</t>
+  </si>
+  <si>
+    <t>RBS_BA4_2725</t>
+  </si>
+  <si>
+    <t>RBS_BA4_1416</t>
+  </si>
+  <si>
+    <t>RBS_BA4_2656</t>
+  </si>
+  <si>
+    <t>RBS_BA4_2734</t>
+  </si>
+  <si>
+    <t>RBS_BA4_497</t>
+  </si>
+  <si>
+    <t>RBS_BA4_2186</t>
+  </si>
+  <si>
+    <t>RBS_BA4_634</t>
+  </si>
+  <si>
+    <t>RBS_BA4_2726</t>
+  </si>
+  <si>
+    <t>RBS_BA4_25</t>
+  </si>
+  <si>
+    <t>RBS_BA4_674</t>
+  </si>
+  <si>
+    <t>RBS_BA4_394</t>
+  </si>
+  <si>
+    <t>RBS_BA4_610</t>
+  </si>
+  <si>
+    <t>RBS_BA4_3253</t>
+  </si>
+  <si>
+    <t>RBS_BA4_138</t>
+  </si>
+  <si>
+    <t>RBS_BA4_609</t>
+  </si>
+  <si>
+    <t>RBS_BA4_1442</t>
+  </si>
+  <si>
+    <t>RBS_BA4_418</t>
+  </si>
+  <si>
+    <t>RBS_BA4_698</t>
+  </si>
+  <si>
+    <t>RBS_BA4_2805</t>
+  </si>
+  <si>
+    <t>RBS_BA4_3232</t>
+  </si>
+  <si>
+    <t>RBS_BA4_2170</t>
+  </si>
+  <si>
+    <t>RBS_BA4_1674</t>
+  </si>
+  <si>
+    <t>RBS_BA4_2801</t>
+  </si>
+  <si>
+    <t>RBS_BA4_2810</t>
+  </si>
+  <si>
+    <t>RBS_BA4_3257</t>
+  </si>
+  <si>
+    <t>RBS_BA4_2680</t>
+  </si>
+  <si>
+    <t>RBS_BA4_682</t>
+  </si>
+  <si>
+    <t>RBS_BA4_3208</t>
+  </si>
+  <si>
+    <t>RBS_BA4_51</t>
+  </si>
+  <si>
+    <t>RBS_BA4_496</t>
+  </si>
+  <si>
+    <t>RBS_BA4_2806</t>
+  </si>
+  <si>
+    <t>RBS_BA4_3254</t>
+  </si>
+  <si>
+    <t>RBS_BA4_2665</t>
+  </si>
+  <si>
+    <t>RBS_BA4_673</t>
+  </si>
+  <si>
+    <t>RBS_BA4_2800</t>
+  </si>
+  <si>
+    <t>RBS_BA4_1705</t>
+  </si>
+  <si>
+    <t>RBS_BA4_14</t>
+  </si>
+  <si>
+    <t>RBS_BA4_27</t>
+  </si>
+  <si>
+    <t>RBS_BA4_930</t>
+  </si>
+  <si>
+    <t>RBS_BA4_58</t>
+  </si>
+  <si>
+    <t>RBS_BA4_1697</t>
+  </si>
+  <si>
+    <t>RBS_BA4_160</t>
+  </si>
+  <si>
+    <t>RBS_BA4_48</t>
+  </si>
+  <si>
+    <t>RBS_BA4_501</t>
+  </si>
+  <si>
+    <t>RBS_BA4_681</t>
+  </si>
+  <si>
+    <t>RBS_BA4_181</t>
+  </si>
+  <si>
+    <t>RBS_BA4_3235</t>
+  </si>
+  <si>
+    <t>RBS_BA4_2809</t>
+  </si>
+  <si>
+    <t>RBS_BA4_3687</t>
+  </si>
+  <si>
+    <t>RBS_BA4_499</t>
+  </si>
+  <si>
+    <t>RBS_BA4_12</t>
+  </si>
+  <si>
+    <t>RBS_BA4_2670</t>
+  </si>
+  <si>
+    <t>RBS_BA4_2209</t>
+  </si>
+  <si>
+    <t>RBS_BA4_614</t>
+  </si>
+  <si>
+    <t>RBS_BA4_2741</t>
+  </si>
+  <si>
+    <t>RBS_BA4_2977</t>
+  </si>
+  <si>
+    <t>RBS_BA4_613</t>
+  </si>
+  <si>
+    <t>RBS_BA4_1184</t>
+  </si>
+  <si>
+    <t>RBS_BA4_3681</t>
+  </si>
+  <si>
+    <t>RBS_BA4_241</t>
+  </si>
+  <si>
+    <t>RBS_BA4_19</t>
+  </si>
+  <si>
+    <t>RBS_BA4_10</t>
+  </si>
+  <si>
+    <t>RBS_BA4_15</t>
+  </si>
+  <si>
+    <t>RBS_BA4_26</t>
+  </si>
+  <si>
+    <t>RBS_BA4_185</t>
+  </si>
+  <si>
+    <t>RBS_BA4_16</t>
+  </si>
+  <si>
+    <t>RBS_BA4_502</t>
+  </si>
+  <si>
+    <t>Fifth_Plate</t>
   </si>
 </sst>
 </file>
@@ -3069,12 +3612,12 @@
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3392,21 +3935,21 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:F359"/>
+  <dimension ref="A1:F449"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A337" workbookViewId="0">
-      <selection activeCell="D347" sqref="D347"/>
+    <sheetView tabSelected="1" topLeftCell="A341" workbookViewId="0">
+      <selection activeCell="I362" sqref="I362"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30" customWidth="1"/>
+    <col min="1" max="1" width="30" style="3" customWidth="1"/>
     <col min="2" max="3" width="29.26953125" customWidth="1"/>
     <col min="4" max="4" width="23.36328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="3" t="s">
         <v>122</v>
       </c>
       <c r="B1" t="s">
@@ -3426,7 +3969,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="6" t="s">
         <v>61</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -3447,7 +3990,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="6" t="s">
         <v>62</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -3468,7 +4011,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="6" t="s">
         <v>63</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -3489,7 +4032,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="6" t="s">
         <v>64</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -3510,7 +4053,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="6" t="s">
         <v>65</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -3531,7 +4074,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="6" t="s">
         <v>66</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -3552,7 +4095,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="6" t="s">
         <v>67</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -3573,7 +4116,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="6" t="s">
         <v>68</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -3594,7 +4137,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -3615,7 +4158,7 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="6" t="s">
         <v>70</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -3636,7 +4179,7 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="6" t="s">
         <v>71</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -3657,7 +4200,7 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="6" t="s">
         <v>72</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -3678,7 +4221,7 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="6" t="s">
         <v>73</v>
       </c>
       <c r="B14" s="1" t="s">
@@ -3699,7 +4242,7 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="6" t="s">
         <v>74</v>
       </c>
       <c r="B15" s="1" t="s">
@@ -3720,7 +4263,7 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="6" t="s">
         <v>75</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -3741,7 +4284,7 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="6" t="s">
         <v>76</v>
       </c>
       <c r="B17" s="1" t="s">
@@ -3762,7 +4305,7 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="6" t="s">
         <v>77</v>
       </c>
       <c r="B18" s="1" t="s">
@@ -3783,7 +4326,7 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
+      <c r="A19" s="6" t="s">
         <v>78</v>
       </c>
       <c r="B19" s="1" t="s">
@@ -3804,7 +4347,7 @@
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
+      <c r="A20" s="6" t="s">
         <v>79</v>
       </c>
       <c r="B20" s="1" t="s">
@@ -3825,7 +4368,7 @@
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
+      <c r="A21" s="6" t="s">
         <v>80</v>
       </c>
       <c r="B21" s="1" t="s">
@@ -3846,7 +4389,7 @@
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
+      <c r="A22" s="6" t="s">
         <v>81</v>
       </c>
       <c r="B22" s="1" t="s">
@@ -3867,7 +4410,7 @@
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
+      <c r="A23" s="6" t="s">
         <v>82</v>
       </c>
       <c r="B23" s="1" t="s">
@@ -3888,7 +4431,7 @@
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
+      <c r="A24" s="6" t="s">
         <v>83</v>
       </c>
       <c r="B24" s="1" t="s">
@@ -3909,7 +4452,7 @@
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
+      <c r="A25" s="6" t="s">
         <v>84</v>
       </c>
       <c r="B25" s="1" t="s">
@@ -3930,7 +4473,7 @@
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
+      <c r="A26" s="6" t="s">
         <v>85</v>
       </c>
       <c r="B26" s="1" t="s">
@@ -3951,7 +4494,7 @@
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
+      <c r="A27" s="6" t="s">
         <v>86</v>
       </c>
       <c r="B27" s="1" t="s">
@@ -3972,7 +4515,7 @@
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
+      <c r="A28" s="6" t="s">
         <v>87</v>
       </c>
       <c r="B28" s="1" t="s">
@@ -3993,7 +4536,7 @@
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
+      <c r="A29" s="6" t="s">
         <v>88</v>
       </c>
       <c r="B29" s="1" t="s">
@@ -4014,7 +4557,7 @@
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
+      <c r="A30" s="6" t="s">
         <v>89</v>
       </c>
       <c r="B30" s="1" t="s">
@@ -4035,7 +4578,7 @@
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
+      <c r="A31" s="6" t="s">
         <v>90</v>
       </c>
       <c r="B31" s="1" t="s">
@@ -4056,7 +4599,7 @@
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
+      <c r="A32" s="6" t="s">
         <v>91</v>
       </c>
       <c r="B32" s="1" t="s">
@@ -4077,7 +4620,7 @@
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="2" t="s">
+      <c r="A33" s="6" t="s">
         <v>92</v>
       </c>
       <c r="B33" s="1" t="s">
@@ -4098,7 +4641,7 @@
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="2" t="s">
+      <c r="A34" s="6" t="s">
         <v>93</v>
       </c>
       <c r="B34" s="1" t="s">
@@ -4119,7 +4662,7 @@
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="2" t="s">
+      <c r="A35" s="6" t="s">
         <v>94</v>
       </c>
       <c r="B35" s="1" t="s">
@@ -4140,7 +4683,7 @@
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="2" t="s">
+      <c r="A36" s="6" t="s">
         <v>95</v>
       </c>
       <c r="B36" s="1" t="s">
@@ -4161,7 +4704,7 @@
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="2" t="s">
+      <c r="A37" s="6" t="s">
         <v>96</v>
       </c>
       <c r="B37" s="1" t="s">
@@ -4182,7 +4725,7 @@
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="2" t="s">
+      <c r="A38" s="6" t="s">
         <v>97</v>
       </c>
       <c r="B38" s="1" t="s">
@@ -4203,7 +4746,7 @@
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="2" t="s">
+      <c r="A39" s="6" t="s">
         <v>98</v>
       </c>
       <c r="B39" s="1" t="s">
@@ -4224,7 +4767,7 @@
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="2" t="s">
+      <c r="A40" s="6" t="s">
         <v>99</v>
       </c>
       <c r="B40" s="1" t="s">
@@ -4245,7 +4788,7 @@
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="2" t="s">
+      <c r="A41" s="6" t="s">
         <v>100</v>
       </c>
       <c r="B41" s="1" t="s">
@@ -4266,7 +4809,7 @@
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="2" t="s">
+      <c r="A42" s="6" t="s">
         <v>101</v>
       </c>
       <c r="B42" s="1" t="s">
@@ -4287,7 +4830,7 @@
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="2" t="s">
+      <c r="A43" s="6" t="s">
         <v>102</v>
       </c>
       <c r="B43" s="1" t="s">
@@ -4308,7 +4851,7 @@
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="2" t="s">
+      <c r="A44" s="6" t="s">
         <v>103</v>
       </c>
       <c r="B44" s="1" t="s">
@@ -4329,7 +4872,7 @@
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="2" t="s">
+      <c r="A45" s="6" t="s">
         <v>104</v>
       </c>
       <c r="B45" s="1" t="s">
@@ -4350,7 +4893,7 @@
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="2" t="s">
+      <c r="A46" s="6" t="s">
         <v>105</v>
       </c>
       <c r="B46" s="1" t="s">
@@ -4371,7 +4914,7 @@
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="2" t="s">
+      <c r="A47" s="6" t="s">
         <v>106</v>
       </c>
       <c r="B47" s="1" t="s">
@@ -4392,7 +4935,7 @@
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="2" t="s">
+      <c r="A48" s="6" t="s">
         <v>107</v>
       </c>
       <c r="B48" s="1" t="s">
@@ -4413,7 +4956,7 @@
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="2" t="s">
+      <c r="A49" s="6" t="s">
         <v>108</v>
       </c>
       <c r="B49" s="1" t="s">
@@ -4434,7 +4977,7 @@
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="2" t="s">
+      <c r="A50" s="6" t="s">
         <v>109</v>
       </c>
       <c r="B50" s="1" t="s">
@@ -4455,7 +4998,7 @@
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="2" t="s">
+      <c r="A51" s="6" t="s">
         <v>110</v>
       </c>
       <c r="B51" s="1" t="s">
@@ -4476,7 +5019,7 @@
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="2" t="s">
+      <c r="A52" s="6" t="s">
         <v>111</v>
       </c>
       <c r="B52" s="1" t="s">
@@ -4497,7 +5040,7 @@
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="2" t="s">
+      <c r="A53" s="6" t="s">
         <v>112</v>
       </c>
       <c r="B53" s="1" t="s">
@@ -4518,7 +5061,7 @@
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="2" t="s">
+      <c r="A54" s="6" t="s">
         <v>113</v>
       </c>
       <c r="B54" s="1" t="s">
@@ -4539,7 +5082,7 @@
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="2" t="s">
+      <c r="A55" s="6" t="s">
         <v>114</v>
       </c>
       <c r="B55" s="1" t="s">
@@ -4560,7 +5103,7 @@
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="2" t="s">
+      <c r="A56" s="6" t="s">
         <v>115</v>
       </c>
       <c r="B56" s="1" t="s">
@@ -4581,7 +5124,7 @@
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="2" t="s">
+      <c r="A57" s="6" t="s">
         <v>116</v>
       </c>
       <c r="B57" s="1" t="s">
@@ -4602,7 +5145,7 @@
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" s="2" t="s">
+      <c r="A58" s="6" t="s">
         <v>117</v>
       </c>
       <c r="B58" s="1" t="s">
@@ -4623,7 +5166,7 @@
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" s="2" t="s">
+      <c r="A59" s="6" t="s">
         <v>118</v>
       </c>
       <c r="B59" s="1" t="s">
@@ -4644,7 +5187,7 @@
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" s="2" t="s">
+      <c r="A60" s="6" t="s">
         <v>119</v>
       </c>
       <c r="B60" s="1" t="s">
@@ -4665,7 +5208,7 @@
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" s="2" t="s">
+      <c r="A61" s="6" t="s">
         <v>120</v>
       </c>
       <c r="B61" s="1" t="s">
@@ -4686,7 +5229,7 @@
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" s="2" t="s">
+      <c r="A62" s="6" t="s">
         <v>121</v>
       </c>
       <c r="B62" s="1" t="s">
@@ -4707,10 +5250,10 @@
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
+      <c r="A63" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="B63" s="3" t="s">
+      <c r="B63" s="2" t="s">
         <v>219</v>
       </c>
       <c r="C63" s="1" t="str">
@@ -4728,10 +5271,10 @@
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
+      <c r="A64" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="B64" s="3" t="s">
+      <c r="B64" s="2" t="s">
         <v>221</v>
       </c>
       <c r="C64" s="1" t="str">
@@ -4749,10 +5292,10 @@
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
+      <c r="A65" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="B65" s="3" t="s">
+      <c r="B65" s="2" t="s">
         <v>223</v>
       </c>
       <c r="C65" s="1" t="str">
@@ -4770,10 +5313,10 @@
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
+      <c r="A66" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="B66" s="3" t="s">
+      <c r="B66" s="2" t="s">
         <v>225</v>
       </c>
       <c r="C66" s="1" t="str">
@@ -4791,10 +5334,10 @@
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
+      <c r="A67" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="B67" s="3" t="s">
+      <c r="B67" s="2" t="s">
         <v>227</v>
       </c>
       <c r="C67" s="1" t="str">
@@ -4812,10 +5355,10 @@
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
+      <c r="A68" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="B68" s="3" t="s">
+      <c r="B68" s="2" t="s">
         <v>229</v>
       </c>
       <c r="C68" s="1" t="str">
@@ -4833,10 +5376,10 @@
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
+      <c r="A69" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="B69" s="3" t="s">
+      <c r="B69" s="2" t="s">
         <v>231</v>
       </c>
       <c r="C69" s="1" t="str">
@@ -4854,10 +5397,10 @@
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
+      <c r="A70" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="B70" s="3" t="s">
+      <c r="B70" s="2" t="s">
         <v>233</v>
       </c>
       <c r="C70" s="1" t="str">
@@ -4875,10 +5418,10 @@
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
+      <c r="A71" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="B71" s="3" t="s">
+      <c r="B71" s="2" t="s">
         <v>235</v>
       </c>
       <c r="C71" s="1" t="str">
@@ -4896,10 +5439,10 @@
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
+      <c r="A72" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="B72" s="3" t="s">
+      <c r="B72" s="2" t="s">
         <v>237</v>
       </c>
       <c r="C72" s="1" t="str">
@@ -4917,10 +5460,10 @@
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
+      <c r="A73" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="B73" s="3" t="s">
+      <c r="B73" s="2" t="s">
         <v>239</v>
       </c>
       <c r="C73" s="1" t="str">
@@ -4938,10 +5481,10 @@
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
+      <c r="A74" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="B74" s="3" t="s">
+      <c r="B74" s="2" t="s">
         <v>241</v>
       </c>
       <c r="C74" s="1" t="str">
@@ -4959,10 +5502,10 @@
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
+      <c r="A75" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="B75" s="3" t="s">
+      <c r="B75" s="2" t="s">
         <v>243</v>
       </c>
       <c r="C75" s="1" t="str">
@@ -4980,10 +5523,10 @@
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
+      <c r="A76" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="B76" s="3" t="s">
+      <c r="B76" s="2" t="s">
         <v>245</v>
       </c>
       <c r="C76" s="1" t="str">
@@ -5001,10 +5544,10 @@
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
+      <c r="A77" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="B77" s="3" t="s">
+      <c r="B77" s="2" t="s">
         <v>247</v>
       </c>
       <c r="C77" s="1" t="str">
@@ -5022,10 +5565,10 @@
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
+      <c r="A78" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="B78" s="3" t="s">
+      <c r="B78" s="2" t="s">
         <v>249</v>
       </c>
       <c r="C78" s="1" t="str">
@@ -5043,10 +5586,10 @@
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
+      <c r="A79" s="3" t="s">
         <v>250</v>
       </c>
-      <c r="B79" s="3" t="s">
+      <c r="B79" s="2" t="s">
         <v>251</v>
       </c>
       <c r="C79" s="1" t="str">
@@ -5064,10 +5607,10 @@
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
+      <c r="A80" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="B80" s="3" t="s">
+      <c r="B80" s="2" t="s">
         <v>253</v>
       </c>
       <c r="C80" s="1" t="str">
@@ -5085,10 +5628,10 @@
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
+      <c r="A81" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="B81" s="3" t="s">
+      <c r="B81" s="2" t="s">
         <v>255</v>
       </c>
       <c r="C81" s="1" t="str">
@@ -5106,10 +5649,10 @@
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
+      <c r="A82" s="3" t="s">
         <v>256</v>
       </c>
-      <c r="B82" s="3" t="s">
+      <c r="B82" s="2" t="s">
         <v>257</v>
       </c>
       <c r="C82" s="1" t="str">
@@ -5127,10 +5670,10 @@
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
+      <c r="A83" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="B83" s="3" t="s">
+      <c r="B83" s="2" t="s">
         <v>259</v>
       </c>
       <c r="C83" s="1" t="str">
@@ -5148,10 +5691,10 @@
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
+      <c r="A84" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="B84" s="3" t="s">
+      <c r="B84" s="2" t="s">
         <v>261</v>
       </c>
       <c r="C84" s="1" t="str">
@@ -5169,10 +5712,10 @@
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
+      <c r="A85" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="B85" s="3" t="s">
+      <c r="B85" s="2" t="s">
         <v>263</v>
       </c>
       <c r="C85" s="1" t="str">
@@ -5190,10 +5733,10 @@
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
+      <c r="A86" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="B86" s="3" t="s">
+      <c r="B86" s="2" t="s">
         <v>265</v>
       </c>
       <c r="C86" s="1" t="str">
@@ -5211,10 +5754,10 @@
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
+      <c r="A87" s="3" t="s">
         <v>266</v>
       </c>
-      <c r="B87" s="3" t="s">
+      <c r="B87" s="2" t="s">
         <v>267</v>
       </c>
       <c r="C87" s="1" t="str">
@@ -5232,10 +5775,10 @@
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
+      <c r="A88" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="B88" s="3" t="s">
+      <c r="B88" s="2" t="s">
         <v>269</v>
       </c>
       <c r="C88" s="1" t="str">
@@ -5253,10 +5796,10 @@
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
+      <c r="A89" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="B89" s="3" t="s">
+      <c r="B89" s="2" t="s">
         <v>271</v>
       </c>
       <c r="C89" s="1" t="str">
@@ -5274,10 +5817,10 @@
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
+      <c r="A90" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="B90" s="3" t="s">
+      <c r="B90" s="2" t="s">
         <v>273</v>
       </c>
       <c r="C90" s="1" t="str">
@@ -5295,10 +5838,10 @@
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
+      <c r="A91" s="3" t="s">
         <v>274</v>
       </c>
-      <c r="B91" s="3" t="s">
+      <c r="B91" s="2" t="s">
         <v>275</v>
       </c>
       <c r="C91" s="1" t="str">
@@ -5316,7 +5859,7 @@
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
+      <c r="A92" s="3" t="s">
         <v>333</v>
       </c>
       <c r="B92" t="s">
@@ -5337,7 +5880,7 @@
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
+      <c r="A93" s="3" t="s">
         <v>335</v>
       </c>
       <c r="B93" t="s">
@@ -5358,7 +5901,7 @@
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
+      <c r="A94" s="3" t="s">
         <v>337</v>
       </c>
       <c r="B94" t="s">
@@ -5379,7 +5922,7 @@
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
+      <c r="A95" s="3" t="s">
         <v>339</v>
       </c>
       <c r="B95" t="s">
@@ -5400,7 +5943,7 @@
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
+      <c r="A96" s="3" t="s">
         <v>341</v>
       </c>
       <c r="B96" t="s">
@@ -5421,7 +5964,7 @@
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
+      <c r="A97" s="3" t="s">
         <v>343</v>
       </c>
       <c r="B97" t="s">
@@ -5442,7 +5985,7 @@
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
+      <c r="A98" s="3" t="s">
         <v>345</v>
       </c>
       <c r="B98" t="s">
@@ -5463,7 +6006,7 @@
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
+      <c r="A99" s="3" t="s">
         <v>347</v>
       </c>
       <c r="B99" t="s">
@@ -5484,7 +6027,7 @@
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
+      <c r="A100" s="3" t="s">
         <v>349</v>
       </c>
       <c r="B100" t="s">
@@ -5505,7 +6048,7 @@
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
+      <c r="A101" s="3" t="s">
         <v>351</v>
       </c>
       <c r="B101" t="s">
@@ -5526,7 +6069,7 @@
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
+      <c r="A102" s="3" t="s">
         <v>353</v>
       </c>
       <c r="B102" t="s">
@@ -5547,7 +6090,7 @@
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
+      <c r="A103" s="3" t="s">
         <v>355</v>
       </c>
       <c r="B103" t="s">
@@ -5568,7 +6111,7 @@
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
+      <c r="A104" s="3" t="s">
         <v>357</v>
       </c>
       <c r="B104" t="s">
@@ -5589,7 +6132,7 @@
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
+      <c r="A105" s="3" t="s">
         <v>359</v>
       </c>
       <c r="B105" t="s">
@@ -5610,7 +6153,7 @@
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
+      <c r="A106" s="3" t="s">
         <v>361</v>
       </c>
       <c r="B106" t="s">
@@ -5631,7 +6174,7 @@
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
+      <c r="A107" s="3" t="s">
         <v>363</v>
       </c>
       <c r="B107" t="s">
@@ -5652,7 +6195,7 @@
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
+      <c r="A108" s="3" t="s">
         <v>365</v>
       </c>
       <c r="B108" t="s">
@@ -5673,7 +6216,7 @@
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
+      <c r="A109" s="3" t="s">
         <v>367</v>
       </c>
       <c r="B109" t="s">
@@ -5694,7 +6237,7 @@
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
+      <c r="A110" s="3" t="s">
         <v>369</v>
       </c>
       <c r="B110" t="s">
@@ -5715,7 +6258,7 @@
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
+      <c r="A111" s="3" t="s">
         <v>371</v>
       </c>
       <c r="B111" t="s">
@@ -5736,7 +6279,7 @@
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
+      <c r="A112" s="3" t="s">
         <v>373</v>
       </c>
       <c r="B112" t="s">
@@ -5757,7 +6300,7 @@
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A113" t="s">
+      <c r="A113" s="3" t="s">
         <v>375</v>
       </c>
       <c r="B113" t="s">
@@ -5778,7 +6321,7 @@
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
+      <c r="A114" s="3" t="s">
         <v>377</v>
       </c>
       <c r="B114" t="s">
@@ -5799,7 +6342,7 @@
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A115" t="s">
+      <c r="A115" s="3" t="s">
         <v>379</v>
       </c>
       <c r="B115" t="s">
@@ -5820,7 +6363,7 @@
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
+      <c r="A116" s="3" t="s">
         <v>381</v>
       </c>
       <c r="B116" t="s">
@@ -5841,7 +6384,7 @@
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A117" t="s">
+      <c r="A117" s="3" t="s">
         <v>383</v>
       </c>
       <c r="B117" t="s">
@@ -5862,7 +6405,7 @@
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A118" t="s">
+      <c r="A118" s="3" t="s">
         <v>385</v>
       </c>
       <c r="B118" t="s">
@@ -5883,7 +6426,7 @@
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A119" t="s">
+      <c r="A119" s="3" t="s">
         <v>387</v>
       </c>
       <c r="B119" t="s">
@@ -5904,7 +6447,7 @@
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A120" t="s">
+      <c r="A120" s="3" t="s">
         <v>389</v>
       </c>
       <c r="B120" t="s">
@@ -5925,7 +6468,7 @@
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A121" t="s">
+      <c r="A121" s="3" t="s">
         <v>391</v>
       </c>
       <c r="B121" t="s">
@@ -5946,7 +6489,7 @@
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A122" t="s">
+      <c r="A122" s="3" t="s">
         <v>393</v>
       </c>
       <c r="B122" t="s">
@@ -5967,7 +6510,7 @@
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A123" t="s">
+      <c r="A123" s="3" t="s">
         <v>395</v>
       </c>
       <c r="B123" t="s">
@@ -5988,7 +6531,7 @@
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A124" t="s">
+      <c r="A124" s="3" t="s">
         <v>397</v>
       </c>
       <c r="B124" t="s">
@@ -6009,7 +6552,7 @@
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A125" t="s">
+      <c r="A125" s="3" t="s">
         <v>399</v>
       </c>
       <c r="B125" t="s">
@@ -6030,7 +6573,7 @@
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A126" t="s">
+      <c r="A126" s="3" t="s">
         <v>401</v>
       </c>
       <c r="B126" t="s">
@@ -6051,7 +6594,7 @@
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A127" t="s">
+      <c r="A127" s="3" t="s">
         <v>403</v>
       </c>
       <c r="B127" t="s">
@@ -6072,7 +6615,7 @@
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A128" t="s">
+      <c r="A128" s="3" t="s">
         <v>405</v>
       </c>
       <c r="B128" t="s">
@@ -6093,7 +6636,7 @@
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A129" t="s">
+      <c r="A129" s="3" t="s">
         <v>407</v>
       </c>
       <c r="B129" t="s">
@@ -6114,7 +6657,7 @@
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A130" t="s">
+      <c r="A130" s="3" t="s">
         <v>409</v>
       </c>
       <c r="B130" t="s">
@@ -6135,7 +6678,7 @@
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A131" t="s">
+      <c r="A131" s="3" t="s">
         <v>411</v>
       </c>
       <c r="B131" t="s">
@@ -6156,7 +6699,7 @@
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A132" t="s">
+      <c r="A132" s="3" t="s">
         <v>413</v>
       </c>
       <c r="B132" t="s">
@@ -6177,7 +6720,7 @@
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A133" t="s">
+      <c r="A133" s="3" t="s">
         <v>415</v>
       </c>
       <c r="B133" t="s">
@@ -6198,7 +6741,7 @@
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A134" t="s">
+      <c r="A134" s="3" t="s">
         <v>417</v>
       </c>
       <c r="B134" t="s">
@@ -6219,7 +6762,7 @@
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A135" t="s">
+      <c r="A135" s="3" t="s">
         <v>419</v>
       </c>
       <c r="B135" t="s">
@@ -6240,7 +6783,7 @@
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A136" t="s">
+      <c r="A136" s="3" t="s">
         <v>421</v>
       </c>
       <c r="B136" t="s">
@@ -6261,7 +6804,7 @@
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A137" t="s">
+      <c r="A137" s="3" t="s">
         <v>423</v>
       </c>
       <c r="B137" t="s">
@@ -6282,7 +6825,7 @@
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A138" t="s">
+      <c r="A138" s="3" t="s">
         <v>425</v>
       </c>
       <c r="B138" t="s">
@@ -6303,7 +6846,7 @@
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A139" t="s">
+      <c r="A139" s="3" t="s">
         <v>427</v>
       </c>
       <c r="B139" t="s">
@@ -6324,7 +6867,7 @@
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A140" t="s">
+      <c r="A140" s="3" t="s">
         <v>429</v>
       </c>
       <c r="B140" t="s">
@@ -6345,7 +6888,7 @@
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A141" t="s">
+      <c r="A141" s="3" t="s">
         <v>431</v>
       </c>
       <c r="B141" t="s">
@@ -6366,7 +6909,7 @@
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A142" t="s">
+      <c r="A142" s="3" t="s">
         <v>433</v>
       </c>
       <c r="B142" t="s">
@@ -6387,7 +6930,7 @@
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A143" t="s">
+      <c r="A143" s="3" t="s">
         <v>435</v>
       </c>
       <c r="B143" t="s">
@@ -6408,7 +6951,7 @@
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A144" t="s">
+      <c r="A144" s="3" t="s">
         <v>437</v>
       </c>
       <c r="B144" t="s">
@@ -6429,7 +6972,7 @@
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A145" t="s">
+      <c r="A145" s="3" t="s">
         <v>439</v>
       </c>
       <c r="B145" t="s">
@@ -6450,7 +6993,7 @@
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A146" t="s">
+      <c r="A146" s="3" t="s">
         <v>441</v>
       </c>
       <c r="B146" t="s">
@@ -6471,7 +7014,7 @@
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A147" t="s">
+      <c r="A147" s="3" t="s">
         <v>443</v>
       </c>
       <c r="B147" t="s">
@@ -6492,7 +7035,7 @@
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A148" t="s">
+      <c r="A148" s="3" t="s">
         <v>445</v>
       </c>
       <c r="B148" t="s">
@@ -6513,7 +7056,7 @@
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A149" t="s">
+      <c r="A149" s="3" t="s">
         <v>447</v>
       </c>
       <c r="B149" t="s">
@@ -6534,7 +7077,7 @@
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A150" t="s">
+      <c r="A150" s="3" t="s">
         <v>449</v>
       </c>
       <c r="B150" t="s">
@@ -6555,7 +7098,7 @@
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A151" t="s">
+      <c r="A151" s="3" t="s">
         <v>451</v>
       </c>
       <c r="B151" t="s">
@@ -6576,7 +7119,7 @@
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A152" t="s">
+      <c r="A152" s="3" t="s">
         <v>277</v>
       </c>
       <c r="B152" t="s">
@@ -6597,7 +7140,7 @@
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A153" t="s">
+      <c r="A153" s="3" t="s">
         <v>279</v>
       </c>
       <c r="B153" t="s">
@@ -6618,7 +7161,7 @@
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A154" t="s">
+      <c r="A154" s="3" t="s">
         <v>281</v>
       </c>
       <c r="B154" t="s">
@@ -6639,7 +7182,7 @@
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A155" t="s">
+      <c r="A155" s="3" t="s">
         <v>283</v>
       </c>
       <c r="B155" t="s">
@@ -6660,7 +7203,7 @@
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A156" t="s">
+      <c r="A156" s="3" t="s">
         <v>285</v>
       </c>
       <c r="B156" t="s">
@@ -6681,7 +7224,7 @@
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A157" t="s">
+      <c r="A157" s="3" t="s">
         <v>287</v>
       </c>
       <c r="B157" t="s">
@@ -6702,7 +7245,7 @@
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A158" t="s">
+      <c r="A158" s="3" t="s">
         <v>289</v>
       </c>
       <c r="B158" t="s">
@@ -6723,7 +7266,7 @@
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A159" t="s">
+      <c r="A159" s="3" t="s">
         <v>291</v>
       </c>
       <c r="B159" t="s">
@@ -6744,7 +7287,7 @@
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A160" t="s">
+      <c r="A160" s="3" t="s">
         <v>293</v>
       </c>
       <c r="B160" t="s">
@@ -6765,7 +7308,7 @@
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A161" t="s">
+      <c r="A161" s="3" t="s">
         <v>295</v>
       </c>
       <c r="B161" t="s">
@@ -6786,7 +7329,7 @@
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A162" t="s">
+      <c r="A162" s="3" t="s">
         <v>297</v>
       </c>
       <c r="B162" t="s">
@@ -6807,7 +7350,7 @@
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A163" t="s">
+      <c r="A163" s="3" t="s">
         <v>299</v>
       </c>
       <c r="B163" t="s">
@@ -6828,7 +7371,7 @@
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A164" t="s">
+      <c r="A164" s="3" t="s">
         <v>301</v>
       </c>
       <c r="B164" t="s">
@@ -6849,7 +7392,7 @@
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A165" t="s">
+      <c r="A165" s="3" t="s">
         <v>303</v>
       </c>
       <c r="B165" t="s">
@@ -6870,7 +7413,7 @@
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A166" t="s">
+      <c r="A166" s="3" t="s">
         <v>305</v>
       </c>
       <c r="B166" t="s">
@@ -6883,7 +7426,7 @@
       <c r="D166" t="s">
         <v>276</v>
       </c>
-      <c r="E166" s="4" t="s">
+      <c r="E166" s="3" t="s">
         <v>202</v>
       </c>
       <c r="F166">
@@ -6891,7 +7434,7 @@
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A167" t="s">
+      <c r="A167" s="3" t="s">
         <v>307</v>
       </c>
       <c r="B167" t="s">
@@ -6912,7 +7455,7 @@
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A168" t="s">
+      <c r="A168" s="3" t="s">
         <v>309</v>
       </c>
       <c r="B168" t="s">
@@ -6933,7 +7476,7 @@
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A169" t="s">
+      <c r="A169" s="3" t="s">
         <v>311</v>
       </c>
       <c r="B169" t="s">
@@ -6954,7 +7497,7 @@
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A170" t="s">
+      <c r="A170" s="3" t="s">
         <v>313</v>
       </c>
       <c r="B170" t="s">
@@ -6975,7 +7518,7 @@
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A171" t="s">
+      <c r="A171" s="3" t="s">
         <v>315</v>
       </c>
       <c r="B171" t="s">
@@ -6996,7 +7539,7 @@
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A172" t="s">
+      <c r="A172" s="3" t="s">
         <v>317</v>
       </c>
       <c r="B172" t="s">
@@ -7017,7 +7560,7 @@
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A173" t="s">
+      <c r="A173" s="3" t="s">
         <v>319</v>
       </c>
       <c r="B173" t="s">
@@ -7038,7 +7581,7 @@
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A174" t="s">
+      <c r="A174" s="3" t="s">
         <v>321</v>
       </c>
       <c r="B174" t="s">
@@ -7059,7 +7602,7 @@
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A175" t="s">
+      <c r="A175" s="3" t="s">
         <v>323</v>
       </c>
       <c r="B175" t="s">
@@ -7080,7 +7623,7 @@
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A176" t="s">
+      <c r="A176" s="3" t="s">
         <v>325</v>
       </c>
       <c r="B176" t="s">
@@ -7101,7 +7644,7 @@
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A177" t="s">
+      <c r="A177" s="3" t="s">
         <v>327</v>
       </c>
       <c r="B177" t="s">
@@ -7122,7 +7665,7 @@
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A178" t="s">
+      <c r="A178" s="3" t="s">
         <v>329</v>
       </c>
       <c r="B178" t="s">
@@ -7135,7 +7678,7 @@
       <c r="D178" t="s">
         <v>276</v>
       </c>
-      <c r="E178" s="4" t="s">
+      <c r="E178" s="3" t="s">
         <v>214</v>
       </c>
       <c r="F178">
@@ -7143,7 +7686,7 @@
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A179" t="s">
+      <c r="A179" s="3" t="s">
         <v>331</v>
       </c>
       <c r="B179" t="s">
@@ -7164,7 +7707,7 @@
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A180" t="s">
+      <c r="A180" s="3" t="s">
         <v>453</v>
       </c>
       <c r="B180" t="s">
@@ -7184,7 +7727,7 @@
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A181" t="s">
+      <c r="A181" s="3" t="s">
         <v>457</v>
       </c>
       <c r="B181" t="s">
@@ -7204,7 +7747,7 @@
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A182" t="s">
+      <c r="A182" s="3" t="s">
         <v>460</v>
       </c>
       <c r="B182" t="s">
@@ -7224,7 +7767,7 @@
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A183" t="s">
+      <c r="A183" s="3" t="s">
         <v>463</v>
       </c>
       <c r="B183" t="s">
@@ -7244,7 +7787,7 @@
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A184" t="s">
+      <c r="A184" s="3" t="s">
         <v>466</v>
       </c>
       <c r="B184" t="s">
@@ -7264,7 +7807,7 @@
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A185" t="s">
+      <c r="A185" s="3" t="s">
         <v>469</v>
       </c>
       <c r="B185" t="s">
@@ -7284,7 +7827,7 @@
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A186" t="s">
+      <c r="A186" s="3" t="s">
         <v>472</v>
       </c>
       <c r="B186" t="s">
@@ -7304,7 +7847,7 @@
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A187" t="s">
+      <c r="A187" s="3" t="s">
         <v>475</v>
       </c>
       <c r="B187" t="s">
@@ -7324,7 +7867,7 @@
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A188" t="s">
+      <c r="A188" s="3" t="s">
         <v>478</v>
       </c>
       <c r="B188" t="s">
@@ -7344,7 +7887,7 @@
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A189" t="s">
+      <c r="A189" s="3" t="s">
         <v>481</v>
       </c>
       <c r="B189" t="s">
@@ -7364,7 +7907,7 @@
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A190" t="s">
+      <c r="A190" s="3" t="s">
         <v>484</v>
       </c>
       <c r="B190" t="s">
@@ -7384,7 +7927,7 @@
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A191" t="s">
+      <c r="A191" s="3" t="s">
         <v>487</v>
       </c>
       <c r="B191" t="s">
@@ -7404,7 +7947,7 @@
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A192" t="s">
+      <c r="A192" s="3" t="s">
         <v>490</v>
       </c>
       <c r="B192" t="s">
@@ -7424,7 +7967,7 @@
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A193" t="s">
+      <c r="A193" s="3" t="s">
         <v>493</v>
       </c>
       <c r="B193" t="s">
@@ -7444,7 +7987,7 @@
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A194" t="s">
+      <c r="A194" s="3" t="s">
         <v>496</v>
       </c>
       <c r="B194" t="s">
@@ -7464,7 +8007,7 @@
       </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A195" t="s">
+      <c r="A195" s="3" t="s">
         <v>499</v>
       </c>
       <c r="B195" t="s">
@@ -7484,7 +8027,7 @@
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A196" t="s">
+      <c r="A196" s="3" t="s">
         <v>502</v>
       </c>
       <c r="B196" t="s">
@@ -7504,7 +8047,7 @@
       </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A197" t="s">
+      <c r="A197" s="3" t="s">
         <v>505</v>
       </c>
       <c r="B197" t="s">
@@ -7524,7 +8067,7 @@
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A198" t="s">
+      <c r="A198" s="3" t="s">
         <v>508</v>
       </c>
       <c r="B198" t="s">
@@ -7544,7 +8087,7 @@
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A199" t="s">
+      <c r="A199" s="3" t="s">
         <v>511</v>
       </c>
       <c r="B199" t="s">
@@ -7564,7 +8107,7 @@
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A200" t="s">
+      <c r="A200" s="3" t="s">
         <v>514</v>
       </c>
       <c r="B200" t="s">
@@ -7584,7 +8127,7 @@
       </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A201" t="s">
+      <c r="A201" s="3" t="s">
         <v>517</v>
       </c>
       <c r="B201" t="s">
@@ -7604,7 +8147,7 @@
       </c>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A202" t="s">
+      <c r="A202" s="3" t="s">
         <v>520</v>
       </c>
       <c r="B202" t="s">
@@ -7624,7 +8167,7 @@
       </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A203" t="s">
+      <c r="A203" s="3" t="s">
         <v>523</v>
       </c>
       <c r="B203" t="s">
@@ -7644,7 +8187,7 @@
       </c>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A204" t="s">
+      <c r="A204" s="3" t="s">
         <v>526</v>
       </c>
       <c r="B204" t="s">
@@ -7664,7 +8207,7 @@
       </c>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A205" t="s">
+      <c r="A205" s="3" t="s">
         <v>529</v>
       </c>
       <c r="B205" t="s">
@@ -7684,7 +8227,7 @@
       </c>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A206" t="s">
+      <c r="A206" s="3" t="s">
         <v>532</v>
       </c>
       <c r="B206" t="s">
@@ -7704,7 +8247,7 @@
       </c>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A207" t="s">
+      <c r="A207" s="3" t="s">
         <v>535</v>
       </c>
       <c r="B207" t="s">
@@ -7724,7 +8267,7 @@
       </c>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A208" t="s">
+      <c r="A208" s="3" t="s">
         <v>538</v>
       </c>
       <c r="B208" t="s">
@@ -7744,7 +8287,7 @@
       </c>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A209" t="s">
+      <c r="A209" s="3" t="s">
         <v>541</v>
       </c>
       <c r="B209" t="s">
@@ -7764,7 +8307,7 @@
       </c>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A210" t="s">
+      <c r="A210" s="3" t="s">
         <v>544</v>
       </c>
       <c r="B210" t="s">
@@ -7784,7 +8327,7 @@
       </c>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A211" t="s">
+      <c r="A211" s="3" t="s">
         <v>547</v>
       </c>
       <c r="B211" t="s">
@@ -7804,7 +8347,7 @@
       </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A212" t="s">
+      <c r="A212" s="3" t="s">
         <v>550</v>
       </c>
       <c r="B212" t="s">
@@ -7824,7 +8367,7 @@
       </c>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A213" t="s">
+      <c r="A213" s="3" t="s">
         <v>553</v>
       </c>
       <c r="B213" t="s">
@@ -7844,7 +8387,7 @@
       </c>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A214" t="s">
+      <c r="A214" s="3" t="s">
         <v>556</v>
       </c>
       <c r="B214" t="s">
@@ -7864,7 +8407,7 @@
       </c>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A215" t="s">
+      <c r="A215" s="3" t="s">
         <v>559</v>
       </c>
       <c r="B215" t="s">
@@ -7884,7 +8427,7 @@
       </c>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A216" t="s">
+      <c r="A216" s="3" t="s">
         <v>562</v>
       </c>
       <c r="B216" t="s">
@@ -7904,7 +8447,7 @@
       </c>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A217" t="s">
+      <c r="A217" s="3" t="s">
         <v>565</v>
       </c>
       <c r="B217" t="s">
@@ -7924,7 +8467,7 @@
       </c>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A218" t="s">
+      <c r="A218" s="3" t="s">
         <v>568</v>
       </c>
       <c r="B218" t="s">
@@ -7944,7 +8487,7 @@
       </c>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A219" t="s">
+      <c r="A219" s="3" t="s">
         <v>571</v>
       </c>
       <c r="B219" t="s">
@@ -7964,7 +8507,7 @@
       </c>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A220" t="s">
+      <c r="A220" s="3" t="s">
         <v>574</v>
       </c>
       <c r="B220" t="s">
@@ -7984,7 +8527,7 @@
       </c>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A221" t="s">
+      <c r="A221" s="3" t="s">
         <v>577</v>
       </c>
       <c r="B221" t="s">
@@ -8004,7 +8547,7 @@
       </c>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A222" t="s">
+      <c r="A222" s="3" t="s">
         <v>580</v>
       </c>
       <c r="B222" t="s">
@@ -8024,7 +8567,7 @@
       </c>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A223" t="s">
+      <c r="A223" s="3" t="s">
         <v>583</v>
       </c>
       <c r="B223" t="s">
@@ -8044,7 +8587,7 @@
       </c>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A224" t="s">
+      <c r="A224" s="3" t="s">
         <v>586</v>
       </c>
       <c r="B224" t="s">
@@ -8064,7 +8607,7 @@
       </c>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A225" t="s">
+      <c r="A225" s="3" t="s">
         <v>589</v>
       </c>
       <c r="B225" t="s">
@@ -8084,7 +8627,7 @@
       </c>
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A226" t="s">
+      <c r="A226" s="3" t="s">
         <v>592</v>
       </c>
       <c r="B226" t="s">
@@ -8104,7 +8647,7 @@
       </c>
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A227" t="s">
+      <c r="A227" s="3" t="s">
         <v>595</v>
       </c>
       <c r="B227" t="s">
@@ -8124,7 +8667,7 @@
       </c>
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A228" t="s">
+      <c r="A228" s="3" t="s">
         <v>598</v>
       </c>
       <c r="B228" t="s">
@@ -8144,7 +8687,7 @@
       </c>
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A229" t="s">
+      <c r="A229" s="3" t="s">
         <v>601</v>
       </c>
       <c r="B229" t="s">
@@ -8164,7 +8707,7 @@
       </c>
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A230" t="s">
+      <c r="A230" s="3" t="s">
         <v>604</v>
       </c>
       <c r="B230" t="s">
@@ -8184,7 +8727,7 @@
       </c>
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A231" t="s">
+      <c r="A231" s="3" t="s">
         <v>607</v>
       </c>
       <c r="B231" t="s">
@@ -8204,7 +8747,7 @@
       </c>
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A232" t="s">
+      <c r="A232" s="3" t="s">
         <v>610</v>
       </c>
       <c r="B232" t="s">
@@ -8224,7 +8767,7 @@
       </c>
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A233" t="s">
+      <c r="A233" s="3" t="s">
         <v>613</v>
       </c>
       <c r="B233" t="s">
@@ -8244,7 +8787,7 @@
       </c>
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A234" t="s">
+      <c r="A234" s="3" t="s">
         <v>616</v>
       </c>
       <c r="B234" t="s">
@@ -8264,7 +8807,7 @@
       </c>
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A235" t="s">
+      <c r="A235" s="3" t="s">
         <v>619</v>
       </c>
       <c r="B235" t="s">
@@ -8284,7 +8827,7 @@
       </c>
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A236" t="s">
+      <c r="A236" s="3" t="s">
         <v>622</v>
       </c>
       <c r="B236" t="s">
@@ -8304,7 +8847,7 @@
       </c>
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A237" t="s">
+      <c r="A237" s="3" t="s">
         <v>625</v>
       </c>
       <c r="B237" t="s">
@@ -8324,7 +8867,7 @@
       </c>
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A238" t="s">
+      <c r="A238" s="3" t="s">
         <v>628</v>
       </c>
       <c r="B238" t="s">
@@ -8344,7 +8887,7 @@
       </c>
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A239" t="s">
+      <c r="A239" s="3" t="s">
         <v>631</v>
       </c>
       <c r="B239" t="s">
@@ -8364,7 +8907,7 @@
       </c>
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A240" t="s">
+      <c r="A240" s="3" t="s">
         <v>634</v>
       </c>
       <c r="B240" t="s">
@@ -8384,7 +8927,7 @@
       </c>
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A241" t="s">
+      <c r="A241" s="3" t="s">
         <v>637</v>
       </c>
       <c r="B241" t="s">
@@ -8404,7 +8947,7 @@
       </c>
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A242" t="s">
+      <c r="A242" s="3" t="s">
         <v>640</v>
       </c>
       <c r="B242" t="s">
@@ -8424,7 +8967,7 @@
       </c>
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A243" t="s">
+      <c r="A243" s="3" t="s">
         <v>643</v>
       </c>
       <c r="B243" t="s">
@@ -8444,7 +8987,7 @@
       </c>
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A244" t="s">
+      <c r="A244" s="3" t="s">
         <v>646</v>
       </c>
       <c r="B244" t="s">
@@ -8464,7 +9007,7 @@
       </c>
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A245" t="s">
+      <c r="A245" s="3" t="s">
         <v>649</v>
       </c>
       <c r="B245" t="s">
@@ -8484,7 +9027,7 @@
       </c>
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A246" t="s">
+      <c r="A246" s="3" t="s">
         <v>652</v>
       </c>
       <c r="B246" t="s">
@@ -8504,7 +9047,7 @@
       </c>
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A247" t="s">
+      <c r="A247" s="3" t="s">
         <v>655</v>
       </c>
       <c r="B247" t="s">
@@ -8524,7 +9067,7 @@
       </c>
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A248" t="s">
+      <c r="A248" s="3" t="s">
         <v>658</v>
       </c>
       <c r="B248" t="s">
@@ -8544,7 +9087,7 @@
       </c>
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A249" t="s">
+      <c r="A249" s="3" t="s">
         <v>661</v>
       </c>
       <c r="B249" t="s">
@@ -8564,7 +9107,7 @@
       </c>
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A250" t="s">
+      <c r="A250" s="3" t="s">
         <v>664</v>
       </c>
       <c r="B250" t="s">
@@ -8584,7 +9127,7 @@
       </c>
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A251" t="s">
+      <c r="A251" s="3" t="s">
         <v>667</v>
       </c>
       <c r="B251" t="s">
@@ -8604,7 +9147,7 @@
       </c>
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A252" t="s">
+      <c r="A252" s="3" t="s">
         <v>670</v>
       </c>
       <c r="B252" t="s">
@@ -8624,7 +9167,7 @@
       </c>
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A253" t="s">
+      <c r="A253" s="3" t="s">
         <v>673</v>
       </c>
       <c r="B253" t="s">
@@ -8644,7 +9187,7 @@
       </c>
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A254" t="s">
+      <c r="A254" s="3" t="s">
         <v>676</v>
       </c>
       <c r="B254" t="s">
@@ -8656,7 +9199,7 @@
       <c r="D254" t="s">
         <v>456</v>
       </c>
-      <c r="E254" s="4" t="s">
+      <c r="E254" s="3" t="s">
         <v>202</v>
       </c>
       <c r="F254">
@@ -8664,7 +9207,7 @@
       </c>
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A255" t="s">
+      <c r="A255" s="3" t="s">
         <v>679</v>
       </c>
       <c r="B255" t="s">
@@ -8684,7 +9227,7 @@
       </c>
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A256" t="s">
+      <c r="A256" s="3" t="s">
         <v>682</v>
       </c>
       <c r="B256" t="s">
@@ -8704,7 +9247,7 @@
       </c>
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A257" t="s">
+      <c r="A257" s="3" t="s">
         <v>685</v>
       </c>
       <c r="B257" t="s">
@@ -8724,7 +9267,7 @@
       </c>
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A258" t="s">
+      <c r="A258" s="3" t="s">
         <v>688</v>
       </c>
       <c r="B258" t="s">
@@ -8744,7 +9287,7 @@
       </c>
     </row>
     <row r="259" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A259" t="s">
+      <c r="A259" s="3" t="s">
         <v>691</v>
       </c>
       <c r="B259" t="s">
@@ -8764,7 +9307,7 @@
       </c>
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A260" t="s">
+      <c r="A260" s="3" t="s">
         <v>694</v>
       </c>
       <c r="B260" t="s">
@@ -8784,7 +9327,7 @@
       </c>
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A261" t="s">
+      <c r="A261" s="3" t="s">
         <v>697</v>
       </c>
       <c r="B261" t="s">
@@ -8804,7 +9347,7 @@
       </c>
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A262" t="s">
+      <c r="A262" s="3" t="s">
         <v>700</v>
       </c>
       <c r="B262" t="s">
@@ -8824,7 +9367,7 @@
       </c>
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A263" t="s">
+      <c r="A263" s="3" t="s">
         <v>703</v>
       </c>
       <c r="B263" t="s">
@@ -8844,7 +9387,7 @@
       </c>
     </row>
     <row r="264" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A264" t="s">
+      <c r="A264" s="3" t="s">
         <v>706</v>
       </c>
       <c r="B264" t="s">
@@ -8864,7 +9407,7 @@
       </c>
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A265" t="s">
+      <c r="A265" s="3" t="s">
         <v>709</v>
       </c>
       <c r="B265" t="s">
@@ -8884,7 +9427,7 @@
       </c>
     </row>
     <row r="266" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A266" t="s">
+      <c r="A266" s="3" t="s">
         <v>712</v>
       </c>
       <c r="B266" t="s">
@@ -8896,7 +9439,7 @@
       <c r="D266" t="s">
         <v>456</v>
       </c>
-      <c r="E266" s="4" t="s">
+      <c r="E266" s="3" t="s">
         <v>214</v>
       </c>
       <c r="F266">
@@ -8904,7 +9447,7 @@
       </c>
     </row>
     <row r="267" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A267" t="s">
+      <c r="A267" s="3" t="s">
         <v>715</v>
       </c>
       <c r="B267" t="s">
@@ -8924,7 +9467,7 @@
       </c>
     </row>
     <row r="268" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A268" t="s">
+      <c r="A268" s="3" t="s">
         <v>718</v>
       </c>
       <c r="B268" t="s">
@@ -8944,7 +9487,7 @@
       </c>
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A269" t="s">
+      <c r="A269" s="3" t="s">
         <v>721</v>
       </c>
       <c r="B269" t="s">
@@ -8964,13 +9507,13 @@
       </c>
     </row>
     <row r="270" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A270" s="5" t="s">
+      <c r="A270" s="7" t="s">
         <v>906</v>
       </c>
-      <c r="B270" s="6" t="s">
+      <c r="B270" s="4" t="s">
         <v>726</v>
       </c>
-      <c r="C270" s="7" t="s">
+      <c r="C270" s="5" t="s">
         <v>816</v>
       </c>
       <c r="D270" t="s">
@@ -8984,13 +9527,13 @@
       </c>
     </row>
     <row r="271" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A271" s="5" t="s">
+      <c r="A271" s="7" t="s">
         <v>907</v>
       </c>
-      <c r="B271" s="6" t="s">
+      <c r="B271" s="4" t="s">
         <v>727</v>
       </c>
-      <c r="C271" s="7" t="s">
+      <c r="C271" s="5" t="s">
         <v>817</v>
       </c>
       <c r="D271" t="s">
@@ -9004,13 +9547,13 @@
       </c>
     </row>
     <row r="272" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A272" s="5" t="s">
+      <c r="A272" s="7" t="s">
         <v>908</v>
       </c>
-      <c r="B272" s="6" t="s">
+      <c r="B272" s="4" t="s">
         <v>728</v>
       </c>
-      <c r="C272" s="7" t="s">
+      <c r="C272" s="5" t="s">
         <v>818</v>
       </c>
       <c r="D272" t="s">
@@ -9024,13 +9567,13 @@
       </c>
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A273" s="5" t="s">
+      <c r="A273" s="7" t="s">
         <v>909</v>
       </c>
-      <c r="B273" s="6" t="s">
+      <c r="B273" s="4" t="s">
         <v>729</v>
       </c>
-      <c r="C273" s="7" t="s">
+      <c r="C273" s="5" t="s">
         <v>819</v>
       </c>
       <c r="D273" t="s">
@@ -9044,13 +9587,13 @@
       </c>
     </row>
     <row r="274" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A274" s="5" t="s">
+      <c r="A274" s="7" t="s">
         <v>910</v>
       </c>
-      <c r="B274" s="6" t="s">
+      <c r="B274" s="4" t="s">
         <v>730</v>
       </c>
-      <c r="C274" s="7" t="s">
+      <c r="C274" s="5" t="s">
         <v>820</v>
       </c>
       <c r="D274" t="s">
@@ -9064,13 +9607,13 @@
       </c>
     </row>
     <row r="275" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A275" s="5" t="s">
+      <c r="A275" s="7" t="s">
         <v>911</v>
       </c>
-      <c r="B275" s="6" t="s">
+      <c r="B275" s="4" t="s">
         <v>731</v>
       </c>
-      <c r="C275" s="7" t="s">
+      <c r="C275" s="5" t="s">
         <v>821</v>
       </c>
       <c r="D275" t="s">
@@ -9084,13 +9627,13 @@
       </c>
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A276" s="5" t="s">
+      <c r="A276" s="7" t="s">
         <v>912</v>
       </c>
-      <c r="B276" s="6" t="s">
+      <c r="B276" s="4" t="s">
         <v>732</v>
       </c>
-      <c r="C276" s="7" t="s">
+      <c r="C276" s="5" t="s">
         <v>822</v>
       </c>
       <c r="D276" t="s">
@@ -9104,13 +9647,13 @@
       </c>
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A277" s="5" t="s">
+      <c r="A277" s="7" t="s">
         <v>913</v>
       </c>
-      <c r="B277" s="6" t="s">
+      <c r="B277" s="4" t="s">
         <v>733</v>
       </c>
-      <c r="C277" s="7" t="s">
+      <c r="C277" s="5" t="s">
         <v>823</v>
       </c>
       <c r="D277" t="s">
@@ -9124,13 +9667,13 @@
       </c>
     </row>
     <row r="278" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A278" s="5" t="s">
+      <c r="A278" s="7" t="s">
         <v>914</v>
       </c>
-      <c r="B278" s="6" t="s">
+      <c r="B278" s="4" t="s">
         <v>734</v>
       </c>
-      <c r="C278" s="7" t="s">
+      <c r="C278" s="5" t="s">
         <v>824</v>
       </c>
       <c r="D278" t="s">
@@ -9144,13 +9687,13 @@
       </c>
     </row>
     <row r="279" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A279" s="5" t="s">
+      <c r="A279" s="7" t="s">
         <v>915</v>
       </c>
-      <c r="B279" s="6" t="s">
+      <c r="B279" s="4" t="s">
         <v>735</v>
       </c>
-      <c r="C279" s="7" t="s">
+      <c r="C279" s="5" t="s">
         <v>825</v>
       </c>
       <c r="D279" t="s">
@@ -9164,13 +9707,13 @@
       </c>
     </row>
     <row r="280" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A280" s="5" t="s">
+      <c r="A280" s="7" t="s">
         <v>916</v>
       </c>
-      <c r="B280" s="6" t="s">
+      <c r="B280" s="4" t="s">
         <v>736</v>
       </c>
-      <c r="C280" s="7" t="s">
+      <c r="C280" s="5" t="s">
         <v>826</v>
       </c>
       <c r="D280" t="s">
@@ -9184,13 +9727,13 @@
       </c>
     </row>
     <row r="281" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A281" s="5" t="s">
+      <c r="A281" s="7" t="s">
         <v>917</v>
       </c>
-      <c r="B281" s="6" t="s">
+      <c r="B281" s="4" t="s">
         <v>737</v>
       </c>
-      <c r="C281" s="7" t="s">
+      <c r="C281" s="5" t="s">
         <v>827</v>
       </c>
       <c r="D281" t="s">
@@ -9204,13 +9747,13 @@
       </c>
     </row>
     <row r="282" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A282" s="5" t="s">
+      <c r="A282" s="7" t="s">
         <v>918</v>
       </c>
-      <c r="B282" s="6" t="s">
+      <c r="B282" s="4" t="s">
         <v>738</v>
       </c>
-      <c r="C282" s="7" t="s">
+      <c r="C282" s="5" t="s">
         <v>828</v>
       </c>
       <c r="D282" t="s">
@@ -9224,13 +9767,13 @@
       </c>
     </row>
     <row r="283" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A283" s="5" t="s">
+      <c r="A283" s="7" t="s">
         <v>919</v>
       </c>
-      <c r="B283" s="6" t="s">
+      <c r="B283" s="4" t="s">
         <v>739</v>
       </c>
-      <c r="C283" s="7" t="s">
+      <c r="C283" s="5" t="s">
         <v>829</v>
       </c>
       <c r="D283" t="s">
@@ -9244,13 +9787,13 @@
       </c>
     </row>
     <row r="284" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A284" s="5" t="s">
+      <c r="A284" s="7" t="s">
         <v>920</v>
       </c>
-      <c r="B284" s="6" t="s">
+      <c r="B284" s="4" t="s">
         <v>740</v>
       </c>
-      <c r="C284" s="7" t="s">
+      <c r="C284" s="5" t="s">
         <v>830</v>
       </c>
       <c r="D284" t="s">
@@ -9264,13 +9807,13 @@
       </c>
     </row>
     <row r="285" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A285" s="5" t="s">
+      <c r="A285" s="7" t="s">
         <v>921</v>
       </c>
-      <c r="B285" s="6" t="s">
+      <c r="B285" s="4" t="s">
         <v>741</v>
       </c>
-      <c r="C285" s="7" t="s">
+      <c r="C285" s="5" t="s">
         <v>831</v>
       </c>
       <c r="D285" t="s">
@@ -9284,13 +9827,13 @@
       </c>
     </row>
     <row r="286" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A286" s="5" t="s">
+      <c r="A286" s="7" t="s">
         <v>922</v>
       </c>
-      <c r="B286" s="6" t="s">
+      <c r="B286" s="4" t="s">
         <v>742</v>
       </c>
-      <c r="C286" s="7" t="s">
+      <c r="C286" s="5" t="s">
         <v>832</v>
       </c>
       <c r="D286" t="s">
@@ -9304,13 +9847,13 @@
       </c>
     </row>
     <row r="287" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A287" s="5" t="s">
+      <c r="A287" s="7" t="s">
         <v>923</v>
       </c>
-      <c r="B287" s="6" t="s">
+      <c r="B287" s="4" t="s">
         <v>743</v>
       </c>
-      <c r="C287" s="7" t="s">
+      <c r="C287" s="5" t="s">
         <v>833</v>
       </c>
       <c r="D287" t="s">
@@ -9324,13 +9867,13 @@
       </c>
     </row>
     <row r="288" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A288" s="5" t="s">
+      <c r="A288" s="7" t="s">
         <v>924</v>
       </c>
-      <c r="B288" s="6" t="s">
+      <c r="B288" s="4" t="s">
         <v>744</v>
       </c>
-      <c r="C288" s="7" t="s">
+      <c r="C288" s="5" t="s">
         <v>834</v>
       </c>
       <c r="D288" t="s">
@@ -9344,13 +9887,13 @@
       </c>
     </row>
     <row r="289" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A289" s="5" t="s">
+      <c r="A289" s="7" t="s">
         <v>925</v>
       </c>
-      <c r="B289" s="6" t="s">
+      <c r="B289" s="4" t="s">
         <v>745</v>
       </c>
-      <c r="C289" s="7" t="s">
+      <c r="C289" s="5" t="s">
         <v>835</v>
       </c>
       <c r="D289" t="s">
@@ -9364,13 +9907,13 @@
       </c>
     </row>
     <row r="290" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A290" s="5" t="s">
+      <c r="A290" s="7" t="s">
         <v>926</v>
       </c>
-      <c r="B290" s="6" t="s">
+      <c r="B290" s="4" t="s">
         <v>746</v>
       </c>
-      <c r="C290" s="7" t="s">
+      <c r="C290" s="5" t="s">
         <v>836</v>
       </c>
       <c r="D290" t="s">
@@ -9384,13 +9927,13 @@
       </c>
     </row>
     <row r="291" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A291" s="5" t="s">
+      <c r="A291" s="7" t="s">
         <v>927</v>
       </c>
-      <c r="B291" s="6" t="s">
+      <c r="B291" s="4" t="s">
         <v>747</v>
       </c>
-      <c r="C291" s="7" t="s">
+      <c r="C291" s="5" t="s">
         <v>837</v>
       </c>
       <c r="D291" t="s">
@@ -9404,13 +9947,13 @@
       </c>
     </row>
     <row r="292" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A292" s="5" t="s">
+      <c r="A292" s="7" t="s">
         <v>928</v>
       </c>
-      <c r="B292" s="6" t="s">
+      <c r="B292" s="4" t="s">
         <v>748</v>
       </c>
-      <c r="C292" s="7" t="s">
+      <c r="C292" s="5" t="s">
         <v>838</v>
       </c>
       <c r="D292" t="s">
@@ -9424,13 +9967,13 @@
       </c>
     </row>
     <row r="293" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A293" s="5" t="s">
+      <c r="A293" s="7" t="s">
         <v>929</v>
       </c>
-      <c r="B293" s="6" t="s">
+      <c r="B293" s="4" t="s">
         <v>749</v>
       </c>
-      <c r="C293" s="7" t="s">
+      <c r="C293" s="5" t="s">
         <v>839</v>
       </c>
       <c r="D293" t="s">
@@ -9444,13 +9987,13 @@
       </c>
     </row>
     <row r="294" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A294" s="5" t="s">
+      <c r="A294" s="7" t="s">
         <v>930</v>
       </c>
-      <c r="B294" s="6" t="s">
+      <c r="B294" s="4" t="s">
         <v>750</v>
       </c>
-      <c r="C294" s="7" t="s">
+      <c r="C294" s="5" t="s">
         <v>840</v>
       </c>
       <c r="D294" t="s">
@@ -9464,13 +10007,13 @@
       </c>
     </row>
     <row r="295" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A295" s="5" t="s">
+      <c r="A295" s="7" t="s">
         <v>931</v>
       </c>
-      <c r="B295" s="6" t="s">
+      <c r="B295" s="4" t="s">
         <v>751</v>
       </c>
-      <c r="C295" s="7" t="s">
+      <c r="C295" s="5" t="s">
         <v>841</v>
       </c>
       <c r="D295" t="s">
@@ -9484,13 +10027,13 @@
       </c>
     </row>
     <row r="296" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A296" s="5" t="s">
+      <c r="A296" s="7" t="s">
         <v>932</v>
       </c>
-      <c r="B296" s="6" t="s">
+      <c r="B296" s="4" t="s">
         <v>752</v>
       </c>
-      <c r="C296" s="7" t="s">
+      <c r="C296" s="5" t="s">
         <v>842</v>
       </c>
       <c r="D296" t="s">
@@ -9504,13 +10047,13 @@
       </c>
     </row>
     <row r="297" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A297" s="5" t="s">
+      <c r="A297" s="7" t="s">
         <v>933</v>
       </c>
-      <c r="B297" s="6" t="s">
+      <c r="B297" s="4" t="s">
         <v>753</v>
       </c>
-      <c r="C297" s="7" t="s">
+      <c r="C297" s="5" t="s">
         <v>843</v>
       </c>
       <c r="D297" t="s">
@@ -9524,13 +10067,13 @@
       </c>
     </row>
     <row r="298" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A298" s="5" t="s">
+      <c r="A298" s="7" t="s">
         <v>934</v>
       </c>
-      <c r="B298" s="6" t="s">
+      <c r="B298" s="4" t="s">
         <v>754</v>
       </c>
-      <c r="C298" s="7" t="s">
+      <c r="C298" s="5" t="s">
         <v>844</v>
       </c>
       <c r="D298" t="s">
@@ -9544,13 +10087,13 @@
       </c>
     </row>
     <row r="299" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A299" s="5" t="s">
+      <c r="A299" s="7" t="s">
         <v>935</v>
       </c>
-      <c r="B299" s="6" t="s">
+      <c r="B299" s="4" t="s">
         <v>755</v>
       </c>
-      <c r="C299" s="7" t="s">
+      <c r="C299" s="5" t="s">
         <v>845</v>
       </c>
       <c r="D299" t="s">
@@ -9564,13 +10107,13 @@
       </c>
     </row>
     <row r="300" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A300" s="5" t="s">
+      <c r="A300" s="7" t="s">
         <v>936</v>
       </c>
-      <c r="B300" s="6" t="s">
+      <c r="B300" s="4" t="s">
         <v>756</v>
       </c>
-      <c r="C300" s="7" t="s">
+      <c r="C300" s="5" t="s">
         <v>846</v>
       </c>
       <c r="D300" t="s">
@@ -9584,13 +10127,13 @@
       </c>
     </row>
     <row r="301" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A301" s="5" t="s">
+      <c r="A301" s="7" t="s">
         <v>937</v>
       </c>
-      <c r="B301" s="6" t="s">
+      <c r="B301" s="4" t="s">
         <v>757</v>
       </c>
-      <c r="C301" s="7" t="s">
+      <c r="C301" s="5" t="s">
         <v>847</v>
       </c>
       <c r="D301" t="s">
@@ -9604,13 +10147,13 @@
       </c>
     </row>
     <row r="302" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A302" s="5" t="s">
+      <c r="A302" s="7" t="s">
         <v>938</v>
       </c>
-      <c r="B302" s="6" t="s">
+      <c r="B302" s="4" t="s">
         <v>758</v>
       </c>
-      <c r="C302" s="7" t="s">
+      <c r="C302" s="5" t="s">
         <v>848</v>
       </c>
       <c r="D302" t="s">
@@ -9624,13 +10167,13 @@
       </c>
     </row>
     <row r="303" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A303" s="5" t="s">
+      <c r="A303" s="7" t="s">
         <v>939</v>
       </c>
-      <c r="B303" s="6" t="s">
+      <c r="B303" s="4" t="s">
         <v>759</v>
       </c>
-      <c r="C303" s="7" t="s">
+      <c r="C303" s="5" t="s">
         <v>849</v>
       </c>
       <c r="D303" t="s">
@@ -9644,13 +10187,13 @@
       </c>
     </row>
     <row r="304" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A304" s="5" t="s">
+      <c r="A304" s="7" t="s">
         <v>940</v>
       </c>
-      <c r="B304" s="6" t="s">
+      <c r="B304" s="4" t="s">
         <v>760</v>
       </c>
-      <c r="C304" s="7" t="s">
+      <c r="C304" s="5" t="s">
         <v>850</v>
       </c>
       <c r="D304" t="s">
@@ -9664,13 +10207,13 @@
       </c>
     </row>
     <row r="305" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A305" s="5" t="s">
+      <c r="A305" s="7" t="s">
         <v>941</v>
       </c>
-      <c r="B305" s="6" t="s">
+      <c r="B305" s="4" t="s">
         <v>761</v>
       </c>
-      <c r="C305" s="7" t="s">
+      <c r="C305" s="5" t="s">
         <v>851</v>
       </c>
       <c r="D305" t="s">
@@ -9684,13 +10227,13 @@
       </c>
     </row>
     <row r="306" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A306" s="5" t="s">
+      <c r="A306" s="7" t="s">
         <v>942</v>
       </c>
-      <c r="B306" s="6" t="s">
+      <c r="B306" s="4" t="s">
         <v>762</v>
       </c>
-      <c r="C306" s="7" t="s">
+      <c r="C306" s="5" t="s">
         <v>852</v>
       </c>
       <c r="D306" t="s">
@@ -9704,13 +10247,13 @@
       </c>
     </row>
     <row r="307" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A307" s="5" t="s">
+      <c r="A307" s="7" t="s">
         <v>943</v>
       </c>
-      <c r="B307" s="6" t="s">
+      <c r="B307" s="4" t="s">
         <v>763</v>
       </c>
-      <c r="C307" s="7" t="s">
+      <c r="C307" s="5" t="s">
         <v>853</v>
       </c>
       <c r="D307" t="s">
@@ -9724,13 +10267,13 @@
       </c>
     </row>
     <row r="308" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A308" s="5" t="s">
+      <c r="A308" s="7" t="s">
         <v>944</v>
       </c>
-      <c r="B308" s="6" t="s">
+      <c r="B308" s="4" t="s">
         <v>764</v>
       </c>
-      <c r="C308" s="7" t="s">
+      <c r="C308" s="5" t="s">
         <v>854</v>
       </c>
       <c r="D308" t="s">
@@ -9744,13 +10287,13 @@
       </c>
     </row>
     <row r="309" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A309" s="5" t="s">
+      <c r="A309" s="7" t="s">
         <v>945</v>
       </c>
-      <c r="B309" s="6" t="s">
+      <c r="B309" s="4" t="s">
         <v>765</v>
       </c>
-      <c r="C309" s="7" t="s">
+      <c r="C309" s="5" t="s">
         <v>855</v>
       </c>
       <c r="D309" t="s">
@@ -9764,13 +10307,13 @@
       </c>
     </row>
     <row r="310" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A310" s="5" t="s">
+      <c r="A310" s="7" t="s">
         <v>946</v>
       </c>
-      <c r="B310" s="6" t="s">
+      <c r="B310" s="4" t="s">
         <v>766</v>
       </c>
-      <c r="C310" s="7" t="s">
+      <c r="C310" s="5" t="s">
         <v>856</v>
       </c>
       <c r="D310" t="s">
@@ -9784,13 +10327,13 @@
       </c>
     </row>
     <row r="311" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A311" s="5" t="s">
+      <c r="A311" s="7" t="s">
         <v>947</v>
       </c>
-      <c r="B311" s="6" t="s">
+      <c r="B311" s="4" t="s">
         <v>767</v>
       </c>
-      <c r="C311" s="7" t="s">
+      <c r="C311" s="5" t="s">
         <v>857</v>
       </c>
       <c r="D311" t="s">
@@ -9804,13 +10347,13 @@
       </c>
     </row>
     <row r="312" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A312" s="5" t="s">
+      <c r="A312" s="7" t="s">
         <v>948</v>
       </c>
-      <c r="B312" s="6" t="s">
+      <c r="B312" s="4" t="s">
         <v>768</v>
       </c>
-      <c r="C312" s="7" t="s">
+      <c r="C312" s="5" t="s">
         <v>858</v>
       </c>
       <c r="D312" t="s">
@@ -9824,13 +10367,13 @@
       </c>
     </row>
     <row r="313" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A313" s="5" t="s">
+      <c r="A313" s="7" t="s">
         <v>949</v>
       </c>
-      <c r="B313" s="6" t="s">
+      <c r="B313" s="4" t="s">
         <v>769</v>
       </c>
-      <c r="C313" s="7" t="s">
+      <c r="C313" s="5" t="s">
         <v>859</v>
       </c>
       <c r="D313" t="s">
@@ -9844,13 +10387,13 @@
       </c>
     </row>
     <row r="314" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A314" s="5" t="s">
+      <c r="A314" s="7" t="s">
         <v>950</v>
       </c>
-      <c r="B314" s="6" t="s">
+      <c r="B314" s="4" t="s">
         <v>770</v>
       </c>
-      <c r="C314" s="7" t="s">
+      <c r="C314" s="5" t="s">
         <v>860</v>
       </c>
       <c r="D314" t="s">
@@ -9864,13 +10407,13 @@
       </c>
     </row>
     <row r="315" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A315" s="5" t="s">
+      <c r="A315" s="7" t="s">
         <v>951</v>
       </c>
-      <c r="B315" s="6" t="s">
+      <c r="B315" s="4" t="s">
         <v>771</v>
       </c>
-      <c r="C315" s="7" t="s">
+      <c r="C315" s="5" t="s">
         <v>861</v>
       </c>
       <c r="D315" t="s">
@@ -9884,13 +10427,13 @@
       </c>
     </row>
     <row r="316" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A316" s="5" t="s">
+      <c r="A316" s="7" t="s">
         <v>952</v>
       </c>
-      <c r="B316" s="6" t="s">
+      <c r="B316" s="4" t="s">
         <v>772</v>
       </c>
-      <c r="C316" s="7" t="s">
+      <c r="C316" s="5" t="s">
         <v>862</v>
       </c>
       <c r="D316" t="s">
@@ -9904,13 +10447,13 @@
       </c>
     </row>
     <row r="317" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A317" s="5" t="s">
+      <c r="A317" s="7" t="s">
         <v>953</v>
       </c>
-      <c r="B317" s="6" t="s">
+      <c r="B317" s="4" t="s">
         <v>773</v>
       </c>
-      <c r="C317" s="7" t="s">
+      <c r="C317" s="5" t="s">
         <v>863</v>
       </c>
       <c r="D317" t="s">
@@ -9924,13 +10467,13 @@
       </c>
     </row>
     <row r="318" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A318" s="5" t="s">
+      <c r="A318" s="7" t="s">
         <v>954</v>
       </c>
-      <c r="B318" s="6" t="s">
+      <c r="B318" s="4" t="s">
         <v>774</v>
       </c>
-      <c r="C318" s="7" t="s">
+      <c r="C318" s="5" t="s">
         <v>864</v>
       </c>
       <c r="D318" t="s">
@@ -9944,13 +10487,13 @@
       </c>
     </row>
     <row r="319" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A319" s="5" t="s">
+      <c r="A319" s="7" t="s">
         <v>955</v>
       </c>
-      <c r="B319" s="6" t="s">
+      <c r="B319" s="4" t="s">
         <v>775</v>
       </c>
-      <c r="C319" s="7" t="s">
+      <c r="C319" s="5" t="s">
         <v>865</v>
       </c>
       <c r="D319" t="s">
@@ -9964,13 +10507,13 @@
       </c>
     </row>
     <row r="320" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A320" s="5" t="s">
+      <c r="A320" s="7" t="s">
         <v>956</v>
       </c>
-      <c r="B320" s="6" t="s">
+      <c r="B320" s="4" t="s">
         <v>776</v>
       </c>
-      <c r="C320" s="7" t="s">
+      <c r="C320" s="5" t="s">
         <v>866</v>
       </c>
       <c r="D320" t="s">
@@ -9984,13 +10527,13 @@
       </c>
     </row>
     <row r="321" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A321" s="5" t="s">
+      <c r="A321" s="7" t="s">
         <v>957</v>
       </c>
-      <c r="B321" s="6" t="s">
+      <c r="B321" s="4" t="s">
         <v>777</v>
       </c>
-      <c r="C321" s="7" t="s">
+      <c r="C321" s="5" t="s">
         <v>867</v>
       </c>
       <c r="D321" t="s">
@@ -10004,13 +10547,13 @@
       </c>
     </row>
     <row r="322" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A322" s="5" t="s">
+      <c r="A322" s="7" t="s">
         <v>958</v>
       </c>
-      <c r="B322" s="6" t="s">
+      <c r="B322" s="4" t="s">
         <v>778</v>
       </c>
-      <c r="C322" s="7" t="s">
+      <c r="C322" s="5" t="s">
         <v>868</v>
       </c>
       <c r="D322" t="s">
@@ -10024,13 +10567,13 @@
       </c>
     </row>
     <row r="323" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A323" s="5" t="s">
+      <c r="A323" s="7" t="s">
         <v>959</v>
       </c>
-      <c r="B323" s="6" t="s">
+      <c r="B323" s="4" t="s">
         <v>779</v>
       </c>
-      <c r="C323" s="7" t="s">
+      <c r="C323" s="5" t="s">
         <v>869</v>
       </c>
       <c r="D323" t="s">
@@ -10044,13 +10587,13 @@
       </c>
     </row>
     <row r="324" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A324" s="5" t="s">
+      <c r="A324" s="7" t="s">
         <v>960</v>
       </c>
-      <c r="B324" s="6" t="s">
+      <c r="B324" s="4" t="s">
         <v>780</v>
       </c>
-      <c r="C324" s="7" t="s">
+      <c r="C324" s="5" t="s">
         <v>870</v>
       </c>
       <c r="D324" t="s">
@@ -10064,13 +10607,13 @@
       </c>
     </row>
     <row r="325" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A325" s="5" t="s">
+      <c r="A325" s="7" t="s">
         <v>961</v>
       </c>
-      <c r="B325" s="6" t="s">
+      <c r="B325" s="4" t="s">
         <v>781</v>
       </c>
-      <c r="C325" s="7" t="s">
+      <c r="C325" s="5" t="s">
         <v>871</v>
       </c>
       <c r="D325" t="s">
@@ -10084,13 +10627,13 @@
       </c>
     </row>
     <row r="326" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A326" s="5" t="s">
+      <c r="A326" s="7" t="s">
         <v>962</v>
       </c>
-      <c r="B326" s="6" t="s">
+      <c r="B326" s="4" t="s">
         <v>782</v>
       </c>
-      <c r="C326" s="7" t="s">
+      <c r="C326" s="5" t="s">
         <v>872</v>
       </c>
       <c r="D326" t="s">
@@ -10104,13 +10647,13 @@
       </c>
     </row>
     <row r="327" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A327" s="5" t="s">
+      <c r="A327" s="7" t="s">
         <v>963</v>
       </c>
-      <c r="B327" s="6" t="s">
+      <c r="B327" s="4" t="s">
         <v>783</v>
       </c>
-      <c r="C327" s="7" t="s">
+      <c r="C327" s="5" t="s">
         <v>873</v>
       </c>
       <c r="D327" t="s">
@@ -10124,13 +10667,13 @@
       </c>
     </row>
     <row r="328" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A328" s="5" t="s">
+      <c r="A328" s="7" t="s">
         <v>964</v>
       </c>
-      <c r="B328" s="6" t="s">
+      <c r="B328" s="4" t="s">
         <v>784</v>
       </c>
-      <c r="C328" s="7" t="s">
+      <c r="C328" s="5" t="s">
         <v>874</v>
       </c>
       <c r="D328" t="s">
@@ -10144,13 +10687,13 @@
       </c>
     </row>
     <row r="329" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A329" s="5" t="s">
+      <c r="A329" s="7" t="s">
         <v>965</v>
       </c>
-      <c r="B329" s="6" t="s">
+      <c r="B329" s="4" t="s">
         <v>785</v>
       </c>
-      <c r="C329" s="7" t="s">
+      <c r="C329" s="5" t="s">
         <v>875</v>
       </c>
       <c r="D329" t="s">
@@ -10164,13 +10707,13 @@
       </c>
     </row>
     <row r="330" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A330" s="5" t="s">
+      <c r="A330" s="7" t="s">
         <v>966</v>
       </c>
-      <c r="B330" s="6" t="s">
+      <c r="B330" s="4" t="s">
         <v>786</v>
       </c>
-      <c r="C330" s="7" t="s">
+      <c r="C330" s="5" t="s">
         <v>876</v>
       </c>
       <c r="D330" t="s">
@@ -10184,13 +10727,13 @@
       </c>
     </row>
     <row r="331" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A331" s="5" t="s">
+      <c r="A331" s="7" t="s">
         <v>967</v>
       </c>
-      <c r="B331" s="6" t="s">
+      <c r="B331" s="4" t="s">
         <v>787</v>
       </c>
-      <c r="C331" s="7" t="s">
+      <c r="C331" s="5" t="s">
         <v>877</v>
       </c>
       <c r="D331" t="s">
@@ -10204,13 +10747,13 @@
       </c>
     </row>
     <row r="332" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A332" s="5" t="s">
+      <c r="A332" s="7" t="s">
         <v>968</v>
       </c>
-      <c r="B332" s="6" t="s">
+      <c r="B332" s="4" t="s">
         <v>788</v>
       </c>
-      <c r="C332" s="7" t="s">
+      <c r="C332" s="5" t="s">
         <v>878</v>
       </c>
       <c r="D332" t="s">
@@ -10224,13 +10767,13 @@
       </c>
     </row>
     <row r="333" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A333" s="5" t="s">
+      <c r="A333" s="7" t="s">
         <v>969</v>
       </c>
-      <c r="B333" s="6" t="s">
+      <c r="B333" s="4" t="s">
         <v>789</v>
       </c>
-      <c r="C333" s="7" t="s">
+      <c r="C333" s="5" t="s">
         <v>879</v>
       </c>
       <c r="D333" t="s">
@@ -10244,13 +10787,13 @@
       </c>
     </row>
     <row r="334" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A334" s="5" t="s">
+      <c r="A334" s="7" t="s">
         <v>970</v>
       </c>
-      <c r="B334" s="6" t="s">
+      <c r="B334" s="4" t="s">
         <v>790</v>
       </c>
-      <c r="C334" s="7" t="s">
+      <c r="C334" s="5" t="s">
         <v>880</v>
       </c>
       <c r="D334" t="s">
@@ -10264,13 +10807,13 @@
       </c>
     </row>
     <row r="335" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A335" s="5" t="s">
+      <c r="A335" s="7" t="s">
         <v>971</v>
       </c>
-      <c r="B335" s="6" t="s">
+      <c r="B335" s="4" t="s">
         <v>791</v>
       </c>
-      <c r="C335" s="7" t="s">
+      <c r="C335" s="5" t="s">
         <v>881</v>
       </c>
       <c r="D335" t="s">
@@ -10284,13 +10827,13 @@
       </c>
     </row>
     <row r="336" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A336" s="5" t="s">
+      <c r="A336" s="7" t="s">
         <v>972</v>
       </c>
-      <c r="B336" s="6" t="s">
+      <c r="B336" s="4" t="s">
         <v>792</v>
       </c>
-      <c r="C336" s="7" t="s">
+      <c r="C336" s="5" t="s">
         <v>882</v>
       </c>
       <c r="D336" t="s">
@@ -10304,13 +10847,13 @@
       </c>
     </row>
     <row r="337" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A337" s="5" t="s">
+      <c r="A337" s="7" t="s">
         <v>973</v>
       </c>
-      <c r="B337" s="6" t="s">
+      <c r="B337" s="4" t="s">
         <v>793</v>
       </c>
-      <c r="C337" s="7" t="s">
+      <c r="C337" s="5" t="s">
         <v>883</v>
       </c>
       <c r="D337" t="s">
@@ -10324,13 +10867,13 @@
       </c>
     </row>
     <row r="338" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A338" s="5" t="s">
+      <c r="A338" s="7" t="s">
         <v>974</v>
       </c>
-      <c r="B338" s="6" t="s">
+      <c r="B338" s="4" t="s">
         <v>794</v>
       </c>
-      <c r="C338" s="7" t="s">
+      <c r="C338" s="5" t="s">
         <v>884</v>
       </c>
       <c r="D338" t="s">
@@ -10344,13 +10887,13 @@
       </c>
     </row>
     <row r="339" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A339" s="5" t="s">
+      <c r="A339" s="7" t="s">
         <v>975</v>
       </c>
-      <c r="B339" s="6" t="s">
+      <c r="B339" s="4" t="s">
         <v>795</v>
       </c>
-      <c r="C339" s="7" t="s">
+      <c r="C339" s="5" t="s">
         <v>885</v>
       </c>
       <c r="D339" t="s">
@@ -10364,13 +10907,13 @@
       </c>
     </row>
     <row r="340" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A340" s="5" t="s">
+      <c r="A340" s="7" t="s">
         <v>976</v>
       </c>
-      <c r="B340" s="6" t="s">
+      <c r="B340" s="4" t="s">
         <v>796</v>
       </c>
-      <c r="C340" s="7" t="s">
+      <c r="C340" s="5" t="s">
         <v>886</v>
       </c>
       <c r="D340" t="s">
@@ -10384,13 +10927,13 @@
       </c>
     </row>
     <row r="341" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A341" s="5" t="s">
+      <c r="A341" s="7" t="s">
         <v>977</v>
       </c>
-      <c r="B341" s="6" t="s">
+      <c r="B341" s="4" t="s">
         <v>797</v>
       </c>
-      <c r="C341" s="7" t="s">
+      <c r="C341" s="5" t="s">
         <v>887</v>
       </c>
       <c r="D341" t="s">
@@ -10404,13 +10947,13 @@
       </c>
     </row>
     <row r="342" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A342" s="5" t="s">
+      <c r="A342" s="7" t="s">
         <v>978</v>
       </c>
-      <c r="B342" s="6" t="s">
+      <c r="B342" s="4" t="s">
         <v>798</v>
       </c>
-      <c r="C342" s="7" t="s">
+      <c r="C342" s="5" t="s">
         <v>888</v>
       </c>
       <c r="D342" t="s">
@@ -10424,13 +10967,13 @@
       </c>
     </row>
     <row r="343" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A343" s="5" t="s">
+      <c r="A343" s="7" t="s">
         <v>979</v>
       </c>
-      <c r="B343" s="6" t="s">
+      <c r="B343" s="4" t="s">
         <v>799</v>
       </c>
-      <c r="C343" s="7" t="s">
+      <c r="C343" s="5" t="s">
         <v>889</v>
       </c>
       <c r="D343" t="s">
@@ -10444,19 +10987,19 @@
       </c>
     </row>
     <row r="344" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A344" s="5" t="s">
+      <c r="A344" s="7" t="s">
         <v>980</v>
       </c>
-      <c r="B344" s="6" t="s">
+      <c r="B344" s="4" t="s">
         <v>800</v>
       </c>
-      <c r="C344" s="7" t="s">
+      <c r="C344" s="5" t="s">
         <v>890</v>
       </c>
       <c r="D344" t="s">
         <v>725</v>
       </c>
-      <c r="E344" s="4" t="s">
+      <c r="E344" s="3" t="s">
         <v>202</v>
       </c>
       <c r="F344">
@@ -10464,13 +11007,13 @@
       </c>
     </row>
     <row r="345" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A345" s="5" t="s">
+      <c r="A345" s="7" t="s">
         <v>981</v>
       </c>
-      <c r="B345" s="6" t="s">
+      <c r="B345" s="4" t="s">
         <v>801</v>
       </c>
-      <c r="C345" s="7" t="s">
+      <c r="C345" s="5" t="s">
         <v>891</v>
       </c>
       <c r="D345" t="s">
@@ -10484,13 +11027,13 @@
       </c>
     </row>
     <row r="346" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A346" s="5" t="s">
+      <c r="A346" s="7" t="s">
         <v>982</v>
       </c>
-      <c r="B346" s="6" t="s">
+      <c r="B346" s="4" t="s">
         <v>802</v>
       </c>
-      <c r="C346" s="7" t="s">
+      <c r="C346" s="5" t="s">
         <v>892</v>
       </c>
       <c r="D346" t="s">
@@ -10504,13 +11047,13 @@
       </c>
     </row>
     <row r="347" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A347" s="5" t="s">
+      <c r="A347" s="7" t="s">
         <v>983</v>
       </c>
-      <c r="B347" s="6" t="s">
+      <c r="B347" s="4" t="s">
         <v>803</v>
       </c>
-      <c r="C347" s="7" t="s">
+      <c r="C347" s="5" t="s">
         <v>893</v>
       </c>
       <c r="D347" t="s">
@@ -10524,13 +11067,13 @@
       </c>
     </row>
     <row r="348" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A348" s="5" t="s">
+      <c r="A348" s="7" t="s">
         <v>984</v>
       </c>
-      <c r="B348" s="6" t="s">
+      <c r="B348" s="4" t="s">
         <v>804</v>
       </c>
-      <c r="C348" s="7" t="s">
+      <c r="C348" s="5" t="s">
         <v>894</v>
       </c>
       <c r="D348" t="s">
@@ -10544,13 +11087,13 @@
       </c>
     </row>
     <row r="349" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A349" s="5" t="s">
+      <c r="A349" s="7" t="s">
         <v>985</v>
       </c>
-      <c r="B349" s="6" t="s">
+      <c r="B349" s="4" t="s">
         <v>805</v>
       </c>
-      <c r="C349" s="7" t="s">
+      <c r="C349" s="5" t="s">
         <v>895</v>
       </c>
       <c r="D349" t="s">
@@ -10564,13 +11107,13 @@
       </c>
     </row>
     <row r="350" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A350" s="5" t="s">
+      <c r="A350" s="7" t="s">
         <v>986</v>
       </c>
-      <c r="B350" s="6" t="s">
+      <c r="B350" s="4" t="s">
         <v>806</v>
       </c>
-      <c r="C350" s="7" t="s">
+      <c r="C350" s="5" t="s">
         <v>896</v>
       </c>
       <c r="D350" t="s">
@@ -10584,13 +11127,13 @@
       </c>
     </row>
     <row r="351" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A351" s="5" t="s">
+      <c r="A351" s="7" t="s">
         <v>987</v>
       </c>
-      <c r="B351" s="6" t="s">
+      <c r="B351" s="4" t="s">
         <v>807</v>
       </c>
-      <c r="C351" s="7" t="s">
+      <c r="C351" s="5" t="s">
         <v>897</v>
       </c>
       <c r="D351" t="s">
@@ -10604,13 +11147,13 @@
       </c>
     </row>
     <row r="352" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A352" s="5" t="s">
+      <c r="A352" s="7" t="s">
         <v>988</v>
       </c>
-      <c r="B352" s="6" t="s">
+      <c r="B352" s="4" t="s">
         <v>808</v>
       </c>
-      <c r="C352" s="7" t="s">
+      <c r="C352" s="5" t="s">
         <v>898</v>
       </c>
       <c r="D352" t="s">
@@ -10624,13 +11167,13 @@
       </c>
     </row>
     <row r="353" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A353" s="5" t="s">
+      <c r="A353" s="7" t="s">
         <v>989</v>
       </c>
-      <c r="B353" s="6" t="s">
+      <c r="B353" s="4" t="s">
         <v>809</v>
       </c>
-      <c r="C353" s="7" t="s">
+      <c r="C353" s="5" t="s">
         <v>899</v>
       </c>
       <c r="D353" t="s">
@@ -10644,13 +11187,13 @@
       </c>
     </row>
     <row r="354" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A354" s="5" t="s">
+      <c r="A354" s="7" t="s">
         <v>990</v>
       </c>
-      <c r="B354" s="6" t="s">
+      <c r="B354" s="4" t="s">
         <v>810</v>
       </c>
-      <c r="C354" s="7" t="s">
+      <c r="C354" s="5" t="s">
         <v>900</v>
       </c>
       <c r="D354" t="s">
@@ -10664,13 +11207,13 @@
       </c>
     </row>
     <row r="355" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A355" s="5" t="s">
+      <c r="A355" s="7" t="s">
         <v>991</v>
       </c>
-      <c r="B355" s="6" t="s">
+      <c r="B355" s="4" t="s">
         <v>811</v>
       </c>
-      <c r="C355" s="7" t="s">
+      <c r="C355" s="5" t="s">
         <v>901</v>
       </c>
       <c r="D355" t="s">
@@ -10684,19 +11227,19 @@
       </c>
     </row>
     <row r="356" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A356" s="5" t="s">
+      <c r="A356" s="7" t="s">
         <v>992</v>
       </c>
-      <c r="B356" s="6" t="s">
+      <c r="B356" s="4" t="s">
         <v>812</v>
       </c>
-      <c r="C356" s="7" t="s">
+      <c r="C356" s="5" t="s">
         <v>902</v>
       </c>
       <c r="D356" t="s">
         <v>725</v>
       </c>
-      <c r="E356" s="4" t="s">
+      <c r="E356" s="3" t="s">
         <v>214</v>
       </c>
       <c r="F356">
@@ -10704,13 +11247,13 @@
       </c>
     </row>
     <row r="357" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A357" s="5" t="s">
+      <c r="A357" s="7" t="s">
         <v>993</v>
       </c>
-      <c r="B357" s="6" t="s">
+      <c r="B357" s="4" t="s">
         <v>813</v>
       </c>
-      <c r="C357" s="7" t="s">
+      <c r="C357" s="5" t="s">
         <v>903</v>
       </c>
       <c r="D357" t="s">
@@ -10724,13 +11267,13 @@
       </c>
     </row>
     <row r="358" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A358" s="5" t="s">
+      <c r="A358" s="7" t="s">
         <v>994</v>
       </c>
-      <c r="B358" s="6" t="s">
+      <c r="B358" s="4" t="s">
         <v>814</v>
       </c>
-      <c r="C358" s="7" t="s">
+      <c r="C358" s="5" t="s">
         <v>904</v>
       </c>
       <c r="D358" t="s">
@@ -10744,13 +11287,13 @@
       </c>
     </row>
     <row r="359" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A359" s="5" t="s">
+      <c r="A359" s="7" t="s">
         <v>995</v>
       </c>
-      <c r="B359" s="6" t="s">
+      <c r="B359" s="4" t="s">
         <v>815</v>
       </c>
-      <c r="C359" s="7" t="s">
+      <c r="C359" s="5" t="s">
         <v>905</v>
       </c>
       <c r="D359" t="s">
@@ -10761,6 +11304,1896 @@
       </c>
       <c r="F359">
         <v>2</v>
+      </c>
+    </row>
+    <row r="360" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A360" s="7" t="s">
+        <v>1086</v>
+      </c>
+      <c r="B360" t="s">
+        <v>996</v>
+      </c>
+      <c r="C360" t="str">
+        <f>MID(B360,8,6)</f>
+        <v>GGGGGC</v>
+      </c>
+      <c r="D360" s="3" t="s">
+        <v>1176</v>
+      </c>
+      <c r="E360" t="s">
+        <v>128</v>
+      </c>
+      <c r="F360">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="361" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A361" s="7" t="s">
+        <v>1087</v>
+      </c>
+      <c r="B361" t="s">
+        <v>997</v>
+      </c>
+      <c r="C361" t="str">
+        <f t="shared" ref="C361:C424" si="5">MID(B361,8,6)</f>
+        <v>GGGGAC</v>
+      </c>
+      <c r="D361" s="3" t="s">
+        <v>1176</v>
+      </c>
+      <c r="E361" t="s">
+        <v>131</v>
+      </c>
+      <c r="F361">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="362" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A362" s="7" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B362" t="s">
+        <v>998</v>
+      </c>
+      <c r="C362" t="str">
+        <f t="shared" si="5"/>
+        <v>AAGGAG</v>
+      </c>
+      <c r="D362" s="3" t="s">
+        <v>1176</v>
+      </c>
+      <c r="E362" t="s">
+        <v>132</v>
+      </c>
+      <c r="F362">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="363" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A363" s="7" t="s">
+        <v>1089</v>
+      </c>
+      <c r="B363" t="s">
+        <v>999</v>
+      </c>
+      <c r="C363" t="str">
+        <f t="shared" si="5"/>
+        <v>TAGTGG</v>
+      </c>
+      <c r="D363" s="3" t="s">
+        <v>1176</v>
+      </c>
+      <c r="E363" t="s">
+        <v>133</v>
+      </c>
+      <c r="F363">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="364" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A364" s="7" t="s">
+        <v>1090</v>
+      </c>
+      <c r="B364" t="s">
+        <v>1000</v>
+      </c>
+      <c r="C364" t="str">
+        <f t="shared" si="5"/>
+        <v>GGGGGT</v>
+      </c>
+      <c r="D364" s="3" t="s">
+        <v>1176</v>
+      </c>
+      <c r="E364" t="s">
+        <v>134</v>
+      </c>
+      <c r="F364">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="365" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A365" s="7" t="s">
+        <v>1091</v>
+      </c>
+      <c r="B365" t="s">
+        <v>1001</v>
+      </c>
+      <c r="C365" t="str">
+        <f t="shared" si="5"/>
+        <v>GGCGAC</v>
+      </c>
+      <c r="D365" s="3" t="s">
+        <v>1176</v>
+      </c>
+      <c r="E365" t="s">
+        <v>135</v>
+      </c>
+      <c r="F365">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="366" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A366" s="7" t="s">
+        <v>1092</v>
+      </c>
+      <c r="B366" t="s">
+        <v>1002</v>
+      </c>
+      <c r="C366" t="str">
+        <f t="shared" si="5"/>
+        <v>AAGTGG</v>
+      </c>
+      <c r="D366" s="3" t="s">
+        <v>1176</v>
+      </c>
+      <c r="E366" t="s">
+        <v>136</v>
+      </c>
+      <c r="F366">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="367" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A367" s="7" t="s">
+        <v>1093</v>
+      </c>
+      <c r="B367" t="s">
+        <v>1003</v>
+      </c>
+      <c r="C367" t="str">
+        <f t="shared" si="5"/>
+        <v>TAGGAC</v>
+      </c>
+      <c r="D367" s="3" t="s">
+        <v>1176</v>
+      </c>
+      <c r="E367" t="s">
+        <v>137</v>
+      </c>
+      <c r="F367">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="368" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A368" s="7" t="s">
+        <v>1094</v>
+      </c>
+      <c r="B368" t="s">
+        <v>1004</v>
+      </c>
+      <c r="C368" t="str">
+        <f t="shared" si="5"/>
+        <v>GGGGTC</v>
+      </c>
+      <c r="D368" s="3" t="s">
+        <v>1176</v>
+      </c>
+      <c r="E368" t="s">
+        <v>138</v>
+      </c>
+      <c r="F368">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="369" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A369" s="7" t="s">
+        <v>1095</v>
+      </c>
+      <c r="B369" t="s">
+        <v>1005</v>
+      </c>
+      <c r="C369" t="str">
+        <f t="shared" si="5"/>
+        <v>GGGGAA</v>
+      </c>
+      <c r="D369" s="3" t="s">
+        <v>1176</v>
+      </c>
+      <c r="E369" t="s">
+        <v>139</v>
+      </c>
+      <c r="F369">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="370" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A370" s="7" t="s">
+        <v>1096</v>
+      </c>
+      <c r="B370" t="s">
+        <v>1006</v>
+      </c>
+      <c r="C370" t="str">
+        <f t="shared" si="5"/>
+        <v>AGCTAT</v>
+      </c>
+      <c r="D370" s="3" t="s">
+        <v>1176</v>
+      </c>
+      <c r="E370" t="s">
+        <v>140</v>
+      </c>
+      <c r="F370">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="371" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A371" s="7" t="s">
+        <v>1097</v>
+      </c>
+      <c r="B371" t="s">
+        <v>1007</v>
+      </c>
+      <c r="C371" t="str">
+        <f t="shared" si="5"/>
+        <v>GGCGCG</v>
+      </c>
+      <c r="D371" s="3" t="s">
+        <v>1176</v>
+      </c>
+      <c r="E371" t="s">
+        <v>141</v>
+      </c>
+      <c r="F371">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="372" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A372" s="7" t="s">
+        <v>1098</v>
+      </c>
+      <c r="B372" t="s">
+        <v>1008</v>
+      </c>
+      <c r="C372" t="str">
+        <f t="shared" si="5"/>
+        <v>GGCGCC</v>
+      </c>
+      <c r="D372" s="3" t="s">
+        <v>1176</v>
+      </c>
+      <c r="E372" t="s">
+        <v>142</v>
+      </c>
+      <c r="F372">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="373" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A373" s="7" t="s">
+        <v>1099</v>
+      </c>
+      <c r="B373" t="s">
+        <v>1009</v>
+      </c>
+      <c r="C373" t="str">
+        <f t="shared" si="5"/>
+        <v>GAGTGG</v>
+      </c>
+      <c r="D373" s="3" t="s">
+        <v>1176</v>
+      </c>
+      <c r="E373" t="s">
+        <v>143</v>
+      </c>
+      <c r="F373">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="374" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A374" s="7" t="s">
+        <v>1100</v>
+      </c>
+      <c r="B374" t="s">
+        <v>1010</v>
+      </c>
+      <c r="C374" t="str">
+        <f t="shared" si="5"/>
+        <v>GGGTGG</v>
+      </c>
+      <c r="D374" s="3" t="s">
+        <v>1176</v>
+      </c>
+      <c r="E374" t="s">
+        <v>144</v>
+      </c>
+      <c r="F374">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="375" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A375" s="7" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B375" t="s">
+        <v>1011</v>
+      </c>
+      <c r="C375" t="str">
+        <f t="shared" si="5"/>
+        <v>GGCGTC</v>
+      </c>
+      <c r="D375" s="3" t="s">
+        <v>1176</v>
+      </c>
+      <c r="E375" t="s">
+        <v>145</v>
+      </c>
+      <c r="F375">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="376" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A376" s="7" t="s">
+        <v>1102</v>
+      </c>
+      <c r="B376" t="s">
+        <v>1012</v>
+      </c>
+      <c r="C376" t="str">
+        <f t="shared" si="5"/>
+        <v>GGGGTA</v>
+      </c>
+      <c r="D376" s="3" t="s">
+        <v>1176</v>
+      </c>
+      <c r="E376" t="s">
+        <v>146</v>
+      </c>
+      <c r="F376">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="377" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A377" s="7" t="s">
+        <v>1103</v>
+      </c>
+      <c r="B377" t="s">
+        <v>1013</v>
+      </c>
+      <c r="C377" t="str">
+        <f t="shared" si="5"/>
+        <v>AAGGAC</v>
+      </c>
+      <c r="D377" s="3" t="s">
+        <v>1176</v>
+      </c>
+      <c r="E377" t="s">
+        <v>147</v>
+      </c>
+      <c r="F377">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="378" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A378" s="7" t="s">
+        <v>1104</v>
+      </c>
+      <c r="B378" t="s">
+        <v>1014</v>
+      </c>
+      <c r="C378" t="str">
+        <f t="shared" si="5"/>
+        <v>GGCTAA</v>
+      </c>
+      <c r="D378" s="3" t="s">
+        <v>1176</v>
+      </c>
+      <c r="E378" t="s">
+        <v>148</v>
+      </c>
+      <c r="F378">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="379" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A379" s="7" t="s">
+        <v>1105</v>
+      </c>
+      <c r="B379" t="s">
+        <v>1015</v>
+      </c>
+      <c r="C379" t="str">
+        <f t="shared" si="5"/>
+        <v>GAGGAG</v>
+      </c>
+      <c r="D379" s="3" t="s">
+        <v>1176</v>
+      </c>
+      <c r="E379" t="s">
+        <v>149</v>
+      </c>
+      <c r="F379">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="380" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A380" s="7" t="s">
+        <v>1106</v>
+      </c>
+      <c r="B380" t="s">
+        <v>1016</v>
+      </c>
+      <c r="C380" t="str">
+        <f t="shared" si="5"/>
+        <v>GGCGTA</v>
+      </c>
+      <c r="D380" s="3" t="s">
+        <v>1176</v>
+      </c>
+      <c r="E380" t="s">
+        <v>150</v>
+      </c>
+      <c r="F380">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="381" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A381" s="7" t="s">
+        <v>1107</v>
+      </c>
+      <c r="B381" t="s">
+        <v>1017</v>
+      </c>
+      <c r="C381" t="str">
+        <f t="shared" si="5"/>
+        <v>AAATAC</v>
+      </c>
+      <c r="D381" s="3" t="s">
+        <v>1176</v>
+      </c>
+      <c r="E381" t="s">
+        <v>151</v>
+      </c>
+      <c r="F381">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="382" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A382" s="7" t="s">
+        <v>1108</v>
+      </c>
+      <c r="B382" t="s">
+        <v>1018</v>
+      </c>
+      <c r="C382" t="str">
+        <f t="shared" si="5"/>
+        <v>GCGAGA</v>
+      </c>
+      <c r="D382" s="3" t="s">
+        <v>1176</v>
+      </c>
+      <c r="E382" t="s">
+        <v>152</v>
+      </c>
+      <c r="F382">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="383" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A383" s="7" t="s">
+        <v>1109</v>
+      </c>
+      <c r="B383" t="s">
+        <v>1019</v>
+      </c>
+      <c r="C383" t="str">
+        <f t="shared" si="5"/>
+        <v>GGGGCC</v>
+      </c>
+      <c r="D383" s="3" t="s">
+        <v>1176</v>
+      </c>
+      <c r="E383" t="s">
+        <v>153</v>
+      </c>
+      <c r="F383">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="384" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A384" s="7" t="s">
+        <v>1110</v>
+      </c>
+      <c r="B384" t="s">
+        <v>1020</v>
+      </c>
+      <c r="C384" t="str">
+        <f t="shared" si="5"/>
+        <v>CCGAGA</v>
+      </c>
+      <c r="D384" s="3" t="s">
+        <v>1176</v>
+      </c>
+      <c r="E384" t="s">
+        <v>129</v>
+      </c>
+      <c r="F384">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="385" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A385" s="7" t="s">
+        <v>1111</v>
+      </c>
+      <c r="B385" t="s">
+        <v>1021</v>
+      </c>
+      <c r="C385" t="str">
+        <f t="shared" si="5"/>
+        <v>GGCGAA</v>
+      </c>
+      <c r="D385" s="3" t="s">
+        <v>1176</v>
+      </c>
+      <c r="E385" t="s">
+        <v>154</v>
+      </c>
+      <c r="F385">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="386" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A386" s="7" t="s">
+        <v>1112</v>
+      </c>
+      <c r="B386" t="s">
+        <v>1022</v>
+      </c>
+      <c r="C386" t="str">
+        <f t="shared" si="5"/>
+        <v>GGGGTG</v>
+      </c>
+      <c r="D386" s="3" t="s">
+        <v>1176</v>
+      </c>
+      <c r="E386" t="s">
+        <v>155</v>
+      </c>
+      <c r="F386">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="387" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A387" s="7" t="s">
+        <v>1113</v>
+      </c>
+      <c r="B387" t="s">
+        <v>1023</v>
+      </c>
+      <c r="C387" t="str">
+        <f t="shared" si="5"/>
+        <v>ACTTAC</v>
+      </c>
+      <c r="D387" s="3" t="s">
+        <v>1176</v>
+      </c>
+      <c r="E387" t="s">
+        <v>156</v>
+      </c>
+      <c r="F387">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="388" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A388" s="7" t="s">
+        <v>1114</v>
+      </c>
+      <c r="B388" t="s">
+        <v>1024</v>
+      </c>
+      <c r="C388" t="str">
+        <f t="shared" si="5"/>
+        <v>GAGAGG</v>
+      </c>
+      <c r="D388" s="3" t="s">
+        <v>1176</v>
+      </c>
+      <c r="E388" t="s">
+        <v>157</v>
+      </c>
+      <c r="F388">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="389" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A389" s="7" t="s">
+        <v>1115</v>
+      </c>
+      <c r="B389" t="s">
+        <v>1025</v>
+      </c>
+      <c r="C389" t="str">
+        <f t="shared" si="5"/>
+        <v>AGCTGG</v>
+      </c>
+      <c r="D389" s="3" t="s">
+        <v>1176</v>
+      </c>
+      <c r="E389" t="s">
+        <v>158</v>
+      </c>
+      <c r="F389">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="390" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A390" s="7" t="s">
+        <v>1116</v>
+      </c>
+      <c r="B390" t="s">
+        <v>1026</v>
+      </c>
+      <c r="C390" t="str">
+        <f t="shared" si="5"/>
+        <v>GGGGCG</v>
+      </c>
+      <c r="D390" s="3" t="s">
+        <v>1176</v>
+      </c>
+      <c r="E390" t="s">
+        <v>159</v>
+      </c>
+      <c r="F390">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="391" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A391" s="7" t="s">
+        <v>1117</v>
+      </c>
+      <c r="B391" t="s">
+        <v>1027</v>
+      </c>
+      <c r="C391" t="str">
+        <f t="shared" si="5"/>
+        <v>AAACGC</v>
+      </c>
+      <c r="D391" s="3" t="s">
+        <v>1176</v>
+      </c>
+      <c r="E391" t="s">
+        <v>160</v>
+      </c>
+      <c r="F391">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="392" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A392" s="7" t="s">
+        <v>1118</v>
+      </c>
+      <c r="B392" t="s">
+        <v>1028</v>
+      </c>
+      <c r="C392" t="str">
+        <f t="shared" si="5"/>
+        <v>AGGGAG</v>
+      </c>
+      <c r="D392" s="3" t="s">
+        <v>1176</v>
+      </c>
+      <c r="E392" t="s">
+        <v>161</v>
+      </c>
+      <c r="F392">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="393" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A393" s="7" t="s">
+        <v>1119</v>
+      </c>
+      <c r="B393" t="s">
+        <v>1029</v>
+      </c>
+      <c r="C393" t="str">
+        <f t="shared" si="5"/>
+        <v>ACGAGG</v>
+      </c>
+      <c r="D393" s="3" t="s">
+        <v>1176</v>
+      </c>
+      <c r="E393" t="s">
+        <v>162</v>
+      </c>
+      <c r="F393">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="394" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A394" s="7" t="s">
+        <v>1120</v>
+      </c>
+      <c r="B394" t="s">
+        <v>1030</v>
+      </c>
+      <c r="C394" t="str">
+        <f t="shared" si="5"/>
+        <v>AGCGAG</v>
+      </c>
+      <c r="D394" s="3" t="s">
+        <v>1176</v>
+      </c>
+      <c r="E394" t="s">
+        <v>163</v>
+      </c>
+      <c r="F394">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="395" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A395" s="7" t="s">
+        <v>1121</v>
+      </c>
+      <c r="B395" t="s">
+        <v>1031</v>
+      </c>
+      <c r="C395" t="str">
+        <f t="shared" si="5"/>
+        <v>TAGTCC</v>
+      </c>
+      <c r="D395" s="3" t="s">
+        <v>1176</v>
+      </c>
+      <c r="E395" t="s">
+        <v>164</v>
+      </c>
+      <c r="F395">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="396" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A396" s="7" t="s">
+        <v>1122</v>
+      </c>
+      <c r="B396" t="s">
+        <v>1032</v>
+      </c>
+      <c r="C396" t="str">
+        <f t="shared" si="5"/>
+        <v>AAGAGG</v>
+      </c>
+      <c r="D396" s="3" t="s">
+        <v>1176</v>
+      </c>
+      <c r="E396" t="s">
+        <v>165</v>
+      </c>
+      <c r="F396">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="397" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A397" s="7" t="s">
+        <v>1123</v>
+      </c>
+      <c r="B397" t="s">
+        <v>1033</v>
+      </c>
+      <c r="C397" t="str">
+        <f t="shared" si="5"/>
+        <v>AGCGAC</v>
+      </c>
+      <c r="D397" s="3" t="s">
+        <v>1176</v>
+      </c>
+      <c r="E397" t="s">
+        <v>166</v>
+      </c>
+      <c r="F397">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="398" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A398" s="7" t="s">
+        <v>1124</v>
+      </c>
+      <c r="B398" t="s">
+        <v>1034</v>
+      </c>
+      <c r="C398" t="str">
+        <f t="shared" si="5"/>
+        <v>CCGGAG</v>
+      </c>
+      <c r="D398" s="3" t="s">
+        <v>1176</v>
+      </c>
+      <c r="E398" t="s">
+        <v>167</v>
+      </c>
+      <c r="F398">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="399" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A399" s="7" t="s">
+        <v>1125</v>
+      </c>
+      <c r="B399" t="s">
+        <v>1035</v>
+      </c>
+      <c r="C399" t="str">
+        <f t="shared" si="5"/>
+        <v>ACGGAG</v>
+      </c>
+      <c r="D399" s="3" t="s">
+        <v>1176</v>
+      </c>
+      <c r="E399" t="s">
+        <v>168</v>
+      </c>
+      <c r="F399">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="400" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A400" s="7" t="s">
+        <v>1126</v>
+      </c>
+      <c r="B400" t="s">
+        <v>1036</v>
+      </c>
+      <c r="C400" t="str">
+        <f t="shared" si="5"/>
+        <v>AGGTGG</v>
+      </c>
+      <c r="D400" s="3" t="s">
+        <v>1176</v>
+      </c>
+      <c r="E400" t="s">
+        <v>169</v>
+      </c>
+      <c r="F400">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="401" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A401" s="7" t="s">
+        <v>1127</v>
+      </c>
+      <c r="B401" t="s">
+        <v>1037</v>
+      </c>
+      <c r="C401" t="str">
+        <f t="shared" si="5"/>
+        <v>GGTTCC</v>
+      </c>
+      <c r="D401" s="3" t="s">
+        <v>1176</v>
+      </c>
+      <c r="E401" t="s">
+        <v>170</v>
+      </c>
+      <c r="F401">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="402" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A402" s="7" t="s">
+        <v>1128</v>
+      </c>
+      <c r="B402" t="s">
+        <v>1038</v>
+      </c>
+      <c r="C402" t="str">
+        <f t="shared" si="5"/>
+        <v>TAGGAA</v>
+      </c>
+      <c r="D402" s="3" t="s">
+        <v>1176</v>
+      </c>
+      <c r="E402" t="s">
+        <v>171</v>
+      </c>
+      <c r="F402">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="403" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A403" s="7" t="s">
+        <v>1129</v>
+      </c>
+      <c r="B403" t="s">
+        <v>1039</v>
+      </c>
+      <c r="C403" t="str">
+        <f t="shared" si="5"/>
+        <v>GACTGG</v>
+      </c>
+      <c r="D403" s="3" t="s">
+        <v>1176</v>
+      </c>
+      <c r="E403" t="s">
+        <v>172</v>
+      </c>
+      <c r="F403">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="404" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A404" s="7" t="s">
+        <v>1130</v>
+      </c>
+      <c r="B404" t="s">
+        <v>1040</v>
+      </c>
+      <c r="C404" t="str">
+        <f t="shared" si="5"/>
+        <v>CGGAGG</v>
+      </c>
+      <c r="D404" s="3" t="s">
+        <v>1176</v>
+      </c>
+      <c r="E404" t="s">
+        <v>173</v>
+      </c>
+      <c r="F404">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="405" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A405" s="7" t="s">
+        <v>1131</v>
+      </c>
+      <c r="B405" t="s">
+        <v>1041</v>
+      </c>
+      <c r="C405" t="str">
+        <f t="shared" si="5"/>
+        <v>GGTTAC</v>
+      </c>
+      <c r="D405" s="3" t="s">
+        <v>1176</v>
+      </c>
+      <c r="E405" t="s">
+        <v>174</v>
+      </c>
+      <c r="F405">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="406" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A406" s="7" t="s">
+        <v>1132</v>
+      </c>
+      <c r="B406" t="s">
+        <v>1042</v>
+      </c>
+      <c r="C406" t="str">
+        <f t="shared" si="5"/>
+        <v>GGTTGG</v>
+      </c>
+      <c r="D406" s="3" t="s">
+        <v>1176</v>
+      </c>
+      <c r="E406" t="s">
+        <v>175</v>
+      </c>
+      <c r="F406">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="407" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A407" s="7" t="s">
+        <v>1133</v>
+      </c>
+      <c r="B407" t="s">
+        <v>1043</v>
+      </c>
+      <c r="C407" t="str">
+        <f t="shared" si="5"/>
+        <v>TAGTGC</v>
+      </c>
+      <c r="D407" s="3" t="s">
+        <v>1176</v>
+      </c>
+      <c r="E407" t="s">
+        <v>176</v>
+      </c>
+      <c r="F407">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="408" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A408" s="7" t="s">
+        <v>1134</v>
+      </c>
+      <c r="B408" t="s">
+        <v>1044</v>
+      </c>
+      <c r="C408" t="str">
+        <f t="shared" si="5"/>
+        <v>GGCTGA</v>
+      </c>
+      <c r="D408" s="3" t="s">
+        <v>1176</v>
+      </c>
+      <c r="E408" t="s">
+        <v>177</v>
+      </c>
+      <c r="F408">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="409" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A409" s="7" t="s">
+        <v>1135</v>
+      </c>
+      <c r="B409" t="s">
+        <v>1045</v>
+      </c>
+      <c r="C409" t="str">
+        <f t="shared" si="5"/>
+        <v>AGGGGG</v>
+      </c>
+      <c r="D409" s="3" t="s">
+        <v>1176</v>
+      </c>
+      <c r="E409" t="s">
+        <v>178</v>
+      </c>
+      <c r="F409">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="410" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A410" s="7" t="s">
+        <v>1136</v>
+      </c>
+      <c r="B410" t="s">
+        <v>1046</v>
+      </c>
+      <c r="C410" t="str">
+        <f t="shared" si="5"/>
+        <v>TAGAGA</v>
+      </c>
+      <c r="D410" s="3" t="s">
+        <v>1176</v>
+      </c>
+      <c r="E410" t="s">
+        <v>179</v>
+      </c>
+      <c r="F410">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="411" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A411" s="7" t="s">
+        <v>1137</v>
+      </c>
+      <c r="B411" t="s">
+        <v>1047</v>
+      </c>
+      <c r="C411" t="str">
+        <f t="shared" si="5"/>
+        <v>AAATAT</v>
+      </c>
+      <c r="D411" s="3" t="s">
+        <v>1176</v>
+      </c>
+      <c r="E411" t="s">
+        <v>180</v>
+      </c>
+      <c r="F411">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="412" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A412" s="7" t="s">
+        <v>1138</v>
+      </c>
+      <c r="B412" t="s">
+        <v>1048</v>
+      </c>
+      <c r="C412" t="str">
+        <f t="shared" si="5"/>
+        <v>ACTTAA</v>
+      </c>
+      <c r="D412" s="3" t="s">
+        <v>1176</v>
+      </c>
+      <c r="E412" t="s">
+        <v>181</v>
+      </c>
+      <c r="F412">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="413" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A413" s="7" t="s">
+        <v>1139</v>
+      </c>
+      <c r="B413" t="s">
+        <v>1049</v>
+      </c>
+      <c r="C413" t="str">
+        <f t="shared" si="5"/>
+        <v>GGTTCG</v>
+      </c>
+      <c r="D413" s="3" t="s">
+        <v>1176</v>
+      </c>
+      <c r="E413" t="s">
+        <v>182</v>
+      </c>
+      <c r="F413">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="414" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A414" s="7" t="s">
+        <v>1140</v>
+      </c>
+      <c r="B414" t="s">
+        <v>1050</v>
+      </c>
+      <c r="C414" t="str">
+        <f t="shared" si="5"/>
+        <v>TAGTCG</v>
+      </c>
+      <c r="D414" s="3" t="s">
+        <v>1176</v>
+      </c>
+      <c r="E414" t="s">
+        <v>183</v>
+      </c>
+      <c r="F414">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="415" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A415" s="7" t="s">
+        <v>1141</v>
+      </c>
+      <c r="B415" t="s">
+        <v>1051</v>
+      </c>
+      <c r="C415" t="str">
+        <f t="shared" si="5"/>
+        <v>GGCGGC</v>
+      </c>
+      <c r="D415" s="3" t="s">
+        <v>1176</v>
+      </c>
+      <c r="E415" t="s">
+        <v>184</v>
+      </c>
+      <c r="F415">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="416" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A416" s="7" t="s">
+        <v>1142</v>
+      </c>
+      <c r="B416" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C416" t="str">
+        <f t="shared" si="5"/>
+        <v>AGGGAC</v>
+      </c>
+      <c r="D416" s="3" t="s">
+        <v>1176</v>
+      </c>
+      <c r="E416" t="s">
+        <v>185</v>
+      </c>
+      <c r="F416">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="417" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A417" s="7" t="s">
+        <v>1143</v>
+      </c>
+      <c r="B417" t="s">
+        <v>1053</v>
+      </c>
+      <c r="C417" t="str">
+        <f t="shared" si="5"/>
+        <v>GGTTAA</v>
+      </c>
+      <c r="D417" s="3" t="s">
+        <v>1176</v>
+      </c>
+      <c r="E417" t="s">
+        <v>186</v>
+      </c>
+      <c r="F417">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="418" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A418" s="7" t="s">
+        <v>1144</v>
+      </c>
+      <c r="B418" t="s">
+        <v>1054</v>
+      </c>
+      <c r="C418" t="str">
+        <f t="shared" si="5"/>
+        <v>CGGGGC</v>
+      </c>
+      <c r="D418" s="3" t="s">
+        <v>1176</v>
+      </c>
+      <c r="E418" t="s">
+        <v>187</v>
+      </c>
+      <c r="F418">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="419" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A419" s="7" t="s">
+        <v>1145</v>
+      </c>
+      <c r="B419" t="s">
+        <v>1055</v>
+      </c>
+      <c r="C419" t="str">
+        <f t="shared" si="5"/>
+        <v>AAAATG</v>
+      </c>
+      <c r="D419" s="3" t="s">
+        <v>1176</v>
+      </c>
+      <c r="E419" t="s">
+        <v>188</v>
+      </c>
+      <c r="F419">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="420" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A420" s="7" t="s">
+        <v>1146</v>
+      </c>
+      <c r="B420" t="s">
+        <v>1056</v>
+      </c>
+      <c r="C420" t="str">
+        <f t="shared" si="5"/>
+        <v>AAACGT</v>
+      </c>
+      <c r="D420" s="3" t="s">
+        <v>1176</v>
+      </c>
+      <c r="E420" t="s">
+        <v>189</v>
+      </c>
+      <c r="F420">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="421" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A421" s="7" t="s">
+        <v>1147</v>
+      </c>
+      <c r="B421" t="s">
+        <v>1057</v>
+      </c>
+      <c r="C421" t="str">
+        <f t="shared" si="5"/>
+        <v>ATGGAG</v>
+      </c>
+      <c r="D421" s="3" t="s">
+        <v>1176</v>
+      </c>
+      <c r="E421" t="s">
+        <v>190</v>
+      </c>
+      <c r="F421">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="422" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A422" s="7" t="s">
+        <v>1148</v>
+      </c>
+      <c r="B422" t="s">
+        <v>1058</v>
+      </c>
+      <c r="C422" t="str">
+        <f t="shared" si="5"/>
+        <v>AAATGG</v>
+      </c>
+      <c r="D422" s="3" t="s">
+        <v>1176</v>
+      </c>
+      <c r="E422" t="s">
+        <v>191</v>
+      </c>
+      <c r="F422">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="423" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A423" s="7" t="s">
+        <v>1149</v>
+      </c>
+      <c r="B423" t="s">
+        <v>1059</v>
+      </c>
+      <c r="C423" t="str">
+        <f t="shared" si="5"/>
+        <v>CGGGAC</v>
+      </c>
+      <c r="D423" s="3" t="s">
+        <v>1176</v>
+      </c>
+      <c r="E423" t="s">
+        <v>192</v>
+      </c>
+      <c r="F423">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="424" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A424" s="7" t="s">
+        <v>1150</v>
+      </c>
+      <c r="B424" t="s">
+        <v>1060</v>
+      </c>
+      <c r="C424" t="str">
+        <f t="shared" si="5"/>
+        <v>AAGGAA</v>
+      </c>
+      <c r="D424" s="3" t="s">
+        <v>1176</v>
+      </c>
+      <c r="E424" t="s">
+        <v>193</v>
+      </c>
+      <c r="F424">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="425" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A425" s="7" t="s">
+        <v>1151</v>
+      </c>
+      <c r="B425" t="s">
+        <v>1061</v>
+      </c>
+      <c r="C425" t="str">
+        <f t="shared" ref="C425:C449" si="6">MID(B425,8,6)</f>
+        <v>AAATAA</v>
+      </c>
+      <c r="D425" s="3" t="s">
+        <v>1176</v>
+      </c>
+      <c r="E425" t="s">
+        <v>194</v>
+      </c>
+      <c r="F425">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="426" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A426" s="7" t="s">
+        <v>1152</v>
+      </c>
+      <c r="B426" t="s">
+        <v>1062</v>
+      </c>
+      <c r="C426" t="str">
+        <f t="shared" si="6"/>
+        <v>ACTTCC</v>
+      </c>
+      <c r="D426" s="3" t="s">
+        <v>1176</v>
+      </c>
+      <c r="E426" t="s">
+        <v>195</v>
+      </c>
+      <c r="F426">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="427" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A427" s="7" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B427" t="s">
+        <v>1063</v>
+      </c>
+      <c r="C427" t="str">
+        <f t="shared" si="6"/>
+        <v>AGGGGC</v>
+      </c>
+      <c r="D427" s="3" t="s">
+        <v>1176</v>
+      </c>
+      <c r="E427" t="s">
+        <v>196</v>
+      </c>
+      <c r="F427">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="428" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A428" s="7" t="s">
+        <v>1154</v>
+      </c>
+      <c r="B428" t="s">
+        <v>1064</v>
+      </c>
+      <c r="C428" t="str">
+        <f t="shared" si="6"/>
+        <v>AAGTCC</v>
+      </c>
+      <c r="D428" s="3" t="s">
+        <v>1176</v>
+      </c>
+      <c r="E428" t="s">
+        <v>197</v>
+      </c>
+      <c r="F428">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="429" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A429" s="7" t="s">
+        <v>1155</v>
+      </c>
+      <c r="B429" t="s">
+        <v>1065</v>
+      </c>
+      <c r="C429" t="str">
+        <f t="shared" si="6"/>
+        <v>TAGGAT</v>
+      </c>
+      <c r="D429" s="3" t="s">
+        <v>1176</v>
+      </c>
+      <c r="E429" t="s">
+        <v>198</v>
+      </c>
+      <c r="F429">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="430" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A430" s="7" t="s">
+        <v>1156</v>
+      </c>
+      <c r="B430" t="s">
+        <v>1066</v>
+      </c>
+      <c r="C430" t="str">
+        <f t="shared" si="6"/>
+        <v>GGTTGC</v>
+      </c>
+      <c r="D430" s="3" t="s">
+        <v>1176</v>
+      </c>
+      <c r="E430" t="s">
+        <v>199</v>
+      </c>
+      <c r="F430">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="431" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A431" s="7" t="s">
+        <v>1157</v>
+      </c>
+      <c r="B431" t="s">
+        <v>1067</v>
+      </c>
+      <c r="C431" t="str">
+        <f t="shared" si="6"/>
+        <v>TGCGCT</v>
+      </c>
+      <c r="D431" s="3" t="s">
+        <v>1176</v>
+      </c>
+      <c r="E431" t="s">
+        <v>200</v>
+      </c>
+      <c r="F431">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="432" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A432" s="7" t="s">
+        <v>1158</v>
+      </c>
+      <c r="B432" t="s">
+        <v>1068</v>
+      </c>
+      <c r="C432" t="str">
+        <f t="shared" si="6"/>
+        <v>ACTTAT</v>
+      </c>
+      <c r="D432" s="3" t="s">
+        <v>1176</v>
+      </c>
+      <c r="E432" t="s">
+        <v>130</v>
+      </c>
+      <c r="F432">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="433" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A433" s="7" t="s">
+        <v>1159</v>
+      </c>
+      <c r="B433" t="s">
+        <v>1069</v>
+      </c>
+      <c r="C433" t="str">
+        <f t="shared" si="6"/>
+        <v>AAAATA</v>
+      </c>
+      <c r="D433" s="3" t="s">
+        <v>1176</v>
+      </c>
+      <c r="E433" t="s">
+        <v>201</v>
+      </c>
+      <c r="F433">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="434" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A434" s="7" t="s">
+        <v>1160</v>
+      </c>
+      <c r="B434" t="s">
+        <v>1070</v>
+      </c>
+      <c r="C434" t="str">
+        <f t="shared" si="6"/>
+        <v>GGCGTG</v>
+      </c>
+      <c r="D434" s="3" t="s">
+        <v>1176</v>
+      </c>
+      <c r="E434" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="F434">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="435" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A435" s="7" t="s">
+        <v>1161</v>
+      </c>
+      <c r="B435" t="s">
+        <v>1071</v>
+      </c>
+      <c r="C435" t="str">
+        <f t="shared" si="6"/>
+        <v>GAGGAC</v>
+      </c>
+      <c r="D435" s="3" t="s">
+        <v>1176</v>
+      </c>
+      <c r="E435" t="s">
+        <v>203</v>
+      </c>
+      <c r="F435">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="436" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A436" s="7" t="s">
+        <v>1162</v>
+      </c>
+      <c r="B436" t="s">
+        <v>1072</v>
+      </c>
+      <c r="C436" t="str">
+        <f t="shared" si="6"/>
+        <v>AGCGCG</v>
+      </c>
+      <c r="D436" s="3" t="s">
+        <v>1176</v>
+      </c>
+      <c r="E436" t="s">
+        <v>204</v>
+      </c>
+      <c r="F436">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="437" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A437" s="7" t="s">
+        <v>1163</v>
+      </c>
+      <c r="B437" t="s">
+        <v>1073</v>
+      </c>
+      <c r="C437" t="str">
+        <f t="shared" si="6"/>
+        <v>GGGTCC</v>
+      </c>
+      <c r="D437" s="3" t="s">
+        <v>1176</v>
+      </c>
+      <c r="E437" t="s">
+        <v>205</v>
+      </c>
+      <c r="F437">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="438" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A438" s="7" t="s">
+        <v>1164</v>
+      </c>
+      <c r="B438" t="s">
+        <v>1074</v>
+      </c>
+      <c r="C438" t="str">
+        <f t="shared" si="6"/>
+        <v>GTGGAC</v>
+      </c>
+      <c r="D438" s="3" t="s">
+        <v>1176</v>
+      </c>
+      <c r="E438" t="s">
+        <v>206</v>
+      </c>
+      <c r="F438">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="439" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A439" s="7" t="s">
+        <v>1165</v>
+      </c>
+      <c r="B439" t="s">
+        <v>1075</v>
+      </c>
+      <c r="C439" t="str">
+        <f t="shared" si="6"/>
+        <v>AGCGCC</v>
+      </c>
+      <c r="D439" s="3" t="s">
+        <v>1176</v>
+      </c>
+      <c r="E439" t="s">
+        <v>207</v>
+      </c>
+      <c r="F439">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="440" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A440" s="7" t="s">
+        <v>1166</v>
+      </c>
+      <c r="B440" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C440" t="str">
+        <f t="shared" si="6"/>
+        <v>CAGGAA</v>
+      </c>
+      <c r="D440" s="3" t="s">
+        <v>1176</v>
+      </c>
+      <c r="E440" t="s">
+        <v>208</v>
+      </c>
+      <c r="F440">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="441" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A441" s="7" t="s">
+        <v>1167</v>
+      </c>
+      <c r="B441" t="s">
+        <v>1077</v>
+      </c>
+      <c r="C441" t="str">
+        <f t="shared" si="6"/>
+        <v>TGCGAC</v>
+      </c>
+      <c r="D441" s="3" t="s">
+        <v>1176</v>
+      </c>
+      <c r="E441" t="s">
+        <v>209</v>
+      </c>
+      <c r="F441">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="442" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A442" s="7" t="s">
+        <v>1168</v>
+      </c>
+      <c r="B442" t="s">
+        <v>1078</v>
+      </c>
+      <c r="C442" t="str">
+        <f t="shared" si="6"/>
+        <v>AATTAC</v>
+      </c>
+      <c r="D442" s="3" t="s">
+        <v>1176</v>
+      </c>
+      <c r="E442" t="s">
+        <v>210</v>
+      </c>
+      <c r="F442">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="443" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A443" s="7" t="s">
+        <v>1169</v>
+      </c>
+      <c r="B443" t="s">
+        <v>1079</v>
+      </c>
+      <c r="C443" t="str">
+        <f t="shared" si="6"/>
+        <v>AAACAT</v>
+      </c>
+      <c r="D443" s="3" t="s">
+        <v>1176</v>
+      </c>
+      <c r="E443" t="s">
+        <v>211</v>
+      </c>
+      <c r="F443">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="444" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A444" s="7" t="s">
+        <v>1170</v>
+      </c>
+      <c r="B444" t="s">
+        <v>1080</v>
+      </c>
+      <c r="C444" t="str">
+        <f t="shared" si="6"/>
+        <v>AAAAGG</v>
+      </c>
+      <c r="D444" s="3" t="s">
+        <v>1176</v>
+      </c>
+      <c r="E444" t="s">
+        <v>212</v>
+      </c>
+      <c r="F444">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="445" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A445" s="7" t="s">
+        <v>1171</v>
+      </c>
+      <c r="B445" t="s">
+        <v>1081</v>
+      </c>
+      <c r="C445" t="str">
+        <f t="shared" si="6"/>
+        <v>AAAATT</v>
+      </c>
+      <c r="D445" s="3" t="s">
+        <v>1176</v>
+      </c>
+      <c r="E445" t="s">
+        <v>213</v>
+      </c>
+      <c r="F445">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="446" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A446" s="7" t="s">
+        <v>1172</v>
+      </c>
+      <c r="B446" t="s">
+        <v>1082</v>
+      </c>
+      <c r="C446" t="str">
+        <f t="shared" si="6"/>
+        <v>AAACGG</v>
+      </c>
+      <c r="D446" s="3" t="s">
+        <v>1176</v>
+      </c>
+      <c r="E446" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="F446">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="447" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A447" s="7" t="s">
+        <v>1173</v>
+      </c>
+      <c r="B447" t="s">
+        <v>1083</v>
+      </c>
+      <c r="C447" t="str">
+        <f t="shared" si="6"/>
+        <v>AAGTGC</v>
+      </c>
+      <c r="D447" s="3" t="s">
+        <v>1176</v>
+      </c>
+      <c r="E447" t="s">
+        <v>215</v>
+      </c>
+      <c r="F447">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="448" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A448" s="7" t="s">
+        <v>1174</v>
+      </c>
+      <c r="B448" t="s">
+        <v>1084</v>
+      </c>
+      <c r="C448" t="str">
+        <f t="shared" si="6"/>
+        <v>AAACAA</v>
+      </c>
+      <c r="D448" s="3" t="s">
+        <v>1176</v>
+      </c>
+      <c r="E448" t="s">
+        <v>216</v>
+      </c>
+      <c r="F448">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="449" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A449" s="7" t="s">
+        <v>1175</v>
+      </c>
+      <c r="B449" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C449" t="str">
+        <f t="shared" si="6"/>
+        <v>ACTTCG</v>
+      </c>
+      <c r="D449" s="3" t="s">
+        <v>1176</v>
+      </c>
+      <c r="E449" t="s">
+        <v>217</v>
+      </c>
+      <c r="F449">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/data/Designs/Designs_masterfile.xlsx
+++ b/data/Designs/Designs_masterfile.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HOL428\Documents\Repos\SynbioML\data\Designs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://csiroau-my.sharepoint.com/personal/hol428_csiro_au/Documents/Documents/Repos/SynbioML/data/Designs/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97D5E365-4AFD-4669-8287-89A9E7C8136E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-19310" yWindow="3350" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sequences" sheetId="1" r:id="rId1"/>
@@ -3937,8 +3937,8 @@
   </sheetPr>
   <dimension ref="A1:F449"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A341" workbookViewId="0">
-      <selection activeCell="I362" sqref="I362"/>
+    <sheetView tabSelected="1" topLeftCell="A359" workbookViewId="0">
+      <selection activeCell="C365" sqref="C365"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
